--- a/補講実績.xlsx
+++ b/補講実績.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hokoukanri2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">宮本欠席授業一覧!$A$1:$D$210</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">補講実績明細!$A$16:$L$364</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">補講実績明細!$A$16:$L$375</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="365">
   <si>
     <t>補講対象者</t>
   </si>
@@ -1492,6 +1492,64 @@
     <t>2W</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>情報システムⅡ</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ITP＃１３</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ITP＃１４</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ITP＃１5</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ITP＃１6</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ITP＃１7</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ITP＃１8</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ITP＃１9</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ITP＃20</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ITP＃21</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ITP#12</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Excel入門</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウモン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>第5講 Excel入門　その５</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1501,7 +1559,7 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1973,13 +2031,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA364"/>
+  <dimension ref="A1:AA375"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="14.42578125" style="22"/>
     <col min="4" max="4" width="3.7109375" style="22" bestFit="1" customWidth="1"/>
@@ -1989,7 +2047,7 @@
     <col min="12" max="16384" width="14.42578125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="12">
+    <row r="1" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1997,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="12">
+    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
@@ -2024,7 +2082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="12" outlineLevel="1">
+    <row r="3" spans="1:27" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <v>21091</v>
       </c>
@@ -2035,7 +2093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="12" outlineLevel="1">
+    <row r="4" spans="1:27" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>21090</v>
       </c>
@@ -2046,7 +2104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="12" outlineLevel="1">
+    <row r="5" spans="1:27" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>21036</v>
       </c>
@@ -2054,7 +2112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="12" outlineLevel="1">
+    <row r="6" spans="1:27" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>21049</v>
       </c>
@@ -2062,7 +2120,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="12" outlineLevel="1">
+    <row r="7" spans="1:27" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>21071</v>
       </c>
@@ -2070,7 +2128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="12" outlineLevel="1">
+    <row r="8" spans="1:27" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>21074</v>
       </c>
@@ -2078,7 +2136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="12" outlineLevel="1">
+    <row r="9" spans="1:27" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>21083</v>
       </c>
@@ -2086,7 +2144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="12" outlineLevel="1">
+    <row r="10" spans="1:27" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>21087</v>
       </c>
@@ -2094,7 +2152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="12" outlineLevel="1">
+    <row r="11" spans="1:27" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>21068</v>
       </c>
@@ -2102,7 +2160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="12" outlineLevel="1">
+    <row r="12" spans="1:27" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>21096</v>
       </c>
@@ -2110,7 +2168,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="12" outlineLevel="1">
+    <row r="13" spans="1:27" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
         <v>19055</v>
       </c>
@@ -2118,7 +2176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="13.5">
+    <row r="16" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>2</v>
       </c>
@@ -2169,7 +2227,7 @@
       <c r="Z16" s="23"/>
       <c r="AA16" s="23"/>
     </row>
-    <row r="17" spans="1:11" ht="13.5" hidden="1">
+    <row r="17" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>21036</v>
       </c>
@@ -2199,7 +2257,7 @@
       </c>
       <c r="J17" s="25"/>
     </row>
-    <row r="18" spans="1:11" ht="13.5" hidden="1">
+    <row r="18" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <v>21036</v>
       </c>
@@ -2229,7 +2287,7 @@
       </c>
       <c r="J18" s="25"/>
     </row>
-    <row r="19" spans="1:11" ht="13.5" hidden="1">
+    <row r="19" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>21036</v>
       </c>
@@ -2258,7 +2316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="13.5" hidden="1">
+    <row r="20" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>21036</v>
       </c>
@@ -2287,7 +2345,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="13.5" hidden="1">
+    <row r="21" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>21036</v>
       </c>
@@ -2319,7 +2377,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="13.5" hidden="1">
+    <row r="22" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
         <v>21036</v>
       </c>
@@ -2355,7 +2413,7 @@
         <v>44364</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="13.5" hidden="1">
+    <row r="23" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
         <v>21036</v>
       </c>
@@ -2391,7 +2449,7 @@
         <v>44364</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="13.5" hidden="1">
+    <row r="24" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>21036</v>
       </c>
@@ -2427,7 +2485,7 @@
         <v>44371</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="13.5" hidden="1">
+    <row r="25" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
         <v>21036</v>
       </c>
@@ -2457,7 +2515,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="13.5" hidden="1">
+    <row r="26" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <v>21036</v>
       </c>
@@ -2493,7 +2551,7 @@
         <v>44340</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="13.5" hidden="1">
+    <row r="27" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
         <v>21036</v>
       </c>
@@ -2529,7 +2587,7 @@
         <v>44361</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="13.5" hidden="1">
+    <row r="28" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <v>21036</v>
       </c>
@@ -2565,7 +2623,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="13.5" hidden="1">
+    <row r="29" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <v>21036</v>
       </c>
@@ -2601,7 +2659,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="13.5" hidden="1">
+    <row r="30" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
         <v>21036</v>
       </c>
@@ -2630,7 +2688,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="13.5" hidden="1">
+    <row r="31" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21">
         <v>21036</v>
       </c>
@@ -2660,7 +2718,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="13.5" hidden="1">
+    <row r="32" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21">
         <v>21036</v>
       </c>
@@ -2696,7 +2754,7 @@
         <v>44480</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="13.5" hidden="1">
+    <row r="33" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
         <v>21036</v>
       </c>
@@ -2732,7 +2790,7 @@
         <v>44480</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="13.5" hidden="1">
+    <row r="34" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21">
         <v>21036</v>
       </c>
@@ -2768,7 +2826,7 @@
         <v>44481</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="13.5" hidden="1">
+    <row r="35" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21">
         <v>21036</v>
       </c>
@@ -2797,7 +2855,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="13.5" hidden="1">
+    <row r="36" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21">
         <v>21036</v>
       </c>
@@ -2833,7 +2891,7 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="13.5" hidden="1">
+    <row r="37" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21">
         <v>21036</v>
       </c>
@@ -2868,7 +2926,7 @@
         <v>44489</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="13.5" hidden="1">
+    <row r="38" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21">
         <v>21036</v>
       </c>
@@ -2904,7 +2962,7 @@
         <v>44328</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="13.5" hidden="1">
+    <row r="39" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21">
         <v>21036</v>
       </c>
@@ -2937,7 +2995,7 @@
         <v>44482</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="13.5" hidden="1">
+    <row r="40" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21">
         <v>21036</v>
       </c>
@@ -2970,7 +3028,7 @@
         <v>44489</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="13.5" hidden="1">
+    <row r="41" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21">
         <v>21036</v>
       </c>
@@ -3003,7 +3061,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="13.5" hidden="1">
+    <row r="42" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21">
         <v>21036</v>
       </c>
@@ -3036,7 +3094,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="13.5" hidden="1">
+    <row r="43" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21">
         <v>21036</v>
       </c>
@@ -3069,7 +3127,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="13.5" hidden="1">
+    <row r="44" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21">
         <v>21036</v>
       </c>
@@ -3102,7 +3160,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="13.5" hidden="1">
+    <row r="45" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21">
         <v>21036</v>
       </c>
@@ -3135,7 +3193,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="13.5" hidden="1">
+    <row r="46" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21">
         <v>21036</v>
       </c>
@@ -3165,7 +3223,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="13.5" hidden="1">
+    <row r="47" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21">
         <v>21036</v>
       </c>
@@ -3195,7 +3253,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="13.5" hidden="1">
+    <row r="48" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21">
         <v>21036</v>
       </c>
@@ -3225,7 +3283,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="13.5" hidden="1">
+    <row r="49" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
         <v>21036</v>
       </c>
@@ -3255,7 +3313,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="13.5" hidden="1">
+    <row r="50" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21">
         <v>21036</v>
       </c>
@@ -3282,7 +3340,7 @@
         <v>0.99999999999999822</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="13.5" hidden="1">
+    <row r="51" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21">
         <v>21036</v>
       </c>
@@ -3315,7 +3373,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="13.5" hidden="1">
+    <row r="52" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21">
         <v>21036</v>
       </c>
@@ -3348,7 +3406,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="13.5" hidden="1">
+    <row r="53" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21">
         <v>21036</v>
       </c>
@@ -3378,7 +3436,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="13.5" hidden="1">
+    <row r="54" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21">
         <v>21036</v>
       </c>
@@ -3408,7 +3466,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="13.5" hidden="1">
+    <row r="55" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21">
         <v>21036</v>
       </c>
@@ -3441,7 +3499,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="13.5" hidden="1">
+    <row r="56" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21">
         <v>21036</v>
       </c>
@@ -3466,7 +3524,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="13.5" hidden="1">
+    <row r="57" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21">
         <v>21036</v>
       </c>
@@ -3491,7 +3549,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="13.5" hidden="1">
+    <row r="58" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21">
         <v>21036</v>
       </c>
@@ -3521,7 +3579,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="13.5" hidden="1">
+    <row r="59" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21">
         <v>21036</v>
       </c>
@@ -3553,7 +3611,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="12" hidden="1">
+    <row r="60" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21">
         <v>21036</v>
       </c>
@@ -3566,7 +3624,7 @@
       </c>
       <c r="D60" s="26"/>
     </row>
-    <row r="61" spans="1:11" ht="13.5" hidden="1">
+    <row r="61" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21">
         <v>21036</v>
       </c>
@@ -3598,7 +3656,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="13.5" hidden="1">
+    <row r="62" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21">
         <v>21036</v>
       </c>
@@ -3630,7 +3688,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="13.5" hidden="1">
+    <row r="63" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21">
         <v>21036</v>
       </c>
@@ -3662,7 +3720,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="13.5" hidden="1">
+    <row r="64" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21">
         <v>21036</v>
       </c>
@@ -3695,7 +3753,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="13.5" hidden="1">
+    <row r="65" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21">
         <v>21036</v>
       </c>
@@ -3727,7 +3785,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="13.5" hidden="1">
+    <row r="66" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21">
         <v>21036</v>
       </c>
@@ -3760,7 +3818,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="13.5" hidden="1">
+    <row r="67" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21">
         <v>19055</v>
       </c>
@@ -3796,7 +3854,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="13.5" hidden="1">
+    <row r="68" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21">
         <v>19055</v>
       </c>
@@ -3832,7 +3890,7 @@
         <v>44518</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="13.5" hidden="1">
+    <row r="69" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21">
         <v>19055</v>
       </c>
@@ -3868,7 +3926,7 @@
         <v>44518</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="13.5" hidden="1">
+    <row r="70" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21">
         <v>19055</v>
       </c>
@@ -3904,7 +3962,7 @@
         <v>44518</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="13.5" hidden="1">
+    <row r="71" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21">
         <v>19055</v>
       </c>
@@ -3938,7 +3996,7 @@
       </c>
       <c r="K71" s="26"/>
     </row>
-    <row r="72" spans="1:11" ht="13.5" hidden="1">
+    <row r="72" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="21">
         <v>19055</v>
       </c>
@@ -3972,7 +4030,7 @@
       </c>
       <c r="K72" s="26"/>
     </row>
-    <row r="73" spans="1:11" ht="13.5" hidden="1">
+    <row r="73" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="21">
         <v>19055</v>
       </c>
@@ -4006,7 +4064,7 @@
       </c>
       <c r="K73" s="26"/>
     </row>
-    <row r="74" spans="1:11" ht="13.5" hidden="1">
+    <row r="74" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21">
         <v>19055</v>
       </c>
@@ -4029,7 +4087,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="13.5" hidden="1">
+    <row r="75" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21">
         <v>19055</v>
       </c>
@@ -4048,7 +4106,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="13.5" hidden="1">
+    <row r="76" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21">
         <v>19055</v>
       </c>
@@ -4067,7 +4125,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="13.5" hidden="1">
+    <row r="77" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21">
         <v>19055</v>
       </c>
@@ -4100,7 +4158,7 @@
         <v>44327</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="13.5" hidden="1">
+    <row r="78" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21">
         <v>19055</v>
       </c>
@@ -4133,7 +4191,7 @@
         <v>44334</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="13.5" hidden="1">
+    <row r="79" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21">
         <v>19055</v>
       </c>
@@ -4166,7 +4224,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="12" hidden="1">
+    <row r="80" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="22">
         <v>19055</v>
       </c>
@@ -4196,7 +4254,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="12" hidden="1">
+    <row r="81" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="22">
         <v>19055</v>
       </c>
@@ -4229,7 +4287,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="12" hidden="1">
+    <row r="82" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="22">
         <v>19055</v>
       </c>
@@ -4262,7 +4320,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="12" hidden="1">
+    <row r="83" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="22">
         <v>19055</v>
       </c>
@@ -4295,7 +4353,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="12" hidden="1">
+    <row r="84" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="22">
         <v>19055</v>
       </c>
@@ -4328,7 +4386,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="12" hidden="1">
+    <row r="85" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="22">
         <v>19055</v>
       </c>
@@ -4361,7 +4419,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="12" hidden="1">
+    <row r="86" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="22">
         <v>19055</v>
       </c>
@@ -4394,7 +4452,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="13.5" hidden="1">
+    <row r="87" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21">
         <v>19055</v>
       </c>
@@ -4427,7 +4485,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="13.5" hidden="1">
+    <row r="88" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21">
         <v>19055</v>
       </c>
@@ -4446,7 +4504,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="13.5" hidden="1">
+    <row r="89" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21">
         <v>19055</v>
       </c>
@@ -4476,7 +4534,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="13.5" hidden="1">
+    <row r="90" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21">
         <v>19055</v>
       </c>
@@ -4512,7 +4570,7 @@
         <v>44518</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="13.5" hidden="1">
+    <row r="91" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21">
         <v>19055</v>
       </c>
@@ -4545,7 +4603,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="13.5" hidden="1">
+    <row r="92" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21">
         <v>19055</v>
       </c>
@@ -4578,7 +4636,7 @@
         <v>44520</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="13.5" hidden="1">
+    <row r="93" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21">
         <v>19055</v>
       </c>
@@ -4611,7 +4669,7 @@
         <v>44522</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="13.5" hidden="1">
+    <row r="94" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21">
         <v>19055</v>
       </c>
@@ -4641,7 +4699,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="13.5" hidden="1">
+    <row r="95" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21">
         <v>19055</v>
       </c>
@@ -4674,7 +4732,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="13.5" hidden="1">
+    <row r="96" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21">
         <v>19055</v>
       </c>
@@ -4704,7 +4762,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="13.5" hidden="1">
+    <row r="97" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="21">
         <v>19055</v>
       </c>
@@ -4737,7 +4795,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="13.5" hidden="1">
+    <row r="98" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21">
         <v>19055</v>
       </c>
@@ -4770,7 +4828,7 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="13.5" hidden="1">
+    <row r="99" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="21">
         <v>19055</v>
       </c>
@@ -4806,7 +4864,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="13.5" hidden="1">
+    <row r="100" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="21">
         <v>19055</v>
       </c>
@@ -4842,7 +4900,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="13.5" hidden="1">
+    <row r="101" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="21">
         <v>19055</v>
       </c>
@@ -4861,7 +4919,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="13.5" hidden="1">
+    <row r="102" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="21">
         <v>19055</v>
       </c>
@@ -4897,7 +4955,7 @@
         <v>44383</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="13.5" hidden="1">
+    <row r="103" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="21">
         <v>19055</v>
       </c>
@@ -4930,7 +4988,7 @@
         <v>44476</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="13.5" hidden="1">
+    <row r="104" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="21">
         <v>19055</v>
       </c>
@@ -4949,7 +5007,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="12" hidden="1">
+    <row r="105" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="22">
         <v>19055</v>
       </c>
@@ -4982,7 +5040,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="12" hidden="1">
+    <row r="106" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="22">
         <v>19055</v>
       </c>
@@ -5015,7 +5073,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="12" hidden="1">
+    <row r="107" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="22">
         <v>19055</v>
       </c>
@@ -5048,7 +5106,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="13.5" hidden="1">
+    <row r="108" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21">
         <v>19055</v>
       </c>
@@ -5081,7 +5139,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="13.5" hidden="1">
+    <row r="109" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21">
         <v>19055</v>
       </c>
@@ -5114,7 +5172,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="13.5" hidden="1">
+    <row r="110" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="21">
         <v>19055</v>
       </c>
@@ -5144,7 +5202,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="12" hidden="1">
+    <row r="111" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="22">
         <v>19055</v>
       </c>
@@ -5177,7 +5235,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="12" hidden="1">
+    <row r="112" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="22">
         <v>19055</v>
       </c>
@@ -5199,7 +5257,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="113" spans="1:27" ht="13.5" hidden="1">
+    <row r="113" spans="1:27" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="21">
         <v>19055</v>
       </c>
@@ -5218,7 +5276,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:27" ht="13.5" hidden="1">
+    <row r="114" spans="1:27" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="21">
         <v>19055</v>
       </c>
@@ -5251,7 +5309,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:27" ht="13.5" hidden="1">
+    <row r="115" spans="1:27" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="21">
         <v>19055</v>
       </c>
@@ -5284,7 +5342,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="116" spans="1:27" ht="13.5" hidden="1">
+    <row r="116" spans="1:27" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="21">
         <v>19055</v>
       </c>
@@ -5314,7 +5372,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="117" spans="1:27" ht="12" hidden="1">
+    <row r="117" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="22">
         <v>19055</v>
       </c>
@@ -5347,7 +5405,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="118" spans="1:27" ht="13.5" hidden="1">
+    <row r="118" spans="1:27" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="22">
         <v>19055</v>
       </c>
@@ -5383,7 +5441,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" spans="1:27" ht="13.5" hidden="1">
+    <row r="119" spans="1:27" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="21">
         <v>19055</v>
       </c>
@@ -5416,7 +5474,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:27" ht="13.5" hidden="1">
+    <row r="120" spans="1:27" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="21">
         <v>19055</v>
       </c>
@@ -5449,7 +5507,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:27" ht="13.5" hidden="1">
+    <row r="121" spans="1:27" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="21">
         <v>19055</v>
       </c>
@@ -5482,7 +5540,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:27" ht="13.5" hidden="1">
+    <row r="122" spans="1:27" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="21">
         <v>19055</v>
       </c>
@@ -5515,7 +5573,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:27" ht="13.5" hidden="1">
+    <row r="123" spans="1:27" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="21">
         <v>19055</v>
       </c>
@@ -5538,7 +5596,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="124" spans="1:27" ht="13.5" hidden="1">
+    <row r="124" spans="1:27" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="21">
         <v>19055</v>
       </c>
@@ -5574,7 +5632,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:27" ht="13.5" hidden="1">
+    <row r="125" spans="1:27" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="21">
         <v>19055</v>
       </c>
@@ -5610,7 +5668,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="126" spans="1:27" ht="12" hidden="1">
+    <row r="126" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="21">
         <v>19055</v>
       </c>
@@ -5635,7 +5693,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="127" spans="1:27" ht="12" hidden="1">
+    <row r="127" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="21">
         <v>19055</v>
       </c>
@@ -5660,7 +5718,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="128" spans="1:27" ht="12" hidden="1">
+    <row r="128" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="21">
         <v>19055</v>
       </c>
@@ -5685,7 +5743,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="12" hidden="1">
+    <row r="129" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="21">
         <v>19055</v>
       </c>
@@ -5710,7 +5768,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="12" hidden="1">
+    <row r="130" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="21">
         <v>19055</v>
       </c>
@@ -5735,7 +5793,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="12" hidden="1">
+    <row r="131" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="21">
         <v>19055</v>
       </c>
@@ -5760,7 +5818,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="12" hidden="1">
+    <row r="132" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="21">
         <v>19055</v>
       </c>
@@ -5785,7 +5843,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="12" hidden="1">
+    <row r="133" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="21">
         <v>19055</v>
       </c>
@@ -5810,7 +5868,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="13.5" hidden="1">
+    <row r="134" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="21">
         <v>19055</v>
       </c>
@@ -5845,7 +5903,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="13.5" hidden="1">
+    <row r="135" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="21">
         <v>19055</v>
       </c>
@@ -5880,7 +5938,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="13.5" hidden="1">
+    <row r="136" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="21">
         <v>19055</v>
       </c>
@@ -5915,7 +5973,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="13.5" hidden="1">
+    <row r="137" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="21">
         <v>19055</v>
       </c>
@@ -5950,7 +6008,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="13.5" hidden="1">
+    <row r="138" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="21">
         <v>19055</v>
       </c>
@@ -5986,7 +6044,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="13.5" hidden="1">
+    <row r="139" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="21">
         <v>19055</v>
       </c>
@@ -6022,7 +6080,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="12" hidden="1">
+    <row r="140" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="22">
         <v>19055</v>
       </c>
@@ -6055,7 +6113,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="13.5" hidden="1">
+    <row r="141" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="21">
         <v>19055</v>
       </c>
@@ -6088,7 +6146,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="13.5" hidden="1">
+    <row r="142" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="21">
         <v>19055</v>
       </c>
@@ -6107,7 +6165,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="13.5" hidden="1">
+    <row r="143" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="22">
         <v>19055</v>
       </c>
@@ -6140,7 +6198,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="12" hidden="1">
+    <row r="144" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="22">
         <v>19055</v>
       </c>
@@ -6173,7 +6231,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="13.5" hidden="1">
+    <row r="145" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="21">
         <v>19055</v>
       </c>
@@ -6203,7 +6261,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="13.5" hidden="1">
+    <row r="146" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="21">
         <v>19055</v>
       </c>
@@ -6226,7 +6284,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="13.5" hidden="1">
+    <row r="147" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="21">
         <v>19055</v>
       </c>
@@ -6245,7 +6303,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="13.5" hidden="1">
+    <row r="148" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="21">
         <v>19055</v>
       </c>
@@ -6264,7 +6322,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="13.5" hidden="1">
+    <row r="149" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="21">
         <v>19055</v>
       </c>
@@ -6283,7 +6341,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="13.5" hidden="1">
+    <row r="150" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="21">
         <v>19055</v>
       </c>
@@ -6316,7 +6374,7 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="13.5" hidden="1">
+    <row r="151" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="21">
         <v>19055</v>
       </c>
@@ -6349,7 +6407,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="13.5" hidden="1">
+    <row r="152" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="21">
         <v>19055</v>
       </c>
@@ -6378,7 +6436,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="13.5" hidden="1">
+    <row r="153" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="21">
         <v>19055</v>
       </c>
@@ -6414,7 +6472,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="13.5" hidden="1">
+    <row r="154" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="21">
         <v>19055</v>
       </c>
@@ -6437,7 +6495,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="13.5" hidden="1">
+    <row r="155" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="21">
         <v>19055</v>
       </c>
@@ -6460,7 +6518,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="13.5" hidden="1">
+    <row r="156" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="21">
         <v>19055</v>
       </c>
@@ -6479,7 +6537,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="13.5" hidden="1">
+    <row r="157" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="21">
         <v>19055</v>
       </c>
@@ -6498,7 +6556,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="13.5" hidden="1">
+    <row r="158" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="21">
         <v>19055</v>
       </c>
@@ -6517,7 +6575,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="13.5" hidden="1">
+    <row r="159" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="21">
         <v>19055</v>
       </c>
@@ -6536,7 +6594,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="13.5" hidden="1">
+    <row r="160" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="21">
         <v>19055</v>
       </c>
@@ -6555,7 +6613,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="13.5" hidden="1">
+    <row r="161" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="21">
         <v>19055</v>
       </c>
@@ -6574,7 +6632,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="13.5" hidden="1">
+    <row r="162" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="21">
         <v>19055</v>
       </c>
@@ -6593,7 +6651,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="13.5" hidden="1">
+    <row r="163" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="21">
         <v>19055</v>
       </c>
@@ -6612,7 +6670,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="13.5" hidden="1">
+    <row r="164" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="21">
         <v>19055</v>
       </c>
@@ -6631,7 +6689,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="13.5" hidden="1">
+    <row r="165" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="21">
         <v>21068</v>
       </c>
@@ -6666,7 +6724,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="13.5" hidden="1">
+    <row r="166" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="21">
         <v>21068</v>
       </c>
@@ -6701,7 +6759,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="13.5" hidden="1">
+    <row r="167" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="21">
         <v>21068</v>
       </c>
@@ -6737,7 +6795,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="13.5" hidden="1">
+    <row r="168" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="21">
         <v>21068</v>
       </c>
@@ -6773,7 +6831,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="13.5" hidden="1">
+    <row r="169" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="21">
         <v>21068</v>
       </c>
@@ -6809,7 +6867,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="13.5" hidden="1">
+    <row r="170" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="21">
         <v>21068</v>
       </c>
@@ -6841,7 +6899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="13.5" hidden="1">
+    <row r="171" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="21">
         <v>21068</v>
       </c>
@@ -6874,7 +6932,7 @@
         <v>44476</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="13.5" hidden="1">
+    <row r="172" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="21">
         <v>21068</v>
       </c>
@@ -6907,7 +6965,7 @@
         <v>44476</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="13.5" hidden="1">
+    <row r="173" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="21">
         <v>21068</v>
       </c>
@@ -6940,7 +6998,7 @@
         <v>44480</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="13.5" hidden="1">
+    <row r="174" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="21">
         <v>21068</v>
       </c>
@@ -6966,7 +7024,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="13.5" hidden="1">
+    <row r="175" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="21">
         <v>21068</v>
       </c>
@@ -6987,7 +7045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="13.5" hidden="1">
+    <row r="176" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="21">
         <v>21068</v>
       </c>
@@ -7017,7 +7075,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="13.5" hidden="1">
+    <row r="177" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="21">
         <v>21068</v>
       </c>
@@ -7047,7 +7105,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="13.5" hidden="1">
+    <row r="178" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="21">
         <v>21068</v>
       </c>
@@ -7077,7 +7135,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="13.5" hidden="1">
+    <row r="179" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="21">
         <v>21068</v>
       </c>
@@ -7107,7 +7165,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="13.5" hidden="1">
+    <row r="180" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="21">
         <v>21068</v>
       </c>
@@ -7137,7 +7195,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="13.5" hidden="1">
+    <row r="181" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="21">
         <v>21068</v>
       </c>
@@ -7173,7 +7231,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="13.5">
+    <row r="182" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="21">
         <v>21074</v>
       </c>
@@ -7208,7 +7266,7 @@
         <v>44480</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="13.5">
+    <row r="183" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="21">
         <v>21074</v>
       </c>
@@ -7246,7 +7304,7 @@
         <v>44480</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="13.5">
+    <row r="184" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="21">
         <v>21074</v>
       </c>
@@ -7284,7 +7342,7 @@
         <v>44480</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="13.5">
+    <row r="185" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="21">
         <v>21074</v>
       </c>
@@ -7319,7 +7377,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="13.5">
+    <row r="186" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="21">
         <v>21074</v>
       </c>
@@ -7351,7 +7409,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="13.5">
+    <row r="187" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="21">
         <v>21074</v>
       </c>
@@ -7383,7 +7441,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="13.5">
+    <row r="188" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="21">
         <v>21074</v>
       </c>
@@ -7415,7 +7473,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="13.5">
+    <row r="189" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="21">
         <v>21074</v>
       </c>
@@ -7450,7 +7508,7 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="13.5">
+    <row r="190" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="21">
         <v>21074</v>
       </c>
@@ -7482,7 +7540,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="13.5">
+    <row r="191" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="21">
         <v>21074</v>
       </c>
@@ -7511,7 +7569,7 @@
         <v>0.44444444444444464</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="13.5">
+    <row r="192" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="21">
         <v>21074</v>
       </c>
@@ -7546,7 +7604,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="13.5">
+    <row r="193" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="21">
         <v>21074</v>
       </c>
@@ -7578,7 +7636,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="13.5">
+    <row r="194" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="21">
         <v>21074</v>
       </c>
@@ -7609,7 +7667,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="13.5">
+    <row r="195" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="21">
         <v>21074</v>
       </c>
@@ -7637,7 +7695,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="13.5">
+    <row r="196" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="21">
         <v>21074</v>
       </c>
@@ -7665,7 +7723,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="13.5">
+    <row r="197" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="21">
         <v>21074</v>
       </c>
@@ -7693,7 +7751,7 @@
         <v>44538</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="13.5">
+    <row r="198" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="21">
         <v>21074</v>
       </c>
@@ -7721,7 +7779,7 @@
         <v>44538</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="13.5" hidden="1">
+    <row r="199" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="21">
         <v>21071</v>
       </c>
@@ -7751,7 +7809,7 @@
         <v>44364</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="13.5" hidden="1">
+    <row r="200" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="21">
         <v>21071</v>
       </c>
@@ -7784,7 +7842,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="13.5" hidden="1">
+    <row r="201" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="21">
         <v>21071</v>
       </c>
@@ -7817,7 +7875,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="13.5" hidden="1">
+    <row r="202" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="21">
         <v>21071</v>
       </c>
@@ -7853,7 +7911,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="13.5" hidden="1">
+    <row r="203" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="21">
         <v>21071</v>
       </c>
@@ -7883,7 +7941,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="13.5" hidden="1">
+    <row r="204" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="21">
         <v>21071</v>
       </c>
@@ -7910,7 +7968,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="13.5" hidden="1">
+    <row r="205" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="21">
         <v>21071</v>
       </c>
@@ -7946,7 +8004,7 @@
         <v>44357</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="13.5" hidden="1">
+    <row r="206" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="21">
         <v>21071</v>
       </c>
@@ -7982,7 +8040,7 @@
         <v>44357</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="13.5" hidden="1">
+    <row r="207" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="21">
         <v>21071</v>
       </c>
@@ -8018,7 +8076,7 @@
         <v>44476</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="13.5" hidden="1">
+    <row r="208" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="21">
         <v>21071</v>
       </c>
@@ -8054,7 +8112,7 @@
         <v>44476</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="13.5" hidden="1">
+    <row r="209" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="21">
         <v>21071</v>
       </c>
@@ -8090,7 +8148,7 @@
         <v>44461</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="13.5" hidden="1">
+    <row r="210" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="21">
         <v>21071</v>
       </c>
@@ -8126,7 +8184,7 @@
         <v>44461</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="13.5" hidden="1">
+    <row r="211" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="21">
         <v>21071</v>
       </c>
@@ -8162,7 +8220,7 @@
         <v>44462</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="13.5" hidden="1">
+    <row r="212" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="21">
         <v>21071</v>
       </c>
@@ -8198,7 +8256,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="13.5" hidden="1">
+    <row r="213" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="21">
         <v>21071</v>
       </c>
@@ -8228,7 +8286,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="13.5" hidden="1">
+    <row r="214" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="21">
         <v>21071</v>
       </c>
@@ -8258,7 +8316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="13.5" hidden="1">
+    <row r="215" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="21">
         <v>21071</v>
       </c>
@@ -8290,7 +8348,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="13.5" hidden="1">
+    <row r="216" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="21">
         <v>21071</v>
       </c>
@@ -8322,7 +8380,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="13.5" hidden="1">
+    <row r="217" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="21">
         <v>21071</v>
       </c>
@@ -8358,7 +8416,7 @@
         <v>44349</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="13.5" hidden="1">
+    <row r="218" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="21">
         <v>21071</v>
       </c>
@@ -8388,7 +8446,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="13.5" hidden="1">
+    <row r="219" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="21">
         <v>21071</v>
       </c>
@@ -8424,7 +8482,7 @@
         <v>44356</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="13.5" hidden="1">
+    <row r="220" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="21">
         <v>21071</v>
       </c>
@@ -8460,7 +8518,7 @@
         <v>44363</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="13.5" hidden="1">
+    <row r="221" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="21">
         <v>21071</v>
       </c>
@@ -8482,7 +8540,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="13.5" hidden="1">
+    <row r="222" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="21">
         <v>21071</v>
       </c>
@@ -8514,7 +8572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="13.5" hidden="1">
+    <row r="223" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="21">
         <v>21071</v>
       </c>
@@ -8546,7 +8604,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="13.5" hidden="1">
+    <row r="224" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="21">
         <v>21071</v>
       </c>
@@ -8578,7 +8636,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="13.5" hidden="1">
+    <row r="225" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="21">
         <v>21071</v>
       </c>
@@ -8612,7 +8670,7 @@
       </c>
       <c r="K225" s="26"/>
     </row>
-    <row r="226" spans="1:11" ht="13.5" hidden="1">
+    <row r="226" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="21">
         <v>21071</v>
       </c>
@@ -8646,7 +8704,7 @@
       </c>
       <c r="K226" s="21"/>
     </row>
-    <row r="227" spans="1:11" ht="13.5" hidden="1">
+    <row r="227" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="21">
         <v>21071</v>
       </c>
@@ -8682,7 +8740,7 @@
         <v>44375</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="13.5" hidden="1">
+    <row r="228" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="21">
         <v>21071</v>
       </c>
@@ -8718,7 +8776,7 @@
         <v>44340</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="13.5" hidden="1">
+    <row r="229" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="21">
         <v>21071</v>
       </c>
@@ -8754,7 +8812,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="13.5" hidden="1">
+    <row r="230" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="21">
         <v>21071</v>
       </c>
@@ -8790,7 +8848,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="13.5" hidden="1">
+    <row r="231" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="21">
         <v>21071</v>
       </c>
@@ -8822,7 +8880,7 @@
         <v>44361</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="13.5" hidden="1">
+    <row r="232" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="21">
         <v>21071</v>
       </c>
@@ -8855,7 +8913,7 @@
         <v>44481</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="13.5" hidden="1">
+    <row r="233" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="21">
         <v>21071</v>
       </c>
@@ -8888,7 +8946,7 @@
         <v>44326</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="13.5" hidden="1">
+    <row r="234" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="21">
         <v>21071</v>
       </c>
@@ -8921,7 +8979,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="13.5" hidden="1">
+    <row r="235" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="21">
         <v>21071</v>
       </c>
@@ -8954,7 +9012,7 @@
         <v>44340</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="13.5" hidden="1">
+    <row r="236" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="21">
         <v>21071</v>
       </c>
@@ -8987,7 +9045,7 @@
         <v>44344</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="13.5" hidden="1">
+    <row r="237" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="21">
         <v>21071</v>
       </c>
@@ -9023,7 +9081,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="13.5" hidden="1">
+    <row r="238" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="21">
         <v>21071</v>
       </c>
@@ -9056,7 +9114,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="13.5" hidden="1">
+    <row r="239" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="21">
         <v>21071</v>
       </c>
@@ -9089,7 +9147,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="13.5" hidden="1">
+    <row r="240" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="21">
         <v>21071</v>
       </c>
@@ -9119,7 +9177,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="13.5" hidden="1">
+    <row r="241" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="21">
         <v>21071</v>
       </c>
@@ -9149,7 +9207,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="13.5" hidden="1">
+    <row r="242" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="21">
         <v>21071</v>
       </c>
@@ -9181,7 +9239,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="13.5" hidden="1">
+    <row r="243" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="21">
         <v>21071</v>
       </c>
@@ -9205,7 +9263,7 @@
         <v>44364</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="13.5" hidden="1">
+    <row r="244" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="21">
         <v>21071</v>
       </c>
@@ -9226,7 +9284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="13.5" hidden="1">
+    <row r="245" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A245" s="21">
         <v>21090</v>
       </c>
@@ -9256,7 +9314,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="13.5" hidden="1">
+    <row r="246" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A246" s="21">
         <v>21090</v>
       </c>
@@ -9285,7 +9343,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="13.5" hidden="1">
+    <row r="247" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A247" s="21">
         <v>21090</v>
       </c>
@@ -9318,7 +9376,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="13.5" hidden="1">
+    <row r="248" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A248" s="21">
         <v>21090</v>
       </c>
@@ -9354,7 +9412,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="13.5" hidden="1">
+    <row r="249" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A249" s="21">
         <v>21090</v>
       </c>
@@ -9387,7 +9445,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="13.5" hidden="1">
+    <row r="250" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A250" s="21">
         <v>21090</v>
       </c>
@@ -9417,7 +9475,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="13.5" hidden="1">
+    <row r="251" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A251" s="21">
         <v>21090</v>
       </c>
@@ -9450,7 +9508,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="13.5" hidden="1">
+    <row r="252" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A252" s="21">
         <v>21090</v>
       </c>
@@ -9486,7 +9544,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="13.5" hidden="1">
+    <row r="253" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="21">
         <v>21087</v>
       </c>
@@ -9518,7 +9576,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="13.5" hidden="1">
+    <row r="254" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="21">
         <v>21087</v>
       </c>
@@ -9550,7 +9608,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="13.5" hidden="1">
+    <row r="255" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="21">
         <v>21087</v>
       </c>
@@ -9582,7 +9640,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="13.5" hidden="1">
+    <row r="256" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="21">
         <v>21087</v>
       </c>
@@ -9614,7 +9672,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="13.5" hidden="1">
+    <row r="257" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="21">
         <v>21087</v>
       </c>
@@ -9646,7 +9704,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="13.5" hidden="1">
+    <row r="258" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="21">
         <v>21087</v>
       </c>
@@ -9681,7 +9739,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="259" spans="1:12" ht="13.5" hidden="1">
+    <row r="259" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="21">
         <v>21087</v>
       </c>
@@ -9717,7 +9775,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="260" spans="1:12" ht="13.5" hidden="1">
+    <row r="260" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="21">
         <v>21087</v>
       </c>
@@ -9753,7 +9811,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="261" spans="1:12" ht="13.5" hidden="1">
+    <row r="261" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="21">
         <v>21087</v>
       </c>
@@ -9786,7 +9844,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="262" spans="1:12" ht="13.5" hidden="1">
+    <row r="262" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="21">
         <v>21087</v>
       </c>
@@ -9819,7 +9877,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="263" spans="1:12" ht="13.5" hidden="1">
+    <row r="263" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="21">
         <v>21087</v>
       </c>
@@ -9855,7 +9913,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="264" spans="1:12" ht="13.5" hidden="1">
+    <row r="264" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="21">
         <v>21087</v>
       </c>
@@ -9894,7 +9952,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="265" spans="1:12" ht="13.5" hidden="1">
+    <row r="265" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="21">
         <v>21087</v>
       </c>
@@ -9933,7 +9991,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="266" spans="1:12" ht="13.5" hidden="1">
+    <row r="266" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="21">
         <v>21087</v>
       </c>
@@ -9969,7 +10027,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="267" spans="1:12" ht="13.5" hidden="1">
+    <row r="267" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="21">
         <v>21087</v>
       </c>
@@ -10005,7 +10063,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="268" spans="1:12" ht="13.5" hidden="1">
+    <row r="268" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="21">
         <v>21087</v>
       </c>
@@ -10041,7 +10099,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="13.5" hidden="1">
+    <row r="269" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="21">
         <v>21087</v>
       </c>
@@ -10077,7 +10135,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="270" spans="1:12" ht="13.5" hidden="1">
+    <row r="270" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="21">
         <v>21087</v>
       </c>
@@ -10116,7 +10174,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="271" spans="1:12" ht="13.5" hidden="1">
+    <row r="271" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="21">
         <v>21087</v>
       </c>
@@ -10155,7 +10213,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="272" spans="1:12" ht="13.5" hidden="1">
+    <row r="272" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="21">
         <v>21087</v>
       </c>
@@ -10191,7 +10249,7 @@
         <v>44350</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="13.5" hidden="1">
+    <row r="273" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="21">
         <v>21087</v>
       </c>
@@ -10227,7 +10285,7 @@
         <v>44350</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="13.5" hidden="1">
+    <row r="274" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="21">
         <v>21087</v>
       </c>
@@ -10263,7 +10321,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="13.5" hidden="1">
+    <row r="275" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="21">
         <v>21087</v>
       </c>
@@ -10299,7 +10357,7 @@
         <v>44358</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="13.5" hidden="1">
+    <row r="276" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="21">
         <v>21087</v>
       </c>
@@ -10332,7 +10390,7 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="13.5" hidden="1">
+    <row r="277" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="21">
         <v>21087</v>
       </c>
@@ -10362,7 +10420,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="13.5" hidden="1">
+    <row r="278" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="21">
         <v>21087</v>
       </c>
@@ -10392,7 +10450,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="13.5" hidden="1">
+    <row r="279" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A279" s="21">
         <v>21090</v>
       </c>
@@ -10428,7 +10486,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="12" hidden="1">
+    <row r="280" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="22">
         <v>21068</v>
       </c>
@@ -10460,7 +10518,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="13.5" hidden="1">
+    <row r="281" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A281" s="21">
         <v>21090</v>
       </c>
@@ -10496,7 +10554,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="13.5" hidden="1">
+    <row r="282" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="21">
         <v>19055</v>
       </c>
@@ -10515,7 +10573,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="13.5" hidden="1">
+    <row r="283" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="21">
         <v>19055</v>
       </c>
@@ -10534,7 +10592,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="13.5" hidden="1">
+    <row r="284" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="21">
         <v>21087</v>
       </c>
@@ -10567,7 +10625,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="12" hidden="1">
+    <row r="285" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="21">
         <v>21036</v>
       </c>
@@ -10580,7 +10638,7 @@
       <c r="E285" s="27"/>
       <c r="F285" s="27"/>
     </row>
-    <row r="286" spans="1:11" ht="13.5" hidden="1">
+    <row r="286" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="21">
         <v>21087</v>
       </c>
@@ -10613,7 +10671,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="13.5">
+    <row r="287" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="21">
         <v>21074</v>
       </c>
@@ -10648,7 +10706,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="13.5">
+    <row r="288" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="21">
         <v>21074</v>
       </c>
@@ -10682,7 +10740,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="13.5" hidden="1">
+    <row r="289" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="21">
         <v>19055</v>
       </c>
@@ -10718,7 +10776,7 @@
         <v>44322</v>
       </c>
     </row>
-    <row r="290" spans="1:12" ht="13.5" hidden="1">
+    <row r="290" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="21">
         <v>19055</v>
       </c>
@@ -10757,7 +10815,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="13.5" hidden="1">
+    <row r="291" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="21">
         <v>19055</v>
       </c>
@@ -10797,7 +10855,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="13.5" hidden="1">
+    <row r="292" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="21">
         <v>19055</v>
       </c>
@@ -10833,7 +10891,7 @@
         <v>44334</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="13.5" hidden="1">
+    <row r="293" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="21">
         <v>19055</v>
       </c>
@@ -10869,7 +10927,7 @@
         <v>44343</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="13.5" hidden="1">
+    <row r="294" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="21">
         <v>21087</v>
       </c>
@@ -10895,7 +10953,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="13.5" hidden="1">
+    <row r="295" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="22">
         <v>21087</v>
       </c>
@@ -10921,7 +10979,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="13.5" hidden="1">
+    <row r="296" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="22">
         <v>21087</v>
       </c>
@@ -10947,7 +11005,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="13.5" hidden="1">
+    <row r="297" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="22">
         <v>21087</v>
       </c>
@@ -10973,7 +11031,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="13.5" hidden="1">
+    <row r="298" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="22">
         <v>21087</v>
       </c>
@@ -10999,7 +11057,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="13.5" hidden="1">
+    <row r="299" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="22">
         <v>21087</v>
       </c>
@@ -11025,7 +11083,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="13.5" hidden="1">
+    <row r="300" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="21">
         <v>21071</v>
       </c>
@@ -11058,7 +11116,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="13.5" hidden="1">
+    <row r="301" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="21">
         <v>21071</v>
       </c>
@@ -11091,7 +11149,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="302" spans="1:12" ht="13.5" hidden="1">
+    <row r="302" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="21">
         <v>21087</v>
       </c>
@@ -11124,7 +11182,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="303" spans="1:12" ht="13.5" hidden="1">
+    <row r="303" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="21">
         <v>21068</v>
       </c>
@@ -11160,7 +11218,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="13.5" hidden="1">
+    <row r="304" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="22">
         <v>21068</v>
       </c>
@@ -11193,7 +11251,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="13.5" hidden="1">
+    <row r="305" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="22">
         <v>21036</v>
       </c>
@@ -11226,7 +11284,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="13.5" hidden="1">
+    <row r="306" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="22">
         <v>21068</v>
       </c>
@@ -11259,7 +11317,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="13.5" hidden="1">
+    <row r="307" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="21">
         <v>19055</v>
       </c>
@@ -11295,7 +11353,7 @@
         <v>44350</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="13.5" hidden="1">
+    <row r="308" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="22">
         <v>21036</v>
       </c>
@@ -11322,7 +11380,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="13.5" hidden="1">
+    <row r="309" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="22">
         <v>21036</v>
       </c>
@@ -11349,7 +11407,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="13.5" hidden="1">
+    <row r="310" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="22">
         <v>21036</v>
       </c>
@@ -11376,7 +11434,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="13.5" hidden="1">
+    <row r="311" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="22">
         <v>21036</v>
       </c>
@@ -11403,7 +11461,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="13.5" hidden="1">
+    <row r="312" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="22">
         <v>21036</v>
       </c>
@@ -11430,7 +11488,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="13.5" hidden="1">
+    <row r="313" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A313" s="22">
         <v>21090</v>
       </c>
@@ -11463,7 +11521,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="12" hidden="1">
+    <row r="314" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="22">
         <v>21090</v>
       </c>
@@ -11496,7 +11554,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="12" hidden="1">
+    <row r="315" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="22">
         <v>21090</v>
       </c>
@@ -11529,7 +11587,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="12" hidden="1">
+    <row r="316" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="22">
         <v>21068</v>
       </c>
@@ -11562,7 +11620,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="12" hidden="1">
+    <row r="317" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="22">
         <v>21068</v>
       </c>
@@ -11595,7 +11653,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="13.5" hidden="1">
+    <row r="318" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="21">
         <v>19055</v>
       </c>
@@ -11631,7 +11689,7 @@
         <v>44364</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="13.5" hidden="1">
+    <row r="319" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="21">
         <v>19055</v>
       </c>
@@ -11667,7 +11725,7 @@
         <v>44369</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="12" hidden="1">
+    <row r="320" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="22">
         <v>21049</v>
       </c>
@@ -11700,7 +11758,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="321" spans="1:11" ht="12" hidden="1">
+    <row r="321" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="22">
         <v>21049</v>
       </c>
@@ -11725,7 +11783,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="13.5" hidden="1">
+    <row r="322" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="21">
         <v>19055</v>
       </c>
@@ -11761,7 +11819,7 @@
         <v>44371</v>
       </c>
     </row>
-    <row r="323" spans="1:11" ht="13.5" hidden="1">
+    <row r="323" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="21">
         <v>19055</v>
       </c>
@@ -11797,7 +11855,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="324" spans="1:11" ht="13.5" hidden="1">
+    <row r="324" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="21">
         <v>19055</v>
       </c>
@@ -11833,7 +11891,7 @@
         <v>44383</v>
       </c>
     </row>
-    <row r="325" spans="1:11" ht="12" hidden="1">
+    <row r="325" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="22">
         <v>21068</v>
       </c>
@@ -11866,7 +11924,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="326" spans="1:11" ht="12" hidden="1">
+    <row r="326" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="22">
         <v>21096</v>
       </c>
@@ -11899,7 +11957,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="327" spans="1:11" ht="13.5" hidden="1">
+    <row r="327" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="22">
         <v>21068</v>
       </c>
@@ -11932,7 +11990,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="12" hidden="1">
+    <row r="328" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="22">
         <v>21096</v>
       </c>
@@ -11965,7 +12023,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="329" spans="1:11" ht="13.5" hidden="1">
+    <row r="329" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A329" s="22">
         <v>21090</v>
       </c>
@@ -11998,7 +12056,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="12" hidden="1">
+    <row r="330" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="22">
         <v>21068</v>
       </c>
@@ -12031,7 +12089,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="13.5" hidden="1">
+    <row r="331" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="22">
         <v>21071</v>
       </c>
@@ -12061,7 +12119,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="12" hidden="1">
+    <row r="332" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="22">
         <v>21068</v>
       </c>
@@ -12088,7 +12146,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="12" hidden="1">
+    <row r="333" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="22">
         <v>21091</v>
       </c>
@@ -12118,7 +12176,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="13.5" hidden="1">
+    <row r="334" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="21">
         <v>19055</v>
       </c>
@@ -12154,7 +12212,7 @@
         <v>44385</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="13.5" hidden="1">
+    <row r="335" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="21">
         <v>19055</v>
       </c>
@@ -12190,7 +12248,7 @@
         <v>44390</v>
       </c>
     </row>
-    <row r="336" spans="1:11" ht="12" hidden="1">
+    <row r="336" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="22">
         <v>21068</v>
       </c>
@@ -12217,7 +12275,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="337" spans="1:11" ht="13.5" hidden="1">
+    <row r="337" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="21">
         <v>19055</v>
       </c>
@@ -12253,7 +12311,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="12" hidden="1">
+    <row r="338" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="22">
         <v>21068</v>
       </c>
@@ -12286,7 +12344,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="12" hidden="1">
+    <row r="339" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="22">
         <v>21068</v>
       </c>
@@ -12313,7 +12371,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="340" spans="1:11" ht="12" hidden="1">
+    <row r="340" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="22">
         <v>21068</v>
       </c>
@@ -12343,7 +12401,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="341" spans="1:11" ht="12" hidden="1">
+    <row r="341" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="22">
         <v>21068</v>
       </c>
@@ -12376,7 +12434,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="12" hidden="1">
+    <row r="342" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="22">
         <v>21068</v>
       </c>
@@ -12398,7 +12456,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="343" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+    <row r="343" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="22">
         <v>21068</v>
       </c>
@@ -12413,7 +12471,7 @@
       <c r="E343" s="38"/>
       <c r="F343" s="38"/>
     </row>
-    <row r="344" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+    <row r="344" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="22">
         <v>21087</v>
       </c>
@@ -12443,7 +12501,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+    <row r="345" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="21">
         <v>19055</v>
       </c>
@@ -12479,7 +12537,7 @@
         <v>44397</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+    <row r="346" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="22">
         <v>21068</v>
       </c>
@@ -12512,7 +12570,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+    <row r="347" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="21">
         <v>21068</v>
       </c>
@@ -12540,7 +12598,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="348" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+    <row r="348" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="22">
         <v>21091</v>
       </c>
@@ -12562,7 +12620,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+    <row r="349" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="22">
         <v>21091</v>
       </c>
@@ -12584,7 +12642,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+    <row r="350" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="22">
         <v>21096</v>
       </c>
@@ -12606,7 +12664,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="351" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+    <row r="351" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="22">
         <v>21096</v>
       </c>
@@ -12628,7 +12686,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="352" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+    <row r="352" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="21">
         <v>19055</v>
       </c>
@@ -12664,7 +12722,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="353" spans="1:12" ht="15.75" hidden="1" customHeight="1">
+    <row r="353" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="21">
         <v>19055</v>
       </c>
@@ -12700,7 +12758,7 @@
         <v>44322</v>
       </c>
     </row>
-    <row r="354" spans="1:12" ht="15.75" hidden="1" customHeight="1">
+    <row r="354" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="21">
         <v>19055</v>
       </c>
@@ -12736,7 +12794,7 @@
         <v>44481</v>
       </c>
     </row>
-    <row r="355" spans="1:12" ht="15.75" hidden="1" customHeight="1">
+    <row r="355" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="21">
         <v>19055</v>
       </c>
@@ -12775,7 +12833,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="356" spans="1:12" ht="15.75" hidden="1" customHeight="1">
+    <row r="356" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="21">
         <v>19055</v>
       </c>
@@ -12814,7 +12872,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="357" spans="1:12" ht="15.75" hidden="1" customHeight="1">
+    <row r="357" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="21">
         <v>19055</v>
       </c>
@@ -12847,7 +12905,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="358" spans="1:12" ht="15.75" hidden="1" customHeight="1">
+    <row r="358" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="21">
         <v>19055</v>
       </c>
@@ -12880,7 +12938,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="359" spans="1:12" ht="15.75" hidden="1" customHeight="1">
+    <row r="359" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="22">
         <v>21068</v>
       </c>
@@ -12902,7 +12960,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="360" spans="1:12" ht="15.75" hidden="1" customHeight="1">
+    <row r="360" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="22">
         <v>19055</v>
       </c>
@@ -12924,7 +12982,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="361" spans="1:12" ht="15.75" hidden="1" customHeight="1">
+    <row r="361" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="22">
         <v>19055</v>
       </c>
@@ -12946,7 +13004,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="362" spans="1:12" ht="15.75" hidden="1" customHeight="1">
+    <row r="362" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="22">
         <v>19055</v>
       </c>
@@ -12965,7 +13023,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="363" spans="1:12" ht="15.75" hidden="1" customHeight="1">
+    <row r="363" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="22">
         <v>19055</v>
       </c>
@@ -12984,7 +13042,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="364" spans="1:12" ht="15.75" hidden="1" customHeight="1">
+    <row r="364" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="22">
         <v>19055</v>
       </c>
@@ -13003,11 +13061,209 @@
         <v>347</v>
       </c>
     </row>
+    <row r="365" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A365" s="22">
+        <v>19055</v>
+      </c>
+      <c r="B365" s="22" t="str">
+        <f t="shared" ref="B365:B375" si="52">VLOOKUP(A365,$A$3:$B$13,2,FALSE)</f>
+        <v>宮本　希</v>
+      </c>
+      <c r="C365" s="50">
+        <v>44606</v>
+      </c>
+      <c r="I365" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="J365" s="22" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="22">
+        <v>19055</v>
+      </c>
+      <c r="B366" s="22" t="str">
+        <f t="shared" si="52"/>
+        <v>宮本　希</v>
+      </c>
+      <c r="C366" s="50">
+        <v>44606</v>
+      </c>
+      <c r="I366" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="J366" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A367" s="22">
+        <v>19055</v>
+      </c>
+      <c r="B367" s="22" t="str">
+        <f t="shared" si="52"/>
+        <v>宮本　希</v>
+      </c>
+      <c r="C367" s="50">
+        <v>44606</v>
+      </c>
+      <c r="I367" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="J367" s="22" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A368" s="22">
+        <v>19055</v>
+      </c>
+      <c r="B368" s="22" t="str">
+        <f t="shared" si="52"/>
+        <v>宮本　希</v>
+      </c>
+      <c r="C368" s="50">
+        <v>44606</v>
+      </c>
+      <c r="I368" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="J368" s="22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A369" s="22">
+        <v>19055</v>
+      </c>
+      <c r="B369" s="22" t="str">
+        <f t="shared" si="52"/>
+        <v>宮本　希</v>
+      </c>
+      <c r="C369" s="50">
+        <v>44606</v>
+      </c>
+      <c r="I369" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="J369" s="22" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A370" s="22">
+        <v>19055</v>
+      </c>
+      <c r="B370" s="22" t="str">
+        <f t="shared" si="52"/>
+        <v>宮本　希</v>
+      </c>
+      <c r="C370" s="50">
+        <v>44608</v>
+      </c>
+      <c r="I370" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="J370" s="22" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A371" s="22">
+        <v>19055</v>
+      </c>
+      <c r="B371" s="22" t="str">
+        <f t="shared" si="52"/>
+        <v>宮本　希</v>
+      </c>
+      <c r="C371" s="50">
+        <v>44608</v>
+      </c>
+      <c r="I371" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="J371" s="22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="22">
+        <v>19055</v>
+      </c>
+      <c r="B372" s="22" t="str">
+        <f t="shared" si="52"/>
+        <v>宮本　希</v>
+      </c>
+      <c r="C372" s="50">
+        <v>44608</v>
+      </c>
+      <c r="I372" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="J372" s="22" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="22">
+        <v>19055</v>
+      </c>
+      <c r="B373" s="22" t="str">
+        <f t="shared" si="52"/>
+        <v>宮本　希</v>
+      </c>
+      <c r="C373" s="50">
+        <v>44608</v>
+      </c>
+      <c r="I373" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="J373" s="22" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="22">
+        <v>19055</v>
+      </c>
+      <c r="B374" s="22" t="str">
+        <f t="shared" si="52"/>
+        <v>宮本　希</v>
+      </c>
+      <c r="C374" s="50">
+        <v>44608</v>
+      </c>
+      <c r="I374" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="J374" s="22" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="22">
+        <v>21090</v>
+      </c>
+      <c r="B375" s="22" t="str">
+        <f t="shared" si="52"/>
+        <v>中原　遥翔</v>
+      </c>
+      <c r="C375" s="50">
+        <v>44609</v>
+      </c>
+      <c r="I375" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="J375" s="22" t="s">
+        <v>364</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A16:L364">
+  <autoFilter ref="A16:L375">
     <filterColumn colId="1">
       <filters>
-        <filter val="佐藤　大起"/>
+        <filter val="中原　遥翔"/>
       </filters>
     </filterColumn>
     <sortState ref="A182:L288">
@@ -13042,13 +13298,13 @@
       <selection pane="topRight" activeCell="S59" sqref="S59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="32" width="5.85546875" customWidth="1"/>
     <col min="33" max="88" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" ht="12.75">
+    <row r="1" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>218</v>
       </c>
@@ -13066,7 +13322,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:88" ht="12.75">
+    <row r="2" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -13125,7 +13381,7 @@
       <c r="CI2" s="3"/>
       <c r="CJ2" s="3"/>
     </row>
-    <row r="3" spans="1:88" ht="12.75">
+    <row r="3" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>21091</v>
       </c>
@@ -13155,7 +13411,7 @@
       <c r="CI3" s="1"/>
       <c r="CJ3" s="1"/>
     </row>
-    <row r="4" spans="1:88" ht="12.75">
+    <row r="4" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>21036</v>
       </c>
@@ -13182,7 +13438,7 @@
       <c r="CI4" s="1"/>
       <c r="CJ4" s="1"/>
     </row>
-    <row r="5" spans="1:88" ht="12.75">
+    <row r="5" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>21071</v>
       </c>
@@ -13212,7 +13468,7 @@
       <c r="CI5" s="1"/>
       <c r="CJ5" s="1"/>
     </row>
-    <row r="6" spans="1:88" ht="12.75">
+    <row r="6" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>21083</v>
       </c>
@@ -13236,7 +13492,7 @@
       <c r="CI6" s="1"/>
       <c r="CJ6" s="1"/>
     </row>
-    <row r="7" spans="1:88" ht="12.75">
+    <row r="7" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>21087</v>
       </c>
@@ -13260,7 +13516,7 @@
       <c r="CI7" s="1"/>
       <c r="CJ7" s="1"/>
     </row>
-    <row r="8" spans="1:88" ht="12.75">
+    <row r="8" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>21068</v>
       </c>
@@ -13290,7 +13546,7 @@
       <c r="CI8" s="1"/>
       <c r="CJ8" s="1"/>
     </row>
-    <row r="9" spans="1:88" ht="12.75">
+    <row r="9" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>19055</v>
       </c>
@@ -13323,11 +13579,11 @@
       <c r="CI9" s="1"/>
       <c r="CJ9" s="1"/>
     </row>
-    <row r="10" spans="1:88" ht="12.75">
+    <row r="10" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AS10" s="8"/>
       <c r="AT10" s="8"/>
     </row>
-    <row r="11" spans="1:88" ht="12.75">
+    <row r="11" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -13349,7 +13605,7 @@
       <c r="AS11" s="8"/>
       <c r="AT11" s="8"/>
     </row>
-    <row r="12" spans="1:88" ht="12.75">
+    <row r="12" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -13452,7 +13708,7 @@
       <c r="AS12" s="8"/>
       <c r="AT12" s="8"/>
     </row>
-    <row r="13" spans="1:88" ht="12.75">
+    <row r="13" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>21091</v>
       </c>
@@ -13531,7 +13787,7 @@
       <c r="AS13" s="8"/>
       <c r="AT13" s="8"/>
     </row>
-    <row r="14" spans="1:88" ht="12.75">
+    <row r="14" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>21036</v>
       </c>
@@ -13622,7 +13878,7 @@
       <c r="AS14" s="8"/>
       <c r="AT14" s="8"/>
     </row>
-    <row r="15" spans="1:88" ht="12.75">
+    <row r="15" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>21071</v>
       </c>
@@ -13711,7 +13967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:88" ht="12.75">
+    <row r="16" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>21083</v>
       </c>
@@ -13800,7 +14056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="12.75">
+    <row r="17" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>21087</v>
       </c>
@@ -13889,7 +14145,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="12.75">
+    <row r="18" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>21068</v>
       </c>
@@ -13978,7 +14234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="12.75">
+    <row r="19" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>19055</v>
       </c>
@@ -14055,12 +14311,12 @@
         <v>29.799999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="12.75">
+    <row r="21" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="12.75">
+    <row r="22" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -14162,7 +14418,7 @@
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
     </row>
-    <row r="23" spans="1:37" ht="12.75">
+    <row r="23" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21091</v>
       </c>
@@ -14263,7 +14519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="12.75">
+    <row r="24" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>21036</v>
       </c>
@@ -14364,7 +14620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="12.75">
+    <row r="25" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>21071</v>
       </c>
@@ -14465,7 +14721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="12.75">
+    <row r="26" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>21083</v>
       </c>
@@ -14566,7 +14822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="12.75">
+    <row r="27" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>21087</v>
       </c>
@@ -14667,7 +14923,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="12.75">
+    <row r="28" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>21068</v>
       </c>
@@ -14768,7 +15024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="12.75">
+    <row r="29" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>19055</v>
       </c>
@@ -14869,12 +15125,12 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="12.75">
+    <row r="31" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="12.75">
+    <row r="32" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -14972,7 +15228,7 @@
         <v>44499</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="12.75">
+    <row r="33" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>21091</v>
       </c>
@@ -15078,7 +15334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="12.75">
+    <row r="34" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>21036</v>
       </c>
@@ -15184,7 +15440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="12.75">
+    <row r="35" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>21071</v>
       </c>
@@ -15290,7 +15546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="12.75">
+    <row r="36" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>21083</v>
       </c>
@@ -15396,7 +15652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="12.75">
+    <row r="37" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>21087</v>
       </c>
@@ -15502,7 +15758,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="12.75">
+    <row r="38" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>21068</v>
       </c>
@@ -15608,7 +15864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="12.75">
+    <row r="39" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>19055</v>
       </c>
@@ -15714,12 +15970,12 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="12.75">
+    <row r="41" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="12.75">
+    <row r="42" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>2</v>
       </c>
@@ -15817,7 +16073,7 @@
         <v>44530</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="12.75">
+    <row r="43" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>21091</v>
       </c>
@@ -15842,7 +16098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="12.75">
+    <row r="44" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>21036</v>
       </c>
@@ -15879,7 +16135,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="12.75">
+    <row r="45" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>21071</v>
       </c>
@@ -15904,7 +16160,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="12.75">
+    <row r="46" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>21083</v>
       </c>
@@ -15929,7 +16185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="12.75">
+    <row r="47" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>21087</v>
       </c>
@@ -15954,7 +16210,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="12.75">
+    <row r="48" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>21068</v>
       </c>
@@ -15985,7 +16241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="12.75">
+    <row r="49" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>19055</v>
       </c>
@@ -16032,18 +16288,18 @@
         <v>74.8</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="12.75">
+    <row r="50" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Z50" s="8"/>
       <c r="AA50" s="8"/>
     </row>
-    <row r="51" spans="1:37" ht="12.75">
+    <row r="51" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>230</v>
       </c>
       <c r="Z51" s="8"/>
       <c r="AA51" s="8"/>
     </row>
-    <row r="52" spans="1:37" ht="12.75">
+    <row r="52" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
@@ -16141,7 +16397,7 @@
         <v>44560</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="12.75">
+    <row r="53" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>21091</v>
       </c>
@@ -16177,7 +16433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="12.75">
+    <row r="54" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>21036</v>
       </c>
@@ -16220,7 +16476,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="12.75">
+    <row r="55" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>21071</v>
       </c>
@@ -16245,7 +16501,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="12.75">
+    <row r="56" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>21083</v>
       </c>
@@ -16270,7 +16526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="12.75">
+    <row r="57" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>21087</v>
       </c>
@@ -16294,7 +16550,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="12.75">
+    <row r="58" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>21068</v>
       </c>
@@ -16329,7 +16585,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="12.75">
+    <row r="59" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>19055</v>
       </c>
@@ -16380,12 +16636,12 @@
         <v>128.80000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="15.75" customHeight="1">
+    <row r="61" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="40" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15.75" customHeight="1">
+    <row r="62" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
         <v>2</v>
       </c>
@@ -16516,7 +16772,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15.75" customHeight="1">
+    <row r="63" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16">
         <v>21091</v>
       </c>
@@ -16545,7 +16801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15.75" customHeight="1">
+    <row r="64" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16">
         <v>21036</v>
       </c>
@@ -16571,7 +16827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:35" ht="15.75" customHeight="1">
+    <row r="65" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16">
         <v>21071</v>
       </c>
@@ -16600,7 +16856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:35" ht="15.75" customHeight="1">
+    <row r="66" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16">
         <v>21083</v>
       </c>
@@ -16626,7 +16882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:35" ht="15.75" customHeight="1">
+    <row r="67" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16">
         <v>21087</v>
       </c>
@@ -16652,7 +16908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:35" ht="15.75" customHeight="1">
+    <row r="68" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16">
         <v>21068</v>
       </c>
@@ -16684,7 +16940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:35" ht="15.75" customHeight="1">
+    <row r="69" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16">
         <v>19055</v>
       </c>
@@ -16729,9 +16985,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75">
+    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>231</v>
       </c>
@@ -16745,7 +17001,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" hidden="1">
+    <row r="2" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19">
         <v>44334</v>
       </c>
@@ -16756,7 +17012,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" hidden="1">
+    <row r="3" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="19">
         <v>44355</v>
       </c>
@@ -16767,7 +17023,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" hidden="1">
+    <row r="4" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="19">
         <v>44369</v>
       </c>
@@ -16778,7 +17034,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" hidden="1">
+    <row r="5" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="19">
         <v>44376</v>
       </c>
@@ -16789,7 +17045,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" hidden="1">
+    <row r="6" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19">
         <v>44322</v>
       </c>
@@ -16800,7 +17056,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" hidden="1">
+    <row r="7" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19">
         <v>44322</v>
       </c>
@@ -16811,7 +17067,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" hidden="1">
+    <row r="8" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19">
         <v>44323</v>
       </c>
@@ -16822,7 +17078,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" hidden="1">
+    <row r="9" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="19">
         <v>44328</v>
       </c>
@@ -16833,7 +17089,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" hidden="1">
+    <row r="10" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19">
         <v>44328</v>
       </c>
@@ -16844,7 +17100,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" hidden="1">
+    <row r="11" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="19">
         <v>44329</v>
       </c>
@@ -16855,7 +17111,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" hidden="1">
+    <row r="12" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19">
         <v>44329</v>
       </c>
@@ -16866,7 +17122,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" hidden="1">
+    <row r="13" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="19">
         <v>44330</v>
       </c>
@@ -16877,7 +17133,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75" hidden="1">
+    <row r="14" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19">
         <v>44333</v>
       </c>
@@ -16888,7 +17144,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75" hidden="1">
+    <row r="15" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="19">
         <v>44333</v>
       </c>
@@ -16899,7 +17155,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75" hidden="1">
+    <row r="16" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="19">
         <v>44334</v>
       </c>
@@ -16910,7 +17166,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18.75" hidden="1">
+    <row r="17" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="19">
         <v>44334</v>
       </c>
@@ -16921,7 +17177,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.75" hidden="1">
+    <row r="18" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="19">
         <v>44343</v>
       </c>
@@ -16932,7 +17188,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18.75" hidden="1">
+    <row r="19" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="19">
         <v>44343</v>
       </c>
@@ -16943,7 +17199,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18.75" hidden="1">
+    <row r="20" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="19">
         <v>44350</v>
       </c>
@@ -16954,7 +17210,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18.75" hidden="1">
+    <row r="21" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="19">
         <v>44350</v>
       </c>
@@ -16965,7 +17221,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18.75" hidden="1">
+    <row r="22" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="19">
         <v>44354</v>
       </c>
@@ -16976,7 +17232,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18.75" hidden="1">
+    <row r="23" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="19">
         <v>44354</v>
       </c>
@@ -16987,7 +17243,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18.75" hidden="1">
+    <row r="24" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="19">
         <v>44355</v>
       </c>
@@ -16998,7 +17254,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.75" hidden="1">
+    <row r="25" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="19">
         <v>44355</v>
       </c>
@@ -17009,7 +17265,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18.75" hidden="1">
+    <row r="26" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="19">
         <v>44364</v>
       </c>
@@ -17020,7 +17276,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18.75" hidden="1">
+    <row r="27" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="19">
         <v>44364</v>
       </c>
@@ -17031,7 +17287,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18.75" hidden="1">
+    <row r="28" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="19">
         <v>44365</v>
       </c>
@@ -17042,7 +17298,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18.75" hidden="1">
+    <row r="29" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="19">
         <v>44368</v>
       </c>
@@ -17053,7 +17309,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18.75" hidden="1">
+    <row r="30" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="19">
         <v>44368</v>
       </c>
@@ -17064,7 +17320,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18.75" hidden="1">
+    <row r="31" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="19">
         <v>44369</v>
       </c>
@@ -17075,7 +17331,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18.75" hidden="1">
+    <row r="32" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="19">
         <v>44369</v>
       </c>
@@ -17086,7 +17342,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18.75" hidden="1">
+    <row r="33" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="19">
         <v>44370</v>
       </c>
@@ -17097,7 +17353,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18.75" hidden="1">
+    <row r="34" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="19">
         <v>44370</v>
       </c>
@@ -17108,7 +17364,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18.75" hidden="1">
+    <row r="35" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="19">
         <v>44371</v>
       </c>
@@ -17119,7 +17375,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18.75" hidden="1">
+    <row r="36" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="19">
         <v>44371</v>
       </c>
@@ -17130,7 +17386,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18.75" hidden="1">
+    <row r="37" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="19">
         <v>44372</v>
       </c>
@@ -17141,7 +17397,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18.75" hidden="1">
+    <row r="38" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="19">
         <v>44375</v>
       </c>
@@ -17152,7 +17408,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18.75" hidden="1">
+    <row r="39" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="19">
         <v>44375</v>
       </c>
@@ -17163,7 +17419,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18.75" hidden="1">
+    <row r="40" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="19">
         <v>44376</v>
       </c>
@@ -17174,7 +17430,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18.75" hidden="1">
+    <row r="41" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="19">
         <v>44376</v>
       </c>
@@ -17185,7 +17441,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18.75" hidden="1">
+    <row r="42" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="19">
         <v>44377</v>
       </c>
@@ -17196,7 +17452,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18.75" hidden="1">
+    <row r="43" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="19">
         <v>44377</v>
       </c>
@@ -17207,7 +17463,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="18.75" hidden="1">
+    <row r="44" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="19">
         <v>44378</v>
       </c>
@@ -17218,7 +17474,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="18.75" hidden="1">
+    <row r="45" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="19">
         <v>44378</v>
       </c>
@@ -17229,7 +17485,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="18.75" hidden="1">
+    <row r="46" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="19">
         <v>44379</v>
       </c>
@@ -17240,7 +17496,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="18.75" hidden="1">
+    <row r="47" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="19">
         <v>44382</v>
       </c>
@@ -17251,7 +17507,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="18.75" hidden="1">
+    <row r="48" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="19">
         <v>44382</v>
       </c>
@@ -17262,7 +17518,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18.75" hidden="1">
+    <row r="49" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="19">
         <v>44383</v>
       </c>
@@ -17273,7 +17529,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18.75" hidden="1">
+    <row r="50" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="19">
         <v>44383</v>
       </c>
@@ -17284,7 +17540,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18.75" hidden="1">
+    <row r="51" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="19">
         <v>44384</v>
       </c>
@@ -17295,7 +17551,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="18.75" hidden="1">
+    <row r="52" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="19">
         <v>44384</v>
       </c>
@@ -17306,7 +17562,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18.75" hidden="1">
+    <row r="53" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="19">
         <v>44385</v>
       </c>
@@ -17317,7 +17573,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18.75" hidden="1">
+    <row r="54" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="19">
         <v>44385</v>
       </c>
@@ -17328,7 +17584,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="18.75" hidden="1">
+    <row r="55" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="19">
         <v>44386</v>
       </c>
@@ -17339,7 +17595,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="18.75" hidden="1">
+    <row r="56" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="19">
         <v>44389</v>
       </c>
@@ -17350,7 +17606,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="18.75" hidden="1">
+    <row r="57" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="19">
         <v>44389</v>
       </c>
@@ -17361,7 +17617,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="18.75" hidden="1">
+    <row r="58" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="19">
         <v>44390</v>
       </c>
@@ -17372,7 +17628,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18.75" hidden="1">
+    <row r="59" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="19">
         <v>44390</v>
       </c>
@@ -17383,7 +17639,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="18.75" hidden="1">
+    <row r="60" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="19">
         <v>44391</v>
       </c>
@@ -17394,7 +17650,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="18.75" hidden="1">
+    <row r="61" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="19">
         <v>44391</v>
       </c>
@@ -17405,7 +17661,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="18.75" hidden="1">
+    <row r="62" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62" s="19">
         <v>44392</v>
       </c>
@@ -17416,7 +17672,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="18.75" hidden="1">
+    <row r="63" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="19">
         <v>44392</v>
       </c>
@@ -17427,7 +17683,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="18.75" hidden="1">
+    <row r="64" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64" s="19">
         <v>44393</v>
       </c>
@@ -17438,7 +17694,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="18.75" hidden="1">
+    <row r="65" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="19">
         <v>44396</v>
       </c>
@@ -17449,7 +17705,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="18.75" hidden="1">
+    <row r="66" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="19">
         <v>44396</v>
       </c>
@@ -17460,7 +17716,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="18.75" hidden="1">
+    <row r="67" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" s="19">
         <v>44397</v>
       </c>
@@ -17471,7 +17727,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="18.75" hidden="1">
+    <row r="68" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" s="19">
         <v>44397</v>
       </c>
@@ -17482,7 +17738,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="18.75" hidden="1">
+    <row r="69" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="19">
         <v>44398</v>
       </c>
@@ -17493,7 +17749,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="18.75" hidden="1">
+    <row r="70" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="19">
         <v>44398</v>
       </c>
@@ -17504,7 +17760,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18.75" hidden="1">
+    <row r="71" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="19">
         <v>44403</v>
       </c>
@@ -17515,7 +17771,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="18.75" hidden="1">
+    <row r="72" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="19">
         <v>44403</v>
       </c>
@@ -17526,7 +17782,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="18.75" hidden="1">
+    <row r="73" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="19">
         <v>44404</v>
       </c>
@@ -17537,7 +17793,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="18.75" hidden="1">
+    <row r="74" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="19">
         <v>44404</v>
       </c>
@@ -17548,7 +17804,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="18.75" hidden="1">
+    <row r="75" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="19">
         <v>44405</v>
       </c>
@@ -17559,7 +17815,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="18.75" hidden="1">
+    <row r="76" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="19">
         <v>44405</v>
       </c>
@@ -17570,7 +17826,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="18.75" hidden="1">
+    <row r="77" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" s="19">
         <v>44406</v>
       </c>
@@ -17581,7 +17837,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="18.75" hidden="1">
+    <row r="78" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="19">
         <v>44406</v>
       </c>
@@ -17592,7 +17848,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="18.75" hidden="1">
+    <row r="79" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="19">
         <v>44452</v>
       </c>
@@ -17603,7 +17859,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="18.75" hidden="1">
+    <row r="80" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" s="19">
         <v>44452</v>
       </c>
@@ -17614,7 +17870,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="18.75" hidden="1">
+    <row r="81" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="19">
         <v>44453</v>
       </c>
@@ -17625,7 +17881,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="18.75" hidden="1">
+    <row r="82" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="19">
         <v>44454</v>
       </c>
@@ -17636,7 +17892,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="18.75" hidden="1">
+    <row r="83" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="19">
         <v>44454</v>
       </c>
@@ -17647,7 +17903,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="18.75" hidden="1">
+    <row r="84" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" s="19">
         <v>44455</v>
       </c>
@@ -17658,7 +17914,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="18.75" hidden="1">
+    <row r="85" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" s="19">
         <v>44455</v>
       </c>
@@ -17669,7 +17925,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="18.75" hidden="1">
+    <row r="86" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="19">
         <v>44456</v>
       </c>
@@ -17680,7 +17936,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="18.75" hidden="1">
+    <row r="87" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="19">
         <v>44460</v>
       </c>
@@ -17691,7 +17947,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="18.75" hidden="1">
+    <row r="88" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="19">
         <v>44466</v>
       </c>
@@ -17702,7 +17958,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="18.75" hidden="1">
+    <row r="89" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="19">
         <v>44466</v>
       </c>
@@ -17713,7 +17969,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="18.75" hidden="1">
+    <row r="90" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="19">
         <v>44467</v>
       </c>
@@ -17724,7 +17980,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="18.75" hidden="1">
+    <row r="91" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" s="19">
         <v>44468</v>
       </c>
@@ -17735,7 +17991,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="18.75" hidden="1">
+    <row r="92" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="19">
         <v>44468</v>
       </c>
@@ -17746,7 +18002,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="18.75" hidden="1">
+    <row r="93" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" s="19">
         <v>44469</v>
       </c>
@@ -17757,7 +18013,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="18.75" hidden="1">
+    <row r="94" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" s="19">
         <v>44469</v>
       </c>
@@ -17768,7 +18024,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="18.75" hidden="1">
+    <row r="95" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" s="19">
         <v>44474</v>
       </c>
@@ -17779,7 +18035,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="18.75" hidden="1">
+    <row r="96" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" s="19">
         <v>44475</v>
       </c>
@@ -17790,7 +18046,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="18.75" hidden="1">
+    <row r="97" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" s="19">
         <v>44475</v>
       </c>
@@ -17801,7 +18057,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="18.75" hidden="1">
+    <row r="98" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98" s="19">
         <v>44476</v>
       </c>
@@ -17812,7 +18068,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="18.75" hidden="1">
+    <row r="99" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="19">
         <v>44476</v>
       </c>
@@ -17823,7 +18079,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="18.75" hidden="1">
+    <row r="100" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" s="19">
         <v>44477</v>
       </c>
@@ -17834,7 +18090,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="18.75">
+    <row r="101" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A101" s="19">
         <v>44378</v>
       </c>
@@ -17845,7 +18101,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="18.75">
+    <row r="102" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A102" s="19">
         <v>44383</v>
       </c>
@@ -17856,7 +18112,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="18.75">
+    <row r="103" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A103" s="19">
         <v>44385</v>
       </c>
@@ -17867,7 +18123,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="18.75">
+    <row r="104" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A104" s="19">
         <v>44390</v>
       </c>
@@ -17878,7 +18134,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="18.75">
+    <row r="105" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A105" s="19">
         <v>44392</v>
       </c>
@@ -17889,7 +18145,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="18.75">
+    <row r="106" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A106" s="19">
         <v>44397</v>
       </c>
@@ -17900,7 +18156,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="18.75">
+    <row r="107" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A107" s="19">
         <v>44404</v>
       </c>
@@ -17911,7 +18167,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="18.75">
+    <row r="108" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A108" s="19">
         <v>44406</v>
       </c>
@@ -17922,7 +18178,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="18.75">
+    <row r="109" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A109" s="19">
         <v>44453</v>
       </c>
@@ -17933,7 +18189,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="18.75">
+    <row r="110" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A110" s="19">
         <v>44455</v>
       </c>
@@ -17944,7 +18200,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="18.75">
+    <row r="111" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A111" s="19">
         <v>44460</v>
       </c>
@@ -17955,7 +18211,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="18.75">
+    <row r="112" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A112" s="19">
         <v>44467</v>
       </c>
@@ -17966,7 +18222,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="18.75">
+    <row r="113" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A113" s="19">
         <v>44469</v>
       </c>
@@ -17977,7 +18233,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="18.75">
+    <row r="114" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A114" s="19">
         <v>44474</v>
       </c>
@@ -17988,7 +18244,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="18.75">
+    <row r="115" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A115" s="19">
         <v>44476</v>
       </c>
@@ -17999,7 +18255,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="18.75" hidden="1">
+    <row r="116" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A116" s="19">
         <v>44323</v>
       </c>
@@ -18010,7 +18266,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="18.75" hidden="1">
+    <row r="117" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A117" s="19">
         <v>44323</v>
       </c>
@@ -18021,7 +18277,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="18.75" hidden="1">
+    <row r="118" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A118" s="19">
         <v>44328</v>
       </c>
@@ -18032,7 +18288,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="18.75" hidden="1">
+    <row r="119" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A119" s="19">
         <v>44370</v>
       </c>
@@ -18043,7 +18299,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="18.75" hidden="1">
+    <row r="120" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A120" s="19">
         <v>44377</v>
       </c>
@@ -18054,7 +18310,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="18.75" hidden="1">
+    <row r="121" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A121" s="19">
         <v>44384</v>
       </c>
@@ -18065,7 +18321,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="18.75" hidden="1">
+    <row r="122" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A122" s="19">
         <v>44391</v>
       </c>
@@ -18076,7 +18332,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="18.75" hidden="1">
+    <row r="123" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A123" s="19">
         <v>44398</v>
       </c>
@@ -18087,7 +18343,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="18.75" hidden="1">
+    <row r="124" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A124" s="19">
         <v>44405</v>
       </c>
@@ -18098,7 +18354,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="18.75" hidden="1">
+    <row r="125" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A125" s="19">
         <v>44453</v>
       </c>
@@ -18109,7 +18365,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="18.75" hidden="1">
+    <row r="126" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A126" s="19">
         <v>44460</v>
       </c>
@@ -18120,7 +18376,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="18.75" hidden="1">
+    <row r="127" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A127" s="19">
         <v>44474</v>
       </c>
@@ -18131,7 +18387,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="18.75" hidden="1">
+    <row r="128" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A128" s="19">
         <v>44333</v>
       </c>
@@ -18142,7 +18398,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="18.75" hidden="1">
+    <row r="129" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A129" s="19">
         <v>44333</v>
       </c>
@@ -18153,7 +18409,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="18.75" hidden="1">
+    <row r="130" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A130" s="19">
         <v>44354</v>
       </c>
@@ -18164,7 +18420,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="18.75" hidden="1">
+    <row r="131" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A131" s="19">
         <v>44354</v>
       </c>
@@ -18175,7 +18431,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="18.75" hidden="1">
+    <row r="132" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A132" s="19">
         <v>44368</v>
       </c>
@@ -18186,7 +18442,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="18.75" hidden="1">
+    <row r="133" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A133" s="19">
         <v>44368</v>
       </c>
@@ -18197,7 +18453,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="18.75" hidden="1">
+    <row r="134" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A134" s="19">
         <v>44375</v>
       </c>
@@ -18208,7 +18464,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="18.75" hidden="1">
+    <row r="135" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A135" s="19">
         <v>44382</v>
       </c>
@@ -18219,7 +18475,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="18.75" hidden="1">
+    <row r="136" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A136" s="19">
         <v>44382</v>
       </c>
@@ -18230,7 +18486,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="18.75" hidden="1">
+    <row r="137" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A137" s="19">
         <v>44389</v>
       </c>
@@ -18241,7 +18497,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="18.75" hidden="1">
+    <row r="138" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A138" s="19">
         <v>44389</v>
       </c>
@@ -18252,7 +18508,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="18.75" hidden="1">
+    <row r="139" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A139" s="19">
         <v>44396</v>
       </c>
@@ -18263,7 +18519,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="18.75" hidden="1">
+    <row r="140" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A140" s="19">
         <v>44396</v>
       </c>
@@ -18274,7 +18530,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="18.75" hidden="1">
+    <row r="141" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A141" s="19">
         <v>44403</v>
       </c>
@@ -18285,7 +18541,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="18.75" hidden="1">
+    <row r="142" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A142" s="19">
         <v>44403</v>
       </c>
@@ -18296,7 +18552,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="18.75" hidden="1">
+    <row r="143" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A143" s="19">
         <v>44452</v>
       </c>
@@ -18307,7 +18563,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="18.75" hidden="1">
+    <row r="144" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A144" s="19">
         <v>44452</v>
       </c>
@@ -18318,7 +18574,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="18.75" hidden="1">
+    <row r="145" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A145" s="19">
         <v>44466</v>
       </c>
@@ -18329,7 +18585,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="18.75" hidden="1">
+    <row r="146" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A146" s="19">
         <v>44466</v>
       </c>
@@ -18340,7 +18596,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="18.75" hidden="1">
+    <row r="147" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A147" s="19">
         <v>44330</v>
       </c>
@@ -18351,7 +18607,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="18.75" hidden="1">
+    <row r="148" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A148" s="19">
         <v>44330</v>
       </c>
@@ -18362,7 +18618,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="18.75" hidden="1">
+    <row r="149" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A149" s="19">
         <v>44365</v>
       </c>
@@ -18373,7 +18629,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="18.75" hidden="1">
+    <row r="150" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A150" s="19">
         <v>44365</v>
       </c>
@@ -18384,7 +18640,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="18.75" hidden="1">
+    <row r="151" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A151" s="19">
         <v>44372</v>
       </c>
@@ -18395,7 +18651,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="18.75" hidden="1">
+    <row r="152" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A152" s="19">
         <v>44372</v>
       </c>
@@ -18406,7 +18662,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="18.75" hidden="1">
+    <row r="153" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A153" s="19">
         <v>44379</v>
       </c>
@@ -18417,7 +18673,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="18.75" hidden="1">
+    <row r="154" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A154" s="19">
         <v>44379</v>
       </c>
@@ -18428,7 +18684,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="18.75" hidden="1">
+    <row r="155" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A155" s="19">
         <v>44386</v>
       </c>
@@ -18439,7 +18695,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="18.75" hidden="1">
+    <row r="156" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A156" s="19">
         <v>44386</v>
       </c>
@@ -18450,7 +18706,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="18.75" hidden="1">
+    <row r="157" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A157" s="19">
         <v>44393</v>
       </c>
@@ -18461,7 +18717,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="18.75" hidden="1">
+    <row r="158" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A158" s="19">
         <v>44393</v>
       </c>
@@ -18472,7 +18728,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="18.75" hidden="1">
+    <row r="159" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A159" s="19">
         <v>44477</v>
       </c>
@@ -18483,7 +18739,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="18.75" hidden="1">
+    <row r="160" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A160" s="19">
         <v>44477</v>
       </c>
@@ -18494,7 +18750,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="18.75" hidden="1">
+    <row r="161" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A161" s="19">
         <v>44323</v>
       </c>
@@ -18505,7 +18761,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="18.75" hidden="1">
+    <row r="162" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A162" s="19">
         <v>44330</v>
       </c>
@@ -18516,7 +18772,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="18.75" hidden="1">
+    <row r="163" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A163" s="19">
         <v>44365</v>
       </c>
@@ -18527,7 +18783,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="18.75" hidden="1">
+    <row r="164" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A164" s="19">
         <v>44372</v>
       </c>
@@ -18538,7 +18794,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="18.75" hidden="1">
+    <row r="165" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A165" s="19">
         <v>44379</v>
       </c>
@@ -18549,7 +18805,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="18.75" hidden="1">
+    <row r="166" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A166" s="19">
         <v>44386</v>
       </c>
@@ -18560,7 +18816,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="18.75" hidden="1">
+    <row r="167" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A167" s="19">
         <v>44393</v>
       </c>
@@ -18571,7 +18827,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="18.75" hidden="1">
+    <row r="168" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A168" s="19">
         <v>44456</v>
       </c>
@@ -18582,7 +18838,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="18.75" hidden="1">
+    <row r="169" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A169" s="19">
         <v>44477</v>
       </c>
@@ -18593,7 +18849,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="18.75" hidden="1">
+    <row r="170" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A170" s="19">
         <v>44328</v>
       </c>
@@ -18604,7 +18860,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="18.75" hidden="1">
+    <row r="171" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A171" s="19">
         <v>44370</v>
       </c>
@@ -18615,7 +18871,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="18.75" hidden="1">
+    <row r="172" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A172" s="19">
         <v>44377</v>
       </c>
@@ -18626,7 +18882,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="18.75" hidden="1">
+    <row r="173" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A173" s="19">
         <v>44384</v>
       </c>
@@ -18637,7 +18893,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="18.75" hidden="1">
+    <row r="174" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A174" s="19">
         <v>44391</v>
       </c>
@@ -18648,7 +18904,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="18.75" hidden="1">
+    <row r="175" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A175" s="19">
         <v>44398</v>
       </c>
@@ -18659,7 +18915,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="18.75" hidden="1">
+    <row r="176" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A176" s="19">
         <v>44405</v>
       </c>
@@ -18670,7 +18926,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="18.75" hidden="1">
+    <row r="177" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A177" s="19">
         <v>44454</v>
       </c>
@@ -18681,7 +18937,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="18.75" hidden="1">
+    <row r="178" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A178" s="19">
         <v>44475</v>
       </c>
@@ -18692,7 +18948,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="18.75" hidden="1">
+    <row r="179" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A179" s="19">
         <v>44322</v>
       </c>
@@ -18703,7 +18959,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="18.75" hidden="1">
+    <row r="180" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A180" s="19">
         <v>44343</v>
       </c>
@@ -18714,7 +18970,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="18.75" hidden="1">
+    <row r="181" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A181" s="19">
         <v>44350</v>
       </c>
@@ -18725,7 +18981,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="18.75" hidden="1">
+    <row r="182" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A182" s="19">
         <v>44364</v>
       </c>
@@ -18736,7 +18992,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="18.75" hidden="1">
+    <row r="183" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A183" s="19">
         <v>44371</v>
       </c>
@@ -18747,7 +19003,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="18.75" hidden="1">
+    <row r="184" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A184" s="19">
         <v>44322</v>
       </c>
@@ -18758,7 +19014,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="18.75" hidden="1">
+    <row r="185" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A185" s="19">
         <v>44329</v>
       </c>
@@ -18769,7 +19025,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="18.75" hidden="1">
+    <row r="186" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A186" s="19">
         <v>44334</v>
       </c>
@@ -18780,7 +19036,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="18.75" hidden="1">
+    <row r="187" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A187" s="19">
         <v>44343</v>
       </c>
@@ -18791,7 +19047,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="18.75" hidden="1">
+    <row r="188" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A188" s="19">
         <v>44350</v>
       </c>
@@ -18802,7 +19058,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="18.75" hidden="1">
+    <row r="189" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A189" s="19">
         <v>44355</v>
       </c>
@@ -18813,7 +19069,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="18.75" hidden="1">
+    <row r="190" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A190" s="19">
         <v>44364</v>
       </c>
@@ -18824,7 +19080,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="18.75" hidden="1">
+    <row r="191" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A191" s="19">
         <v>44369</v>
       </c>
@@ -18835,7 +19091,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="18.75" hidden="1">
+    <row r="192" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A192" s="19">
         <v>44371</v>
       </c>
@@ -18846,7 +19102,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="18.75" hidden="1">
+    <row r="193" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A193" s="19">
         <v>44376</v>
       </c>
@@ -18857,7 +19113,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="18.75" hidden="1">
+    <row r="194" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A194" s="19">
         <v>44378</v>
       </c>
@@ -18868,7 +19124,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="18.75" hidden="1">
+    <row r="195" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A195" s="19">
         <v>44383</v>
       </c>
@@ -18879,7 +19135,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="18.75" hidden="1">
+    <row r="196" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A196" s="19">
         <v>44385</v>
       </c>
@@ -18890,7 +19146,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="18.75" hidden="1">
+    <row r="197" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A197" s="19">
         <v>44390</v>
       </c>
@@ -18901,7 +19157,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="18.75" hidden="1">
+    <row r="198" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A198" s="19">
         <v>44392</v>
       </c>
@@ -18912,7 +19168,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="18.75" hidden="1">
+    <row r="199" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A199" s="19">
         <v>44397</v>
       </c>
@@ -18923,7 +19179,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="18.75" hidden="1">
+    <row r="200" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A200" s="19">
         <v>44404</v>
       </c>
@@ -18934,7 +19190,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="18.75" hidden="1">
+    <row r="201" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A201" s="19">
         <v>44406</v>
       </c>
@@ -18945,7 +19201,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="18.75" hidden="1">
+    <row r="202" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A202" s="19">
         <v>44453</v>
       </c>
@@ -18956,7 +19212,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="18.75" hidden="1">
+    <row r="203" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A203" s="19">
         <v>44455</v>
       </c>
@@ -18967,7 +19223,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="18.75" hidden="1">
+    <row r="204" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A204" s="19">
         <v>44460</v>
       </c>
@@ -18978,7 +19234,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="18.75" hidden="1">
+    <row r="205" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A205" s="19">
         <v>44467</v>
       </c>
@@ -18989,7 +19245,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="18.75" hidden="1">
+    <row r="206" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A206" s="19">
         <v>44469</v>
       </c>
@@ -19000,7 +19256,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="18.75" hidden="1">
+    <row r="207" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A207" s="19">
         <v>44474</v>
       </c>
@@ -19011,7 +19267,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="18.75" hidden="1">
+    <row r="208" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A208" s="19">
         <v>44476</v>
       </c>
@@ -19022,7 +19278,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" hidden="1">
+    <row r="209" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="20">
         <v>44481</v>
       </c>
@@ -19036,7 +19292,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" hidden="1">
+    <row r="210" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="20">
         <v>44481</v>
       </c>

--- a/補講実績.xlsx
+++ b/補講実績.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hokoukanri2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plady\Desktop\hokoukanri2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1559,7 +1559,7 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2033,11 +2033,11 @@
   </sheetPr>
   <dimension ref="A1:AA375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A355" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I364" sqref="I364"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="3" width="14.42578125" style="22"/>
     <col min="4" max="4" width="3.7109375" style="22" bestFit="1" customWidth="1"/>
@@ -2047,7 +2047,7 @@
     <col min="12" max="16384" width="14.42578125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="12">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="12">
       <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="12" outlineLevel="1">
       <c r="A3" s="21">
         <v>21091</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="12" outlineLevel="1">
       <c r="A4" s="21">
         <v>21090</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="12" outlineLevel="1">
       <c r="A5" s="21">
         <v>21036</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="12" outlineLevel="1">
       <c r="A6" s="21">
         <v>21049</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="12" outlineLevel="1">
       <c r="A7" s="21">
         <v>21071</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="12" outlineLevel="1">
       <c r="A8" s="21">
         <v>21074</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="12" outlineLevel="1">
       <c r="A9" s="21">
         <v>21083</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="12" outlineLevel="1">
       <c r="A10" s="21">
         <v>21087</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="12" outlineLevel="1">
       <c r="A11" s="21">
         <v>21068</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="12" outlineLevel="1">
       <c r="A12" s="21">
         <v>21096</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="12" outlineLevel="1">
       <c r="A13" s="21">
         <v>19055</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="13.5">
       <c r="A16" s="23" t="s">
         <v>2</v>
       </c>
@@ -2227,7 +2227,7 @@
       <c r="Z16" s="23"/>
       <c r="AA16" s="23"/>
     </row>
-    <row r="17" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="13.5" hidden="1">
       <c r="A17" s="21">
         <v>21036</v>
       </c>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="J17" s="25"/>
     </row>
-    <row r="18" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="13.5" hidden="1">
       <c r="A18" s="21">
         <v>21036</v>
       </c>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="J18" s="25"/>
     </row>
-    <row r="19" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="13.5" hidden="1">
       <c r="A19" s="21">
         <v>21036</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="13.5" hidden="1">
       <c r="A20" s="21">
         <v>21036</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="13.5" hidden="1">
       <c r="A21" s="21">
         <v>21036</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="13.5" hidden="1">
       <c r="A22" s="21">
         <v>21036</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>44364</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="13.5" hidden="1">
       <c r="A23" s="21">
         <v>21036</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>44364</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="13.5" hidden="1">
       <c r="A24" s="21">
         <v>21036</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>44371</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="13.5" hidden="1">
       <c r="A25" s="21">
         <v>21036</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="13.5" hidden="1">
       <c r="A26" s="21">
         <v>21036</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>44340</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="13.5" hidden="1">
       <c r="A27" s="21">
         <v>21036</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>44361</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="13.5" hidden="1">
       <c r="A28" s="21">
         <v>21036</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="13.5" hidden="1">
       <c r="A29" s="21">
         <v>21036</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="13.5" hidden="1">
       <c r="A30" s="21">
         <v>21036</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="13.5" hidden="1">
       <c r="A31" s="21">
         <v>21036</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="13.5" hidden="1">
       <c r="A32" s="21">
         <v>21036</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>44480</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="13.5" hidden="1">
       <c r="A33" s="21">
         <v>21036</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>44480</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="13.5" hidden="1">
       <c r="A34" s="21">
         <v>21036</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>44481</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="13.5" hidden="1">
       <c r="A35" s="21">
         <v>21036</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="13.5" hidden="1">
       <c r="A36" s="21">
         <v>21036</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="13.5" hidden="1">
       <c r="A37" s="21">
         <v>21036</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>44489</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="13.5" hidden="1">
       <c r="A38" s="21">
         <v>21036</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>44328</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="13.5" hidden="1">
       <c r="A39" s="21">
         <v>21036</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>44482</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="13.5" hidden="1">
       <c r="A40" s="21">
         <v>21036</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>44489</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="13.5" hidden="1">
       <c r="A41" s="21">
         <v>21036</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="13.5" hidden="1">
       <c r="A42" s="21">
         <v>21036</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="13.5" hidden="1">
       <c r="A43" s="21">
         <v>21036</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="13.5" hidden="1">
       <c r="A44" s="21">
         <v>21036</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="13.5" hidden="1">
       <c r="A45" s="21">
         <v>21036</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="13.5" hidden="1">
       <c r="A46" s="21">
         <v>21036</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="13.5" hidden="1">
       <c r="A47" s="21">
         <v>21036</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="13.5" hidden="1">
       <c r="A48" s="21">
         <v>21036</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="13.5" hidden="1">
       <c r="A49" s="21">
         <v>21036</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="13.5" hidden="1">
       <c r="A50" s="21">
         <v>21036</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>0.99999999999999822</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="13.5" hidden="1">
       <c r="A51" s="21">
         <v>21036</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="13.5" hidden="1">
       <c r="A52" s="21">
         <v>21036</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="13.5" hidden="1">
       <c r="A53" s="21">
         <v>21036</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="13.5" hidden="1">
       <c r="A54" s="21">
         <v>21036</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="13.5" hidden="1">
       <c r="A55" s="21">
         <v>21036</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="13.5" hidden="1">
       <c r="A56" s="21">
         <v>21036</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="13.5" hidden="1">
       <c r="A57" s="21">
         <v>21036</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="13.5" hidden="1">
       <c r="A58" s="21">
         <v>21036</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="13.5" hidden="1">
       <c r="A59" s="21">
         <v>21036</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="12" hidden="1">
       <c r="A60" s="21">
         <v>21036</v>
       </c>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="D60" s="26"/>
     </row>
-    <row r="61" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="13.5" hidden="1">
       <c r="A61" s="21">
         <v>21036</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="13.5" hidden="1">
       <c r="A62" s="21">
         <v>21036</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="13.5" hidden="1">
       <c r="A63" s="21">
         <v>21036</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="13.5" hidden="1">
       <c r="A64" s="21">
         <v>21036</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="13.5" hidden="1">
       <c r="A65" s="21">
         <v>21036</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="13.5" hidden="1">
       <c r="A66" s="21">
         <v>21036</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="13.5">
       <c r="A67" s="21">
         <v>19055</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="13.5">
       <c r="A68" s="21">
         <v>19055</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>44518</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="13.5">
       <c r="A69" s="21">
         <v>19055</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>44518</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="13.5">
       <c r="A70" s="21">
         <v>19055</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>44518</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="13.5">
       <c r="A71" s="21">
         <v>19055</v>
       </c>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="K71" s="26"/>
     </row>
-    <row r="72" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="13.5">
       <c r="A72" s="21">
         <v>19055</v>
       </c>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="K72" s="26"/>
     </row>
-    <row r="73" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="13.5">
       <c r="A73" s="21">
         <v>19055</v>
       </c>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="K73" s="26"/>
     </row>
-    <row r="74" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="13.5">
       <c r="A74" s="21">
         <v>19055</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="13.5">
       <c r="A75" s="21">
         <v>19055</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="13.5">
       <c r="A76" s="21">
         <v>19055</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="13.5">
       <c r="A77" s="21">
         <v>19055</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>44327</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="13.5">
       <c r="A78" s="21">
         <v>19055</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>44334</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="13.5">
       <c r="A79" s="21">
         <v>19055</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="12">
       <c r="A80" s="22">
         <v>19055</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="12">
       <c r="A81" s="22">
         <v>19055</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="12">
       <c r="A82" s="22">
         <v>19055</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="12">
       <c r="A83" s="22">
         <v>19055</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="12">
       <c r="A84" s="22">
         <v>19055</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="12">
       <c r="A85" s="22">
         <v>19055</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="12">
       <c r="A86" s="22">
         <v>19055</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="13.5">
       <c r="A87" s="21">
         <v>19055</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="13.5">
       <c r="A88" s="21">
         <v>19055</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="13.5">
       <c r="A89" s="21">
         <v>19055</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="13.5">
       <c r="A90" s="21">
         <v>19055</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>44518</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="13.5">
       <c r="A91" s="21">
         <v>19055</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="13.5">
       <c r="A92" s="21">
         <v>19055</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>44520</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="13.5">
       <c r="A93" s="21">
         <v>19055</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>44522</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="13.5">
       <c r="A94" s="21">
         <v>19055</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="13.5">
       <c r="A95" s="21">
         <v>19055</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="13.5">
       <c r="A96" s="21">
         <v>19055</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="13.5">
       <c r="A97" s="21">
         <v>19055</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="13.5">
       <c r="A98" s="21">
         <v>19055</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="13.5">
       <c r="A99" s="21">
         <v>19055</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="13.5">
       <c r="A100" s="21">
         <v>19055</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="13.5">
       <c r="A101" s="21">
         <v>19055</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="13.5">
       <c r="A102" s="21">
         <v>19055</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>44383</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="13.5">
       <c r="A103" s="21">
         <v>19055</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>44476</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="13.5">
       <c r="A104" s="21">
         <v>19055</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="12">
       <c r="A105" s="22">
         <v>19055</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="12">
       <c r="A106" s="22">
         <v>19055</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="12">
       <c r="A107" s="22">
         <v>19055</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="13.5">
       <c r="A108" s="21">
         <v>19055</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="13.5">
       <c r="A109" s="21">
         <v>19055</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="13.5">
       <c r="A110" s="21">
         <v>19055</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="12">
       <c r="A111" s="22">
         <v>19055</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="12">
       <c r="A112" s="22">
         <v>19055</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="113" spans="1:27" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27" ht="13.5">
       <c r="A113" s="21">
         <v>19055</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:27" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27" ht="13.5">
       <c r="A114" s="21">
         <v>19055</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:27" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27" ht="13.5">
       <c r="A115" s="21">
         <v>19055</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="116" spans="1:27" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27" ht="13.5">
       <c r="A116" s="21">
         <v>19055</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="117" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27" ht="12">
       <c r="A117" s="22">
         <v>19055</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="118" spans="1:27" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27" ht="13.5">
       <c r="A118" s="22">
         <v>19055</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" spans="1:27" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27" ht="13.5">
       <c r="A119" s="21">
         <v>19055</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:27" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27" ht="13.5">
       <c r="A120" s="21">
         <v>19055</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:27" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27" ht="13.5">
       <c r="A121" s="21">
         <v>19055</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:27" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27" ht="13.5">
       <c r="A122" s="21">
         <v>19055</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:27" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27" ht="13.5">
       <c r="A123" s="21">
         <v>19055</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="124" spans="1:27" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27" ht="13.5">
       <c r="A124" s="21">
         <v>19055</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:27" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27" ht="13.5">
       <c r="A125" s="21">
         <v>19055</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="126" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27" ht="12">
       <c r="A126" s="21">
         <v>19055</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="127" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27" ht="12">
       <c r="A127" s="21">
         <v>19055</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="128" spans="1:27" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27" ht="12">
       <c r="A128" s="21">
         <v>19055</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" ht="12">
       <c r="A129" s="21">
         <v>19055</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="12">
       <c r="A130" s="21">
         <v>19055</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" ht="12">
       <c r="A131" s="21">
         <v>19055</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" ht="12">
       <c r="A132" s="21">
         <v>19055</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="12">
       <c r="A133" s="21">
         <v>19055</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" ht="13.5">
       <c r="A134" s="21">
         <v>19055</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" ht="13.5">
       <c r="A135" s="21">
         <v>19055</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="13.5">
       <c r="A136" s="21">
         <v>19055</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" ht="13.5">
       <c r="A137" s="21">
         <v>19055</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" ht="13.5">
       <c r="A138" s="21">
         <v>19055</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" ht="13.5">
       <c r="A139" s="21">
         <v>19055</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" ht="12">
       <c r="A140" s="22">
         <v>19055</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" ht="13.5">
       <c r="A141" s="21">
         <v>19055</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" ht="13.5">
       <c r="A142" s="21">
         <v>19055</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" ht="13.5">
       <c r="A143" s="22">
         <v>19055</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" ht="12">
       <c r="A144" s="22">
         <v>19055</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" ht="13.5">
       <c r="A145" s="21">
         <v>19055</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" ht="13.5">
       <c r="A146" s="21">
         <v>19055</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" ht="13.5">
       <c r="A147" s="21">
         <v>19055</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" ht="13.5">
       <c r="A148" s="21">
         <v>19055</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" ht="13.5">
       <c r="A149" s="21">
         <v>19055</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" ht="13.5">
       <c r="A150" s="21">
         <v>19055</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" ht="13.5">
       <c r="A151" s="21">
         <v>19055</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" ht="13.5">
       <c r="A152" s="21">
         <v>19055</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" ht="13.5">
       <c r="A153" s="21">
         <v>19055</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" ht="13.5">
       <c r="A154" s="21">
         <v>19055</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" ht="13.5">
       <c r="A155" s="21">
         <v>19055</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" ht="13.5">
       <c r="A156" s="21">
         <v>19055</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" ht="13.5">
       <c r="A157" s="21">
         <v>19055</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" ht="13.5">
       <c r="A158" s="21">
         <v>19055</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" ht="13.5">
       <c r="A159" s="21">
         <v>19055</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" ht="13.5">
       <c r="A160" s="21">
         <v>19055</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" ht="13.5">
       <c r="A161" s="21">
         <v>19055</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" ht="13.5">
       <c r="A162" s="21">
         <v>19055</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" ht="13.5">
       <c r="A163" s="21">
         <v>19055</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" ht="13.5">
       <c r="A164" s="21">
         <v>19055</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" ht="13.5" hidden="1">
       <c r="A165" s="21">
         <v>21068</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" ht="13.5" hidden="1">
       <c r="A166" s="21">
         <v>21068</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" ht="13.5" hidden="1">
       <c r="A167" s="21">
         <v>21068</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" ht="13.5" hidden="1">
       <c r="A168" s="21">
         <v>21068</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" ht="13.5" hidden="1">
       <c r="A169" s="21">
         <v>21068</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" ht="13.5" hidden="1">
       <c r="A170" s="21">
         <v>21068</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" ht="13.5" hidden="1">
       <c r="A171" s="21">
         <v>21068</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>44476</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" ht="13.5" hidden="1">
       <c r="A172" s="21">
         <v>21068</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>44476</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" ht="13.5" hidden="1">
       <c r="A173" s="21">
         <v>21068</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>44480</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" ht="13.5" hidden="1">
       <c r="A174" s="21">
         <v>21068</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" ht="13.5" hidden="1">
       <c r="A175" s="21">
         <v>21068</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" ht="13.5" hidden="1">
       <c r="A176" s="21">
         <v>21068</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" ht="13.5" hidden="1">
       <c r="A177" s="21">
         <v>21068</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" ht="13.5" hidden="1">
       <c r="A178" s="21">
         <v>21068</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" ht="13.5" hidden="1">
       <c r="A179" s="21">
         <v>21068</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" ht="13.5" hidden="1">
       <c r="A180" s="21">
         <v>21068</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" ht="13.5" hidden="1">
       <c r="A181" s="21">
         <v>21068</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" ht="13.5" hidden="1">
       <c r="A182" s="21">
         <v>21074</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>44480</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" ht="13.5" hidden="1">
       <c r="A183" s="21">
         <v>21074</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>44480</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" ht="13.5" hidden="1">
       <c r="A184" s="21">
         <v>21074</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>44480</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" ht="13.5" hidden="1">
       <c r="A185" s="21">
         <v>21074</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" ht="13.5" hidden="1">
       <c r="A186" s="21">
         <v>21074</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" ht="13.5" hidden="1">
       <c r="A187" s="21">
         <v>21074</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" ht="13.5" hidden="1">
       <c r="A188" s="21">
         <v>21074</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" ht="13.5" hidden="1">
       <c r="A189" s="21">
         <v>21074</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" ht="13.5" hidden="1">
       <c r="A190" s="21">
         <v>21074</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" ht="13.5" hidden="1">
       <c r="A191" s="21">
         <v>21074</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>0.44444444444444464</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" ht="13.5" hidden="1">
       <c r="A192" s="21">
         <v>21074</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" ht="13.5" hidden="1">
       <c r="A193" s="21">
         <v>21074</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" ht="13.5" hidden="1">
       <c r="A194" s="21">
         <v>21074</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" ht="13.5" hidden="1">
       <c r="A195" s="21">
         <v>21074</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" ht="13.5" hidden="1">
       <c r="A196" s="21">
         <v>21074</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" ht="13.5" hidden="1">
       <c r="A197" s="21">
         <v>21074</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>44538</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" ht="13.5" hidden="1">
       <c r="A198" s="21">
         <v>21074</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>44538</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" ht="13.5" hidden="1">
       <c r="A199" s="21">
         <v>21071</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>44364</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" ht="13.5" hidden="1">
       <c r="A200" s="21">
         <v>21071</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" ht="13.5" hidden="1">
       <c r="A201" s="21">
         <v>21071</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" ht="13.5" hidden="1">
       <c r="A202" s="21">
         <v>21071</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" ht="13.5" hidden="1">
       <c r="A203" s="21">
         <v>21071</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" ht="13.5" hidden="1">
       <c r="A204" s="21">
         <v>21071</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" ht="13.5" hidden="1">
       <c r="A205" s="21">
         <v>21071</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>44357</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" ht="13.5" hidden="1">
       <c r="A206" s="21">
         <v>21071</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>44357</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" ht="13.5" hidden="1">
       <c r="A207" s="21">
         <v>21071</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>44476</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" ht="13.5" hidden="1">
       <c r="A208" s="21">
         <v>21071</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>44476</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" ht="13.5" hidden="1">
       <c r="A209" s="21">
         <v>21071</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>44461</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" ht="13.5" hidden="1">
       <c r="A210" s="21">
         <v>21071</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>44461</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" ht="13.5" hidden="1">
       <c r="A211" s="21">
         <v>21071</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>44462</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" ht="13.5" hidden="1">
       <c r="A212" s="21">
         <v>21071</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" ht="13.5" hidden="1">
       <c r="A213" s="21">
         <v>21071</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" ht="13.5" hidden="1">
       <c r="A214" s="21">
         <v>21071</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" ht="13.5" hidden="1">
       <c r="A215" s="21">
         <v>21071</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" ht="13.5" hidden="1">
       <c r="A216" s="21">
         <v>21071</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" ht="13.5" hidden="1">
       <c r="A217" s="21">
         <v>21071</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>44349</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" ht="13.5" hidden="1">
       <c r="A218" s="21">
         <v>21071</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" ht="13.5" hidden="1">
       <c r="A219" s="21">
         <v>21071</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>44356</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" ht="13.5" hidden="1">
       <c r="A220" s="21">
         <v>21071</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>44363</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" ht="13.5" hidden="1">
       <c r="A221" s="21">
         <v>21071</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" ht="13.5" hidden="1">
       <c r="A222" s="21">
         <v>21071</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" ht="13.5" hidden="1">
       <c r="A223" s="21">
         <v>21071</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" ht="13.5" hidden="1">
       <c r="A224" s="21">
         <v>21071</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" ht="13.5" hidden="1">
       <c r="A225" s="21">
         <v>21071</v>
       </c>
@@ -8670,7 +8670,7 @@
       </c>
       <c r="K225" s="26"/>
     </row>
-    <row r="226" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" ht="13.5" hidden="1">
       <c r="A226" s="21">
         <v>21071</v>
       </c>
@@ -8704,7 +8704,7 @@
       </c>
       <c r="K226" s="21"/>
     </row>
-    <row r="227" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" ht="13.5" hidden="1">
       <c r="A227" s="21">
         <v>21071</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>44375</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" ht="13.5" hidden="1">
       <c r="A228" s="21">
         <v>21071</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>44340</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" ht="13.5" hidden="1">
       <c r="A229" s="21">
         <v>21071</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" ht="13.5" hidden="1">
       <c r="A230" s="21">
         <v>21071</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" ht="13.5" hidden="1">
       <c r="A231" s="21">
         <v>21071</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>44361</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" ht="13.5" hidden="1">
       <c r="A232" s="21">
         <v>21071</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>44481</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" ht="13.5" hidden="1">
       <c r="A233" s="21">
         <v>21071</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>44326</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" ht="13.5" hidden="1">
       <c r="A234" s="21">
         <v>21071</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" ht="13.5" hidden="1">
       <c r="A235" s="21">
         <v>21071</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>44340</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" ht="13.5" hidden="1">
       <c r="A236" s="21">
         <v>21071</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>44344</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" ht="13.5" hidden="1">
       <c r="A237" s="21">
         <v>21071</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" ht="13.5" hidden="1">
       <c r="A238" s="21">
         <v>21071</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" ht="13.5" hidden="1">
       <c r="A239" s="21">
         <v>21071</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" ht="13.5" hidden="1">
       <c r="A240" s="21">
         <v>21071</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" ht="13.5" hidden="1">
       <c r="A241" s="21">
         <v>21071</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" ht="13.5" hidden="1">
       <c r="A242" s="21">
         <v>21071</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" ht="13.5" hidden="1">
       <c r="A243" s="21">
         <v>21071</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>44364</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" ht="13.5" hidden="1">
       <c r="A244" s="21">
         <v>21071</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" ht="13.5" hidden="1">
       <c r="A245" s="21">
         <v>21090</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" ht="13.5" hidden="1">
       <c r="A246" s="21">
         <v>21090</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" ht="13.5" hidden="1">
       <c r="A247" s="21">
         <v>21090</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" ht="13.5" hidden="1">
       <c r="A248" s="21">
         <v>21090</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" ht="13.5" hidden="1">
       <c r="A249" s="21">
         <v>21090</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" ht="13.5" hidden="1">
       <c r="A250" s="21">
         <v>21090</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" ht="13.5" hidden="1">
       <c r="A251" s="21">
         <v>21090</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" ht="13.5" hidden="1">
       <c r="A252" s="21">
         <v>21090</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" ht="13.5" hidden="1">
       <c r="A253" s="21">
         <v>21087</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" ht="13.5" hidden="1">
       <c r="A254" s="21">
         <v>21087</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" ht="13.5" hidden="1">
       <c r="A255" s="21">
         <v>21087</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" ht="13.5" hidden="1">
       <c r="A256" s="21">
         <v>21087</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" ht="13.5" hidden="1">
       <c r="A257" s="21">
         <v>21087</v>
       </c>
@@ -9704,7 +9704,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" ht="13.5" hidden="1">
       <c r="A258" s="21">
         <v>21087</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="259" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" ht="13.5" hidden="1">
       <c r="A259" s="21">
         <v>21087</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="260" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" ht="13.5" hidden="1">
       <c r="A260" s="21">
         <v>21087</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="261" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" ht="13.5" hidden="1">
       <c r="A261" s="21">
         <v>21087</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="262" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" ht="13.5" hidden="1">
       <c r="A262" s="21">
         <v>21087</v>
       </c>
@@ -9877,7 +9877,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="263" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" ht="13.5" hidden="1">
       <c r="A263" s="21">
         <v>21087</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="264" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" ht="13.5" hidden="1">
       <c r="A264" s="21">
         <v>21087</v>
       </c>
@@ -9952,7 +9952,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="265" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" ht="13.5" hidden="1">
       <c r="A265" s="21">
         <v>21087</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="266" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" ht="13.5" hidden="1">
       <c r="A266" s="21">
         <v>21087</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="267" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" ht="13.5" hidden="1">
       <c r="A267" s="21">
         <v>21087</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="268" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" ht="13.5" hidden="1">
       <c r="A268" s="21">
         <v>21087</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" ht="13.5" hidden="1">
       <c r="A269" s="21">
         <v>21087</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="270" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" ht="13.5" hidden="1">
       <c r="A270" s="21">
         <v>21087</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="271" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" ht="13.5" hidden="1">
       <c r="A271" s="21">
         <v>21087</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="272" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" ht="13.5" hidden="1">
       <c r="A272" s="21">
         <v>21087</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>44350</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" ht="13.5" hidden="1">
       <c r="A273" s="21">
         <v>21087</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>44350</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" ht="13.5" hidden="1">
       <c r="A274" s="21">
         <v>21087</v>
       </c>
@@ -10321,7 +10321,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" ht="13.5" hidden="1">
       <c r="A275" s="21">
         <v>21087</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>44358</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" ht="13.5" hidden="1">
       <c r="A276" s="21">
         <v>21087</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" ht="13.5" hidden="1">
       <c r="A277" s="21">
         <v>21087</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" ht="13.5" hidden="1">
       <c r="A278" s="21">
         <v>21087</v>
       </c>
@@ -10450,7 +10450,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" ht="13.5" hidden="1">
       <c r="A279" s="21">
         <v>21090</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" ht="12" hidden="1">
       <c r="A280" s="22">
         <v>21068</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" ht="13.5" hidden="1">
       <c r="A281" s="21">
         <v>21090</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" ht="13.5">
       <c r="A282" s="21">
         <v>19055</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" ht="13.5">
       <c r="A283" s="21">
         <v>19055</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" ht="13.5" hidden="1">
       <c r="A284" s="21">
         <v>21087</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" ht="12" hidden="1">
       <c r="A285" s="21">
         <v>21036</v>
       </c>
@@ -10638,7 +10638,7 @@
       <c r="E285" s="27"/>
       <c r="F285" s="27"/>
     </row>
-    <row r="286" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" ht="13.5" hidden="1">
       <c r="A286" s="21">
         <v>21087</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" ht="13.5" hidden="1">
       <c r="A287" s="21">
         <v>21074</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" ht="13.5" hidden="1">
       <c r="A288" s="21">
         <v>21074</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:12" ht="13.5">
       <c r="A289" s="21">
         <v>19055</v>
       </c>
@@ -10776,7 +10776,7 @@
         <v>44322</v>
       </c>
     </row>
-    <row r="290" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:12" ht="13.5">
       <c r="A290" s="21">
         <v>19055</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:12" ht="13.5">
       <c r="A291" s="21">
         <v>19055</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:12" ht="13.5">
       <c r="A292" s="21">
         <v>19055</v>
       </c>
@@ -10891,7 +10891,7 @@
         <v>44334</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:12" ht="13.5">
       <c r="A293" s="21">
         <v>19055</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>44343</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:12" ht="13.5" hidden="1">
       <c r="A294" s="21">
         <v>21087</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:12" ht="13.5" hidden="1">
       <c r="A295" s="22">
         <v>21087</v>
       </c>
@@ -10979,7 +10979,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:12" ht="13.5" hidden="1">
       <c r="A296" s="22">
         <v>21087</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:12" ht="13.5" hidden="1">
       <c r="A297" s="22">
         <v>21087</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:12" ht="13.5" hidden="1">
       <c r="A298" s="22">
         <v>21087</v>
       </c>
@@ -11057,7 +11057,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:12" ht="13.5" hidden="1">
       <c r="A299" s="22">
         <v>21087</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:12" ht="13.5" hidden="1">
       <c r="A300" s="21">
         <v>21071</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:12" ht="13.5" hidden="1">
       <c r="A301" s="21">
         <v>21071</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="302" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:12" ht="13.5" hidden="1">
       <c r="A302" s="21">
         <v>21087</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="303" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:12" ht="13.5" hidden="1">
       <c r="A303" s="21">
         <v>21068</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:12" ht="13.5" hidden="1">
       <c r="A304" s="22">
         <v>21068</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" ht="13.5" hidden="1">
       <c r="A305" s="22">
         <v>21036</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" ht="13.5" hidden="1">
       <c r="A306" s="22">
         <v>21068</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" ht="13.5">
       <c r="A307" s="21">
         <v>19055</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>44350</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" ht="13.5" hidden="1">
       <c r="A308" s="22">
         <v>21036</v>
       </c>
@@ -11380,7 +11380,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" ht="13.5" hidden="1">
       <c r="A309" s="22">
         <v>21036</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" ht="13.5" hidden="1">
       <c r="A310" s="22">
         <v>21036</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" ht="13.5" hidden="1">
       <c r="A311" s="22">
         <v>21036</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" ht="13.5" hidden="1">
       <c r="A312" s="22">
         <v>21036</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" ht="13.5" hidden="1">
       <c r="A313" s="22">
         <v>21090</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" ht="12" hidden="1">
       <c r="A314" s="22">
         <v>21090</v>
       </c>
@@ -11554,7 +11554,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" ht="12" hidden="1">
       <c r="A315" s="22">
         <v>21090</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" ht="12" hidden="1">
       <c r="A316" s="22">
         <v>21068</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" ht="12" hidden="1">
       <c r="A317" s="22">
         <v>21068</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" ht="13.5">
       <c r="A318" s="21">
         <v>19055</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>44364</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" ht="13.5">
       <c r="A319" s="21">
         <v>19055</v>
       </c>
@@ -11725,7 +11725,7 @@
         <v>44369</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" ht="12" hidden="1">
       <c r="A320" s="22">
         <v>21049</v>
       </c>
@@ -11758,7 +11758,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="321" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" ht="12" hidden="1">
       <c r="A321" s="22">
         <v>21049</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" ht="13.5">
       <c r="A322" s="21">
         <v>19055</v>
       </c>
@@ -11819,7 +11819,7 @@
         <v>44371</v>
       </c>
     </row>
-    <row r="323" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" ht="13.5">
       <c r="A323" s="21">
         <v>19055</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="324" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" ht="13.5">
       <c r="A324" s="21">
         <v>19055</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>44383</v>
       </c>
     </row>
-    <row r="325" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" ht="12" hidden="1">
       <c r="A325" s="22">
         <v>21068</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="326" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" ht="12" hidden="1">
       <c r="A326" s="22">
         <v>21096</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="327" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" ht="13.5" hidden="1">
       <c r="A327" s="22">
         <v>21068</v>
       </c>
@@ -11990,7 +11990,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" ht="12" hidden="1">
       <c r="A328" s="22">
         <v>21096</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="329" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" ht="13.5" hidden="1">
       <c r="A329" s="22">
         <v>21090</v>
       </c>
@@ -12056,7 +12056,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" ht="12" hidden="1">
       <c r="A330" s="22">
         <v>21068</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" ht="13.5" hidden="1">
       <c r="A331" s="22">
         <v>21071</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" ht="12" hidden="1">
       <c r="A332" s="22">
         <v>21068</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" ht="12" hidden="1">
       <c r="A333" s="22">
         <v>21091</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" ht="13.5">
       <c r="A334" s="21">
         <v>19055</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>44385</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" ht="13.5">
       <c r="A335" s="21">
         <v>19055</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>44390</v>
       </c>
     </row>
-    <row r="336" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" ht="12" hidden="1">
       <c r="A336" s="22">
         <v>21068</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="337" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" ht="13.5">
       <c r="A337" s="21">
         <v>19055</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" ht="12" hidden="1">
       <c r="A338" s="22">
         <v>21068</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" ht="12" hidden="1">
       <c r="A339" s="22">
         <v>21068</v>
       </c>
@@ -12371,7 +12371,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="340" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" ht="12" hidden="1">
       <c r="A340" s="22">
         <v>21068</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="341" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" ht="12" hidden="1">
       <c r="A341" s="22">
         <v>21068</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" ht="12" hidden="1">
       <c r="A342" s="22">
         <v>21068</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="343" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A343" s="22">
         <v>21068</v>
       </c>
@@ -12471,7 +12471,7 @@
       <c r="E343" s="38"/>
       <c r="F343" s="38"/>
     </row>
-    <row r="344" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A344" s="22">
         <v>21087</v>
       </c>
@@ -12501,12 +12501,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" ht="15.75" customHeight="1">
       <c r="A345" s="21">
         <v>19055</v>
       </c>
       <c r="B345" s="21" t="str">
-        <f t="shared" ref="B345:B365" si="50">VLOOKUP(A345,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" ref="B345:B364" si="50">VLOOKUP(A345,$A$3:$B$13,2,FALSE)</f>
         <v>宮本　希</v>
       </c>
       <c r="C345" s="26">
@@ -12537,7 +12537,7 @@
         <v>44397</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A346" s="22">
         <v>21068</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A347" s="21">
         <v>21068</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="348" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A348" s="22">
         <v>21091</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A349" s="22">
         <v>21091</v>
       </c>
@@ -12642,7 +12642,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A350" s="22">
         <v>21096</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="351" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A351" s="22">
         <v>21096</v>
       </c>
@@ -12686,7 +12686,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="352" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" ht="15.75" customHeight="1">
       <c r="A352" s="21">
         <v>19055</v>
       </c>
@@ -12722,7 +12722,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="353" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:12" ht="15.75" customHeight="1">
       <c r="A353" s="21">
         <v>19055</v>
       </c>
@@ -12758,7 +12758,7 @@
         <v>44322</v>
       </c>
     </row>
-    <row r="354" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:12" ht="15.75" customHeight="1">
       <c r="A354" s="21">
         <v>19055</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>44481</v>
       </c>
     </row>
-    <row r="355" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:12" ht="15.75" customHeight="1">
       <c r="A355" s="21">
         <v>19055</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="356" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:12" ht="15.75" customHeight="1">
       <c r="A356" s="21">
         <v>19055</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="357" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:12" ht="15.75" customHeight="1">
       <c r="A357" s="21">
         <v>19055</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="358" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:12" ht="15.75" customHeight="1">
       <c r="A358" s="21">
         <v>19055</v>
       </c>
@@ -12938,7 +12938,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="359" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A359" s="22">
         <v>21068</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="360" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:12" ht="15.75" customHeight="1">
       <c r="A360" s="22">
         <v>19055</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="361" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:12" ht="15.75" customHeight="1">
       <c r="A361" s="22">
         <v>19055</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="362" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:12" ht="15.75" customHeight="1">
       <c r="A362" s="22">
         <v>19055</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="363" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:12" ht="15.75" customHeight="1">
       <c r="A363" s="22">
         <v>19055</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="364" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:12" ht="15.75" customHeight="1">
       <c r="A364" s="22">
         <v>19055</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="365" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:12" ht="15.75" customHeight="1">
       <c r="A365" s="22">
         <v>19055</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="366" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:12" ht="15.75" customHeight="1">
       <c r="A366" s="22">
         <v>19055</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="367" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:12" ht="15.75" customHeight="1">
       <c r="A367" s="22">
         <v>19055</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="368" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:12" ht="15.75" customHeight="1">
       <c r="A368" s="22">
         <v>19055</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="369" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10" ht="15.75" customHeight="1">
       <c r="A369" s="22">
         <v>19055</v>
       </c>
@@ -13151,7 +13151,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="370" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:10" ht="15.75" customHeight="1">
       <c r="A370" s="22">
         <v>19055</v>
       </c>
@@ -13169,7 +13169,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="371" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:10" ht="15.75" customHeight="1">
       <c r="A371" s="22">
         <v>19055</v>
       </c>
@@ -13187,7 +13187,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:10" ht="15.75" customHeight="1">
       <c r="A372" s="22">
         <v>19055</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="373" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10" ht="15.75" customHeight="1">
       <c r="A373" s="22">
         <v>19055</v>
       </c>
@@ -13223,7 +13223,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="374" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" ht="15.75" customHeight="1">
       <c r="A374" s="22">
         <v>19055</v>
       </c>
@@ -13241,7 +13241,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="375" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" ht="15.75" hidden="1" customHeight="1">
       <c r="A375" s="22">
         <v>21090</v>
       </c>
@@ -13263,7 +13263,7 @@
   <autoFilter ref="A16:L375">
     <filterColumn colId="1">
       <filters>
-        <filter val="中原　遥翔"/>
+        <filter val="宮本　希"/>
       </filters>
     </filterColumn>
     <sortState ref="A182:L288">
@@ -13298,13 +13298,13 @@
       <selection pane="topRight" activeCell="S59" sqref="S59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="3" max="32" width="5.85546875" customWidth="1"/>
     <col min="33" max="88" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:88" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>218</v>
       </c>
@@ -13322,7 +13322,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:88" ht="12.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -13381,7 +13381,7 @@
       <c r="CI2" s="3"/>
       <c r="CJ2" s="3"/>
     </row>
-    <row r="3" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:88" ht="12.75">
       <c r="A3" s="1">
         <v>21091</v>
       </c>
@@ -13411,7 +13411,7 @@
       <c r="CI3" s="1"/>
       <c r="CJ3" s="1"/>
     </row>
-    <row r="4" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:88" ht="12.75">
       <c r="A4" s="1">
         <v>21036</v>
       </c>
@@ -13438,7 +13438,7 @@
       <c r="CI4" s="1"/>
       <c r="CJ4" s="1"/>
     </row>
-    <row r="5" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:88" ht="12.75">
       <c r="A5" s="1">
         <v>21071</v>
       </c>
@@ -13468,7 +13468,7 @@
       <c r="CI5" s="1"/>
       <c r="CJ5" s="1"/>
     </row>
-    <row r="6" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:88" ht="12.75">
       <c r="A6" s="1">
         <v>21083</v>
       </c>
@@ -13492,7 +13492,7 @@
       <c r="CI6" s="1"/>
       <c r="CJ6" s="1"/>
     </row>
-    <row r="7" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:88" ht="12.75">
       <c r="A7" s="1">
         <v>21087</v>
       </c>
@@ -13516,7 +13516,7 @@
       <c r="CI7" s="1"/>
       <c r="CJ7" s="1"/>
     </row>
-    <row r="8" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:88" ht="12.75">
       <c r="A8" s="1">
         <v>21068</v>
       </c>
@@ -13546,7 +13546,7 @@
       <c r="CI8" s="1"/>
       <c r="CJ8" s="1"/>
     </row>
-    <row r="9" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:88" ht="12.75">
       <c r="A9" s="1">
         <v>19055</v>
       </c>
@@ -13579,11 +13579,11 @@
       <c r="CI9" s="1"/>
       <c r="CJ9" s="1"/>
     </row>
-    <row r="10" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:88" ht="12.75">
       <c r="AS10" s="8"/>
       <c r="AT10" s="8"/>
     </row>
-    <row r="11" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:88" ht="12.75">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -13605,7 +13605,7 @@
       <c r="AS11" s="8"/>
       <c r="AT11" s="8"/>
     </row>
-    <row r="12" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:88" ht="12.75">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -13708,7 +13708,7 @@
       <c r="AS12" s="8"/>
       <c r="AT12" s="8"/>
     </row>
-    <row r="13" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:88" ht="12.75">
       <c r="A13" s="1">
         <v>21091</v>
       </c>
@@ -13787,7 +13787,7 @@
       <c r="AS13" s="8"/>
       <c r="AT13" s="8"/>
     </row>
-    <row r="14" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:88" ht="12.75">
       <c r="A14" s="1">
         <v>21036</v>
       </c>
@@ -13878,7 +13878,7 @@
       <c r="AS14" s="8"/>
       <c r="AT14" s="8"/>
     </row>
-    <row r="15" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:88" ht="12.75">
       <c r="A15" s="1">
         <v>21071</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:88" ht="12.75">
       <c r="A16" s="1">
         <v>21083</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" ht="12.75">
       <c r="A17" s="1">
         <v>21087</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" ht="12.75">
       <c r="A18" s="1">
         <v>21068</v>
       </c>
@@ -14234,7 +14234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" ht="12.75">
       <c r="A19" s="1">
         <v>19055</v>
       </c>
@@ -14311,12 +14311,12 @@
         <v>29.799999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" ht="12.75">
       <c r="C21" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" ht="12.75">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -14418,7 +14418,7 @@
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
     </row>
-    <row r="23" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" ht="12.75">
       <c r="A23" s="1">
         <v>21091</v>
       </c>
@@ -14519,7 +14519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" ht="12.75">
       <c r="A24" s="1">
         <v>21036</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" ht="12.75">
       <c r="A25" s="1">
         <v>21071</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" ht="12.75">
       <c r="A26" s="1">
         <v>21083</v>
       </c>
@@ -14822,7 +14822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" ht="12.75">
       <c r="A27" s="1">
         <v>21087</v>
       </c>
@@ -14923,7 +14923,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" ht="12.75">
       <c r="A28" s="1">
         <v>21068</v>
       </c>
@@ -15024,7 +15024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" ht="12.75">
       <c r="A29" s="1">
         <v>19055</v>
       </c>
@@ -15125,12 +15125,12 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" ht="12.75">
       <c r="C31" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" ht="12.75">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -15228,7 +15228,7 @@
         <v>44499</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" ht="12.75">
       <c r="A33" s="1">
         <v>21091</v>
       </c>
@@ -15334,7 +15334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" ht="12.75">
       <c r="A34" s="1">
         <v>21036</v>
       </c>
@@ -15440,7 +15440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" ht="12.75">
       <c r="A35" s="1">
         <v>21071</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" ht="12.75">
       <c r="A36" s="1">
         <v>21083</v>
       </c>
@@ -15652,7 +15652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" ht="12.75">
       <c r="A37" s="1">
         <v>21087</v>
       </c>
@@ -15758,7 +15758,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" ht="12.75">
       <c r="A38" s="1">
         <v>21068</v>
       </c>
@@ -15864,7 +15864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" ht="12.75">
       <c r="A39" s="1">
         <v>19055</v>
       </c>
@@ -15970,12 +15970,12 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" ht="12.75">
       <c r="C41" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" ht="12.75">
       <c r="A42" s="1" t="s">
         <v>2</v>
       </c>
@@ -16073,7 +16073,7 @@
         <v>44530</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" ht="12.75">
       <c r="A43" s="1">
         <v>21091</v>
       </c>
@@ -16098,7 +16098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" ht="12.75">
       <c r="A44" s="1">
         <v>21036</v>
       </c>
@@ -16135,7 +16135,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" ht="12.75">
       <c r="A45" s="1">
         <v>21071</v>
       </c>
@@ -16160,7 +16160,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" ht="12.75">
       <c r="A46" s="1">
         <v>21083</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" ht="12.75">
       <c r="A47" s="1">
         <v>21087</v>
       </c>
@@ -16210,7 +16210,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" ht="12.75">
       <c r="A48" s="1">
         <v>21068</v>
       </c>
@@ -16241,7 +16241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" ht="12.75">
       <c r="A49" s="1">
         <v>19055</v>
       </c>
@@ -16288,18 +16288,18 @@
         <v>74.8</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" ht="12.75">
       <c r="Z50" s="8"/>
       <c r="AA50" s="8"/>
     </row>
-    <row r="51" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" ht="12.75">
       <c r="C51" s="1" t="s">
         <v>230</v>
       </c>
       <c r="Z51" s="8"/>
       <c r="AA51" s="8"/>
     </row>
-    <row r="52" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37" ht="12.75">
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
@@ -16397,7 +16397,7 @@
         <v>44560</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37" ht="12.75">
       <c r="A53" s="1">
         <v>21091</v>
       </c>
@@ -16433,7 +16433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:37" ht="12.75">
       <c r="A54" s="1">
         <v>21036</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:37" ht="12.75">
       <c r="A55" s="1">
         <v>21071</v>
       </c>
@@ -16501,7 +16501,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37" ht="12.75">
       <c r="A56" s="1">
         <v>21083</v>
       </c>
@@ -16526,7 +16526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:37" ht="12.75">
       <c r="A57" s="1">
         <v>21087</v>
       </c>
@@ -16550,7 +16550,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:37" ht="12.75">
       <c r="A58" s="1">
         <v>21068</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:37" ht="12.75">
       <c r="A59" s="1">
         <v>19055</v>
       </c>
@@ -16636,12 +16636,12 @@
         <v>128.80000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:37" ht="15.75" customHeight="1">
       <c r="C61" s="40" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:37" ht="15.75" customHeight="1">
       <c r="A62" s="16" t="s">
         <v>2</v>
       </c>
@@ -16772,7 +16772,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:37" ht="15.75" customHeight="1">
       <c r="A63" s="16">
         <v>21091</v>
       </c>
@@ -16801,7 +16801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:37" ht="15.75" customHeight="1">
       <c r="A64" s="16">
         <v>21036</v>
       </c>
@@ -16827,7 +16827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:35" ht="15.75" customHeight="1">
       <c r="A65" s="16">
         <v>21071</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:35" ht="15.75" customHeight="1">
       <c r="A66" s="16">
         <v>21083</v>
       </c>
@@ -16882,7 +16882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:35" ht="15.75" customHeight="1">
       <c r="A67" s="16">
         <v>21087</v>
       </c>
@@ -16908,7 +16908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:35" ht="15.75" customHeight="1">
       <c r="A68" s="16">
         <v>21068</v>
       </c>
@@ -16940,7 +16940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:35" ht="15.75" customHeight="1">
       <c r="A69" s="16">
         <v>19055</v>
       </c>
@@ -16985,9 +16985,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>231</v>
       </c>
@@ -17001,7 +17001,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="18.75" hidden="1">
       <c r="A2" s="19">
         <v>44334</v>
       </c>
@@ -17012,7 +17012,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="18.75" hidden="1">
       <c r="A3" s="19">
         <v>44355</v>
       </c>
@@ -17023,7 +17023,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="18.75" hidden="1">
       <c r="A4" s="19">
         <v>44369</v>
       </c>
@@ -17034,7 +17034,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="18.75" hidden="1">
       <c r="A5" s="19">
         <v>44376</v>
       </c>
@@ -17045,7 +17045,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="18.75" hidden="1">
       <c r="A6" s="19">
         <v>44322</v>
       </c>
@@ -17056,7 +17056,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="18.75" hidden="1">
       <c r="A7" s="19">
         <v>44322</v>
       </c>
@@ -17067,7 +17067,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="18.75" hidden="1">
       <c r="A8" s="19">
         <v>44323</v>
       </c>
@@ -17078,7 +17078,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="18.75" hidden="1">
       <c r="A9" s="19">
         <v>44328</v>
       </c>
@@ -17089,7 +17089,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="18.75" hidden="1">
       <c r="A10" s="19">
         <v>44328</v>
       </c>
@@ -17100,7 +17100,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="18.75" hidden="1">
       <c r="A11" s="19">
         <v>44329</v>
       </c>
@@ -17111,7 +17111,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="18.75" hidden="1">
       <c r="A12" s="19">
         <v>44329</v>
       </c>
@@ -17122,7 +17122,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="18.75" hidden="1">
       <c r="A13" s="19">
         <v>44330</v>
       </c>
@@ -17133,7 +17133,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="18.75" hidden="1">
       <c r="A14" s="19">
         <v>44333</v>
       </c>
@@ -17144,7 +17144,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="18.75" hidden="1">
       <c r="A15" s="19">
         <v>44333</v>
       </c>
@@ -17155,7 +17155,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="18.75" hidden="1">
       <c r="A16" s="19">
         <v>44334</v>
       </c>
@@ -17166,7 +17166,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="18.75" hidden="1">
       <c r="A17" s="19">
         <v>44334</v>
       </c>
@@ -17177,7 +17177,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="18.75" hidden="1">
       <c r="A18" s="19">
         <v>44343</v>
       </c>
@@ -17188,7 +17188,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="18.75" hidden="1">
       <c r="A19" s="19">
         <v>44343</v>
       </c>
@@ -17199,7 +17199,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="18.75" hidden="1">
       <c r="A20" s="19">
         <v>44350</v>
       </c>
@@ -17210,7 +17210,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="18.75" hidden="1">
       <c r="A21" s="19">
         <v>44350</v>
       </c>
@@ -17221,7 +17221,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="18.75" hidden="1">
       <c r="A22" s="19">
         <v>44354</v>
       </c>
@@ -17232,7 +17232,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="18.75" hidden="1">
       <c r="A23" s="19">
         <v>44354</v>
       </c>
@@ -17243,7 +17243,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="18.75" hidden="1">
       <c r="A24" s="19">
         <v>44355</v>
       </c>
@@ -17254,7 +17254,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="18.75" hidden="1">
       <c r="A25" s="19">
         <v>44355</v>
       </c>
@@ -17265,7 +17265,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="18.75" hidden="1">
       <c r="A26" s="19">
         <v>44364</v>
       </c>
@@ -17276,7 +17276,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="18.75" hidden="1">
       <c r="A27" s="19">
         <v>44364</v>
       </c>
@@ -17287,7 +17287,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="18.75" hidden="1">
       <c r="A28" s="19">
         <v>44365</v>
       </c>
@@ -17298,7 +17298,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="18.75" hidden="1">
       <c r="A29" s="19">
         <v>44368</v>
       </c>
@@ -17309,7 +17309,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="18.75" hidden="1">
       <c r="A30" s="19">
         <v>44368</v>
       </c>
@@ -17320,7 +17320,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="18.75" hidden="1">
       <c r="A31" s="19">
         <v>44369</v>
       </c>
@@ -17331,7 +17331,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="18.75" hidden="1">
       <c r="A32" s="19">
         <v>44369</v>
       </c>
@@ -17342,7 +17342,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="18.75" hidden="1">
       <c r="A33" s="19">
         <v>44370</v>
       </c>
@@ -17353,7 +17353,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="18.75" hidden="1">
       <c r="A34" s="19">
         <v>44370</v>
       </c>
@@ -17364,7 +17364,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" ht="18.75" hidden="1">
       <c r="A35" s="19">
         <v>44371</v>
       </c>
@@ -17375,7 +17375,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="18.75" hidden="1">
       <c r="A36" s="19">
         <v>44371</v>
       </c>
@@ -17386,7 +17386,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="18.75" hidden="1">
       <c r="A37" s="19">
         <v>44372</v>
       </c>
@@ -17397,7 +17397,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" ht="18.75" hidden="1">
       <c r="A38" s="19">
         <v>44375</v>
       </c>
@@ -17408,7 +17408,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" ht="18.75" hidden="1">
       <c r="A39" s="19">
         <v>44375</v>
       </c>
@@ -17419,7 +17419,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" ht="18.75" hidden="1">
       <c r="A40" s="19">
         <v>44376</v>
       </c>
@@ -17430,7 +17430,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" ht="18.75" hidden="1">
       <c r="A41" s="19">
         <v>44376</v>
       </c>
@@ -17441,7 +17441,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="18.75" hidden="1">
       <c r="A42" s="19">
         <v>44377</v>
       </c>
@@ -17452,7 +17452,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" ht="18.75" hidden="1">
       <c r="A43" s="19">
         <v>44377</v>
       </c>
@@ -17463,7 +17463,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" ht="18.75" hidden="1">
       <c r="A44" s="19">
         <v>44378</v>
       </c>
@@ -17474,7 +17474,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" ht="18.75" hidden="1">
       <c r="A45" s="19">
         <v>44378</v>
       </c>
@@ -17485,7 +17485,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" ht="18.75" hidden="1">
       <c r="A46" s="19">
         <v>44379</v>
       </c>
@@ -17496,7 +17496,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" ht="18.75" hidden="1">
       <c r="A47" s="19">
         <v>44382</v>
       </c>
@@ -17507,7 +17507,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" ht="18.75" hidden="1">
       <c r="A48" s="19">
         <v>44382</v>
       </c>
@@ -17518,7 +17518,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" ht="18.75" hidden="1">
       <c r="A49" s="19">
         <v>44383</v>
       </c>
@@ -17529,7 +17529,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" ht="18.75" hidden="1">
       <c r="A50" s="19">
         <v>44383</v>
       </c>
@@ -17540,7 +17540,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" ht="18.75" hidden="1">
       <c r="A51" s="19">
         <v>44384</v>
       </c>
@@ -17551,7 +17551,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" ht="18.75" hidden="1">
       <c r="A52" s="19">
         <v>44384</v>
       </c>
@@ -17562,7 +17562,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" ht="18.75" hidden="1">
       <c r="A53" s="19">
         <v>44385</v>
       </c>
@@ -17573,7 +17573,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" ht="18.75" hidden="1">
       <c r="A54" s="19">
         <v>44385</v>
       </c>
@@ -17584,7 +17584,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" ht="18.75" hidden="1">
       <c r="A55" s="19">
         <v>44386</v>
       </c>
@@ -17595,7 +17595,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" ht="18.75" hidden="1">
       <c r="A56" s="19">
         <v>44389</v>
       </c>
@@ -17606,7 +17606,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" ht="18.75" hidden="1">
       <c r="A57" s="19">
         <v>44389</v>
       </c>
@@ -17617,7 +17617,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" ht="18.75" hidden="1">
       <c r="A58" s="19">
         <v>44390</v>
       </c>
@@ -17628,7 +17628,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" ht="18.75" hidden="1">
       <c r="A59" s="19">
         <v>44390</v>
       </c>
@@ -17639,7 +17639,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" ht="18.75" hidden="1">
       <c r="A60" s="19">
         <v>44391</v>
       </c>
@@ -17650,7 +17650,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" ht="18.75" hidden="1">
       <c r="A61" s="19">
         <v>44391</v>
       </c>
@@ -17661,7 +17661,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" ht="18.75" hidden="1">
       <c r="A62" s="19">
         <v>44392</v>
       </c>
@@ -17672,7 +17672,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" ht="18.75" hidden="1">
       <c r="A63" s="19">
         <v>44392</v>
       </c>
@@ -17683,7 +17683,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" ht="18.75" hidden="1">
       <c r="A64" s="19">
         <v>44393</v>
       </c>
@@ -17694,7 +17694,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" ht="18.75" hidden="1">
       <c r="A65" s="19">
         <v>44396</v>
       </c>
@@ -17705,7 +17705,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" ht="18.75" hidden="1">
       <c r="A66" s="19">
         <v>44396</v>
       </c>
@@ -17716,7 +17716,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" ht="18.75" hidden="1">
       <c r="A67" s="19">
         <v>44397</v>
       </c>
@@ -17727,7 +17727,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" ht="18.75" hidden="1">
       <c r="A68" s="19">
         <v>44397</v>
       </c>
@@ -17738,7 +17738,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" ht="18.75" hidden="1">
       <c r="A69" s="19">
         <v>44398</v>
       </c>
@@ -17749,7 +17749,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" ht="18.75" hidden="1">
       <c r="A70" s="19">
         <v>44398</v>
       </c>
@@ -17760,7 +17760,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" ht="18.75" hidden="1">
       <c r="A71" s="19">
         <v>44403</v>
       </c>
@@ -17771,7 +17771,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" ht="18.75" hidden="1">
       <c r="A72" s="19">
         <v>44403</v>
       </c>
@@ -17782,7 +17782,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" ht="18.75" hidden="1">
       <c r="A73" s="19">
         <v>44404</v>
       </c>
@@ -17793,7 +17793,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" ht="18.75" hidden="1">
       <c r="A74" s="19">
         <v>44404</v>
       </c>
@@ -17804,7 +17804,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" ht="18.75" hidden="1">
       <c r="A75" s="19">
         <v>44405</v>
       </c>
@@ -17815,7 +17815,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" ht="18.75" hidden="1">
       <c r="A76" s="19">
         <v>44405</v>
       </c>
@@ -17826,7 +17826,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" ht="18.75" hidden="1">
       <c r="A77" s="19">
         <v>44406</v>
       </c>
@@ -17837,7 +17837,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" ht="18.75" hidden="1">
       <c r="A78" s="19">
         <v>44406</v>
       </c>
@@ -17848,7 +17848,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" ht="18.75" hidden="1">
       <c r="A79" s="19">
         <v>44452</v>
       </c>
@@ -17859,7 +17859,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" ht="18.75" hidden="1">
       <c r="A80" s="19">
         <v>44452</v>
       </c>
@@ -17870,7 +17870,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" ht="18.75" hidden="1">
       <c r="A81" s="19">
         <v>44453</v>
       </c>
@@ -17881,7 +17881,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" ht="18.75" hidden="1">
       <c r="A82" s="19">
         <v>44454</v>
       </c>
@@ -17892,7 +17892,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" ht="18.75" hidden="1">
       <c r="A83" s="19">
         <v>44454</v>
       </c>
@@ -17903,7 +17903,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" ht="18.75" hidden="1">
       <c r="A84" s="19">
         <v>44455</v>
       </c>
@@ -17914,7 +17914,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" ht="18.75" hidden="1">
       <c r="A85" s="19">
         <v>44455</v>
       </c>
@@ -17925,7 +17925,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" ht="18.75" hidden="1">
       <c r="A86" s="19">
         <v>44456</v>
       </c>
@@ -17936,7 +17936,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" ht="18.75" hidden="1">
       <c r="A87" s="19">
         <v>44460</v>
       </c>
@@ -17947,7 +17947,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" ht="18.75" hidden="1">
       <c r="A88" s="19">
         <v>44466</v>
       </c>
@@ -17958,7 +17958,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" ht="18.75" hidden="1">
       <c r="A89" s="19">
         <v>44466</v>
       </c>
@@ -17969,7 +17969,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" ht="18.75" hidden="1">
       <c r="A90" s="19">
         <v>44467</v>
       </c>
@@ -17980,7 +17980,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" ht="18.75" hidden="1">
       <c r="A91" s="19">
         <v>44468</v>
       </c>
@@ -17991,7 +17991,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" ht="18.75" hidden="1">
       <c r="A92" s="19">
         <v>44468</v>
       </c>
@@ -18002,7 +18002,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" ht="18.75" hidden="1">
       <c r="A93" s="19">
         <v>44469</v>
       </c>
@@ -18013,7 +18013,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" ht="18.75" hidden="1">
       <c r="A94" s="19">
         <v>44469</v>
       </c>
@@ -18024,7 +18024,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" ht="18.75" hidden="1">
       <c r="A95" s="19">
         <v>44474</v>
       </c>
@@ -18035,7 +18035,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" ht="18.75" hidden="1">
       <c r="A96" s="19">
         <v>44475</v>
       </c>
@@ -18046,7 +18046,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" ht="18.75" hidden="1">
       <c r="A97" s="19">
         <v>44475</v>
       </c>
@@ -18057,7 +18057,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" ht="18.75" hidden="1">
       <c r="A98" s="19">
         <v>44476</v>
       </c>
@@ -18068,7 +18068,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" ht="18.75" hidden="1">
       <c r="A99" s="19">
         <v>44476</v>
       </c>
@@ -18079,7 +18079,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" ht="18.75" hidden="1">
       <c r="A100" s="19">
         <v>44477</v>
       </c>
@@ -18090,7 +18090,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" ht="18.75">
       <c r="A101" s="19">
         <v>44378</v>
       </c>
@@ -18101,7 +18101,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" ht="18.75">
       <c r="A102" s="19">
         <v>44383</v>
       </c>
@@ -18112,7 +18112,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" ht="18.75">
       <c r="A103" s="19">
         <v>44385</v>
       </c>
@@ -18123,7 +18123,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" ht="18.75">
       <c r="A104" s="19">
         <v>44390</v>
       </c>
@@ -18134,7 +18134,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3" ht="18.75">
       <c r="A105" s="19">
         <v>44392</v>
       </c>
@@ -18145,7 +18145,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3" ht="18.75">
       <c r="A106" s="19">
         <v>44397</v>
       </c>
@@ -18156,7 +18156,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3" ht="18.75">
       <c r="A107" s="19">
         <v>44404</v>
       </c>
@@ -18167,7 +18167,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:3" ht="18.75">
       <c r="A108" s="19">
         <v>44406</v>
       </c>
@@ -18178,7 +18178,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:3" ht="18.75">
       <c r="A109" s="19">
         <v>44453</v>
       </c>
@@ -18189,7 +18189,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:3" ht="18.75">
       <c r="A110" s="19">
         <v>44455</v>
       </c>
@@ -18200,7 +18200,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:3" ht="18.75">
       <c r="A111" s="19">
         <v>44460</v>
       </c>
@@ -18211,7 +18211,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:3" ht="18.75">
       <c r="A112" s="19">
         <v>44467</v>
       </c>
@@ -18222,7 +18222,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" ht="18.75">
       <c r="A113" s="19">
         <v>44469</v>
       </c>
@@ -18233,7 +18233,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" ht="18.75">
       <c r="A114" s="19">
         <v>44474</v>
       </c>
@@ -18244,7 +18244,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" ht="18.75">
       <c r="A115" s="19">
         <v>44476</v>
       </c>
@@ -18255,7 +18255,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" ht="18.75" hidden="1">
       <c r="A116" s="19">
         <v>44323</v>
       </c>
@@ -18266,7 +18266,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" ht="18.75" hidden="1">
       <c r="A117" s="19">
         <v>44323</v>
       </c>
@@ -18277,7 +18277,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" ht="18.75" hidden="1">
       <c r="A118" s="19">
         <v>44328</v>
       </c>
@@ -18288,7 +18288,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" ht="18.75" hidden="1">
       <c r="A119" s="19">
         <v>44370</v>
       </c>
@@ -18299,7 +18299,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" ht="18.75" hidden="1">
       <c r="A120" s="19">
         <v>44377</v>
       </c>
@@ -18310,7 +18310,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" ht="18.75" hidden="1">
       <c r="A121" s="19">
         <v>44384</v>
       </c>
@@ -18321,7 +18321,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" ht="18.75" hidden="1">
       <c r="A122" s="19">
         <v>44391</v>
       </c>
@@ -18332,7 +18332,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" ht="18.75" hidden="1">
       <c r="A123" s="19">
         <v>44398</v>
       </c>
@@ -18343,7 +18343,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" ht="18.75" hidden="1">
       <c r="A124" s="19">
         <v>44405</v>
       </c>
@@ -18354,7 +18354,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" ht="18.75" hidden="1">
       <c r="A125" s="19">
         <v>44453</v>
       </c>
@@ -18365,7 +18365,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" ht="18.75" hidden="1">
       <c r="A126" s="19">
         <v>44460</v>
       </c>
@@ -18376,7 +18376,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" ht="18.75" hidden="1">
       <c r="A127" s="19">
         <v>44474</v>
       </c>
@@ -18387,7 +18387,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" ht="18.75" hidden="1">
       <c r="A128" s="19">
         <v>44333</v>
       </c>
@@ -18398,7 +18398,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" ht="18.75" hidden="1">
       <c r="A129" s="19">
         <v>44333</v>
       </c>
@@ -18409,7 +18409,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" ht="18.75" hidden="1">
       <c r="A130" s="19">
         <v>44354</v>
       </c>
@@ -18420,7 +18420,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" ht="18.75" hidden="1">
       <c r="A131" s="19">
         <v>44354</v>
       </c>
@@ -18431,7 +18431,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" ht="18.75" hidden="1">
       <c r="A132" s="19">
         <v>44368</v>
       </c>
@@ -18442,7 +18442,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" ht="18.75" hidden="1">
       <c r="A133" s="19">
         <v>44368</v>
       </c>
@@ -18453,7 +18453,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" ht="18.75" hidden="1">
       <c r="A134" s="19">
         <v>44375</v>
       </c>
@@ -18464,7 +18464,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" ht="18.75" hidden="1">
       <c r="A135" s="19">
         <v>44382</v>
       </c>
@@ -18475,7 +18475,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" ht="18.75" hidden="1">
       <c r="A136" s="19">
         <v>44382</v>
       </c>
@@ -18486,7 +18486,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" ht="18.75" hidden="1">
       <c r="A137" s="19">
         <v>44389</v>
       </c>
@@ -18497,7 +18497,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:3" ht="18.75" hidden="1">
       <c r="A138" s="19">
         <v>44389</v>
       </c>
@@ -18508,7 +18508,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" ht="18.75" hidden="1">
       <c r="A139" s="19">
         <v>44396</v>
       </c>
@@ -18519,7 +18519,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" ht="18.75" hidden="1">
       <c r="A140" s="19">
         <v>44396</v>
       </c>
@@ -18530,7 +18530,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" ht="18.75" hidden="1">
       <c r="A141" s="19">
         <v>44403</v>
       </c>
@@ -18541,7 +18541,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" ht="18.75" hidden="1">
       <c r="A142" s="19">
         <v>44403</v>
       </c>
@@ -18552,7 +18552,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" ht="18.75" hidden="1">
       <c r="A143" s="19">
         <v>44452</v>
       </c>
@@ -18563,7 +18563,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" ht="18.75" hidden="1">
       <c r="A144" s="19">
         <v>44452</v>
       </c>
@@ -18574,7 +18574,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" ht="18.75" hidden="1">
       <c r="A145" s="19">
         <v>44466</v>
       </c>
@@ -18585,7 +18585,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" ht="18.75" hidden="1">
       <c r="A146" s="19">
         <v>44466</v>
       </c>
@@ -18596,7 +18596,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" ht="18.75" hidden="1">
       <c r="A147" s="19">
         <v>44330</v>
       </c>
@@ -18607,7 +18607,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:3" ht="18.75" hidden="1">
       <c r="A148" s="19">
         <v>44330</v>
       </c>
@@ -18618,7 +18618,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3" ht="18.75" hidden="1">
       <c r="A149" s="19">
         <v>44365</v>
       </c>
@@ -18629,7 +18629,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:3" ht="18.75" hidden="1">
       <c r="A150" s="19">
         <v>44365</v>
       </c>
@@ -18640,7 +18640,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:3" ht="18.75" hidden="1">
       <c r="A151" s="19">
         <v>44372</v>
       </c>
@@ -18651,7 +18651,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:3" ht="18.75" hidden="1">
       <c r="A152" s="19">
         <v>44372</v>
       </c>
@@ -18662,7 +18662,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:3" ht="18.75" hidden="1">
       <c r="A153" s="19">
         <v>44379</v>
       </c>
@@ -18673,7 +18673,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:3" ht="18.75" hidden="1">
       <c r="A154" s="19">
         <v>44379</v>
       </c>
@@ -18684,7 +18684,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:3" ht="18.75" hidden="1">
       <c r="A155" s="19">
         <v>44386</v>
       </c>
@@ -18695,7 +18695,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:3" ht="18.75" hidden="1">
       <c r="A156" s="19">
         <v>44386</v>
       </c>
@@ -18706,7 +18706,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:3" ht="18.75" hidden="1">
       <c r="A157" s="19">
         <v>44393</v>
       </c>
@@ -18717,7 +18717,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:3" ht="18.75" hidden="1">
       <c r="A158" s="19">
         <v>44393</v>
       </c>
@@ -18728,7 +18728,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:3" ht="18.75" hidden="1">
       <c r="A159" s="19">
         <v>44477</v>
       </c>
@@ -18739,7 +18739,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:3" ht="18.75" hidden="1">
       <c r="A160" s="19">
         <v>44477</v>
       </c>
@@ -18750,7 +18750,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3" ht="18.75" hidden="1">
       <c r="A161" s="19">
         <v>44323</v>
       </c>
@@ -18761,7 +18761,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3" ht="18.75" hidden="1">
       <c r="A162" s="19">
         <v>44330</v>
       </c>
@@ -18772,7 +18772,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:3" ht="18.75" hidden="1">
       <c r="A163" s="19">
         <v>44365</v>
       </c>
@@ -18783,7 +18783,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:3" ht="18.75" hidden="1">
       <c r="A164" s="19">
         <v>44372</v>
       </c>
@@ -18794,7 +18794,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:3" ht="18.75" hidden="1">
       <c r="A165" s="19">
         <v>44379</v>
       </c>
@@ -18805,7 +18805,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:3" ht="18.75" hidden="1">
       <c r="A166" s="19">
         <v>44386</v>
       </c>
@@ -18816,7 +18816,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:3" ht="18.75" hidden="1">
       <c r="A167" s="19">
         <v>44393</v>
       </c>
@@ -18827,7 +18827,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:3" ht="18.75" hidden="1">
       <c r="A168" s="19">
         <v>44456</v>
       </c>
@@ -18838,7 +18838,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:3" ht="18.75" hidden="1">
       <c r="A169" s="19">
         <v>44477</v>
       </c>
@@ -18849,7 +18849,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:3" ht="18.75" hidden="1">
       <c r="A170" s="19">
         <v>44328</v>
       </c>
@@ -18860,7 +18860,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:3" ht="18.75" hidden="1">
       <c r="A171" s="19">
         <v>44370</v>
       </c>
@@ -18871,7 +18871,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:3" ht="18.75" hidden="1">
       <c r="A172" s="19">
         <v>44377</v>
       </c>
@@ -18882,7 +18882,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:3" ht="18.75" hidden="1">
       <c r="A173" s="19">
         <v>44384</v>
       </c>
@@ -18893,7 +18893,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:3" ht="18.75" hidden="1">
       <c r="A174" s="19">
         <v>44391</v>
       </c>
@@ -18904,7 +18904,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:3" ht="18.75" hidden="1">
       <c r="A175" s="19">
         <v>44398</v>
       </c>
@@ -18915,7 +18915,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:3" ht="18.75" hidden="1">
       <c r="A176" s="19">
         <v>44405</v>
       </c>
@@ -18926,7 +18926,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:3" ht="18.75" hidden="1">
       <c r="A177" s="19">
         <v>44454</v>
       </c>
@@ -18937,7 +18937,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:3" ht="18.75" hidden="1">
       <c r="A178" s="19">
         <v>44475</v>
       </c>
@@ -18948,7 +18948,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:3" ht="18.75" hidden="1">
       <c r="A179" s="19">
         <v>44322</v>
       </c>
@@ -18959,7 +18959,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:3" ht="18.75" hidden="1">
       <c r="A180" s="19">
         <v>44343</v>
       </c>
@@ -18970,7 +18970,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:3" ht="18.75" hidden="1">
       <c r="A181" s="19">
         <v>44350</v>
       </c>
@@ -18981,7 +18981,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:3" ht="18.75" hidden="1">
       <c r="A182" s="19">
         <v>44364</v>
       </c>
@@ -18992,7 +18992,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:3" ht="18.75" hidden="1">
       <c r="A183" s="19">
         <v>44371</v>
       </c>
@@ -19003,7 +19003,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:3" ht="18.75" hidden="1">
       <c r="A184" s="19">
         <v>44322</v>
       </c>
@@ -19014,7 +19014,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:3" ht="18.75" hidden="1">
       <c r="A185" s="19">
         <v>44329</v>
       </c>
@@ -19025,7 +19025,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:3" ht="18.75" hidden="1">
       <c r="A186" s="19">
         <v>44334</v>
       </c>
@@ -19036,7 +19036,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:3" ht="18.75" hidden="1">
       <c r="A187" s="19">
         <v>44343</v>
       </c>
@@ -19047,7 +19047,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:3" ht="18.75" hidden="1">
       <c r="A188" s="19">
         <v>44350</v>
       </c>
@@ -19058,7 +19058,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:3" ht="18.75" hidden="1">
       <c r="A189" s="19">
         <v>44355</v>
       </c>
@@ -19069,7 +19069,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:3" ht="18.75" hidden="1">
       <c r="A190" s="19">
         <v>44364</v>
       </c>
@@ -19080,7 +19080,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:3" ht="18.75" hidden="1">
       <c r="A191" s="19">
         <v>44369</v>
       </c>
@@ -19091,7 +19091,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:3" ht="18.75" hidden="1">
       <c r="A192" s="19">
         <v>44371</v>
       </c>
@@ -19102,7 +19102,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:3" ht="18.75" hidden="1">
       <c r="A193" s="19">
         <v>44376</v>
       </c>
@@ -19113,7 +19113,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:3" ht="18.75" hidden="1">
       <c r="A194" s="19">
         <v>44378</v>
       </c>
@@ -19124,7 +19124,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:3" ht="18.75" hidden="1">
       <c r="A195" s="19">
         <v>44383</v>
       </c>
@@ -19135,7 +19135,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:3" ht="18.75" hidden="1">
       <c r="A196" s="19">
         <v>44385</v>
       </c>
@@ -19146,7 +19146,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:3" ht="18.75" hidden="1">
       <c r="A197" s="19">
         <v>44390</v>
       </c>
@@ -19157,7 +19157,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:3" ht="18.75" hidden="1">
       <c r="A198" s="19">
         <v>44392</v>
       </c>
@@ -19168,7 +19168,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:3" ht="18.75" hidden="1">
       <c r="A199" s="19">
         <v>44397</v>
       </c>
@@ -19179,7 +19179,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:3" ht="18.75" hidden="1">
       <c r="A200" s="19">
         <v>44404</v>
       </c>
@@ -19190,7 +19190,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:3" ht="18.75" hidden="1">
       <c r="A201" s="19">
         <v>44406</v>
       </c>
@@ -19201,7 +19201,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:3" ht="18.75" hidden="1">
       <c r="A202" s="19">
         <v>44453</v>
       </c>
@@ -19212,7 +19212,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:3" ht="18.75" hidden="1">
       <c r="A203" s="19">
         <v>44455</v>
       </c>
@@ -19223,7 +19223,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:3" ht="18.75" hidden="1">
       <c r="A204" s="19">
         <v>44460</v>
       </c>
@@ -19234,7 +19234,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:3" ht="18.75" hidden="1">
       <c r="A205" s="19">
         <v>44467</v>
       </c>
@@ -19245,7 +19245,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:3" ht="18.75" hidden="1">
       <c r="A206" s="19">
         <v>44469</v>
       </c>
@@ -19256,7 +19256,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:3" ht="18.75" hidden="1">
       <c r="A207" s="19">
         <v>44474</v>
       </c>
@@ -19267,7 +19267,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:3" ht="18.75" hidden="1">
       <c r="A208" s="19">
         <v>44476</v>
       </c>
@@ -19278,7 +19278,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" ht="12.75" hidden="1">
       <c r="A209" s="20">
         <v>44481</v>
       </c>
@@ -19292,7 +19292,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="12.75" hidden="1">
       <c r="A210" s="20">
         <v>44481</v>
       </c>

--- a/補講実績.xlsx
+++ b/補講実績.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="366">
   <si>
     <t>補講対象者</t>
   </si>
@@ -1548,6 +1548,13 @@
   </si>
   <si>
     <t>第5講 Excel入門　その５</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AI基礎</t>
+    <rPh sb="2" eb="4">
+      <t>キソ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2031,10 +2038,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA375"/>
+  <dimension ref="A1:AA382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I364" sqref="I364"/>
+    <sheetView tabSelected="1" topLeftCell="A334" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H362" sqref="H362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -13016,6 +13023,9 @@
         <v>44595</v>
       </c>
       <c r="D362" s="50"/>
+      <c r="H362" s="22">
+        <v>2</v>
+      </c>
       <c r="I362" s="22" t="s">
         <v>342</v>
       </c>
@@ -13035,6 +13045,9 @@
         <v>44595</v>
       </c>
       <c r="D363" s="50"/>
+      <c r="H363" s="22">
+        <v>2</v>
+      </c>
       <c r="I363" s="22" t="s">
         <v>344</v>
       </c>
@@ -13054,6 +13067,9 @@
         <v>44595</v>
       </c>
       <c r="D364" s="50"/>
+      <c r="H364" s="22">
+        <v>2</v>
+      </c>
       <c r="I364" s="22" t="s">
         <v>346</v>
       </c>
@@ -13072,6 +13088,9 @@
       <c r="C365" s="50">
         <v>44606</v>
       </c>
+      <c r="H365" s="22">
+        <v>2</v>
+      </c>
       <c r="I365" s="22" t="s">
         <v>352</v>
       </c>
@@ -13090,6 +13109,9 @@
       <c r="C366" s="50">
         <v>44606</v>
       </c>
+      <c r="H366" s="22">
+        <v>2</v>
+      </c>
       <c r="I366" s="22" t="s">
         <v>352</v>
       </c>
@@ -13108,6 +13130,9 @@
       <c r="C367" s="50">
         <v>44606</v>
       </c>
+      <c r="H367" s="22">
+        <v>2</v>
+      </c>
       <c r="I367" s="22" t="s">
         <v>352</v>
       </c>
@@ -13126,6 +13151,9 @@
       <c r="C368" s="50">
         <v>44606</v>
       </c>
+      <c r="H368" s="22">
+        <v>2</v>
+      </c>
       <c r="I368" s="22" t="s">
         <v>352</v>
       </c>
@@ -13144,6 +13172,9 @@
       <c r="C369" s="50">
         <v>44606</v>
       </c>
+      <c r="H369" s="22">
+        <v>2</v>
+      </c>
       <c r="I369" s="22" t="s">
         <v>352</v>
       </c>
@@ -13162,6 +13193,9 @@
       <c r="C370" s="50">
         <v>44608</v>
       </c>
+      <c r="H370" s="22">
+        <v>2</v>
+      </c>
       <c r="I370" s="22" t="s">
         <v>352</v>
       </c>
@@ -13180,6 +13214,9 @@
       <c r="C371" s="50">
         <v>44608</v>
       </c>
+      <c r="H371" s="22">
+        <v>2</v>
+      </c>
       <c r="I371" s="22" t="s">
         <v>352</v>
       </c>
@@ -13198,6 +13235,9 @@
       <c r="C372" s="50">
         <v>44608</v>
       </c>
+      <c r="H372" s="22">
+        <v>2</v>
+      </c>
       <c r="I372" s="22" t="s">
         <v>352</v>
       </c>
@@ -13216,6 +13256,9 @@
       <c r="C373" s="50">
         <v>44608</v>
       </c>
+      <c r="H373" s="22">
+        <v>2</v>
+      </c>
       <c r="I373" s="22" t="s">
         <v>352</v>
       </c>
@@ -13228,11 +13271,14 @@
         <v>19055</v>
       </c>
       <c r="B374" s="22" t="str">
-        <f t="shared" si="52"/>
+        <f>VLOOKUP(A374,$A$3:$B$13,2,FALSE)</f>
         <v>宮本　希</v>
       </c>
       <c r="C374" s="50">
         <v>44608</v>
+      </c>
+      <c r="H374" s="22">
+        <v>2</v>
       </c>
       <c r="I374" s="22" t="s">
         <v>352</v>
@@ -13257,6 +13303,132 @@
       </c>
       <c r="J375" s="22" t="s">
         <v>364</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A376" s="22">
+        <v>19055</v>
+      </c>
+      <c r="B376" s="22" t="str">
+        <f t="shared" ref="B376:B382" si="53">VLOOKUP(A376,$A$3:$B$13,2,FALSE)</f>
+        <v>宮本　希</v>
+      </c>
+      <c r="C376" s="50">
+        <v>44596</v>
+      </c>
+      <c r="H376" s="22">
+        <v>2</v>
+      </c>
+      <c r="I376" s="22" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A377" s="22">
+        <v>19055</v>
+      </c>
+      <c r="B377" s="22" t="str">
+        <f t="shared" si="53"/>
+        <v>宮本　希</v>
+      </c>
+      <c r="C377" s="50">
+        <v>44596</v>
+      </c>
+      <c r="H377" s="22">
+        <v>2</v>
+      </c>
+      <c r="I377" s="22" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A378" s="22">
+        <v>19055</v>
+      </c>
+      <c r="B378" s="22" t="str">
+        <f t="shared" si="53"/>
+        <v>宮本　希</v>
+      </c>
+      <c r="C378" s="50">
+        <v>44596</v>
+      </c>
+      <c r="H378" s="22">
+        <v>2</v>
+      </c>
+      <c r="I378" s="22" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A379" s="22">
+        <v>19055</v>
+      </c>
+      <c r="B379" s="22" t="str">
+        <f t="shared" si="53"/>
+        <v>宮本　希</v>
+      </c>
+      <c r="C379" s="50">
+        <v>44597</v>
+      </c>
+      <c r="H379" s="22">
+        <v>2</v>
+      </c>
+      <c r="I379" s="22" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A380" s="22">
+        <v>19055</v>
+      </c>
+      <c r="B380" s="22" t="str">
+        <f t="shared" si="53"/>
+        <v>宮本　希</v>
+      </c>
+      <c r="C380" s="50">
+        <v>44597</v>
+      </c>
+      <c r="H380" s="22">
+        <v>2</v>
+      </c>
+      <c r="I380" s="22" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A381" s="22">
+        <v>19055</v>
+      </c>
+      <c r="B381" s="22" t="str">
+        <f t="shared" si="53"/>
+        <v>宮本　希</v>
+      </c>
+      <c r="C381" s="50">
+        <v>44597</v>
+      </c>
+      <c r="H381" s="22">
+        <v>2</v>
+      </c>
+      <c r="I381" s="22" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A382" s="22">
+        <v>19055</v>
+      </c>
+      <c r="B382" s="22" t="str">
+        <f t="shared" si="53"/>
+        <v>宮本　希</v>
+      </c>
+      <c r="C382" s="50">
+        <v>44597</v>
+      </c>
+      <c r="H382" s="22">
+        <v>2</v>
+      </c>
+      <c r="I382" s="22" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/補講実績.xlsx
+++ b/補講実績.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="369">
   <si>
     <t>補講対象者</t>
   </si>
@@ -1552,6 +1552,27 @@
   </si>
   <si>
     <t>LH</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>情報NW演習</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>エンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DB入門</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウモン</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2042,10 +2063,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB375"/>
+  <dimension ref="A1:AB377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I374" sqref="I374"/>
+    <sheetView tabSelected="1" topLeftCell="E355" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L378" sqref="L378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -3872,7 +3893,7 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="I66" s="29">
-        <f>H66/(45/(60*24))</f>
+        <f t="shared" ref="I66:I72" si="8">H66/(45/(60*24))</f>
         <v>1.3333333333333321</v>
       </c>
       <c r="J66" s="21" t="s">
@@ -3887,7 +3908,7 @@
         <v>19055</v>
       </c>
       <c r="B67" s="21" t="str">
-        <f>VLOOKUP(A67,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" ref="B67:B98" si="9">VLOOKUP(A67,$A$3:$B$13,2,FALSE)</f>
         <v>宮本　希</v>
       </c>
       <c r="C67" s="26">
@@ -3904,11 +3925,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H67" s="28">
-        <f>G67-F67</f>
+        <f t="shared" ref="H67:H73" si="10">G67-F67</f>
         <v>6.25E-2</v>
       </c>
       <c r="I67" s="29">
-        <f>H67/(45/(60*24))</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="J67" s="21" t="s">
@@ -3926,7 +3947,7 @@
         <v>19055</v>
       </c>
       <c r="B68" s="21" t="str">
-        <f>VLOOKUP(A68,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C68" s="26">
@@ -3943,11 +3964,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H68" s="28">
-        <f>G68-F68</f>
+        <f t="shared" si="10"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I68" s="29">
-        <f>H68/(45/(60*24))</f>
+        <f t="shared" si="8"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J68" s="21" t="s">
@@ -3965,7 +3986,7 @@
         <v>19055</v>
       </c>
       <c r="B69" s="21" t="str">
-        <f>VLOOKUP(A69,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C69" s="26">
@@ -3982,11 +4003,11 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="H69" s="28">
-        <f>G69-F69</f>
+        <f t="shared" si="10"/>
         <v>6.25E-2</v>
       </c>
       <c r="I69" s="29">
-        <f>H69/(45/(60*24))</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="J69" s="21" t="s">
@@ -4004,7 +4025,7 @@
         <v>19055</v>
       </c>
       <c r="B70" s="21" t="str">
-        <f>VLOOKUP(A70,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C70" s="26">
@@ -4021,11 +4042,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H70" s="28">
-        <f>G70-F70</f>
+        <f t="shared" si="10"/>
         <v>6.25E-2</v>
       </c>
       <c r="I70" s="29">
-        <f>H70/(45/(60*24))</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="J70" s="21" t="s">
@@ -4041,7 +4062,7 @@
         <v>19055</v>
       </c>
       <c r="B71" s="21" t="str">
-        <f>VLOOKUP(A71,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C71" s="26">
@@ -4058,11 +4079,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H71" s="28">
-        <f>G71-F71</f>
+        <f t="shared" si="10"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I71" s="29">
-        <f>H71/(45/(60*24))</f>
+        <f t="shared" si="8"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J71" s="21" t="s">
@@ -4078,7 +4099,7 @@
         <v>19055</v>
       </c>
       <c r="B72" s="21" t="str">
-        <f>VLOOKUP(A72,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C72" s="26">
@@ -4095,11 +4116,11 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="H72" s="28">
-        <f>G72-F72</f>
+        <f t="shared" si="10"/>
         <v>6.25E-2</v>
       </c>
       <c r="I72" s="29">
-        <f>H72/(45/(60*24))</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="J72" s="21" t="s">
@@ -4115,7 +4136,7 @@
         <v>19055</v>
       </c>
       <c r="B73" s="21" t="str">
-        <f>VLOOKUP(A73,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C73" s="26">
@@ -4126,7 +4147,7 @@
       </c>
       <c r="E73" s="26"/>
       <c r="H73" s="28">
-        <f>G73-F73</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I73" s="29">
@@ -4141,7 +4162,7 @@
         <v>19055</v>
       </c>
       <c r="B74" s="21" t="str">
-        <f>VLOOKUP(A74,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C74" s="26">
@@ -4163,7 +4184,7 @@
         <v>19055</v>
       </c>
       <c r="B75" s="21" t="str">
-        <f>VLOOKUP(A75,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C75" s="26">
@@ -4185,7 +4206,7 @@
         <v>19055</v>
       </c>
       <c r="B76" s="21" t="str">
-        <f>VLOOKUP(A76,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C76" s="26">
@@ -4202,7 +4223,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H76" s="28">
-        <f>G76-F76</f>
+        <f t="shared" ref="H76:H86" si="11">G76-F76</f>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I76" s="29">
@@ -4221,7 +4242,7 @@
         <v>19055</v>
       </c>
       <c r="B77" s="21" t="str">
-        <f>VLOOKUP(A77,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C77" s="26">
@@ -4238,7 +4259,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="H77" s="28">
-        <f>G77-F77</f>
+        <f t="shared" si="11"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I77" s="29">
@@ -4257,7 +4278,7 @@
         <v>19055</v>
       </c>
       <c r="B78" s="21" t="str">
-        <f>VLOOKUP(A78,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C78" s="26">
@@ -4274,7 +4295,7 @@
         <v>0.80555555555555558</v>
       </c>
       <c r="H78" s="28">
-        <f>G78-F78</f>
+        <f t="shared" si="11"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I78" s="29">
@@ -4293,7 +4314,7 @@
         <v>19055</v>
       </c>
       <c r="B79" s="22" t="str">
-        <f>VLOOKUP(A79,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C79" s="50">
@@ -4310,11 +4331,11 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="H79" s="38">
-        <f>G79-F79</f>
+        <f t="shared" si="11"/>
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="I79" s="22">
-        <f>H79/(45/(60*24))</f>
+        <f t="shared" ref="I79:I85" si="12">H79/(45/(60*24))</f>
         <v>1.9999999999999982</v>
       </c>
       <c r="J79" s="22" t="s">
@@ -4329,7 +4350,7 @@
         <v>19055</v>
       </c>
       <c r="B80" s="22" t="str">
-        <f>VLOOKUP(A80,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C80" s="50">
@@ -4346,11 +4367,11 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="H80" s="38">
-        <f>G80-F80</f>
+        <f t="shared" si="11"/>
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="I80" s="22">
-        <f>H80/(45/(60*24))</f>
+        <f t="shared" si="12"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="J80" s="22" t="s">
@@ -4365,7 +4386,7 @@
         <v>19055</v>
       </c>
       <c r="B81" s="22" t="str">
-        <f>VLOOKUP(A81,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C81" s="50">
@@ -4382,11 +4403,11 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="H81" s="38">
-        <f>G81-F81</f>
+        <f t="shared" si="11"/>
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="I81" s="22">
-        <f>H81/(45/(60*24))</f>
+        <f t="shared" si="12"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="J81" s="22" t="s">
@@ -4401,7 +4422,7 @@
         <v>19055</v>
       </c>
       <c r="B82" s="22" t="str">
-        <f>VLOOKUP(A82,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C82" s="50">
@@ -4418,11 +4439,11 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="H82" s="38">
-        <f>G82-F82</f>
+        <f t="shared" si="11"/>
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="I82" s="22">
-        <f>H82/(45/(60*24))</f>
+        <f t="shared" si="12"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="J82" s="22" t="s">
@@ -4437,7 +4458,7 @@
         <v>19055</v>
       </c>
       <c r="B83" s="22" t="str">
-        <f>VLOOKUP(A83,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C83" s="50">
@@ -4454,11 +4475,11 @@
         <v>0.58680555555555558</v>
       </c>
       <c r="H83" s="38">
-        <f>G83-F83</f>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="I83" s="22">
-        <f>H83/(45/(60*24))</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="J83" s="22" t="s">
@@ -4473,7 +4494,7 @@
         <v>19055</v>
       </c>
       <c r="B84" s="22" t="str">
-        <f>VLOOKUP(A84,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C84" s="53">
@@ -4490,11 +4511,11 @@
         <v>0.65625</v>
       </c>
       <c r="H84" s="38">
-        <f>G84-F84</f>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="I84" s="22">
-        <f>H84/(45/(60*24))</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="J84" s="22" t="s">
@@ -4509,7 +4530,7 @@
         <v>19055</v>
       </c>
       <c r="B85" s="22" t="str">
-        <f>VLOOKUP(A85,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C85" s="26">
@@ -4526,11 +4547,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H85" s="38">
-        <f>G85-F85</f>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="I85" s="22">
-        <f>H85/(45/(60*24))</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="J85" s="22" t="s">
@@ -4542,7 +4563,7 @@
         <v>19055</v>
       </c>
       <c r="B86" s="21" t="str">
-        <f>VLOOKUP(A86,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C86" s="26">
@@ -4559,7 +4580,7 @@
         <v>0.625</v>
       </c>
       <c r="H86" s="28">
-        <f>G86-F86</f>
+        <f t="shared" si="11"/>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="I86" s="29">
@@ -4578,7 +4599,7 @@
         <v>19055</v>
       </c>
       <c r="B87" s="21" t="str">
-        <f>VLOOKUP(A87,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C87" s="26">
@@ -4600,7 +4621,7 @@
         <v>19055</v>
       </c>
       <c r="B88" s="21" t="str">
-        <f>VLOOKUP(A88,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C88" s="26">
@@ -4617,11 +4638,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H88" s="28">
-        <f>G88-F88</f>
+        <f t="shared" ref="H88:H99" si="13">G88-F88</f>
         <v>6.25E-2</v>
       </c>
       <c r="I88" s="29">
-        <f>H88/(45/(60*24))</f>
+        <f t="shared" ref="I88:I95" si="14">H88/(45/(60*24))</f>
         <v>2</v>
       </c>
       <c r="J88" s="21" t="s">
@@ -4633,7 +4654,7 @@
         <v>19055</v>
       </c>
       <c r="B89" s="21" t="str">
-        <f>VLOOKUP(A89,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C89" s="26">
@@ -4650,11 +4671,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H89" s="28">
-        <f>G89-F89</f>
+        <f t="shared" si="13"/>
         <v>6.25E-2</v>
       </c>
       <c r="I89" s="29">
-        <f>H89/(45/(60*24))</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="J89" s="21" t="s">
@@ -4672,7 +4693,7 @@
         <v>19055</v>
       </c>
       <c r="B90" s="21" t="str">
-        <f>VLOOKUP(A90,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C90" s="26">
@@ -4689,11 +4710,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H90" s="28">
-        <f>G90-F90</f>
+        <f t="shared" si="13"/>
         <v>6.25E-2</v>
       </c>
       <c r="I90" s="29">
-        <f>H90/(45/(60*24))</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="J90" s="21" t="s">
@@ -4708,7 +4729,7 @@
         <v>19055</v>
       </c>
       <c r="B91" s="21" t="str">
-        <f>VLOOKUP(A91,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C91" s="26">
@@ -4725,11 +4746,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H91" s="28">
-        <f>G91-F91</f>
+        <f t="shared" si="13"/>
         <v>6.25E-2</v>
       </c>
       <c r="I91" s="29">
-        <f>H91/(45/(60*24))</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="J91" s="21" t="s">
@@ -4744,7 +4765,7 @@
         <v>19055</v>
       </c>
       <c r="B92" s="21" t="str">
-        <f>VLOOKUP(A92,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C92" s="26">
@@ -4761,11 +4782,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H92" s="28">
-        <f>G92-F92</f>
+        <f t="shared" si="13"/>
         <v>6.25E-2</v>
       </c>
       <c r="I92" s="29">
-        <f>H92/(45/(60*24))</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="J92" s="21" t="s">
@@ -4780,7 +4801,7 @@
         <v>19055</v>
       </c>
       <c r="B93" s="21" t="str">
-        <f>VLOOKUP(A93,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C93" s="26">
@@ -4797,11 +4818,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H93" s="28">
-        <f>G93-F93</f>
+        <f t="shared" si="13"/>
         <v>6.25E-2</v>
       </c>
       <c r="I93" s="29">
-        <f>H93/(45/(60*24))</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="J93" s="21" t="s">
@@ -4813,7 +4834,7 @@
         <v>19055</v>
       </c>
       <c r="B94" s="21" t="str">
-        <f>VLOOKUP(A94,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C94" s="26">
@@ -4830,11 +4851,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H94" s="28">
-        <f>G94-F94</f>
+        <f t="shared" si="13"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I94" s="29">
-        <f>H94/(45/(60*24))</f>
+        <f t="shared" si="14"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J94" s="21" t="s">
@@ -4849,7 +4870,7 @@
         <v>19055</v>
       </c>
       <c r="B95" s="21" t="str">
-        <f>VLOOKUP(A95,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C95" s="26">
@@ -4866,11 +4887,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H95" s="28">
-        <f>G95-F95</f>
+        <f t="shared" si="13"/>
         <v>6.25E-2</v>
       </c>
       <c r="I95" s="29">
-        <f>H95/(45/(60*24))</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="J95" s="21" t="s">
@@ -4882,7 +4903,7 @@
         <v>19055</v>
       </c>
       <c r="B96" s="21" t="str">
-        <f>VLOOKUP(A96,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C96" s="26">
@@ -4899,7 +4920,7 @@
         <v>0.4375</v>
       </c>
       <c r="H96" s="28">
-        <f>G96-F96</f>
+        <f t="shared" si="13"/>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="I96" s="29">
@@ -4918,7 +4939,7 @@
         <v>19055</v>
       </c>
       <c r="B97" s="21" t="str">
-        <f>VLOOKUP(A97,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C97" s="26">
@@ -4935,7 +4956,7 @@
         <v>0.61111111111111116</v>
       </c>
       <c r="H97" s="28">
-        <f>G97-F97</f>
+        <f t="shared" si="13"/>
         <v>2.430555555555558E-2</v>
       </c>
       <c r="I97" s="29">
@@ -4954,7 +4975,7 @@
         <v>19055</v>
       </c>
       <c r="B98" s="21" t="str">
-        <f>VLOOKUP(A98,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>宮本　希</v>
       </c>
       <c r="C98" s="26">
@@ -4971,7 +4992,7 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="H98" s="28">
-        <f>G98-F98</f>
+        <f t="shared" si="13"/>
         <v>2.430555555555558E-2</v>
       </c>
       <c r="I98" s="29">
@@ -4993,7 +5014,7 @@
         <v>19055</v>
       </c>
       <c r="B99" s="21" t="str">
-        <f>VLOOKUP(A99,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" ref="B99:B130" si="15">VLOOKUP(A99,$A$3:$B$13,2,FALSE)</f>
         <v>宮本　希</v>
       </c>
       <c r="C99" s="26">
@@ -5010,7 +5031,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H99" s="28">
-        <f>G99-F99</f>
+        <f t="shared" si="13"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I99" s="29">
@@ -5032,7 +5053,7 @@
         <v>19055</v>
       </c>
       <c r="B100" s="21" t="str">
-        <f>VLOOKUP(A100,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C100" s="26">
@@ -5054,7 +5075,7 @@
         <v>19055</v>
       </c>
       <c r="B101" s="21" t="str">
-        <f>VLOOKUP(A101,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C101" s="26">
@@ -5093,7 +5114,7 @@
         <v>19055</v>
       </c>
       <c r="B102" s="21" t="str">
-        <f>VLOOKUP(A102,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C102" s="26">
@@ -5129,7 +5150,7 @@
         <v>19055</v>
       </c>
       <c r="B103" s="21" t="str">
-        <f>VLOOKUP(A103,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C103" s="26">
@@ -5151,7 +5172,7 @@
         <v>19055</v>
       </c>
       <c r="B104" s="22" t="str">
-        <f>VLOOKUP(A104,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C104" s="26">
@@ -5168,11 +5189,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H104" s="38">
-        <f>G104-F104</f>
+        <f t="shared" ref="H104:H110" si="16">G104-F104</f>
         <v>6.25E-2</v>
       </c>
       <c r="I104" s="22">
-        <f>H104/(45/(60*24))</f>
+        <f t="shared" ref="I104:I110" si="17">H104/(45/(60*24))</f>
         <v>2</v>
       </c>
       <c r="J104" s="22" t="s">
@@ -5187,7 +5208,7 @@
         <v>19055</v>
       </c>
       <c r="B105" s="22" t="str">
-        <f>VLOOKUP(A105,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C105" s="26">
@@ -5204,11 +5225,11 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="H105" s="38">
-        <f>G105-F105</f>
+        <f t="shared" si="16"/>
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="I105" s="22">
-        <f>H105/(45/(60*24))</f>
+        <f t="shared" si="17"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="J105" s="22" t="s">
@@ -5223,7 +5244,7 @@
         <v>19055</v>
       </c>
       <c r="B106" s="22" t="str">
-        <f>VLOOKUP(A106,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C106" s="26">
@@ -5240,11 +5261,11 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="H106" s="38">
-        <f>G106-F106</f>
+        <f t="shared" si="16"/>
         <v>6.25E-2</v>
       </c>
       <c r="I106" s="22">
-        <f>H106/(45/(60*24))</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="J106" s="22" t="s">
@@ -5259,7 +5280,7 @@
         <v>19055</v>
       </c>
       <c r="B107" s="21" t="str">
-        <f>VLOOKUP(A107,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C107" s="26">
@@ -5276,11 +5297,11 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="H107" s="28">
-        <f>G107-F107</f>
+        <f t="shared" si="16"/>
         <v>6.25E-2</v>
       </c>
       <c r="I107" s="29">
-        <f>H107/(45/(60*24))</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="J107" s="21" t="s">
@@ -5295,7 +5316,7 @@
         <v>19055</v>
       </c>
       <c r="B108" s="21" t="str">
-        <f>VLOOKUP(A108,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C108" s="26">
@@ -5312,11 +5333,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H108" s="28">
-        <f>G108-F108</f>
+        <f t="shared" si="16"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I108" s="29">
-        <f>H108/(45/(60*24))</f>
+        <f t="shared" si="17"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J108" s="21" t="s">
@@ -5331,7 +5352,7 @@
         <v>19055</v>
       </c>
       <c r="B109" s="21" t="str">
-        <f>VLOOKUP(A109,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C109" s="37">
@@ -5348,11 +5369,11 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="H109" s="28">
-        <f>G109-F109</f>
+        <f t="shared" si="16"/>
         <v>6.25E-2</v>
       </c>
       <c r="I109" s="29">
-        <f>H109/(45/(60*24))</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="J109" s="22" t="s">
@@ -5364,7 +5385,7 @@
         <v>19055</v>
       </c>
       <c r="B110" s="22" t="str">
-        <f>VLOOKUP(A110,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C110" s="26">
@@ -5381,11 +5402,11 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="H110" s="38">
-        <f>G110-F110</f>
+        <f t="shared" si="16"/>
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="I110" s="22">
-        <f>H110/(45/(60*24))</f>
+        <f t="shared" si="17"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="J110" s="22" t="s">
@@ -5400,7 +5421,7 @@
         <v>19055</v>
       </c>
       <c r="B111" s="22" t="str">
-        <f>VLOOKUP(A111,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C111" s="50">
@@ -5425,7 +5446,7 @@
         <v>19055</v>
       </c>
       <c r="B112" s="22" t="str">
-        <f>VLOOKUP(A112,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C112" s="50">
@@ -5450,7 +5471,7 @@
         <v>19055</v>
       </c>
       <c r="B113" s="22" t="str">
-        <f>VLOOKUP(A113,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C113" s="50">
@@ -5475,7 +5496,7 @@
         <v>19055</v>
       </c>
       <c r="B114" s="21" t="str">
-        <f>VLOOKUP(A114,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C114" s="26">
@@ -5514,7 +5535,7 @@
         <v>19055</v>
       </c>
       <c r="B115" s="21" t="str">
-        <f>VLOOKUP(A115,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C115" s="26">
@@ -5536,7 +5557,7 @@
         <v>19055</v>
       </c>
       <c r="B116" s="21" t="str">
-        <f>VLOOKUP(A116,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C116" s="26">
@@ -5553,7 +5574,7 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H116" s="28">
-        <f>G116-F116</f>
+        <f t="shared" ref="H116:H124" si="18">G116-F116</f>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I116" s="29">
@@ -5572,7 +5593,7 @@
         <v>19055</v>
       </c>
       <c r="B117" s="21" t="str">
-        <f>VLOOKUP(A117,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C117" s="26">
@@ -5589,11 +5610,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H117" s="28">
-        <f>G117-F117</f>
+        <f t="shared" si="18"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I117" s="29">
-        <f>H117/(45/(60*24))</f>
+        <f t="shared" ref="I117:I124" si="19">H117/(45/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J117" s="21" t="s">
@@ -5608,7 +5629,7 @@
         <v>19055</v>
       </c>
       <c r="B118" s="21" t="str">
-        <f>VLOOKUP(A118,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C118" s="37">
@@ -5625,11 +5646,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H118" s="28">
-        <f>G118-F118</f>
+        <f t="shared" si="18"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I118" s="29">
-        <f>H118/(45/(60*24))</f>
+        <f t="shared" si="19"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J118" s="21" t="s">
@@ -5644,7 +5665,7 @@
         <v>19055</v>
       </c>
       <c r="B119" s="22" t="str">
-        <f>VLOOKUP(A119,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C119" s="26">
@@ -5661,11 +5682,11 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="H119" s="38">
-        <f>G119-F119</f>
+        <f t="shared" si="18"/>
         <v>6.25E-2</v>
       </c>
       <c r="I119" s="22">
-        <f>H119/(45/(60*24))</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="J119" s="22" t="s">
@@ -5680,7 +5701,7 @@
         <v>19055</v>
       </c>
       <c r="B120" s="22" t="str">
-        <f>VLOOKUP(A120,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C120" s="26">
@@ -5697,11 +5718,11 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="H120" s="28">
-        <f>G120-F120</f>
+        <f t="shared" si="18"/>
         <v>6.25E-2</v>
       </c>
       <c r="I120" s="22">
-        <f>H120/(45/(60*24))</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="J120" s="22" t="s">
@@ -5716,7 +5737,7 @@
         <v>19055</v>
       </c>
       <c r="B121" s="21" t="str">
-        <f>VLOOKUP(A121,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C121" s="26">
@@ -5733,11 +5754,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H121" s="28">
-        <f>G121-F121</f>
+        <f t="shared" si="18"/>
         <v>6.25E-2</v>
       </c>
       <c r="I121" s="29">
-        <f>H121/(45/(60*24))</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="J121" s="21" t="s">
@@ -5752,7 +5773,7 @@
         <v>19055</v>
       </c>
       <c r="B122" s="21" t="str">
-        <f>VLOOKUP(A122,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C122" s="26">
@@ -5769,11 +5790,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H122" s="28">
-        <f>G122-F122</f>
+        <f t="shared" si="18"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I122" s="29">
-        <f>H122/(45/(60*24))</f>
+        <f t="shared" si="19"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J122" s="21" t="s">
@@ -5788,7 +5809,7 @@
         <v>19055</v>
       </c>
       <c r="B123" s="21" t="str">
-        <f>VLOOKUP(A123,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C123" s="26">
@@ -5805,11 +5826,11 @@
         <v>0.58680555555555558</v>
       </c>
       <c r="H123" s="28">
-        <f>G123-F123</f>
+        <f t="shared" si="18"/>
         <v>6.25E-2</v>
       </c>
       <c r="I123" s="29">
-        <f>H123/(45/(60*24))</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="J123" s="21" t="s">
@@ -5824,7 +5845,7 @@
         <v>19055</v>
       </c>
       <c r="B124" s="21" t="str">
-        <f>VLOOKUP(A124,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C124" s="26">
@@ -5841,11 +5862,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H124" s="28">
-        <f>G124-F124</f>
+        <f t="shared" si="18"/>
         <v>6.25E-2</v>
       </c>
       <c r="I124" s="29">
-        <f>H124/(45/(60*24))</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="J124" s="21" t="s">
@@ -5860,7 +5881,7 @@
         <v>19055</v>
       </c>
       <c r="B125" s="22" t="str">
-        <f>VLOOKUP(A125,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C125" s="50">
@@ -5885,7 +5906,7 @@
         <v>19055</v>
       </c>
       <c r="B126" s="22" t="str">
-        <f>VLOOKUP(A126,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C126" s="50">
@@ -5910,7 +5931,7 @@
         <v>19055</v>
       </c>
       <c r="B127" s="21" t="str">
-        <f>VLOOKUP(A127,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C127" s="26">
@@ -5936,7 +5957,7 @@
         <v>19055</v>
       </c>
       <c r="B128" s="21" t="str">
-        <f>VLOOKUP(A128,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C128" s="26">
@@ -5975,7 +5996,7 @@
         <v>19055</v>
       </c>
       <c r="B129" s="21" t="str">
-        <f>VLOOKUP(A129,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C129" s="26">
@@ -6014,7 +6035,7 @@
         <v>19055</v>
       </c>
       <c r="B130" s="21" t="str">
-        <f>VLOOKUP(A130,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>宮本　希</v>
       </c>
       <c r="C130" s="26">
@@ -6042,7 +6063,7 @@
         <v>19055</v>
       </c>
       <c r="B131" s="21" t="str">
-        <f>VLOOKUP(A131,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" ref="B131:B162" si="20">VLOOKUP(A131,$A$3:$B$13,2,FALSE)</f>
         <v>宮本　希</v>
       </c>
       <c r="C131" s="26">
@@ -6070,7 +6091,7 @@
         <v>19055</v>
       </c>
       <c r="B132" s="21" t="str">
-        <f>VLOOKUP(A132,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C132" s="26">
@@ -6098,7 +6119,7 @@
         <v>19055</v>
       </c>
       <c r="B133" s="21" t="str">
-        <f>VLOOKUP(A133,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C133" s="26">
@@ -6126,7 +6147,7 @@
         <v>19055</v>
       </c>
       <c r="B134" s="21" t="str">
-        <f>VLOOKUP(A134,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C134" s="26">
@@ -6154,7 +6175,7 @@
         <v>19055</v>
       </c>
       <c r="B135" s="21" t="str">
-        <f>VLOOKUP(A135,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C135" s="26">
@@ -6182,7 +6203,7 @@
         <v>19055</v>
       </c>
       <c r="B136" s="21" t="str">
-        <f>VLOOKUP(A136,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C136" s="26">
@@ -6210,7 +6231,7 @@
         <v>19055</v>
       </c>
       <c r="B137" s="21" t="str">
-        <f>VLOOKUP(A137,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C137" s="26">
@@ -6238,7 +6259,7 @@
         <v>19055</v>
       </c>
       <c r="B138" s="21" t="str">
-        <f>VLOOKUP(A138,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C138" s="26">
@@ -6255,7 +6276,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H138" s="28">
-        <f>G138-F138</f>
+        <f t="shared" ref="H138:H145" si="21">G138-F138</f>
         <v>6.25E-2</v>
       </c>
       <c r="I138" s="29">
@@ -6276,7 +6297,7 @@
         <v>19055</v>
       </c>
       <c r="B139" s="21" t="str">
-        <f>VLOOKUP(A139,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C139" s="26">
@@ -6293,7 +6314,7 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H139" s="28">
-        <f>G139-F139</f>
+        <f t="shared" si="21"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I139" s="29">
@@ -6314,7 +6335,7 @@
         <v>19055</v>
       </c>
       <c r="B140" s="21" t="str">
-        <f>VLOOKUP(A140,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C140" s="26">
@@ -6331,7 +6352,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="H140" s="28">
-        <f>G140-F140</f>
+        <f t="shared" si="21"/>
         <v>6.25E-2</v>
       </c>
       <c r="I140" s="29">
@@ -6352,7 +6373,7 @@
         <v>19055</v>
       </c>
       <c r="B141" s="21" t="str">
-        <f>VLOOKUP(A141,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C141" s="26">
@@ -6369,7 +6390,7 @@
         <v>0.68402777777777779</v>
       </c>
       <c r="H141" s="28">
-        <f>G141-F141</f>
+        <f t="shared" si="21"/>
         <v>5.555555555555558E-2</v>
       </c>
       <c r="I141" s="29">
@@ -6390,7 +6411,7 @@
         <v>19055</v>
       </c>
       <c r="B142" s="21" t="str">
-        <f>VLOOKUP(A142,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C142" s="26">
@@ -6407,7 +6428,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H142" s="28">
-        <f>G142-F142</f>
+        <f t="shared" si="21"/>
         <v>6.25E-2</v>
       </c>
       <c r="I142" s="29">
@@ -6429,7 +6450,7 @@
         <v>19055</v>
       </c>
       <c r="B143" s="21" t="str">
-        <f>VLOOKUP(A143,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C143" s="26">
@@ -6446,7 +6467,7 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H143" s="28">
-        <f>G143-F143</f>
+        <f t="shared" si="21"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I143" s="29">
@@ -6468,7 +6489,7 @@
         <v>19055</v>
       </c>
       <c r="B144" s="22" t="str">
-        <f>VLOOKUP(A144,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C144" s="50">
@@ -6485,7 +6506,7 @@
         <v>0.75</v>
       </c>
       <c r="H144" s="22">
-        <f>G144-F144</f>
+        <f t="shared" si="21"/>
         <v>0.125</v>
       </c>
       <c r="I144" s="22">
@@ -6504,7 +6525,7 @@
         <v>19055</v>
       </c>
       <c r="B145" s="21" t="str">
-        <f>VLOOKUP(A145,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C145" s="26">
@@ -6521,7 +6542,7 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H145" s="28">
-        <f>G145-F145</f>
+        <f t="shared" si="21"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I145" s="29">
@@ -6540,7 +6561,7 @@
         <v>19055</v>
       </c>
       <c r="B146" s="22" t="str">
-        <f>VLOOKUP(A146,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C146" s="50">
@@ -6565,7 +6586,7 @@
         <v>19055</v>
       </c>
       <c r="B147" s="21" t="str">
-        <f>VLOOKUP(A147,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C147" s="26">
@@ -6587,7 +6608,7 @@
         <v>19055</v>
       </c>
       <c r="B148" s="21" t="str">
-        <f>VLOOKUP(A148,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C148" s="26">
@@ -6623,7 +6644,7 @@
         <v>19055</v>
       </c>
       <c r="B149" s="22" t="str">
-        <f>VLOOKUP(A149,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C149" s="26">
@@ -6659,7 +6680,7 @@
         <v>19055</v>
       </c>
       <c r="B150" s="21" t="str">
-        <f>VLOOKUP(A150,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C150" s="37">
@@ -6692,7 +6713,7 @@
         <v>19055</v>
       </c>
       <c r="B151" s="22" t="str">
-        <f>VLOOKUP(A151,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C151" s="50">
@@ -6716,7 +6737,7 @@
         <v>19055</v>
       </c>
       <c r="B152" s="22" t="str">
-        <f>VLOOKUP(A152,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C152" s="50">
@@ -6740,7 +6761,7 @@
         <v>19055</v>
       </c>
       <c r="B153" s="22" t="str">
-        <f>VLOOKUP(A153,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C153" s="50">
@@ -6764,7 +6785,7 @@
         <v>19055</v>
       </c>
       <c r="B154" s="22" t="str">
-        <f>VLOOKUP(A154,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C154" s="50">
@@ -6788,7 +6809,7 @@
         <v>19055</v>
       </c>
       <c r="B155" s="22" t="str">
-        <f>VLOOKUP(A155,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C155" s="50">
@@ -6812,7 +6833,7 @@
         <v>19055</v>
       </c>
       <c r="B156" s="22" t="str">
-        <f>VLOOKUP(A156,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C156" s="50">
@@ -6836,7 +6857,7 @@
         <v>19055</v>
       </c>
       <c r="B157" s="22" t="str">
-        <f>VLOOKUP(A157,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C157" s="50">
@@ -6860,7 +6881,7 @@
         <v>19055</v>
       </c>
       <c r="B158" s="22" t="str">
-        <f>VLOOKUP(A158,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C158" s="50">
@@ -6884,7 +6905,7 @@
         <v>19055</v>
       </c>
       <c r="B159" s="22" t="str">
-        <f>VLOOKUP(A159,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C159" s="50">
@@ -6908,7 +6929,7 @@
         <v>19055</v>
       </c>
       <c r="B160" s="22" t="str">
-        <f>VLOOKUP(A160,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C160" s="50">
@@ -6932,7 +6953,7 @@
         <v>19055</v>
       </c>
       <c r="B161" s="21" t="str">
-        <f>VLOOKUP(A161,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C161" s="26">
@@ -6958,7 +6979,7 @@
         <v>19055</v>
       </c>
       <c r="B162" s="21" t="str">
-        <f>VLOOKUP(A162,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>宮本　希</v>
       </c>
       <c r="C162" s="26">
@@ -6980,7 +7001,7 @@
         <v>19055</v>
       </c>
       <c r="B163" s="21" t="str">
-        <f>VLOOKUP(A163,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" ref="B163:B194" si="22">VLOOKUP(A163,$A$3:$B$13,2,FALSE)</f>
         <v>宮本　希</v>
       </c>
       <c r="C163" s="26">
@@ -7002,7 +7023,7 @@
         <v>19055</v>
       </c>
       <c r="B164" s="21" t="str">
-        <f>VLOOKUP(A164,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>宮本　希</v>
       </c>
       <c r="C164" s="26">
@@ -7038,11 +7059,11 @@
         <v>0.68402777777777779</v>
       </c>
       <c r="H165" s="28">
-        <f>G165-F165</f>
+        <f t="shared" ref="H165:H196" si="23">G165-F165</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I165" s="29">
-        <f>H165/(35/(60*24))</f>
+        <f t="shared" ref="I165:I173" si="24">H165/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J165" s="25" t="s">
@@ -7074,11 +7095,11 @@
         <v>0.73263888888888884</v>
       </c>
       <c r="H166" s="28">
-        <f>G166-F166</f>
+        <f t="shared" si="23"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I166" s="29">
-        <f>H166/(35/(60*24))</f>
+        <f t="shared" si="24"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J166" s="25" t="s">
@@ -7111,11 +7132,11 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="H167" s="28">
-        <f>G167-F167</f>
+        <f t="shared" si="23"/>
         <v>2.430555555555558E-2</v>
       </c>
       <c r="I167" s="29">
-        <f>H167/(35/(60*24))</f>
+        <f t="shared" si="24"/>
         <v>1.0000000000000009</v>
       </c>
       <c r="J167" s="21" t="s">
@@ -7148,11 +7169,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H168" s="28">
-        <f>G168-F168</f>
+        <f t="shared" si="23"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I168" s="29">
-        <f>H168/(35/(60*24))</f>
+        <f t="shared" si="24"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J168" s="21" t="s">
@@ -7185,11 +7206,11 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="H169" s="28">
-        <f>G169-F169</f>
+        <f t="shared" si="23"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I169" s="29">
-        <f>H169/(35/(60*24))</f>
+        <f t="shared" si="24"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J169" s="21" t="s">
@@ -7221,11 +7242,11 @@
         <v>0.8125</v>
       </c>
       <c r="H170" s="28">
-        <f>G170-F170</f>
+        <f t="shared" si="23"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I170" s="29">
-        <f>H170/(35/(60*24))</f>
+        <f t="shared" si="24"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J170" s="25" t="s">
@@ -7240,7 +7261,7 @@
         <v>21068</v>
       </c>
       <c r="B171" s="21" t="str">
-        <f>VLOOKUP(A171,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" ref="B171:B214" si="25">VLOOKUP(A171,$A$3:$B$13,2,FALSE)</f>
         <v>今村　駿太郎</v>
       </c>
       <c r="C171" s="26">
@@ -7255,11 +7276,11 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H171" s="28">
-        <f>G171-F171</f>
+        <f t="shared" si="23"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I171" s="29">
-        <f>H171/(35/(60*24))</f>
+        <f t="shared" si="24"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J171" s="21" t="s">
@@ -7274,7 +7295,7 @@
         <v>21068</v>
       </c>
       <c r="B172" s="21" t="str">
-        <f>VLOOKUP(A172,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C172" s="26">
@@ -7289,11 +7310,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H172" s="28">
-        <f>G172-F172</f>
+        <f t="shared" si="23"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I172" s="29">
-        <f>H172/(35/(60*24))</f>
+        <f t="shared" si="24"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J172" s="21" t="s">
@@ -7308,7 +7329,7 @@
         <v>21068</v>
       </c>
       <c r="B173" s="21" t="str">
-        <f>VLOOKUP(A173,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C173" s="26">
@@ -7323,11 +7344,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H173" s="28">
-        <f>G173-F173</f>
+        <f t="shared" si="23"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I173" s="29">
-        <f>H173/(35/(60*24))</f>
+        <f t="shared" si="24"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J173" s="21" t="s">
@@ -7342,7 +7363,7 @@
         <v>21068</v>
       </c>
       <c r="B174" s="21" t="str">
-        <f>VLOOKUP(A174,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C174" s="26">
@@ -7351,7 +7372,7 @@
       <c r="D174" s="26"/>
       <c r="E174" s="26"/>
       <c r="H174" s="28">
-        <f>G174-F174</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I174" s="29">
@@ -7369,7 +7390,7 @@
         <v>21068</v>
       </c>
       <c r="B175" s="21" t="str">
-        <f>VLOOKUP(A175,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C175" s="26">
@@ -7378,7 +7399,7 @@
       <c r="D175" s="26"/>
       <c r="E175" s="26"/>
       <c r="H175" s="28">
-        <f>G175-F175</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I175" s="29">
@@ -7391,7 +7412,7 @@
         <v>21068</v>
       </c>
       <c r="B176" s="21" t="str">
-        <f>VLOOKUP(A176,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C176" s="26">
@@ -7406,11 +7427,11 @@
         <v>0.46875</v>
       </c>
       <c r="H176" s="28">
-        <f>G176-F176</f>
+        <f t="shared" si="23"/>
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="I176" s="29">
-        <f>H176/(45/(60*24))</f>
+        <f t="shared" ref="I176:I181" si="26">H176/(45/(60*24))</f>
         <v>0.44444444444444464</v>
       </c>
       <c r="J176" s="21" t="s">
@@ -7422,7 +7443,7 @@
         <v>21068</v>
       </c>
       <c r="B177" s="21" t="str">
-        <f>VLOOKUP(A177,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C177" s="26">
@@ -7437,11 +7458,11 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="H177" s="28">
-        <f>G177-F177</f>
+        <f t="shared" si="23"/>
         <v>1.736111111111116E-2</v>
       </c>
       <c r="I177" s="29">
-        <f>H177/(45/(60*24))</f>
+        <f t="shared" si="26"/>
         <v>0.55555555555555713</v>
       </c>
       <c r="J177" s="21" t="s">
@@ -7453,7 +7474,7 @@
         <v>21068</v>
       </c>
       <c r="B178" s="21" t="str">
-        <f>VLOOKUP(A178,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C178" s="26">
@@ -7468,11 +7489,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H178" s="28">
-        <f>G178-F178</f>
+        <f t="shared" si="23"/>
         <v>6.25E-2</v>
       </c>
       <c r="I178" s="29">
-        <f>H178/(45/(60*24))</f>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="J178" s="21" t="s">
@@ -7484,7 +7505,7 @@
         <v>21068</v>
       </c>
       <c r="B179" s="21" t="str">
-        <f>VLOOKUP(A179,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C179" s="26">
@@ -7499,11 +7520,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H179" s="28">
-        <f>G179-F179</f>
+        <f t="shared" si="23"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I179" s="29">
-        <f>H179/(45/(60*24))</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J179" s="21" t="s">
@@ -7515,7 +7536,7 @@
         <v>21068</v>
       </c>
       <c r="B180" s="21" t="str">
-        <f>VLOOKUP(A180,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C180" s="26">
@@ -7530,11 +7551,11 @@
         <v>0.52569444444444446</v>
       </c>
       <c r="H180" s="28">
-        <f>G180-F180</f>
+        <f t="shared" si="23"/>
         <v>2.5000000000000022E-2</v>
       </c>
       <c r="I180" s="29">
-        <f>H180/(45/(60*24))</f>
+        <f t="shared" si="26"/>
         <v>0.80000000000000071</v>
       </c>
       <c r="J180" s="21" t="s">
@@ -7546,7 +7567,7 @@
         <v>21068</v>
       </c>
       <c r="B181" s="21" t="str">
-        <f>VLOOKUP(A181,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C181" s="26">
@@ -7561,11 +7582,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H181" s="28">
-        <f>G181-F181</f>
+        <f t="shared" si="23"/>
         <v>6.25E-2</v>
       </c>
       <c r="I181" s="29">
-        <f>H181/(45/(60*24))</f>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="J181" s="21" t="s">
@@ -7583,7 +7604,7 @@
         <v>21074</v>
       </c>
       <c r="B182" s="21" t="str">
-        <f>VLOOKUP(A182,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C182" s="26">
@@ -7600,7 +7621,7 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H182" s="28">
-        <f>G182-F182</f>
+        <f t="shared" si="23"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I182" s="29">
@@ -7619,7 +7640,7 @@
         <v>21074</v>
       </c>
       <c r="B183" s="21" t="str">
-        <f>VLOOKUP(A183,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C183" s="26">
@@ -7636,7 +7657,7 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H183" s="28">
-        <f>G183-F183</f>
+        <f t="shared" si="23"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I183" s="29">
@@ -7658,7 +7679,7 @@
         <v>21074</v>
       </c>
       <c r="B184" s="21" t="str">
-        <f>VLOOKUP(A184,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C184" s="26">
@@ -7675,7 +7696,7 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H184" s="28">
-        <f>G184-F184</f>
+        <f t="shared" si="23"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I184" s="29">
@@ -7697,7 +7718,7 @@
         <v>21074</v>
       </c>
       <c r="B185" s="21" t="str">
-        <f>VLOOKUP(A185,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C185" s="26">
@@ -7714,11 +7735,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H185" s="28">
-        <f>G185-F185</f>
+        <f t="shared" si="23"/>
         <v>5.9027777777777846E-2</v>
       </c>
       <c r="I185" s="29">
-        <f>H185/(45/(60*24))</f>
+        <f t="shared" ref="I185:I193" si="27">H185/(45/(60*24))</f>
         <v>1.8888888888888911</v>
       </c>
       <c r="J185" s="21" t="s">
@@ -7733,7 +7754,7 @@
         <v>21074</v>
       </c>
       <c r="B186" s="21" t="str">
-        <f>VLOOKUP(A186,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C186" s="26">
@@ -7750,11 +7771,11 @@
         <v>0.625</v>
       </c>
       <c r="H186" s="28">
-        <f>G186-F186</f>
+        <f t="shared" si="23"/>
         <v>6.25E-2</v>
       </c>
       <c r="I186" s="29">
-        <f>H186/(45/(60*24))</f>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="J186" s="21" t="s">
@@ -7766,7 +7787,7 @@
         <v>21074</v>
       </c>
       <c r="B187" s="21" t="str">
-        <f>VLOOKUP(A187,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C187" s="26">
@@ -7783,11 +7804,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H187" s="28">
-        <f>G187-F187</f>
+        <f t="shared" si="23"/>
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="I187" s="29">
-        <f>H187/(45/(60*24))</f>
+        <f t="shared" si="27"/>
         <v>0.33333333333333393</v>
       </c>
       <c r="J187" s="21" t="s">
@@ -7799,7 +7820,7 @@
         <v>21074</v>
       </c>
       <c r="B188" s="21" t="str">
-        <f>VLOOKUP(A188,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C188" s="26">
@@ -7816,11 +7837,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H188" s="28">
-        <f>G188-F188</f>
+        <f t="shared" si="23"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I188" s="29">
-        <f>H188/(45/(60*24))</f>
+        <f t="shared" si="27"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J188" s="21" t="s">
@@ -7832,7 +7853,7 @@
         <v>21074</v>
       </c>
       <c r="B189" s="21" t="str">
-        <f>VLOOKUP(A189,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C189" s="26">
@@ -7849,11 +7870,11 @@
         <v>0.46875</v>
       </c>
       <c r="H189" s="28">
-        <f>G189-F189</f>
+        <f t="shared" si="23"/>
         <v>6.3194444444444442E-2</v>
       </c>
       <c r="I189" s="29">
-        <f>H189/(45/(60*24))</f>
+        <f t="shared" si="27"/>
         <v>2.0222222222222221</v>
       </c>
       <c r="J189" s="21" t="s">
@@ -7868,7 +7889,7 @@
         <v>21074</v>
       </c>
       <c r="B190" s="21" t="str">
-        <f>VLOOKUP(A190,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C190" s="26">
@@ -7885,11 +7906,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H190" s="28">
-        <f>G190-F190</f>
+        <f t="shared" si="23"/>
         <v>6.25E-2</v>
       </c>
       <c r="I190" s="29">
-        <f>H190/(45/(60*24))</f>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="J190" s="21" t="s">
@@ -7901,7 +7922,7 @@
         <v>21074</v>
       </c>
       <c r="B191" s="21" t="str">
-        <f>VLOOKUP(A191,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C191" s="26">
@@ -7918,11 +7939,11 @@
         <v>0.40972222222222221</v>
       </c>
       <c r="H191" s="28">
-        <f>G191-F191</f>
+        <f t="shared" si="23"/>
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="I191" s="29">
-        <f>H191/(45/(60*24))</f>
+        <f t="shared" si="27"/>
         <v>0.44444444444444464</v>
       </c>
     </row>
@@ -7931,7 +7952,7 @@
         <v>21074</v>
       </c>
       <c r="B192" s="21" t="str">
-        <f>VLOOKUP(A192,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C192" s="26">
@@ -7948,11 +7969,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H192" s="28">
-        <f>G192-F192</f>
+        <f t="shared" si="23"/>
         <v>6.25E-2</v>
       </c>
       <c r="I192" s="29">
-        <f>H192/(45/(60*24))</f>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="J192" s="21" t="s">
@@ -7967,7 +7988,7 @@
         <v>21074</v>
       </c>
       <c r="B193" s="21" t="str">
-        <f>VLOOKUP(A193,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C193" s="26">
@@ -7984,11 +8005,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H193" s="28">
-        <f>G193-F193</f>
+        <f t="shared" si="23"/>
         <v>6.25E-2</v>
       </c>
       <c r="I193" s="29">
-        <f>H193/(45/(60*24))</f>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="J193" s="21" t="s">
@@ -8000,7 +8021,7 @@
         <v>21074</v>
       </c>
       <c r="B194" s="21" t="str">
-        <f>VLOOKUP(A194,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C194" s="26">
@@ -8017,7 +8038,7 @@
         <v>0.52013888888888893</v>
       </c>
       <c r="H194" s="28">
-        <f>G194-F194</f>
+        <f t="shared" si="23"/>
         <v>5.2777777777777812E-2</v>
       </c>
       <c r="I194" s="29">
@@ -8032,7 +8053,7 @@
         <v>21074</v>
       </c>
       <c r="B195" s="21" t="str">
-        <f>VLOOKUP(A195,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C195" s="26">
@@ -8043,7 +8064,7 @@
         <v>351</v>
       </c>
       <c r="H195" s="28">
-        <f>G195-F195</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I195" s="29">
@@ -8061,7 +8082,7 @@
         <v>21074</v>
       </c>
       <c r="B196" s="21" t="str">
-        <f>VLOOKUP(A196,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C196" s="26">
@@ -8072,7 +8093,7 @@
         <v>351</v>
       </c>
       <c r="H196" s="28">
-        <f>G196-F196</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I196" s="29">
@@ -8090,7 +8111,7 @@
         <v>21074</v>
       </c>
       <c r="B197" s="21" t="str">
-        <f>VLOOKUP(A197,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C197" s="26">
@@ -8101,7 +8122,7 @@
         <v>351</v>
       </c>
       <c r="H197" s="28">
-        <f>G197-F197</f>
+        <f t="shared" ref="H197:H228" si="28">G197-F197</f>
         <v>0</v>
       </c>
       <c r="I197" s="29">
@@ -8119,7 +8140,7 @@
         <v>21074</v>
       </c>
       <c r="B198" s="21" t="str">
-        <f>VLOOKUP(A198,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C198" s="26">
@@ -8130,7 +8151,7 @@
         <v>351</v>
       </c>
       <c r="H198" s="28">
-        <f>G198-F198</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I198" s="29">
@@ -8148,7 +8169,7 @@
         <v>21071</v>
       </c>
       <c r="B199" s="21" t="str">
-        <f>VLOOKUP(A199,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>松行　桃香</v>
       </c>
       <c r="C199" s="26">
@@ -8157,7 +8178,7 @@
       <c r="D199" s="26"/>
       <c r="E199" s="26"/>
       <c r="H199" s="28">
-        <f>G199-F199</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I199" s="29">
@@ -8179,7 +8200,7 @@
         <v>21071</v>
       </c>
       <c r="B200" s="21" t="str">
-        <f>VLOOKUP(A200,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>松行　桃香</v>
       </c>
       <c r="C200" s="26">
@@ -8194,7 +8215,7 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H200" s="28">
-        <f>G200-F200</f>
+        <f t="shared" si="28"/>
         <v>3.4722222222222265E-2</v>
       </c>
       <c r="I200" s="29">
@@ -8213,7 +8234,7 @@
         <v>21071</v>
       </c>
       <c r="B201" s="21" t="str">
-        <f>VLOOKUP(A201,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>松行　桃香</v>
       </c>
       <c r="C201" s="26">
@@ -8228,7 +8249,7 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H201" s="28">
-        <f>G201-F201</f>
+        <f t="shared" si="28"/>
         <v>5.9027777777777846E-2</v>
       </c>
       <c r="I201" s="29">
@@ -8247,7 +8268,7 @@
         <v>21071</v>
       </c>
       <c r="B202" s="21" t="str">
-        <f>VLOOKUP(A202,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>松行　桃香</v>
       </c>
       <c r="C202" s="26">
@@ -8262,7 +8283,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="H202" s="28">
-        <f>G202-F202</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I202" s="29">
@@ -8284,7 +8305,7 @@
         <v>21071</v>
       </c>
       <c r="B203" s="21" t="str">
-        <f>VLOOKUP(A203,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>松行　桃香</v>
       </c>
       <c r="C203" s="26">
@@ -8299,7 +8320,7 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H203" s="28">
-        <f>G203-F203</f>
+        <f t="shared" si="28"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I203" s="29">
@@ -8315,7 +8336,7 @@
         <v>21071</v>
       </c>
       <c r="B204" s="21" t="str">
-        <f>VLOOKUP(A204,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>松行　桃香</v>
       </c>
       <c r="C204" s="26">
@@ -8324,11 +8345,11 @@
       <c r="D204" s="26"/>
       <c r="E204" s="26"/>
       <c r="H204" s="28">
-        <f>G204-F204</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I204" s="29">
-        <f>H204/(35/(60*24))</f>
+        <f t="shared" ref="I204:I230" si="29">H204/(35/(60*24))</f>
         <v>0</v>
       </c>
       <c r="J204" s="21" t="s">
@@ -8343,7 +8364,7 @@
         <v>21071</v>
       </c>
       <c r="B205" s="21" t="str">
-        <f>VLOOKUP(A205,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>松行　桃香</v>
       </c>
       <c r="C205" s="26">
@@ -8358,11 +8379,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H205" s="28">
-        <f>G205-F205</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I205" s="29">
-        <f>H205/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J205" s="21" t="s">
@@ -8380,7 +8401,7 @@
         <v>21071</v>
       </c>
       <c r="B206" s="21" t="str">
-        <f>VLOOKUP(A206,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>松行　桃香</v>
       </c>
       <c r="C206" s="26">
@@ -8395,11 +8416,11 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="H206" s="28">
-        <f>G206-F206</f>
+        <f t="shared" si="28"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I206" s="29">
-        <f>H206/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J206" s="21" t="s">
@@ -8417,7 +8438,7 @@
         <v>21071</v>
       </c>
       <c r="B207" s="21" t="str">
-        <f>VLOOKUP(A207,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>松行　桃香</v>
       </c>
       <c r="C207" s="26">
@@ -8432,11 +8453,11 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H207" s="28">
-        <f>G207-F207</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I207" s="29">
-        <f>H207/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J207" s="21" t="s">
@@ -8454,7 +8475,7 @@
         <v>21071</v>
       </c>
       <c r="B208" s="21" t="str">
-        <f>VLOOKUP(A208,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>松行　桃香</v>
       </c>
       <c r="C208" s="26">
@@ -8469,11 +8490,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H208" s="28">
-        <f>G208-F208</f>
+        <f t="shared" si="28"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I208" s="29">
-        <f>H208/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J208" s="21" t="s">
@@ -8491,7 +8512,7 @@
         <v>21071</v>
       </c>
       <c r="B209" s="21" t="str">
-        <f>VLOOKUP(A209,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>松行　桃香</v>
       </c>
       <c r="C209" s="26">
@@ -8506,11 +8527,11 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="H209" s="28">
-        <f>G209-F209</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I209" s="29">
-        <f>H209/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J209" s="21" t="s">
@@ -8528,7 +8549,7 @@
         <v>21071</v>
       </c>
       <c r="B210" s="21" t="str">
-        <f>VLOOKUP(A210,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>松行　桃香</v>
       </c>
       <c r="C210" s="26">
@@ -8543,11 +8564,11 @@
         <v>0.77430555555555558</v>
       </c>
       <c r="H210" s="28">
-        <f>G210-F210</f>
+        <f t="shared" si="28"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I210" s="29">
-        <f>H210/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J210" s="21" t="s">
@@ -8565,7 +8586,7 @@
         <v>21071</v>
       </c>
       <c r="B211" s="21" t="str">
-        <f>VLOOKUP(A211,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>松行　桃香</v>
       </c>
       <c r="C211" s="26">
@@ -8580,11 +8601,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H211" s="28">
-        <f>G211-F211</f>
+        <f t="shared" si="28"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I211" s="29">
-        <f>H211/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J211" s="21" t="s">
@@ -8602,7 +8623,7 @@
         <v>21071</v>
       </c>
       <c r="B212" s="21" t="str">
-        <f>VLOOKUP(A212,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>松行　桃香</v>
       </c>
       <c r="C212" s="26">
@@ -8617,11 +8638,11 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H212" s="28">
-        <f>G212-F212</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I212" s="29">
-        <f>H212/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J212" s="21" t="s">
@@ -8639,7 +8660,7 @@
         <v>21071</v>
       </c>
       <c r="B213" s="21" t="str">
-        <f>VLOOKUP(A213,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>松行　桃香</v>
       </c>
       <c r="C213" s="26">
@@ -8654,11 +8675,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H213" s="28">
-        <f>G213-F213</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I213" s="29">
-        <f>H213/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J213" s="21" t="s">
@@ -8670,7 +8691,7 @@
         <v>21071</v>
       </c>
       <c r="B214" s="21" t="str">
-        <f>VLOOKUP(A214,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>松行　桃香</v>
       </c>
       <c r="C214" s="26">
@@ -8685,11 +8706,11 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H214" s="28">
-        <f>G214-F214</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I214" s="29">
-        <f>H214/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J214" s="21" t="s">
@@ -8715,11 +8736,11 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H215" s="28">
-        <f>G215-F215</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I215" s="29">
-        <f>H215/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J215" s="21" t="s">
@@ -8748,11 +8769,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H216" s="28">
-        <f>G216-F216</f>
+        <f t="shared" si="28"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I216" s="29">
-        <f>H216/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J216" s="21" t="s">
@@ -8782,11 +8803,11 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="H217" s="28">
-        <f>G217-F217</f>
+        <f t="shared" si="28"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I217" s="29">
-        <f>H217/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J217" s="21" t="s">
@@ -8819,11 +8840,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H218" s="28">
-        <f>G218-F218</f>
+        <f t="shared" si="28"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I218" s="29">
-        <f>H218/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J218" s="21" t="s">
@@ -8850,11 +8871,11 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="H219" s="28">
-        <f>G219-F219</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I219" s="29">
-        <f>H219/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J219" s="21" t="s">
@@ -8887,11 +8908,11 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="H220" s="28">
-        <f>G220-F220</f>
+        <f t="shared" si="28"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I220" s="29">
-        <f>H220/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J220" s="21" t="s">
@@ -8916,11 +8937,11 @@
       <c r="D221" s="26"/>
       <c r="E221" s="26"/>
       <c r="H221" s="28">
-        <f>G221-F221</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I221" s="29">
-        <f>H221/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J221" s="21" t="s">
@@ -8946,11 +8967,11 @@
         <v>0.8125</v>
       </c>
       <c r="H222" s="28">
-        <f>G222-F222</f>
+        <f t="shared" si="28"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I222" s="29">
-        <f>H222/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J222" s="25" t="s">
@@ -8979,11 +9000,11 @@
         <v>0.75694444444444442</v>
       </c>
       <c r="H223" s="28">
-        <f>G223-F223</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I223" s="29">
-        <f>H223/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J223" s="21" t="s">
@@ -9012,11 +9033,11 @@
         <v>0.44097222222222221</v>
       </c>
       <c r="H224" s="28">
-        <f>G224-F224</f>
+        <f t="shared" si="28"/>
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="I224" s="29">
-        <f>H224/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>0.99999999999999867</v>
       </c>
       <c r="J224" s="21" t="s">
@@ -9031,7 +9052,7 @@
         <v>21071</v>
       </c>
       <c r="B225" s="21" t="str">
-        <f>VLOOKUP(A225,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" ref="B225:B241" si="30">VLOOKUP(A225,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C225" s="26">
@@ -9046,11 +9067,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H225" s="28">
-        <f>G225-F225</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I225" s="29">
-        <f>H225/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J225" s="21" t="s">
@@ -9066,7 +9087,7 @@
         <v>21071</v>
       </c>
       <c r="B226" s="21" t="str">
-        <f>VLOOKUP(A226,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C226" s="26">
@@ -9081,11 +9102,11 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="H226" s="28">
-        <f>G226-F226</f>
+        <f t="shared" si="28"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I226" s="29">
-        <f>H226/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J226" s="21" t="s">
@@ -9101,7 +9122,7 @@
         <v>21071</v>
       </c>
       <c r="B227" s="21" t="str">
-        <f>VLOOKUP(A227,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C227" s="26">
@@ -9116,11 +9137,11 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="H227" s="28">
-        <f>G227-F227</f>
+        <f t="shared" si="28"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I227" s="29">
-        <f>H227/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J227" s="21" t="s">
@@ -9138,7 +9159,7 @@
         <v>21071</v>
       </c>
       <c r="B228" s="21" t="str">
-        <f>VLOOKUP(A228,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C228" s="26">
@@ -9153,11 +9174,11 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="H228" s="28">
-        <f>G228-F228</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I228" s="29">
-        <f>H228/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J228" s="21" t="s">
@@ -9175,7 +9196,7 @@
         <v>21071</v>
       </c>
       <c r="B229" s="21" t="str">
-        <f>VLOOKUP(A229,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C229" s="26">
@@ -9190,11 +9211,11 @@
         <v>0.5</v>
       </c>
       <c r="H229" s="28">
-        <f>G229-F229</f>
+        <f t="shared" ref="H229:H260" si="31">G229-F229</f>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I229" s="29">
-        <f>H229/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J229" s="21" t="s">
@@ -9212,7 +9233,7 @@
         <v>21071</v>
       </c>
       <c r="B230" s="21" t="str">
-        <f>VLOOKUP(A230,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C230" s="26">
@@ -9227,11 +9248,11 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="H230" s="28">
-        <f>G230-F230</f>
+        <f t="shared" si="31"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I230" s="29">
-        <f>H230/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J230" s="21" t="s">
@@ -9249,7 +9270,7 @@
         <v>21071</v>
       </c>
       <c r="B231" s="21" t="str">
-        <f>VLOOKUP(A231,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C231" s="26">
@@ -9264,7 +9285,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="H231" s="28">
-        <f>G231-F231</f>
+        <f t="shared" si="31"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="J231" s="21" t="s">
@@ -9282,7 +9303,7 @@
         <v>21071</v>
       </c>
       <c r="B232" s="21" t="str">
-        <f>VLOOKUP(A232,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C232" s="26">
@@ -9297,11 +9318,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H232" s="28">
-        <f>G232-F232</f>
+        <f t="shared" si="31"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I232" s="29">
-        <f>H232/(35/(60*24))</f>
+        <f t="shared" ref="I232:I240" si="32">H232/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J232" s="21" t="s">
@@ -9316,7 +9337,7 @@
         <v>21071</v>
       </c>
       <c r="B233" s="21" t="str">
-        <f>VLOOKUP(A233,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C233" s="26">
@@ -9331,11 +9352,11 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="H233" s="28">
-        <f>G233-F233</f>
+        <f t="shared" si="31"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I233" s="29">
-        <f>H233/(35/(60*24))</f>
+        <f t="shared" si="32"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J233" s="21" t="s">
@@ -9350,7 +9371,7 @@
         <v>21071</v>
       </c>
       <c r="B234" s="21" t="str">
-        <f>VLOOKUP(A234,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C234" s="26">
@@ -9365,11 +9386,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H234" s="28">
-        <f>G234-F234</f>
+        <f t="shared" si="31"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I234" s="29">
-        <f>H234/(35/(60*24))</f>
+        <f t="shared" si="32"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J234" s="21" t="s">
@@ -9384,7 +9405,7 @@
         <v>21071</v>
       </c>
       <c r="B235" s="21" t="str">
-        <f>VLOOKUP(A235,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C235" s="26">
@@ -9399,11 +9420,11 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="H235" s="28">
-        <f>G235-F235</f>
+        <f t="shared" si="31"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I235" s="29">
-        <f>H235/(35/(60*24))</f>
+        <f t="shared" si="32"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J235" s="21" t="s">
@@ -9418,7 +9439,7 @@
         <v>21071</v>
       </c>
       <c r="B236" s="21" t="str">
-        <f>VLOOKUP(A236,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C236" s="26">
@@ -9433,11 +9454,11 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="H236" s="28">
-        <f>G236-F236</f>
+        <f t="shared" si="31"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I236" s="29">
-        <f>H236/(35/(60*24))</f>
+        <f t="shared" si="32"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J236" s="21" t="s">
@@ -9452,7 +9473,7 @@
         <v>21071</v>
       </c>
       <c r="B237" s="21" t="str">
-        <f>VLOOKUP(A237,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C237" s="26">
@@ -9467,11 +9488,11 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="H237" s="28">
-        <f>G237-F237</f>
+        <f t="shared" si="31"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I237" s="29">
-        <f>H237/(35/(60*24))</f>
+        <f t="shared" si="32"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J237" s="21" t="s">
@@ -9489,7 +9510,7 @@
         <v>21071</v>
       </c>
       <c r="B238" s="21" t="str">
-        <f>VLOOKUP(A238,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C238" s="26">
@@ -9504,11 +9525,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H238" s="28">
-        <f>G238-F238</f>
+        <f t="shared" si="31"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I238" s="29">
-        <f>H238/(35/(60*24))</f>
+        <f t="shared" si="32"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J238" s="21" t="s">
@@ -9523,7 +9544,7 @@
         <v>21071</v>
       </c>
       <c r="B239" s="21" t="str">
-        <f>VLOOKUP(A239,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C239" s="26">
@@ -9538,11 +9559,11 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="H239" s="28">
-        <f>G239-F239</f>
+        <f t="shared" si="31"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I239" s="29">
-        <f>H239/(35/(60*24))</f>
+        <f t="shared" si="32"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J239" s="21" t="s">
@@ -9557,7 +9578,7 @@
         <v>21071</v>
       </c>
       <c r="B240" s="21" t="str">
-        <f>VLOOKUP(A240,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C240" s="26">
@@ -9572,11 +9593,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H240" s="28">
-        <f>G240-F240</f>
+        <f t="shared" si="31"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I240" s="29">
-        <f>H240/(35/(60*24))</f>
+        <f t="shared" si="32"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J240" s="21" t="s">
@@ -9588,7 +9609,7 @@
         <v>21071</v>
       </c>
       <c r="B241" s="21" t="str">
-        <f>VLOOKUP(A241,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C241" s="26">
@@ -9603,7 +9624,7 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H241" s="28">
-        <f>G241-F241</f>
+        <f t="shared" si="31"/>
         <v>4.5138888888888951E-2</v>
       </c>
       <c r="I241" s="29">
@@ -9633,11 +9654,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H242" s="28">
-        <f>G242-F242</f>
+        <f t="shared" si="31"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I242" s="29">
-        <f>H242/(35/(60*24))</f>
+        <f t="shared" ref="I242:I251" si="33">H242/(35/(60*24))</f>
         <v>1.9999999999999973</v>
       </c>
       <c r="J242" s="21" t="s">
@@ -9661,11 +9682,11 @@
       <c r="D243" s="26"/>
       <c r="E243" s="26"/>
       <c r="H243" s="28">
-        <f>G243-F243</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I243" s="29">
-        <f>H243/(35/(60*24))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="L243" s="26">
@@ -9686,11 +9707,11 @@
       <c r="D244" s="26"/>
       <c r="E244" s="26"/>
       <c r="H244" s="28">
-        <f>G244-F244</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I244" s="29">
-        <f>H244/(35/(60*24))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -9708,11 +9729,11 @@
       <c r="D245" s="26"/>
       <c r="E245" s="26"/>
       <c r="H245" s="28">
-        <f>G245-F245</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I245" s="29">
-        <f>H245/(35/(60*24))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="J245" s="21" t="s">
@@ -9742,7 +9763,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="I246" s="29">
-        <f>H246/(35/(60*24))</f>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="J246" s="21" t="s">
@@ -9775,11 +9796,11 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="H247" s="28">
-        <f>G247-F247</f>
+        <f t="shared" ref="H247:H284" si="34">G247-F247</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I247" s="29">
-        <f>H247/(35/(60*24))</f>
+        <f t="shared" si="33"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J247" s="21" t="s">
@@ -9809,11 +9830,11 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="H248" s="28">
-        <f>G248-F248</f>
+        <f t="shared" si="34"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I248" s="29">
-        <f>H248/(35/(60*24))</f>
+        <f t="shared" si="33"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J248" s="21" t="s">
@@ -9846,11 +9867,11 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="H249" s="28">
-        <f>G249-F249</f>
+        <f t="shared" si="34"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I249" s="29">
-        <f>H249/(35/(60*24))</f>
+        <f t="shared" si="33"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J249" s="21" t="s">
@@ -9880,11 +9901,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H250" s="28">
-        <f>G250-F250</f>
+        <f t="shared" si="34"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I250" s="29">
-        <f>H250/(35/(60*24))</f>
+        <f t="shared" si="33"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J250" s="21" t="s">
@@ -9911,11 +9932,11 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="H251" s="28">
-        <f>G251-F251</f>
+        <f t="shared" si="34"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I251" s="29">
-        <f>H251/(35/(60*24))</f>
+        <f t="shared" si="33"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J251" s="21" t="s">
@@ -9945,7 +9966,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H252" s="28">
-        <f>G252-F252</f>
+        <f t="shared" si="34"/>
         <v>6.25E-2</v>
       </c>
       <c r="I252" s="29">
@@ -9981,11 +10002,11 @@
         <v>0.40972222222222221</v>
       </c>
       <c r="H253" s="28">
-        <f>G253-F253</f>
+        <f t="shared" si="34"/>
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="I253" s="29">
-        <f>H253/(35/(60*24))</f>
+        <f t="shared" ref="I253:I275" si="35">H253/(35/(60*24))</f>
         <v>0.99999999999999867</v>
       </c>
       <c r="J253" s="25" t="s">
@@ -10014,11 +10035,11 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="H254" s="28">
-        <f>G254-F254</f>
+        <f t="shared" si="34"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I254" s="29">
-        <f>H254/(35/(60*24))</f>
+        <f t="shared" si="35"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J254" s="25" t="s">
@@ -10047,11 +10068,11 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="H255" s="28">
-        <f>G255-F255</f>
+        <f t="shared" si="34"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I255" s="29">
-        <f>H255/(35/(60*24))</f>
+        <f t="shared" si="35"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J255" s="25" t="s">
@@ -10080,11 +10101,11 @@
         <v>0.57638888888888884</v>
       </c>
       <c r="H256" s="28">
-        <f>G256-F256</f>
+        <f t="shared" si="34"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I256" s="29">
-        <f>H256/(35/(60*24))</f>
+        <f t="shared" si="35"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J256" s="25" t="s">
@@ -10113,11 +10134,11 @@
         <v>0.60763888888888884</v>
       </c>
       <c r="H257" s="28">
-        <f>G257-F257</f>
+        <f t="shared" si="34"/>
         <v>2.4305555555555469E-2</v>
       </c>
       <c r="I257" s="29">
-        <f>H257/(35/(60*24))</f>
+        <f t="shared" si="35"/>
         <v>0.99999999999999645</v>
       </c>
       <c r="J257" s="25" t="s">
@@ -10146,11 +10167,11 @@
         <v>0.44097222222222221</v>
       </c>
       <c r="H258" s="28">
-        <f>G258-F258</f>
+        <f t="shared" si="34"/>
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="I258" s="29">
-        <f>H258/(35/(60*24))</f>
+        <f t="shared" si="35"/>
         <v>0.99999999999999867</v>
       </c>
       <c r="J258" s="25" t="s">
@@ -10183,11 +10204,11 @@
         <v>0.54513888888888884</v>
       </c>
       <c r="H259" s="28">
-        <f>G259-F259</f>
+        <f t="shared" si="34"/>
         <v>9.7222222222222154E-2</v>
       </c>
       <c r="I259" s="29">
-        <f>H259/(35/(60*24))</f>
+        <f t="shared" si="35"/>
         <v>3.9999999999999973</v>
       </c>
       <c r="J259" s="21" t="s">
@@ -10220,11 +10241,11 @@
         <v>0.60069444444444442</v>
       </c>
       <c r="H260" s="28">
-        <f>G260-F260</f>
+        <f t="shared" si="34"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I260" s="29">
-        <f>H260/(35/(60*24))</f>
+        <f t="shared" si="35"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J260" s="21" t="s">
@@ -10257,11 +10278,11 @@
         <v>0.625</v>
       </c>
       <c r="H261" s="28">
-        <f>G261-F261</f>
+        <f t="shared" si="34"/>
         <v>2.430555555555558E-2</v>
       </c>
       <c r="I261" s="29">
-        <f>H261/(35/(60*24))</f>
+        <f t="shared" si="35"/>
         <v>1.0000000000000009</v>
       </c>
       <c r="J261" s="21" t="s">
@@ -10276,7 +10297,7 @@
         <v>21087</v>
       </c>
       <c r="B262" s="21" t="str">
-        <f>VLOOKUP(A262,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" ref="B262:B279" si="36">VLOOKUP(A262,$A$3:$B$13,2,FALSE)</f>
         <v>木下　健志郎</v>
       </c>
       <c r="C262" s="26">
@@ -10291,11 +10312,11 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="H262" s="28">
-        <f>G262-F262</f>
+        <f t="shared" si="34"/>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="I262" s="36">
-        <f>H262/(35/(60*24))</f>
+        <f t="shared" si="35"/>
         <v>0.42857142857142705</v>
       </c>
       <c r="J262" s="21" t="s">
@@ -10310,7 +10331,7 @@
         <v>21087</v>
       </c>
       <c r="B263" s="21" t="str">
-        <f>VLOOKUP(A263,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C263" s="26">
@@ -10325,11 +10346,11 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="H263" s="28">
-        <f>G263-F263</f>
+        <f t="shared" si="34"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I263" s="29">
-        <f>H263/(35/(60*24))</f>
+        <f t="shared" si="35"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J263" s="21" t="s">
@@ -10347,7 +10368,7 @@
         <v>21087</v>
       </c>
       <c r="B264" s="21" t="str">
-        <f>VLOOKUP(A264,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C264" s="26">
@@ -10362,11 +10383,11 @@
         <v>0.59375</v>
       </c>
       <c r="H264" s="28">
-        <f>G264-F264</f>
+        <f t="shared" si="34"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I264" s="29">
-        <f>H264/(35/(60*24))</f>
+        <f t="shared" si="35"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J264" s="21" t="s">
@@ -10387,7 +10408,7 @@
         <v>21087</v>
       </c>
       <c r="B265" s="21" t="str">
-        <f>VLOOKUP(A265,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C265" s="26">
@@ -10402,11 +10423,11 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="H265" s="28">
-        <f>G265-F265</f>
+        <f t="shared" si="34"/>
         <v>6.9444444444445308E-3</v>
       </c>
       <c r="I265" s="36">
-        <f>H265/(35/(60*24))</f>
+        <f t="shared" si="35"/>
         <v>0.28571428571428925</v>
       </c>
       <c r="J265" s="21" t="s">
@@ -10427,7 +10448,7 @@
         <v>21087</v>
       </c>
       <c r="B266" s="21" t="str">
-        <f>VLOOKUP(A266,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C266" s="26">
@@ -10442,11 +10463,11 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="H266" s="28">
-        <f>G266-F266</f>
+        <f t="shared" si="34"/>
         <v>5.9027777777777735E-2</v>
       </c>
       <c r="I266" s="29">
-        <f>H266/(35/(60*24))</f>
+        <f t="shared" si="35"/>
         <v>2.4285714285714266</v>
       </c>
       <c r="J266" s="21" t="s">
@@ -10464,7 +10485,7 @@
         <v>21087</v>
       </c>
       <c r="B267" s="21" t="str">
-        <f>VLOOKUP(A267,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C267" s="26">
@@ -10479,11 +10500,11 @@
         <v>0.57638888888888884</v>
       </c>
       <c r="H267" s="28">
-        <f>G267-F267</f>
+        <f t="shared" si="34"/>
         <v>2.7777777777777679E-2</v>
       </c>
       <c r="I267" s="29">
-        <f>H267/(35/(60*24))</f>
+        <f t="shared" si="35"/>
         <v>1.1428571428571388</v>
       </c>
       <c r="J267" s="21" t="s">
@@ -10501,7 +10522,7 @@
         <v>21087</v>
       </c>
       <c r="B268" s="21" t="str">
-        <f>VLOOKUP(A268,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C268" s="26">
@@ -10516,11 +10537,11 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="H268" s="28">
-        <f>G268-F268</f>
+        <f t="shared" si="34"/>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="I268" s="29">
-        <f>H268/(35/(60*24))</f>
+        <f t="shared" si="35"/>
         <v>2.1428571428571397</v>
       </c>
       <c r="J268" s="21" t="s">
@@ -10538,7 +10559,7 @@
         <v>21087</v>
       </c>
       <c r="B269" s="21" t="str">
-        <f>VLOOKUP(A269,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C269" s="26">
@@ -10553,11 +10574,11 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="H269" s="28">
-        <f>G269-F269</f>
+        <f t="shared" si="34"/>
         <v>2.4305555555555469E-2</v>
       </c>
       <c r="I269" s="29">
-        <f>H269/(35/(60*24))</f>
+        <f t="shared" si="35"/>
         <v>0.99999999999999645</v>
       </c>
       <c r="J269" s="21" t="s">
@@ -10575,7 +10596,7 @@
         <v>21087</v>
       </c>
       <c r="B270" s="21" t="str">
-        <f>VLOOKUP(A270,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C270" s="26">
@@ -10590,11 +10611,11 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="H270" s="28">
-        <f>G270-F270</f>
+        <f t="shared" si="34"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I270" s="29">
-        <f>H270/(35/(60*24))</f>
+        <f t="shared" si="35"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J270" s="21" t="s">
@@ -10615,7 +10636,7 @@
         <v>21087</v>
       </c>
       <c r="B271" s="21" t="str">
-        <f>VLOOKUP(A271,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C271" s="26">
@@ -10630,11 +10651,11 @@
         <v>0.625</v>
       </c>
       <c r="H271" s="28">
-        <f>G271-F271</f>
+        <f t="shared" si="34"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I271" s="29">
-        <f>H271/(35/(60*24))</f>
+        <f t="shared" si="35"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J271" s="21" t="s">
@@ -10655,7 +10676,7 @@
         <v>21087</v>
       </c>
       <c r="B272" s="21" t="str">
-        <f>VLOOKUP(A272,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C272" s="26">
@@ -10670,11 +10691,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H272" s="28">
-        <f>G272-F272</f>
+        <f t="shared" si="34"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I272" s="29">
-        <f>H272/(35/(60*24))</f>
+        <f t="shared" si="35"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J272" s="21" t="s">
@@ -10692,7 +10713,7 @@
         <v>21087</v>
       </c>
       <c r="B273" s="21" t="str">
-        <f>VLOOKUP(A273,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C273" s="26">
@@ -10707,11 +10728,11 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="H273" s="28">
-        <f>G273-F273</f>
+        <f t="shared" si="34"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I273" s="29">
-        <f>H273/(35/(60*24))</f>
+        <f t="shared" si="35"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J273" s="21" t="s">
@@ -10729,7 +10750,7 @@
         <v>21087</v>
       </c>
       <c r="B274" s="21" t="str">
-        <f>VLOOKUP(A274,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C274" s="26">
@@ -10744,11 +10765,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H274" s="28">
-        <f>G274-F274</f>
+        <f t="shared" si="34"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I274" s="29">
-        <f>H274/(35/(60*24))</f>
+        <f t="shared" si="35"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J274" s="21" t="s">
@@ -10766,7 +10787,7 @@
         <v>21087</v>
       </c>
       <c r="B275" s="21" t="str">
-        <f>VLOOKUP(A275,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C275" s="26">
@@ -10781,11 +10802,11 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="H275" s="28">
-        <f>G275-F275</f>
+        <f t="shared" si="34"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I275" s="29">
-        <f>H275/(35/(60*24))</f>
+        <f t="shared" si="35"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J275" s="21" t="s">
@@ -10803,7 +10824,7 @@
         <v>21087</v>
       </c>
       <c r="B276" s="21" t="str">
-        <f>VLOOKUP(A276,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C276" s="26">
@@ -10818,11 +10839,11 @@
         <v>0.49652777777777779</v>
       </c>
       <c r="H276" s="28">
-        <f>G276-F276</f>
+        <f t="shared" si="34"/>
         <v>9.5138888888888884E-2</v>
       </c>
       <c r="I276" s="29">
-        <f>H276/(45/(60*24))</f>
+        <f t="shared" ref="I276:I281" si="37">H276/(45/(60*24))</f>
         <v>3.0444444444444443</v>
       </c>
       <c r="J276" s="21" t="s">
@@ -10837,7 +10858,7 @@
         <v>21087</v>
       </c>
       <c r="B277" s="21" t="str">
-        <f>VLOOKUP(A277,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C277" s="26">
@@ -10852,11 +10873,11 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H277" s="28">
-        <f>G277-F277</f>
+        <f t="shared" si="34"/>
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="I277" s="29">
-        <f>H277/(45/(60*24))</f>
+        <f t="shared" si="37"/>
         <v>0.88888888888888751</v>
       </c>
       <c r="J277" s="21" t="s">
@@ -10868,7 +10889,7 @@
         <v>21087</v>
       </c>
       <c r="B278" s="21" t="str">
-        <f>VLOOKUP(A278,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C278" s="26">
@@ -10883,11 +10904,11 @@
         <v>0.44722222222222224</v>
       </c>
       <c r="H278" s="28">
-        <f>G278-F278</f>
+        <f t="shared" si="34"/>
         <v>1.5277777777777779E-2</v>
       </c>
       <c r="I278" s="29">
-        <f>H278/(45/(60*24))</f>
+        <f t="shared" si="37"/>
         <v>0.48888888888888893</v>
       </c>
       <c r="J278" s="21" t="s">
@@ -10899,7 +10920,7 @@
         <v>21090</v>
       </c>
       <c r="B279" s="21" t="str">
-        <f>VLOOKUP(A279,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="36"/>
         <v>中原　遥翔</v>
       </c>
       <c r="C279" s="26">
@@ -10914,11 +10935,11 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="H279" s="28">
-        <f>G279-F279</f>
+        <f t="shared" si="34"/>
         <v>6.25E-2</v>
       </c>
       <c r="I279" s="29">
-        <f>H279/(45/(60*24))</f>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="J279" s="21" t="s">
@@ -10950,11 +10971,11 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="H280" s="38">
-        <f>G280-F280</f>
+        <f t="shared" si="34"/>
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="I280" s="22">
-        <f>H280/(45/(60*24))</f>
+        <f t="shared" si="37"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="J280" s="22" t="s">
@@ -10969,7 +10990,7 @@
         <v>21090</v>
       </c>
       <c r="B281" s="21" t="str">
-        <f>VLOOKUP(A281,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" ref="B281:B312" si="38">VLOOKUP(A281,$A$3:$B$13,2,FALSE)</f>
         <v>中原　遥翔</v>
       </c>
       <c r="C281" s="26">
@@ -10984,11 +11005,11 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="H281" s="28">
-        <f>G281-F281</f>
+        <f t="shared" si="34"/>
         <v>6.25E-2</v>
       </c>
       <c r="I281" s="29">
-        <f>H281/(45/(60*24))</f>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="J281" s="21" t="s">
@@ -11006,7 +11027,7 @@
         <v>19055</v>
       </c>
       <c r="B282" s="21" t="str">
-        <f>VLOOKUP(A282,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>宮本　希</v>
       </c>
       <c r="C282" s="26">
@@ -11023,7 +11044,7 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="H282" s="28">
-        <f>G282-F282</f>
+        <f t="shared" si="34"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I282" s="29">
@@ -11042,7 +11063,7 @@
         <v>19055</v>
       </c>
       <c r="B283" s="21" t="str">
-        <f>VLOOKUP(A283,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>宮本　希</v>
       </c>
       <c r="C283" s="26">
@@ -11059,7 +11080,7 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="H283" s="28">
-        <f>G283-F283</f>
+        <f t="shared" si="34"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I283" s="29">
@@ -11078,7 +11099,7 @@
         <v>21087</v>
       </c>
       <c r="B284" s="21" t="str">
-        <f>VLOOKUP(A284,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C284" s="26">
@@ -11093,7 +11114,7 @@
         <v>0.43333333333333335</v>
       </c>
       <c r="H284" s="28">
-        <f>G284-F284</f>
+        <f t="shared" si="34"/>
         <v>3.5416666666666707E-2</v>
       </c>
       <c r="I284" s="29">
@@ -11112,7 +11133,7 @@
         <v>21036</v>
       </c>
       <c r="B285" s="21" t="str">
-        <f>VLOOKUP(A285,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C285" s="26"/>
@@ -11126,7 +11147,7 @@
         <v>21087</v>
       </c>
       <c r="B286" s="21" t="str">
-        <f>VLOOKUP(A286,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C286" s="26">
@@ -11141,7 +11162,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="H286" s="28">
-        <f>G286-F286</f>
+        <f t="shared" ref="H286:H292" si="39">G286-F286</f>
         <v>8.3333333333333315E-2</v>
       </c>
       <c r="I286" s="29">
@@ -11160,7 +11181,7 @@
         <v>21074</v>
       </c>
       <c r="B287" s="21" t="str">
-        <f>VLOOKUP(A287,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C287" s="26">
@@ -11177,7 +11198,7 @@
         <v>0.50763888888888886</v>
       </c>
       <c r="H287" s="28">
-        <f>G287-F287</f>
+        <f t="shared" si="39"/>
         <v>2.9861111111111061E-2</v>
       </c>
       <c r="I287" s="29">
@@ -11196,7 +11217,7 @@
         <v>21074</v>
       </c>
       <c r="B288" s="21" t="str">
-        <f>VLOOKUP(A288,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C288" s="26">
@@ -11213,7 +11234,7 @@
         <v>0.53541666666666665</v>
       </c>
       <c r="H288" s="28">
-        <f>G288-F288</f>
+        <f t="shared" si="39"/>
         <v>5.9722222222222232E-2</v>
       </c>
       <c r="I288" s="29">
@@ -11231,7 +11252,7 @@
         <v>19055</v>
       </c>
       <c r="B289" s="21" t="str">
-        <f>VLOOKUP(A289,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>宮本　希</v>
       </c>
       <c r="C289" s="26">
@@ -11242,7 +11263,7 @@
       </c>
       <c r="E289" s="26"/>
       <c r="H289" s="28">
-        <f>G289-F289</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I289" s="29">
@@ -11263,7 +11284,7 @@
         <v>19055</v>
       </c>
       <c r="B290" s="21" t="str">
-        <f>VLOOKUP(A290,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>宮本　希</v>
       </c>
       <c r="C290" s="26">
@@ -11280,7 +11301,7 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H290" s="28">
-        <f>G290-F290</f>
+        <f t="shared" si="39"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I290" s="29">
@@ -11302,7 +11323,7 @@
         <v>19055</v>
       </c>
       <c r="B291" s="21" t="str">
-        <f>VLOOKUP(A291,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>宮本　希</v>
       </c>
       <c r="C291" s="26">
@@ -11313,7 +11334,7 @@
       </c>
       <c r="E291" s="26"/>
       <c r="H291" s="28">
-        <f>G291-F291</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I291" s="29">
@@ -11328,7 +11349,7 @@
         <v>19055</v>
       </c>
       <c r="B292" s="21" t="str">
-        <f>VLOOKUP(A292,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>宮本　希</v>
       </c>
       <c r="C292" s="26">
@@ -11339,7 +11360,7 @@
       </c>
       <c r="E292" s="26"/>
       <c r="H292" s="28">
-        <f>G292-F292</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I292" s="29">
@@ -11354,7 +11375,7 @@
         <v>19055</v>
       </c>
       <c r="B293" s="21" t="str">
-        <f>VLOOKUP(A293,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>宮本　希</v>
       </c>
       <c r="C293" s="26">
@@ -11376,7 +11397,7 @@
         <v>21087</v>
       </c>
       <c r="B294" s="21" t="str">
-        <f>VLOOKUP(A294,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C294" s="26">
@@ -11388,7 +11409,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="I294" s="29">
-        <f>H294/(45/(60*24))</f>
+        <f t="shared" ref="I294:I306" si="40">H294/(45/(60*24))</f>
         <v>2</v>
       </c>
       <c r="J294" s="22" t="s">
@@ -11403,7 +11424,7 @@
         <v>21087</v>
       </c>
       <c r="B295" s="21" t="str">
-        <f>VLOOKUP(A295,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C295" s="26">
@@ -11415,7 +11436,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="I295" s="29">
-        <f>H295/(45/(60*24))</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="J295" s="22" t="s">
@@ -11430,7 +11451,7 @@
         <v>21087</v>
       </c>
       <c r="B296" s="21" t="str">
-        <f>VLOOKUP(A296,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C296" s="26">
@@ -11442,7 +11463,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="I296" s="29">
-        <f>H296/(45/(60*24))</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="J296" s="22" t="s">
@@ -11457,7 +11478,7 @@
         <v>21087</v>
       </c>
       <c r="B297" s="21" t="str">
-        <f>VLOOKUP(A297,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C297" s="26">
@@ -11469,7 +11490,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="I297" s="29">
-        <f>H297/(45/(60*24))</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="J297" s="22" t="s">
@@ -11484,7 +11505,7 @@
         <v>21087</v>
       </c>
       <c r="B298" s="21" t="str">
-        <f>VLOOKUP(A298,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C298" s="26">
@@ -11496,7 +11517,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="I298" s="29">
-        <f>H298/(45/(60*24))</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="J298" s="22" t="s">
@@ -11511,7 +11532,7 @@
         <v>21087</v>
       </c>
       <c r="B299" s="21" t="str">
-        <f>VLOOKUP(A299,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C299" s="26">
@@ -11523,7 +11544,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="I299" s="29">
-        <f>H299/(45/(60*24))</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="J299" s="22" t="s">
@@ -11538,7 +11559,7 @@
         <v>21071</v>
       </c>
       <c r="B300" s="21" t="str">
-        <f>VLOOKUP(A300,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>松行　桃香</v>
       </c>
       <c r="C300" s="26">
@@ -11553,11 +11574,11 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="H300" s="28">
-        <f>G300-F300</f>
+        <f t="shared" ref="H300:H306" si="41">G300-F300</f>
         <v>6.25E-2</v>
       </c>
       <c r="I300" s="29">
-        <f>H300/(45/(60*24))</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="J300" s="22" t="s">
@@ -11572,7 +11593,7 @@
         <v>21071</v>
       </c>
       <c r="B301" s="21" t="str">
-        <f>VLOOKUP(A301,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>松行　桃香</v>
       </c>
       <c r="C301" s="26">
@@ -11587,11 +11608,11 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="H301" s="28">
-        <f>G301-F301</f>
+        <f t="shared" si="41"/>
         <v>3.125E-2</v>
       </c>
       <c r="I301" s="29">
-        <f>H301/(45/(60*24))</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="J301" s="22" t="s">
@@ -11606,7 +11627,7 @@
         <v>21087</v>
       </c>
       <c r="B302" s="21" t="str">
-        <f>VLOOKUP(A302,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C302" s="26">
@@ -11621,11 +11642,11 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="H302" s="28">
-        <f>G302-F302</f>
+        <f t="shared" si="41"/>
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="I302" s="29">
-        <f>H302/(45/(60*24))</f>
+        <f t="shared" si="40"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="J302" s="22" t="s">
@@ -11640,7 +11661,7 @@
         <v>21068</v>
       </c>
       <c r="B303" s="21" t="str">
-        <f>VLOOKUP(A303,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C303" s="26">
@@ -11655,11 +11676,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H303" s="28">
-        <f>G303-F303</f>
+        <f t="shared" si="41"/>
         <v>6.25E-2</v>
       </c>
       <c r="I303" s="29">
-        <f>H303/(45/(60*24))</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="J303" s="21" t="s">
@@ -11677,7 +11698,7 @@
         <v>21068</v>
       </c>
       <c r="B304" s="21" t="str">
-        <f>VLOOKUP(A304,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C304" s="26">
@@ -11692,11 +11713,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H304" s="28">
-        <f>G304-F304</f>
+        <f t="shared" si="41"/>
         <v>6.25E-2</v>
       </c>
       <c r="I304" s="29">
-        <f>H304/(45/(60*24))</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="J304" s="22" t="s">
@@ -11711,7 +11732,7 @@
         <v>21036</v>
       </c>
       <c r="B305" s="21" t="str">
-        <f>VLOOKUP(A305,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C305" s="26">
@@ -11726,11 +11747,11 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="H305" s="28">
-        <f>G305-F305</f>
+        <f t="shared" si="41"/>
         <v>6.25E-2</v>
       </c>
       <c r="I305" s="29">
-        <f>H305/(45/(60*24))</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="J305" s="22" t="s">
@@ -11745,7 +11766,7 @@
         <v>21068</v>
       </c>
       <c r="B306" s="21" t="str">
-        <f>VLOOKUP(A306,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C306" s="26">
@@ -11760,11 +11781,11 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="H306" s="28">
-        <f>G306-F306</f>
+        <f t="shared" si="41"/>
         <v>6.25E-2</v>
       </c>
       <c r="I306" s="29">
-        <f>H306/(45/(60*24))</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="J306" s="22" t="s">
@@ -11779,7 +11800,7 @@
         <v>19055</v>
       </c>
       <c r="B307" s="21" t="str">
-        <f>VLOOKUP(A307,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>宮本　希</v>
       </c>
       <c r="C307" s="26">
@@ -11801,7 +11822,7 @@
         <v>21036</v>
       </c>
       <c r="B308" s="21" t="str">
-        <f>VLOOKUP(A308,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C308" s="26">
@@ -11810,11 +11831,11 @@
       <c r="D308" s="26"/>
       <c r="E308" s="26"/>
       <c r="H308" s="28">
-        <f>G308-F308</f>
+        <f t="shared" ref="H308:H317" si="42">G308-F308</f>
         <v>0</v>
       </c>
       <c r="I308" s="29">
-        <f>H308/(45/(60*24))</f>
+        <f t="shared" ref="I308:I317" si="43">H308/(45/(60*24))</f>
         <v>0</v>
       </c>
       <c r="J308" s="22" t="s">
@@ -11829,7 +11850,7 @@
         <v>21036</v>
       </c>
       <c r="B309" s="21" t="str">
-        <f>VLOOKUP(A309,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C309" s="26">
@@ -11838,11 +11859,11 @@
       <c r="D309" s="26"/>
       <c r="E309" s="26"/>
       <c r="H309" s="28">
-        <f>G309-F309</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I309" s="29">
-        <f>H309/(45/(60*24))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="J309" s="22" t="s">
@@ -11857,7 +11878,7 @@
         <v>21036</v>
       </c>
       <c r="B310" s="21" t="str">
-        <f>VLOOKUP(A310,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C310" s="26">
@@ -11866,11 +11887,11 @@
       <c r="D310" s="26"/>
       <c r="E310" s="26"/>
       <c r="H310" s="28">
-        <f>G310-F310</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I310" s="29">
-        <f>H310/(45/(60*24))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="J310" s="22" t="s">
@@ -11885,7 +11906,7 @@
         <v>21036</v>
       </c>
       <c r="B311" s="21" t="str">
-        <f>VLOOKUP(A311,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C311" s="26">
@@ -11894,11 +11915,11 @@
       <c r="D311" s="26"/>
       <c r="E311" s="26"/>
       <c r="H311" s="28">
-        <f>G311-F311</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I311" s="29">
-        <f>H311/(45/(60*24))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="J311" s="22" t="s">
@@ -11913,7 +11934,7 @@
         <v>21036</v>
       </c>
       <c r="B312" s="21" t="str">
-        <f>VLOOKUP(A312,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C312" s="26">
@@ -11922,11 +11943,11 @@
       <c r="D312" s="26"/>
       <c r="E312" s="26"/>
       <c r="H312" s="28">
-        <f>G312-F312</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I312" s="29">
-        <f>H312/(45/(60*24))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="J312" s="22" t="s">
@@ -11941,7 +11962,7 @@
         <v>21090</v>
       </c>
       <c r="B313" s="21" t="str">
-        <f>VLOOKUP(A313,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" ref="B313:B344" si="44">VLOOKUP(A313,$A$3:$B$13,2,FALSE)</f>
         <v>中原　遥翔</v>
       </c>
       <c r="C313" s="26">
@@ -11956,11 +11977,11 @@
         <v>0.58680555555555558</v>
       </c>
       <c r="H313" s="28">
-        <f>G313-F313</f>
+        <f t="shared" si="42"/>
         <v>6.25E-2</v>
       </c>
       <c r="I313" s="29">
-        <f>H313/(45/(60*24))</f>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="J313" s="22" t="s">
@@ -11975,7 +11996,7 @@
         <v>21090</v>
       </c>
       <c r="B314" s="22" t="str">
-        <f>VLOOKUP(A314,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>中原　遥翔</v>
       </c>
       <c r="C314" s="26">
@@ -11990,11 +12011,11 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="H314" s="38">
-        <f>G314-F314</f>
+        <f t="shared" si="42"/>
         <v>6.25E-2</v>
       </c>
       <c r="I314" s="22">
-        <f>H314/(45/(60*24))</f>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="J314" s="22" t="s">
@@ -12009,7 +12030,7 @@
         <v>21090</v>
       </c>
       <c r="B315" s="22" t="str">
-        <f>VLOOKUP(A315,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>中原　遥翔</v>
       </c>
       <c r="C315" s="26">
@@ -12024,11 +12045,11 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="H315" s="38">
-        <f>G315-F315</f>
+        <f t="shared" si="42"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I315" s="22">
-        <f>H315/(45/(60*24))</f>
+        <f t="shared" si="43"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J315" s="22" t="s">
@@ -12043,7 +12064,7 @@
         <v>21068</v>
       </c>
       <c r="B316" s="22" t="str">
-        <f>VLOOKUP(A316,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C316" s="26">
@@ -12058,11 +12079,11 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="H316" s="38">
-        <f>G316-F316</f>
+        <f t="shared" si="42"/>
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="I316" s="22">
-        <f>H316/(45/(60*24))</f>
+        <f t="shared" si="43"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="J316" s="22" t="s">
@@ -12077,7 +12098,7 @@
         <v>21068</v>
       </c>
       <c r="B317" s="22" t="str">
-        <f>VLOOKUP(A317,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C317" s="26">
@@ -12092,11 +12113,11 @@
         <v>0.23819444444444446</v>
       </c>
       <c r="H317" s="38">
-        <f>G317-F317</f>
+        <f t="shared" si="42"/>
         <v>6.25E-2</v>
       </c>
       <c r="I317" s="22">
-        <f>H317/(45/(60*24))</f>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="J317" s="22" t="s">
@@ -12111,7 +12132,7 @@
         <v>19055</v>
       </c>
       <c r="B318" s="21" t="str">
-        <f>VLOOKUP(A318,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>宮本　希</v>
       </c>
       <c r="C318" s="26">
@@ -12133,7 +12154,7 @@
         <v>19055</v>
       </c>
       <c r="B319" s="21" t="str">
-        <f>VLOOKUP(A319,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>宮本　希</v>
       </c>
       <c r="C319" s="26">
@@ -12155,7 +12176,7 @@
         <v>21049</v>
       </c>
       <c r="B320" s="22" t="str">
-        <f>VLOOKUP(A320,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>本岡　龍陽</v>
       </c>
       <c r="C320" s="26">
@@ -12189,7 +12210,7 @@
         <v>21049</v>
       </c>
       <c r="B321" s="22" t="str">
-        <f>VLOOKUP(A321,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>本岡　龍陽</v>
       </c>
       <c r="C321" s="26">
@@ -12215,7 +12236,7 @@
         <v>19055</v>
       </c>
       <c r="B322" s="21" t="str">
-        <f>VLOOKUP(A322,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>宮本　希</v>
       </c>
       <c r="C322" s="26">
@@ -12237,7 +12258,7 @@
         <v>19055</v>
       </c>
       <c r="B323" s="21" t="str">
-        <f>VLOOKUP(A323,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>宮本　希</v>
       </c>
       <c r="C323" s="26">
@@ -12259,7 +12280,7 @@
         <v>19055</v>
       </c>
       <c r="B324" s="21" t="str">
-        <f>VLOOKUP(A324,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>宮本　希</v>
       </c>
       <c r="C324" s="26">
@@ -12281,7 +12302,7 @@
         <v>21068</v>
       </c>
       <c r="B325" s="22" t="str">
-        <f>VLOOKUP(A325,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C325" s="26">
@@ -12296,11 +12317,11 @@
         <v>0.3125</v>
       </c>
       <c r="H325" s="38">
-        <f>G325-F325</f>
+        <f t="shared" ref="H325:H333" si="45">G325-F325</f>
         <v>6.25E-2</v>
       </c>
       <c r="I325" s="22">
-        <f>H325/(45/(60*24))</f>
+        <f t="shared" ref="I325:I333" si="46">H325/(45/(60*24))</f>
         <v>2</v>
       </c>
       <c r="J325" s="22" t="s">
@@ -12315,7 +12336,7 @@
         <v>21096</v>
       </c>
       <c r="B326" s="22" t="str">
-        <f>VLOOKUP(A326,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>輪竹　真弥</v>
       </c>
       <c r="C326" s="26">
@@ -12330,11 +12351,11 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="H326" s="38">
-        <f>G326-F326</f>
+        <f t="shared" si="45"/>
         <v>6.25E-2</v>
       </c>
       <c r="I326" s="22">
-        <f>H326/(45/(60*24))</f>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="J326" s="22" t="s">
@@ -12349,7 +12370,7 @@
         <v>21068</v>
       </c>
       <c r="B327" s="21" t="str">
-        <f>VLOOKUP(A327,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C327" s="26">
@@ -12364,11 +12385,11 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="H327" s="28">
-        <f>G327-F327</f>
+        <f t="shared" si="45"/>
         <v>6.25E-2</v>
       </c>
       <c r="I327" s="29">
-        <f>H327/(45/(60*24))</f>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="J327" s="22" t="s">
@@ -12383,7 +12404,7 @@
         <v>21096</v>
       </c>
       <c r="B328" s="22" t="str">
-        <f>VLOOKUP(A328,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>輪竹　真弥</v>
       </c>
       <c r="C328" s="26">
@@ -12398,11 +12419,11 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="H328" s="38">
-        <f>G328-F328</f>
+        <f t="shared" si="45"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I328" s="22">
-        <f>H328/(45/(60*24))</f>
+        <f t="shared" si="46"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J328" s="22" t="s">
@@ -12417,7 +12438,7 @@
         <v>21090</v>
       </c>
       <c r="B329" s="21" t="str">
-        <f>VLOOKUP(A329,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>中原　遥翔</v>
       </c>
       <c r="C329" s="26">
@@ -12432,11 +12453,11 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="H329" s="28">
-        <f>G329-F329</f>
+        <f t="shared" si="45"/>
         <v>6.25E-2</v>
       </c>
       <c r="I329" s="29">
-        <f>H329/(45/(60*24))</f>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="J329" s="22" t="s">
@@ -12451,7 +12472,7 @@
         <v>21068</v>
       </c>
       <c r="B330" s="22" t="str">
-        <f>VLOOKUP(A330,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C330" s="26">
@@ -12466,11 +12487,11 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="H330" s="22">
-        <f>G330-F330</f>
+        <f t="shared" si="45"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I330" s="22">
-        <f>H330/(45/(60*24))</f>
+        <f t="shared" si="46"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J330" s="22" t="s">
@@ -12485,7 +12506,7 @@
         <v>21071</v>
       </c>
       <c r="B331" s="21" t="str">
-        <f>VLOOKUP(A331,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>松行　桃香</v>
       </c>
       <c r="C331" s="26">
@@ -12500,11 +12521,11 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="H331" s="28">
-        <f>G331-F331</f>
+        <f t="shared" si="45"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="I331" s="29">
-        <f>H331/(45/(60*24))</f>
+        <f t="shared" si="46"/>
         <v>0.66666666666666785</v>
       </c>
       <c r="J331" s="22" t="s">
@@ -12516,7 +12537,7 @@
         <v>21068</v>
       </c>
       <c r="B332" s="22" t="str">
-        <f>VLOOKUP(A332,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C332" s="26">
@@ -12525,11 +12546,11 @@
       <c r="D332" s="26"/>
       <c r="E332" s="26"/>
       <c r="H332" s="22">
-        <f>G332-F332</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="I332" s="22">
-        <f>H332/(45/(60*24))</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J332" s="22" t="s">
@@ -12544,7 +12565,7 @@
         <v>21091</v>
       </c>
       <c r="B333" s="22" t="str">
-        <f>VLOOKUP(A333,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>金子　凌</v>
       </c>
       <c r="C333" s="26">
@@ -12559,11 +12580,11 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H333" s="38">
-        <f>G333-F333</f>
+        <f t="shared" si="45"/>
         <v>6.25E-2</v>
       </c>
       <c r="I333" s="22">
-        <f>H333/(45/(60*24))</f>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="J333" s="22" t="s">
@@ -12575,7 +12596,7 @@
         <v>19055</v>
       </c>
       <c r="B334" s="21" t="str">
-        <f>VLOOKUP(A334,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>宮本　希</v>
       </c>
       <c r="C334" s="26">
@@ -12597,7 +12618,7 @@
         <v>19055</v>
       </c>
       <c r="B335" s="21" t="str">
-        <f>VLOOKUP(A335,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>宮本　希</v>
       </c>
       <c r="C335" s="26">
@@ -12619,7 +12640,7 @@
         <v>21068</v>
       </c>
       <c r="B336" s="22" t="str">
-        <f>VLOOKUP(A336,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C336" s="26">
@@ -12647,7 +12668,7 @@
         <v>19055</v>
       </c>
       <c r="B337" s="21" t="str">
-        <f>VLOOKUP(A337,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>宮本　希</v>
       </c>
       <c r="C337" s="26">
@@ -12669,7 +12690,7 @@
         <v>21068</v>
       </c>
       <c r="B338" s="22" t="str">
-        <f>VLOOKUP(A338,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C338" s="26">
@@ -12703,7 +12724,7 @@
         <v>21068</v>
       </c>
       <c r="B339" s="22" t="str">
-        <f>VLOOKUP(A339,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C339" s="26">
@@ -12731,7 +12752,7 @@
         <v>21068</v>
       </c>
       <c r="B340" s="22" t="str">
-        <f>VLOOKUP(A340,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C340" s="50">
@@ -12762,7 +12783,7 @@
         <v>21068</v>
       </c>
       <c r="B341" s="22" t="str">
-        <f>VLOOKUP(A341,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C341" s="26">
@@ -12796,7 +12817,7 @@
         <v>21068</v>
       </c>
       <c r="B342" s="22" t="str">
-        <f>VLOOKUP(A342,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C342" s="50">
@@ -12819,7 +12840,7 @@
         <v>21068</v>
       </c>
       <c r="B343" s="22" t="str">
-        <f>VLOOKUP(A343,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C343" s="50">
@@ -12835,7 +12856,7 @@
         <v>21087</v>
       </c>
       <c r="B344" s="22" t="str">
-        <f>VLOOKUP(A344,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C344" s="50">
@@ -12866,7 +12887,7 @@
         <v>19055</v>
       </c>
       <c r="B345" s="21" t="str">
-        <f>VLOOKUP(A345,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" ref="B345:B376" si="47">VLOOKUP(A345,$A$3:$B$13,2,FALSE)</f>
         <v>宮本　希</v>
       </c>
       <c r="C345" s="26">
@@ -12888,7 +12909,7 @@
         <v>21068</v>
       </c>
       <c r="B346" s="22" t="str">
-        <f>VLOOKUP(A346,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C346" s="26">
@@ -12922,7 +12943,7 @@
         <v>21068</v>
       </c>
       <c r="B347" s="21" t="str">
-        <f>VLOOKUP(A347,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C347" s="26"/>
@@ -12951,7 +12972,7 @@
         <v>21091</v>
       </c>
       <c r="B348" s="22" t="str">
-        <f>VLOOKUP(A348,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>金子　凌</v>
       </c>
       <c r="C348" s="50">
@@ -12974,7 +12995,7 @@
         <v>21091</v>
       </c>
       <c r="B349" s="22" t="str">
-        <f>VLOOKUP(A349,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>金子　凌</v>
       </c>
       <c r="C349" s="50">
@@ -12997,7 +13018,7 @@
         <v>21096</v>
       </c>
       <c r="B350" s="22" t="str">
-        <f>VLOOKUP(A350,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>輪竹　真弥</v>
       </c>
       <c r="C350" s="50">
@@ -13020,7 +13041,7 @@
         <v>21096</v>
       </c>
       <c r="B351" s="22" t="str">
-        <f>VLOOKUP(A351,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>輪竹　真弥</v>
       </c>
       <c r="C351" s="50">
@@ -13043,7 +13064,7 @@
         <v>19055</v>
       </c>
       <c r="B352" s="21" t="str">
-        <f>VLOOKUP(A352,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>宮本　希</v>
       </c>
       <c r="C352" s="26">
@@ -13060,11 +13081,11 @@
         <v>0.60069444444444442</v>
       </c>
       <c r="H352" s="28">
-        <f>G352-F352</f>
+        <f t="shared" ref="H352:H358" si="48">G352-F352</f>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I352" s="29">
-        <f>H352/(35/(60*24))</f>
+        <f t="shared" ref="I352:I358" si="49">H352/(35/(60*24))</f>
         <v>1.9999999999999973</v>
       </c>
       <c r="J352" s="21" t="s">
@@ -13082,7 +13103,7 @@
         <v>19055</v>
       </c>
       <c r="B353" s="21" t="str">
-        <f>VLOOKUP(A353,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>宮本　希</v>
       </c>
       <c r="C353" s="26">
@@ -13099,11 +13120,11 @@
         <v>0.65625</v>
       </c>
       <c r="H353" s="28">
-        <f>G353-F353</f>
+        <f t="shared" si="48"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I353" s="29">
-        <f>H353/(35/(60*24))</f>
+        <f t="shared" si="49"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J353" s="21" t="s">
@@ -13124,7 +13145,7 @@
         <v>19055</v>
       </c>
       <c r="B354" s="21" t="str">
-        <f>VLOOKUP(A354,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>宮本　希</v>
       </c>
       <c r="C354" s="26">
@@ -13142,11 +13163,11 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="H354" s="28">
-        <f>G354-F354</f>
+        <f t="shared" si="48"/>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="I354" s="29">
-        <f>H354/(35/(60*24))</f>
+        <f t="shared" si="49"/>
         <v>0.42857142857142705</v>
       </c>
       <c r="J354" s="21" t="s">
@@ -13167,7 +13188,7 @@
         <v>19055</v>
       </c>
       <c r="B355" s="21" t="str">
-        <f>VLOOKUP(A355,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>宮本　希</v>
       </c>
       <c r="C355" s="26">
@@ -13184,11 +13205,11 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="H355" s="28">
-        <f>G355-F355</f>
+        <f t="shared" si="48"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I355" s="29">
-        <f>H355/(35/(60*24))</f>
+        <f t="shared" si="49"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J355" s="21" t="s">
@@ -13206,7 +13227,7 @@
         <v>19055</v>
       </c>
       <c r="B356" s="21" t="str">
-        <f>VLOOKUP(A356,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>宮本　希</v>
       </c>
       <c r="C356" s="26">
@@ -13223,11 +13244,11 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="H356" s="28">
-        <f>G356-F356</f>
+        <f t="shared" si="48"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I356" s="29">
-        <f>H356/(35/(60*24))</f>
+        <f t="shared" si="49"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J356" s="21" t="s">
@@ -13245,7 +13266,7 @@
         <v>19055</v>
       </c>
       <c r="B357" s="21" t="str">
-        <f>VLOOKUP(A357,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>宮本　希</v>
       </c>
       <c r="C357" s="26">
@@ -13262,11 +13283,11 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="H357" s="28">
-        <f>G357-F357</f>
+        <f t="shared" si="48"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I357" s="29">
-        <f>H357/(35/(60*24))</f>
+        <f t="shared" si="49"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J357" s="21" t="s">
@@ -13284,7 +13305,7 @@
         <v>19055</v>
       </c>
       <c r="B358" s="21" t="str">
-        <f>VLOOKUP(A358,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>宮本　希</v>
       </c>
       <c r="C358" s="26">
@@ -13301,11 +13322,11 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="H358" s="28">
-        <f>G358-F358</f>
+        <f t="shared" si="48"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I358" s="29">
-        <f>H358/(35/(60*24))</f>
+        <f t="shared" si="49"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J358" s="52" t="s">
@@ -13323,7 +13344,7 @@
         <v>21068</v>
       </c>
       <c r="B359" s="22" t="str">
-        <f>VLOOKUP(A359,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C359" s="50">
@@ -13346,7 +13367,7 @@
         <v>19055</v>
       </c>
       <c r="B360" s="21" t="str">
-        <f>VLOOKUP(A360,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>宮本　希</v>
       </c>
       <c r="C360" s="26">
@@ -13363,11 +13384,11 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="H360" s="28">
-        <f>G360-F360</f>
+        <f t="shared" ref="H360:H374" si="50">G360-F360</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I360" s="29">
-        <f>H360/(35/(60*24))</f>
+        <f t="shared" ref="I360:I370" si="51">H360/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J360" s="52" t="s">
@@ -13385,7 +13406,7 @@
         <v>19055</v>
       </c>
       <c r="B361" s="21" t="str">
-        <f>VLOOKUP(A361,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>宮本　希</v>
       </c>
       <c r="C361" s="26">
@@ -13402,11 +13423,11 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="H361" s="28">
-        <f>G361-F361</f>
+        <f t="shared" si="50"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I361" s="29">
-        <f>H361/(35/(60*24))</f>
+        <f t="shared" si="51"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J361" s="52" t="s">
@@ -13424,7 +13445,7 @@
         <v>19055</v>
       </c>
       <c r="B362" s="21" t="str">
-        <f>VLOOKUP(A362,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>宮本　希</v>
       </c>
       <c r="C362" s="26">
@@ -13441,11 +13462,11 @@
         <v>0.6875</v>
       </c>
       <c r="H362" s="28">
-        <f>G362-F362</f>
+        <f t="shared" si="50"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I362" s="29">
-        <f>H362/(35/(60*24))</f>
+        <f t="shared" si="51"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J362" s="52" t="s">
@@ -13463,7 +13484,7 @@
         <v>19055</v>
       </c>
       <c r="B363" s="21" t="str">
-        <f>VLOOKUP(A363,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>宮本　希</v>
       </c>
       <c r="C363" s="26">
@@ -13480,11 +13501,11 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="H363" s="28">
-        <f>G363-F363</f>
+        <f t="shared" si="50"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I363" s="29">
-        <f>H363/(35/(60*24))</f>
+        <f t="shared" si="51"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J363" s="52" t="s">
@@ -13502,7 +13523,7 @@
         <v>19055</v>
       </c>
       <c r="B364" s="21" t="str">
-        <f>VLOOKUP(A364,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>宮本　希</v>
       </c>
       <c r="C364" s="26">
@@ -13519,11 +13540,11 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="H364" s="28">
-        <f>G364-F364</f>
+        <f t="shared" si="50"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I364" s="29">
-        <f>H364/(35/(60*24))</f>
+        <f t="shared" si="51"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J364" s="52" t="s">
@@ -13541,7 +13562,7 @@
         <v>19055</v>
       </c>
       <c r="B365" s="21" t="str">
-        <f>VLOOKUP(A365,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>宮本　希</v>
       </c>
       <c r="C365" s="26">
@@ -13558,11 +13579,11 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="H365" s="28">
-        <f>G365-F365</f>
+        <f t="shared" si="50"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I365" s="29">
-        <f>H365/(35/(60*24))</f>
+        <f t="shared" si="51"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J365" s="52" t="s">
@@ -13580,7 +13601,7 @@
         <v>19055</v>
       </c>
       <c r="B366" s="21" t="str">
-        <f>VLOOKUP(A366,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>宮本　希</v>
       </c>
       <c r="C366" s="26">
@@ -13597,11 +13618,11 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="H366" s="28">
-        <f>G366-F366</f>
+        <f t="shared" si="50"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I366" s="29">
-        <f>H366/(35/(60*24))</f>
+        <f t="shared" si="51"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J366" s="52" t="s">
@@ -13619,7 +13640,7 @@
         <v>19055</v>
       </c>
       <c r="B367" s="21" t="str">
-        <f>VLOOKUP(A367,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>宮本　希</v>
       </c>
       <c r="C367" s="26">
@@ -13636,11 +13657,11 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="H367" s="28">
-        <f>G367-F367</f>
+        <f t="shared" si="50"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I367" s="29">
-        <f>H367/(35/(60*24))</f>
+        <f t="shared" si="51"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J367" s="52" t="s">
@@ -13658,7 +13679,7 @@
         <v>19055</v>
       </c>
       <c r="B368" s="21" t="str">
-        <f>VLOOKUP(A368,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>宮本　希</v>
       </c>
       <c r="C368" s="26">
@@ -13675,11 +13696,11 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="H368" s="28">
-        <f>G368-F368</f>
+        <f t="shared" si="50"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I368" s="29">
-        <f>H368/(35/(60*24))</f>
+        <f t="shared" si="51"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J368" s="52" t="s">
@@ -13697,7 +13718,7 @@
         <v>19055</v>
       </c>
       <c r="B369" s="21" t="str">
-        <f>VLOOKUP(A369,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>宮本　希</v>
       </c>
       <c r="C369" s="26">
@@ -13714,11 +13735,11 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="H369" s="28">
-        <f>G369-F369</f>
+        <f t="shared" si="50"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I369" s="29">
-        <f>H369/(35/(60*24))</f>
+        <f t="shared" si="51"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J369" s="52" t="s">
@@ -13736,7 +13757,7 @@
         <v>19055</v>
       </c>
       <c r="B370" s="21" t="str">
-        <f>VLOOKUP(A370,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>宮本　希</v>
       </c>
       <c r="C370" s="26">
@@ -13753,11 +13774,11 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H370" s="28">
-        <f>G370-F370</f>
+        <f t="shared" si="50"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I370" s="29">
-        <f>H370/(35/(60*24))</f>
+        <f t="shared" si="51"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J370" s="52" t="s">
@@ -13775,7 +13796,7 @@
         <v>19055</v>
       </c>
       <c r="B371" s="21" t="str">
-        <f>VLOOKUP(A371,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>宮本　希</v>
       </c>
       <c r="C371" s="26">
@@ -13792,7 +13813,7 @@
         <v>0.62083333333333335</v>
       </c>
       <c r="H371" s="28">
-        <f>G371-F371</f>
+        <f t="shared" si="50"/>
         <v>6.25E-2</v>
       </c>
       <c r="I371" s="29">
@@ -13817,7 +13838,7 @@
         <v>19055</v>
       </c>
       <c r="B372" s="21" t="str">
-        <f>VLOOKUP(A372,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>宮本　希</v>
       </c>
       <c r="C372" s="26">
@@ -13834,7 +13855,7 @@
         <v>0.62083333333333335</v>
       </c>
       <c r="H372" s="28">
-        <f>G372-F372</f>
+        <f t="shared" si="50"/>
         <v>6.25E-2</v>
       </c>
       <c r="I372" s="29">
@@ -13859,7 +13880,7 @@
         <v>19055</v>
       </c>
       <c r="B373" s="21" t="str">
-        <f>VLOOKUP(A373,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>宮本　希</v>
       </c>
       <c r="C373" s="26">
@@ -13876,7 +13897,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H373" s="28">
-        <f>G373-F373</f>
+        <f t="shared" si="50"/>
         <v>6.25E-2</v>
       </c>
       <c r="I373" s="29">
@@ -13895,7 +13916,7 @@
         <v>19055</v>
       </c>
       <c r="B374" s="21" t="str">
-        <f>VLOOKUP(A374,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" si="47"/>
         <v>宮本　希</v>
       </c>
       <c r="C374" s="26">
@@ -13912,7 +13933,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H374" s="28">
-        <f>G374-F374</f>
+        <f t="shared" si="50"/>
         <v>6.25E-2</v>
       </c>
       <c r="I374" s="29">
@@ -13931,7 +13952,7 @@
         <v>21090</v>
       </c>
       <c r="B375" s="22" t="str">
-        <f t="shared" ref="B375" si="8">VLOOKUP(A375,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" ref="B375:B377" si="52">VLOOKUP(A375,$A$3:$B$13,2,FALSE)</f>
         <v>中原　遥翔</v>
       </c>
       <c r="C375" s="50">
@@ -13943,6 +13964,48 @@
       </c>
       <c r="K375" s="22" t="s">
         <v>364</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="22">
+        <v>19055</v>
+      </c>
+      <c r="B376" s="22" t="str">
+        <f t="shared" si="52"/>
+        <v>宮本　希</v>
+      </c>
+      <c r="C376" s="50">
+        <v>44613</v>
+      </c>
+      <c r="I376" s="22">
+        <v>2</v>
+      </c>
+      <c r="J376" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="K376" s="22" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="22">
+        <v>19055</v>
+      </c>
+      <c r="B377" s="22" t="str">
+        <f t="shared" si="52"/>
+        <v>宮本　希</v>
+      </c>
+      <c r="C377" s="50">
+        <v>44613</v>
+      </c>
+      <c r="I377" s="22">
+        <v>2</v>
+      </c>
+      <c r="J377" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="K377" s="22" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -13986,7 +14049,7 @@
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S59" sqref="S59"/>
+      <selection pane="topRight" activeCell="O64" sqref="O64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/補講実績.xlsx
+++ b/補講実績.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="371">
   <si>
     <t>補講対象者</t>
   </si>
@@ -1572,6 +1572,20 @@
     <t>DB入門</t>
     <rPh sb="2" eb="4">
       <t>ニュウモン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PG基礎</t>
+    <rPh sb="2" eb="4">
+      <t>キソ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Zoomで受講</t>
+    <rPh sb="5" eb="7">
+      <t>ジュコウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -2063,10 +2077,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB377"/>
+  <dimension ref="A1:AB379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E355" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L378" sqref="L378"/>
+    <sheetView tabSelected="1" topLeftCell="A357" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A379" sqref="A379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -7001,7 +7015,7 @@
         <v>19055</v>
       </c>
       <c r="B163" s="21" t="str">
-        <f t="shared" ref="B163:B194" si="22">VLOOKUP(A163,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" ref="B163:B164" si="22">VLOOKUP(A163,$A$3:$B$13,2,FALSE)</f>
         <v>宮本　希</v>
       </c>
       <c r="C163" s="26">
@@ -9211,7 +9225,7 @@
         <v>0.5</v>
       </c>
       <c r="H229" s="28">
-        <f t="shared" ref="H229:H260" si="31">G229-F229</f>
+        <f t="shared" ref="H229:H245" si="31">G229-F229</f>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I229" s="29">
@@ -12887,7 +12901,7 @@
         <v>19055</v>
       </c>
       <c r="B345" s="21" t="str">
-        <f t="shared" ref="B345:B376" si="47">VLOOKUP(A345,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" ref="B345:B374" si="47">VLOOKUP(A345,$A$3:$B$13,2,FALSE)</f>
         <v>宮本　希</v>
       </c>
       <c r="C345" s="26">
@@ -13933,7 +13947,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H374" s="28">
-        <f t="shared" si="50"/>
+        <f>G374-F374</f>
         <v>6.25E-2</v>
       </c>
       <c r="I374" s="29">
@@ -13952,7 +13966,7 @@
         <v>21090</v>
       </c>
       <c r="B375" s="22" t="str">
-        <f t="shared" ref="B375:B377" si="52">VLOOKUP(A375,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" ref="B375:B379" si="52">VLOOKUP(A375,$A$3:$B$13,2,FALSE)</f>
         <v>中原　遥翔</v>
       </c>
       <c r="C375" s="50">
@@ -14006,6 +14020,56 @@
       </c>
       <c r="K377" s="22" t="s">
         <v>367</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="22">
+        <v>19055</v>
+      </c>
+      <c r="B378" s="22" t="str">
+        <f t="shared" si="52"/>
+        <v>宮本　希</v>
+      </c>
+      <c r="C378" s="50">
+        <v>44620</v>
+      </c>
+      <c r="F378" s="38">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="G378" s="38">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="H378" s="38"/>
+      <c r="J378" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="K378" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="22">
+        <v>19055</v>
+      </c>
+      <c r="B379" s="22" t="str">
+        <f t="shared" si="52"/>
+        <v>宮本　希</v>
+      </c>
+      <c r="C379" s="50">
+        <v>44620</v>
+      </c>
+      <c r="F379" s="38">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="G379" s="38">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="H379" s="38"/>
+      <c r="J379" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="K379" s="22" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/補講実績.xlsx
+++ b/補講実績.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">宮本欠席授業一覧!$A$1:$D$210</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">補講実績明細!$A$16:$M$375</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">補講実績明細!$A$16:$M$379</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="380">
   <si>
     <t>補講対象者</t>
   </si>
@@ -1586,6 +1586,57 @@
     <t>Zoomで受講</t>
     <rPh sb="5" eb="7">
       <t>ジュコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>情報活用Ⅱ</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウホウカツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Excel入門</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウモン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>映像メディア</t>
+    <rPh sb="0" eb="2">
+      <t>エイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アルゴリズムⅡ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Word MOS</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>LH</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>WordMOS</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>WEBデザインⅢ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>オンライン授業に参加</t>
+    <rPh sb="5" eb="7">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サンカ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -2077,10 +2128,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB379"/>
+  <dimension ref="A1:AB389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A357" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A379" sqref="A379"/>
+    <sheetView tabSelected="1" topLeftCell="D191" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J386" sqref="J386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -3917,7 +3968,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21">
         <v>19055</v>
       </c>
@@ -3956,7 +4007,7 @@
         <v>44518</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21">
         <v>19055</v>
       </c>
@@ -3995,7 +4046,7 @@
         <v>44518</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21">
         <v>19055</v>
       </c>
@@ -4034,7 +4085,7 @@
         <v>44518</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21">
         <v>19055</v>
       </c>
@@ -4071,7 +4122,7 @@
       </c>
       <c r="L70" s="26"/>
     </row>
-    <row r="71" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21">
         <v>19055</v>
       </c>
@@ -4108,7 +4159,7 @@
       </c>
       <c r="L71" s="26"/>
     </row>
-    <row r="72" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="21">
         <v>19055</v>
       </c>
@@ -4145,7 +4196,7 @@
       </c>
       <c r="L72" s="26"/>
     </row>
-    <row r="73" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="21">
         <v>19055</v>
       </c>
@@ -4171,7 +4222,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21">
         <v>19055</v>
       </c>
@@ -4193,7 +4244,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21">
         <v>19055</v>
       </c>
@@ -4215,7 +4266,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21">
         <v>19055</v>
       </c>
@@ -4251,7 +4302,7 @@
         <v>44327</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21">
         <v>19055</v>
       </c>
@@ -4287,7 +4338,7 @@
         <v>44334</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21">
         <v>19055</v>
       </c>
@@ -4323,7 +4374,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="22">
         <v>19055</v>
       </c>
@@ -4359,7 +4410,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="22">
         <v>19055</v>
       </c>
@@ -4395,7 +4446,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="22">
         <v>19055</v>
       </c>
@@ -4431,7 +4482,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="22">
         <v>19055</v>
       </c>
@@ -4467,7 +4518,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="22">
         <v>19055</v>
       </c>
@@ -4503,7 +4554,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="22">
         <v>19055</v>
       </c>
@@ -4539,7 +4590,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="22">
         <v>19055</v>
       </c>
@@ -4572,7 +4623,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21">
         <v>19055</v>
       </c>
@@ -4608,7 +4659,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21">
         <v>19055</v>
       </c>
@@ -4630,7 +4681,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21">
         <v>19055</v>
       </c>
@@ -4663,7 +4714,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21">
         <v>19055</v>
       </c>
@@ -4702,7 +4753,7 @@
         <v>44518</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21">
         <v>19055</v>
       </c>
@@ -4738,7 +4789,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21">
         <v>19055</v>
       </c>
@@ -4774,7 +4825,7 @@
         <v>44520</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21">
         <v>19055</v>
       </c>
@@ -4810,7 +4861,7 @@
         <v>44522</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21">
         <v>19055</v>
       </c>
@@ -4843,7 +4894,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21">
         <v>19055</v>
       </c>
@@ -4879,7 +4930,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21">
         <v>19055</v>
       </c>
@@ -4912,7 +4963,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21">
         <v>19055</v>
       </c>
@@ -4948,7 +4999,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="21">
         <v>19055</v>
       </c>
@@ -4984,7 +5035,7 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21">
         <v>19055</v>
       </c>
@@ -5023,7 +5074,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="21">
         <v>19055</v>
       </c>
@@ -5062,7 +5113,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="21">
         <v>19055</v>
       </c>
@@ -5084,7 +5135,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="21">
         <v>19055</v>
       </c>
@@ -5123,7 +5174,7 @@
         <v>44383</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="21">
         <v>19055</v>
       </c>
@@ -5159,7 +5210,7 @@
         <v>44476</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="21">
         <v>19055</v>
       </c>
@@ -5181,7 +5232,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="22">
         <v>19055</v>
       </c>
@@ -5217,7 +5268,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="22">
         <v>19055</v>
       </c>
@@ -5253,7 +5304,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="22">
         <v>19055</v>
       </c>
@@ -5289,7 +5340,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="21">
         <v>19055</v>
       </c>
@@ -5325,7 +5376,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21">
         <v>19055</v>
       </c>
@@ -5361,7 +5412,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21">
         <v>19055</v>
       </c>
@@ -5394,7 +5445,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="22">
         <v>19055</v>
       </c>
@@ -5430,7 +5481,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="22">
         <v>19055</v>
       </c>
@@ -5455,7 +5506,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="22">
         <v>19055</v>
       </c>
@@ -5480,7 +5531,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="113" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:28" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="22">
         <v>19055</v>
       </c>
@@ -5505,7 +5556,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="114" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:28" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="21">
         <v>19055</v>
       </c>
@@ -5544,7 +5595,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="115" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:28" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="21">
         <v>19055</v>
       </c>
@@ -5566,7 +5617,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="116" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:28" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="21">
         <v>19055</v>
       </c>
@@ -5602,7 +5653,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:28" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="21">
         <v>19055</v>
       </c>
@@ -5638,7 +5689,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="118" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:28" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="21">
         <v>19055</v>
       </c>
@@ -5674,7 +5725,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:28" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="22">
         <v>19055</v>
       </c>
@@ -5710,7 +5761,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="120" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:28" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="22">
         <v>19055</v>
       </c>
@@ -5746,7 +5797,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="121" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:28" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="21">
         <v>19055</v>
       </c>
@@ -5782,7 +5833,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:28" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="21">
         <v>19055</v>
       </c>
@@ -5818,7 +5869,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="123" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:28" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="21">
         <v>19055</v>
       </c>
@@ -5854,7 +5905,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="124" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:28" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="21">
         <v>19055</v>
       </c>
@@ -5890,7 +5941,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="125" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:28" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="22">
         <v>19055</v>
       </c>
@@ -5915,7 +5966,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="126" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:28" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="22">
         <v>19055</v>
       </c>
@@ -5940,7 +5991,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="127" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:28" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="21">
         <v>19055</v>
       </c>
@@ -5966,7 +6017,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="128" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:28" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="21">
         <v>19055</v>
       </c>
@@ -6005,7 +6056,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="21">
         <v>19055</v>
       </c>
@@ -6044,7 +6095,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="21">
         <v>19055</v>
       </c>
@@ -6072,7 +6123,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="21">
         <v>19055</v>
       </c>
@@ -6100,7 +6151,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="21">
         <v>19055</v>
       </c>
@@ -6128,7 +6179,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="21">
         <v>19055</v>
       </c>
@@ -6156,7 +6207,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="21">
         <v>19055</v>
       </c>
@@ -6184,7 +6235,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="21">
         <v>19055</v>
       </c>
@@ -6212,7 +6263,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="21">
         <v>19055</v>
       </c>
@@ -6240,7 +6291,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="21">
         <v>19055</v>
       </c>
@@ -6268,7 +6319,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="21">
         <v>19055</v>
       </c>
@@ -6306,7 +6357,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="21">
         <v>19055</v>
       </c>
@@ -6344,7 +6395,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="21">
         <v>19055</v>
       </c>
@@ -6382,7 +6433,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="21">
         <v>19055</v>
       </c>
@@ -6420,7 +6471,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="21">
         <v>19055</v>
       </c>
@@ -6459,7 +6510,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="21">
         <v>19055</v>
       </c>
@@ -6498,7 +6549,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="22">
         <v>19055</v>
       </c>
@@ -6534,7 +6585,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="21">
         <v>19055</v>
       </c>
@@ -6570,7 +6621,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="22">
         <v>19055</v>
       </c>
@@ -6595,7 +6646,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="21">
         <v>19055</v>
       </c>
@@ -6617,7 +6668,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="22">
         <v>19055</v>
       </c>
@@ -6653,7 +6704,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="22">
         <v>19055</v>
       </c>
@@ -6689,7 +6740,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="21">
         <v>19055</v>
       </c>
@@ -6722,7 +6773,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="22">
         <v>19055</v>
       </c>
@@ -6746,7 +6797,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="22">
         <v>19055</v>
       </c>
@@ -6770,7 +6821,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="22">
         <v>19055</v>
       </c>
@@ -6794,7 +6845,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="22">
         <v>19055</v>
       </c>
@@ -6818,7 +6869,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="22">
         <v>19055</v>
       </c>
@@ -6842,7 +6893,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="22">
         <v>19055</v>
       </c>
@@ -6866,7 +6917,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="22">
         <v>19055</v>
       </c>
@@ -6890,7 +6941,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="22">
         <v>19055</v>
       </c>
@@ -6914,7 +6965,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="22">
         <v>19055</v>
       </c>
@@ -6938,7 +6989,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="22">
         <v>19055</v>
       </c>
@@ -6962,7 +7013,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="21">
         <v>19055</v>
       </c>
@@ -6988,7 +7039,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="21">
         <v>19055</v>
       </c>
@@ -7010,7 +7061,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="21">
         <v>19055</v>
       </c>
@@ -7032,7 +7083,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="21">
         <v>19055</v>
       </c>
@@ -7073,7 +7124,7 @@
         <v>0.68402777777777779</v>
       </c>
       <c r="H165" s="28">
-        <f t="shared" ref="H165:H196" si="23">G165-F165</f>
+        <f t="shared" ref="H165:H181" si="23">G165-F165</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I165" s="29">
@@ -7275,7 +7326,7 @@
         <v>21068</v>
       </c>
       <c r="B171" s="21" t="str">
-        <f t="shared" ref="B171:B214" si="25">VLOOKUP(A171,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" ref="B171:B181" si="25">VLOOKUP(A171,$A$3:$B$13,2,FALSE)</f>
         <v>今村　駿太郎</v>
       </c>
       <c r="C171" s="26">
@@ -7613,12 +7664,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="21">
         <v>21074</v>
       </c>
       <c r="B182" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A182,$A$3:$B$13,2,FALSE)</f>
         <v>佐藤　大起</v>
       </c>
       <c r="C182" s="26">
@@ -7635,7 +7686,7 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H182" s="28">
-        <f t="shared" si="23"/>
+        <f>G182-F182</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I182" s="29">
@@ -7649,12 +7700,12 @@
         <v>44480</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="21">
         <v>21074</v>
       </c>
       <c r="B183" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A183,$A$3:$B$13,2,FALSE)</f>
         <v>佐藤　大起</v>
       </c>
       <c r="C183" s="26">
@@ -7671,7 +7722,7 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H183" s="28">
-        <f t="shared" si="23"/>
+        <f>G183-F183</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I183" s="29">
@@ -7688,12 +7739,12 @@
         <v>44480</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="21">
         <v>21074</v>
       </c>
       <c r="B184" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A184,$A$3:$B$13,2,FALSE)</f>
         <v>佐藤　大起</v>
       </c>
       <c r="C184" s="26">
@@ -7710,7 +7761,7 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H184" s="28">
-        <f t="shared" si="23"/>
+        <f>G184-F184</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I184" s="29">
@@ -7727,12 +7778,12 @@
         <v>44480</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="21">
         <v>21074</v>
       </c>
       <c r="B185" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A185,$A$3:$B$13,2,FALSE)</f>
         <v>佐藤　大起</v>
       </c>
       <c r="C185" s="26">
@@ -7749,11 +7800,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H185" s="28">
-        <f t="shared" si="23"/>
+        <f>G185-F185</f>
         <v>5.9027777777777846E-2</v>
       </c>
       <c r="I185" s="29">
-        <f t="shared" ref="I185:I193" si="27">H185/(45/(60*24))</f>
+        <f>H185/(45/(60*24))</f>
         <v>1.8888888888888911</v>
       </c>
       <c r="J185" s="21" t="s">
@@ -7763,12 +7814,12 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="21">
         <v>21074</v>
       </c>
       <c r="B186" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A186,$A$3:$B$13,2,FALSE)</f>
         <v>佐藤　大起</v>
       </c>
       <c r="C186" s="26">
@@ -7785,23 +7836,23 @@
         <v>0.625</v>
       </c>
       <c r="H186" s="28">
-        <f t="shared" si="23"/>
+        <f>G186-F186</f>
         <v>6.25E-2</v>
       </c>
       <c r="I186" s="29">
-        <f t="shared" si="27"/>
+        <f>H186/(45/(60*24))</f>
         <v>2</v>
       </c>
       <c r="J186" s="21" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="21">
         <v>21074</v>
       </c>
       <c r="B187" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A187,$A$3:$B$13,2,FALSE)</f>
         <v>佐藤　大起</v>
       </c>
       <c r="C187" s="26">
@@ -7818,23 +7869,23 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H187" s="28">
-        <f t="shared" si="23"/>
+        <f>G187-F187</f>
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="I187" s="29">
-        <f t="shared" si="27"/>
+        <f>H187/(45/(60*24))</f>
         <v>0.33333333333333393</v>
       </c>
       <c r="J187" s="21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="21">
         <v>21074</v>
       </c>
       <c r="B188" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A188,$A$3:$B$13,2,FALSE)</f>
         <v>佐藤　大起</v>
       </c>
       <c r="C188" s="26">
@@ -7851,23 +7902,23 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H188" s="28">
-        <f t="shared" si="23"/>
+        <f>G188-F188</f>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I188" s="29">
-        <f t="shared" si="27"/>
+        <f>H188/(45/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J188" s="21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="21">
         <v>21074</v>
       </c>
       <c r="B189" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A189,$A$3:$B$13,2,FALSE)</f>
         <v>佐藤　大起</v>
       </c>
       <c r="C189" s="26">
@@ -7884,11 +7935,11 @@
         <v>0.46875</v>
       </c>
       <c r="H189" s="28">
-        <f t="shared" si="23"/>
+        <f>G189-F189</f>
         <v>6.3194444444444442E-2</v>
       </c>
       <c r="I189" s="29">
-        <f t="shared" si="27"/>
+        <f>H189/(45/(60*24))</f>
         <v>2.0222222222222221</v>
       </c>
       <c r="J189" s="21" t="s">
@@ -7898,12 +7949,12 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="21">
         <v>21074</v>
       </c>
       <c r="B190" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A190,$A$3:$B$13,2,FALSE)</f>
         <v>佐藤　大起</v>
       </c>
       <c r="C190" s="26">
@@ -7920,23 +7971,23 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H190" s="28">
-        <f t="shared" si="23"/>
+        <f>G190-F190</f>
         <v>6.25E-2</v>
       </c>
       <c r="I190" s="29">
-        <f t="shared" si="27"/>
+        <f>H190/(45/(60*24))</f>
         <v>2</v>
       </c>
       <c r="J190" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="21">
         <v>21074</v>
       </c>
       <c r="B191" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A191,$A$3:$B$13,2,FALSE)</f>
         <v>佐藤　大起</v>
       </c>
       <c r="C191" s="26">
@@ -7953,20 +8004,20 @@
         <v>0.40972222222222221</v>
       </c>
       <c r="H191" s="28">
-        <f t="shared" si="23"/>
+        <f>G191-F191</f>
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="I191" s="29">
-        <f t="shared" si="27"/>
+        <f>H191/(45/(60*24))</f>
         <v>0.44444444444444464</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="21">
         <v>21074</v>
       </c>
       <c r="B192" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A192,$A$3:$B$13,2,FALSE)</f>
         <v>佐藤　大起</v>
       </c>
       <c r="C192" s="26">
@@ -7983,11 +8034,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H192" s="28">
-        <f t="shared" si="23"/>
+        <f>G192-F192</f>
         <v>6.25E-2</v>
       </c>
       <c r="I192" s="29">
-        <f t="shared" si="27"/>
+        <f>H192/(45/(60*24))</f>
         <v>2</v>
       </c>
       <c r="J192" s="21" t="s">
@@ -7997,12 +8048,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="21">
         <v>21074</v>
       </c>
       <c r="B193" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A193,$A$3:$B$13,2,FALSE)</f>
         <v>佐藤　大起</v>
       </c>
       <c r="C193" s="26">
@@ -8019,23 +8070,23 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H193" s="28">
-        <f t="shared" si="23"/>
+        <f>G193-F193</f>
         <v>6.25E-2</v>
       </c>
       <c r="I193" s="29">
-        <f t="shared" si="27"/>
+        <f>H193/(45/(60*24))</f>
         <v>2</v>
       </c>
       <c r="J193" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="21">
         <v>21074</v>
       </c>
       <c r="B194" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A194,$A$3:$B$13,2,FALSE)</f>
         <v>佐藤　大起</v>
       </c>
       <c r="C194" s="26">
@@ -8052,7 +8103,7 @@
         <v>0.52013888888888893</v>
       </c>
       <c r="H194" s="28">
-        <f t="shared" si="23"/>
+        <f>G194-F194</f>
         <v>5.2777777777777812E-2</v>
       </c>
       <c r="I194" s="29">
@@ -8062,12 +8113,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="21">
         <v>21074</v>
       </c>
       <c r="B195" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A195,$A$3:$B$13,2,FALSE)</f>
         <v>佐藤　大起</v>
       </c>
       <c r="C195" s="26">
@@ -8078,25 +8129,25 @@
         <v>351</v>
       </c>
       <c r="H195" s="28">
-        <f t="shared" si="23"/>
+        <f>G195-F195</f>
         <v>0</v>
       </c>
       <c r="I195" s="29">
         <v>2</v>
       </c>
       <c r="J195" s="21" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="K195" s="21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="21">
         <v>21074</v>
       </c>
       <c r="B196" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A196,$A$3:$B$13,2,FALSE)</f>
         <v>佐藤　大起</v>
       </c>
       <c r="C196" s="26">
@@ -8107,25 +8158,25 @@
         <v>351</v>
       </c>
       <c r="H196" s="28">
-        <f t="shared" si="23"/>
+        <f>G196-F196</f>
         <v>0</v>
       </c>
       <c r="I196" s="29">
         <v>2</v>
       </c>
       <c r="J196" s="21" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="K196" s="21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="21">
         <v>21074</v>
       </c>
       <c r="B197" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A197,$A$3:$B$13,2,FALSE)</f>
         <v>佐藤　大起</v>
       </c>
       <c r="C197" s="26">
@@ -8136,25 +8187,25 @@
         <v>351</v>
       </c>
       <c r="H197" s="28">
-        <f t="shared" ref="H197:H228" si="28">G197-F197</f>
+        <f>G197-F197</f>
         <v>0</v>
       </c>
       <c r="I197" s="29">
         <v>2</v>
       </c>
       <c r="J197" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L197" s="26">
         <v>44538</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="21">
         <v>21074</v>
       </c>
       <c r="B198" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A198,$A$3:$B$13,2,FALSE)</f>
         <v>佐藤　大起</v>
       </c>
       <c r="C198" s="26">
@@ -8165,14 +8216,14 @@
         <v>351</v>
       </c>
       <c r="H198" s="28">
-        <f t="shared" si="28"/>
+        <f>G198-F198</f>
         <v>0</v>
       </c>
       <c r="I198" s="29">
         <v>2</v>
       </c>
       <c r="J198" s="21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L198" s="26">
         <v>44538</v>
@@ -8183,7 +8234,7 @@
         <v>21071</v>
       </c>
       <c r="B199" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A199,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C199" s="26">
@@ -8192,7 +8243,7 @@
       <c r="D199" s="26"/>
       <c r="E199" s="26"/>
       <c r="H199" s="28">
-        <f t="shared" si="28"/>
+        <f>G199-F199</f>
         <v>0</v>
       </c>
       <c r="I199" s="29">
@@ -8214,7 +8265,7 @@
         <v>21071</v>
       </c>
       <c r="B200" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A200,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C200" s="26">
@@ -8229,7 +8280,7 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H200" s="28">
-        <f t="shared" si="28"/>
+        <f>G200-F200</f>
         <v>3.4722222222222265E-2</v>
       </c>
       <c r="I200" s="29">
@@ -8248,7 +8299,7 @@
         <v>21071</v>
       </c>
       <c r="B201" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A201,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C201" s="26">
@@ -8263,7 +8314,7 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H201" s="28">
-        <f t="shared" si="28"/>
+        <f>G201-F201</f>
         <v>5.9027777777777846E-2</v>
       </c>
       <c r="I201" s="29">
@@ -8282,7 +8333,7 @@
         <v>21071</v>
       </c>
       <c r="B202" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A202,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C202" s="26">
@@ -8297,7 +8348,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="H202" s="28">
-        <f t="shared" si="28"/>
+        <f>G202-F202</f>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I202" s="29">
@@ -8319,7 +8370,7 @@
         <v>21071</v>
       </c>
       <c r="B203" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A203,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C203" s="26">
@@ -8334,7 +8385,7 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H203" s="28">
-        <f t="shared" si="28"/>
+        <f>G203-F203</f>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I203" s="29">
@@ -8350,7 +8401,7 @@
         <v>21071</v>
       </c>
       <c r="B204" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A204,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C204" s="26">
@@ -8359,11 +8410,11 @@
       <c r="D204" s="26"/>
       <c r="E204" s="26"/>
       <c r="H204" s="28">
-        <f t="shared" si="28"/>
+        <f>G204-F204</f>
         <v>0</v>
       </c>
       <c r="I204" s="29">
-        <f t="shared" ref="I204:I230" si="29">H204/(35/(60*24))</f>
+        <f>H204/(35/(60*24))</f>
         <v>0</v>
       </c>
       <c r="J204" s="21" t="s">
@@ -8378,7 +8429,7 @@
         <v>21071</v>
       </c>
       <c r="B205" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A205,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C205" s="26">
@@ -8393,11 +8444,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H205" s="28">
-        <f t="shared" si="28"/>
+        <f>G205-F205</f>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I205" s="29">
-        <f t="shared" si="29"/>
+        <f>H205/(35/(60*24))</f>
         <v>1.9999999999999973</v>
       </c>
       <c r="J205" s="21" t="s">
@@ -8415,7 +8466,7 @@
         <v>21071</v>
       </c>
       <c r="B206" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A206,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C206" s="26">
@@ -8430,11 +8481,11 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="H206" s="28">
-        <f t="shared" si="28"/>
+        <f>G206-F206</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I206" s="29">
-        <f t="shared" si="29"/>
+        <f>H206/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J206" s="21" t="s">
@@ -8452,7 +8503,7 @@
         <v>21071</v>
       </c>
       <c r="B207" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A207,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C207" s="26">
@@ -8467,11 +8518,11 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H207" s="28">
-        <f t="shared" si="28"/>
+        <f>G207-F207</f>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I207" s="29">
-        <f t="shared" si="29"/>
+        <f>H207/(35/(60*24))</f>
         <v>1.9999999999999998</v>
       </c>
       <c r="J207" s="21" t="s">
@@ -8489,7 +8540,7 @@
         <v>21071</v>
       </c>
       <c r="B208" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A208,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C208" s="26">
@@ -8504,11 +8555,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H208" s="28">
-        <f t="shared" si="28"/>
+        <f>G208-F208</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I208" s="29">
-        <f t="shared" si="29"/>
+        <f>H208/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J208" s="21" t="s">
@@ -8526,7 +8577,7 @@
         <v>21071</v>
       </c>
       <c r="B209" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A209,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C209" s="26">
@@ -8541,11 +8592,11 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="H209" s="28">
-        <f t="shared" si="28"/>
+        <f>G209-F209</f>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I209" s="29">
-        <f t="shared" si="29"/>
+        <f>H209/(35/(60*24))</f>
         <v>1.9999999999999998</v>
       </c>
       <c r="J209" s="21" t="s">
@@ -8563,7 +8614,7 @@
         <v>21071</v>
       </c>
       <c r="B210" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A210,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C210" s="26">
@@ -8578,11 +8629,11 @@
         <v>0.77430555555555558</v>
       </c>
       <c r="H210" s="28">
-        <f t="shared" si="28"/>
+        <f>G210-F210</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I210" s="29">
-        <f t="shared" si="29"/>
+        <f>H210/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J210" s="21" t="s">
@@ -8600,7 +8651,7 @@
         <v>21071</v>
       </c>
       <c r="B211" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A211,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C211" s="26">
@@ -8615,11 +8666,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H211" s="28">
-        <f t="shared" si="28"/>
+        <f>G211-F211</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I211" s="29">
-        <f t="shared" si="29"/>
+        <f>H211/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J211" s="21" t="s">
@@ -8637,7 +8688,7 @@
         <v>21071</v>
       </c>
       <c r="B212" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A212,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C212" s="26">
@@ -8652,11 +8703,11 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H212" s="28">
-        <f t="shared" si="28"/>
+        <f>G212-F212</f>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I212" s="29">
-        <f t="shared" si="29"/>
+        <f>H212/(35/(60*24))</f>
         <v>1.9999999999999998</v>
       </c>
       <c r="J212" s="21" t="s">
@@ -8674,7 +8725,7 @@
         <v>21071</v>
       </c>
       <c r="B213" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A213,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C213" s="26">
@@ -8689,11 +8740,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H213" s="28">
-        <f t="shared" si="28"/>
+        <f>G213-F213</f>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I213" s="29">
-        <f t="shared" si="29"/>
+        <f>H213/(35/(60*24))</f>
         <v>1.9999999999999973</v>
       </c>
       <c r="J213" s="21" t="s">
@@ -8705,7 +8756,7 @@
         <v>21071</v>
       </c>
       <c r="B214" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f>VLOOKUP(A214,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C214" s="26">
@@ -8720,11 +8771,11 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H214" s="28">
-        <f t="shared" si="28"/>
+        <f>G214-F214</f>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I214" s="29">
-        <f t="shared" si="29"/>
+        <f>H214/(35/(60*24))</f>
         <v>1.9999999999999998</v>
       </c>
       <c r="J214" s="21" t="s">
@@ -8750,11 +8801,11 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H215" s="28">
-        <f t="shared" si="28"/>
+        <f>G215-F215</f>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I215" s="29">
-        <f t="shared" si="29"/>
+        <f>H215/(35/(60*24))</f>
         <v>1.9999999999999998</v>
       </c>
       <c r="J215" s="21" t="s">
@@ -8783,11 +8834,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H216" s="28">
-        <f t="shared" si="28"/>
+        <f>G216-F216</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I216" s="29">
-        <f t="shared" si="29"/>
+        <f>H216/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J216" s="21" t="s">
@@ -8817,11 +8868,11 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="H217" s="28">
-        <f t="shared" si="28"/>
+        <f>G217-F217</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I217" s="29">
-        <f t="shared" si="29"/>
+        <f>H217/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J217" s="21" t="s">
@@ -8854,11 +8905,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H218" s="28">
-        <f t="shared" si="28"/>
+        <f>G218-F218</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I218" s="29">
-        <f t="shared" si="29"/>
+        <f>H218/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J218" s="21" t="s">
@@ -8885,11 +8936,11 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="H219" s="28">
-        <f t="shared" si="28"/>
+        <f>G219-F219</f>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I219" s="29">
-        <f t="shared" si="29"/>
+        <f>H219/(35/(60*24))</f>
         <v>1.9999999999999973</v>
       </c>
       <c r="J219" s="21" t="s">
@@ -8922,11 +8973,11 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="H220" s="28">
-        <f t="shared" si="28"/>
+        <f>G220-F220</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I220" s="29">
-        <f t="shared" si="29"/>
+        <f>H220/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J220" s="21" t="s">
@@ -8951,11 +9002,11 @@
       <c r="D221" s="26"/>
       <c r="E221" s="26"/>
       <c r="H221" s="28">
-        <f t="shared" si="28"/>
+        <f>G221-F221</f>
         <v>0</v>
       </c>
       <c r="I221" s="29">
-        <f t="shared" si="29"/>
+        <f>H221/(35/(60*24))</f>
         <v>0</v>
       </c>
       <c r="J221" s="21" t="s">
@@ -8981,11 +9032,11 @@
         <v>0.8125</v>
       </c>
       <c r="H222" s="28">
-        <f t="shared" si="28"/>
+        <f>G222-F222</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I222" s="29">
-        <f t="shared" si="29"/>
+        <f>H222/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J222" s="25" t="s">
@@ -9014,11 +9065,11 @@
         <v>0.75694444444444442</v>
       </c>
       <c r="H223" s="28">
-        <f t="shared" si="28"/>
+        <f>G223-F223</f>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I223" s="29">
-        <f t="shared" si="29"/>
+        <f>H223/(35/(60*24))</f>
         <v>1.9999999999999973</v>
       </c>
       <c r="J223" s="21" t="s">
@@ -9047,11 +9098,11 @@
         <v>0.44097222222222221</v>
       </c>
       <c r="H224" s="28">
-        <f t="shared" si="28"/>
+        <f>G224-F224</f>
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="I224" s="29">
-        <f t="shared" si="29"/>
+        <f>H224/(35/(60*24))</f>
         <v>0.99999999999999867</v>
       </c>
       <c r="J224" s="21" t="s">
@@ -9066,7 +9117,7 @@
         <v>21071</v>
       </c>
       <c r="B225" s="21" t="str">
-        <f t="shared" ref="B225:B241" si="30">VLOOKUP(A225,$A$3:$B$13,2,FALSE)</f>
+        <f>VLOOKUP(A225,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C225" s="26">
@@ -9081,11 +9132,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H225" s="28">
-        <f t="shared" si="28"/>
+        <f>G225-F225</f>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I225" s="29">
-        <f t="shared" si="29"/>
+        <f>H225/(35/(60*24))</f>
         <v>1.9999999999999973</v>
       </c>
       <c r="J225" s="21" t="s">
@@ -9101,7 +9152,7 @@
         <v>21071</v>
       </c>
       <c r="B226" s="21" t="str">
-        <f t="shared" si="30"/>
+        <f>VLOOKUP(A226,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C226" s="26">
@@ -9116,11 +9167,11 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="H226" s="28">
-        <f t="shared" si="28"/>
+        <f>G226-F226</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I226" s="29">
-        <f t="shared" si="29"/>
+        <f>H226/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J226" s="21" t="s">
@@ -9136,7 +9187,7 @@
         <v>21071</v>
       </c>
       <c r="B227" s="21" t="str">
-        <f t="shared" si="30"/>
+        <f>VLOOKUP(A227,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C227" s="26">
@@ -9151,11 +9202,11 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="H227" s="28">
-        <f t="shared" si="28"/>
+        <f>G227-F227</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I227" s="29">
-        <f t="shared" si="29"/>
+        <f>H227/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J227" s="21" t="s">
@@ -9173,7 +9224,7 @@
         <v>21071</v>
       </c>
       <c r="B228" s="21" t="str">
-        <f t="shared" si="30"/>
+        <f>VLOOKUP(A228,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C228" s="26">
@@ -9188,11 +9239,11 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="H228" s="28">
-        <f t="shared" si="28"/>
+        <f>G228-F228</f>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I228" s="29">
-        <f t="shared" si="29"/>
+        <f>H228/(35/(60*24))</f>
         <v>1.9999999999999998</v>
       </c>
       <c r="J228" s="21" t="s">
@@ -9210,7 +9261,7 @@
         <v>21071</v>
       </c>
       <c r="B229" s="21" t="str">
-        <f t="shared" si="30"/>
+        <f>VLOOKUP(A229,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C229" s="26">
@@ -9225,11 +9276,11 @@
         <v>0.5</v>
       </c>
       <c r="H229" s="28">
-        <f t="shared" ref="H229:H245" si="31">G229-F229</f>
+        <f>G229-F229</f>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I229" s="29">
-        <f t="shared" si="29"/>
+        <f>H229/(35/(60*24))</f>
         <v>1.9999999999999998</v>
       </c>
       <c r="J229" s="21" t="s">
@@ -9247,7 +9298,7 @@
         <v>21071</v>
       </c>
       <c r="B230" s="21" t="str">
-        <f t="shared" si="30"/>
+        <f>VLOOKUP(A230,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C230" s="26">
@@ -9262,11 +9313,11 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="H230" s="28">
-        <f t="shared" si="31"/>
+        <f>G230-F230</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I230" s="29">
-        <f t="shared" si="29"/>
+        <f>H230/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J230" s="21" t="s">
@@ -9284,7 +9335,7 @@
         <v>21071</v>
       </c>
       <c r="B231" s="21" t="str">
-        <f t="shared" si="30"/>
+        <f>VLOOKUP(A231,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C231" s="26">
@@ -9299,7 +9350,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="H231" s="28">
-        <f t="shared" si="31"/>
+        <f>G231-F231</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="J231" s="21" t="s">
@@ -9317,7 +9368,7 @@
         <v>21071</v>
       </c>
       <c r="B232" s="21" t="str">
-        <f t="shared" si="30"/>
+        <f>VLOOKUP(A232,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C232" s="26">
@@ -9332,11 +9383,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H232" s="28">
-        <f t="shared" si="31"/>
+        <f>G232-F232</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I232" s="29">
-        <f t="shared" ref="I232:I240" si="32">H232/(35/(60*24))</f>
+        <f>H232/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J232" s="21" t="s">
@@ -9351,7 +9402,7 @@
         <v>21071</v>
       </c>
       <c r="B233" s="21" t="str">
-        <f t="shared" si="30"/>
+        <f>VLOOKUP(A233,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C233" s="26">
@@ -9366,11 +9417,11 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="H233" s="28">
-        <f t="shared" si="31"/>
+        <f>G233-F233</f>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I233" s="29">
-        <f t="shared" si="32"/>
+        <f>H233/(35/(60*24))</f>
         <v>1.9999999999999973</v>
       </c>
       <c r="J233" s="21" t="s">
@@ -9385,7 +9436,7 @@
         <v>21071</v>
       </c>
       <c r="B234" s="21" t="str">
-        <f t="shared" si="30"/>
+        <f>VLOOKUP(A234,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C234" s="26">
@@ -9400,11 +9451,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H234" s="28">
-        <f t="shared" si="31"/>
+        <f>G234-F234</f>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I234" s="29">
-        <f t="shared" si="32"/>
+        <f>H234/(35/(60*24))</f>
         <v>1.9999999999999973</v>
       </c>
       <c r="J234" s="21" t="s">
@@ -9419,7 +9470,7 @@
         <v>21071</v>
       </c>
       <c r="B235" s="21" t="str">
-        <f t="shared" si="30"/>
+        <f>VLOOKUP(A235,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C235" s="26">
@@ -9434,11 +9485,11 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="H235" s="28">
-        <f t="shared" si="31"/>
+        <f>G235-F235</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I235" s="29">
-        <f t="shared" si="32"/>
+        <f>H235/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J235" s="21" t="s">
@@ -9453,7 +9504,7 @@
         <v>21071</v>
       </c>
       <c r="B236" s="21" t="str">
-        <f t="shared" si="30"/>
+        <f>VLOOKUP(A236,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C236" s="26">
@@ -9468,11 +9519,11 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="H236" s="28">
-        <f t="shared" si="31"/>
+        <f>G236-F236</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I236" s="29">
-        <f t="shared" si="32"/>
+        <f>H236/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J236" s="21" t="s">
@@ -9487,7 +9538,7 @@
         <v>21071</v>
       </c>
       <c r="B237" s="21" t="str">
-        <f t="shared" si="30"/>
+        <f>VLOOKUP(A237,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C237" s="26">
@@ -9502,11 +9553,11 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="H237" s="28">
-        <f t="shared" si="31"/>
+        <f>G237-F237</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I237" s="29">
-        <f t="shared" si="32"/>
+        <f>H237/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J237" s="21" t="s">
@@ -9524,7 +9575,7 @@
         <v>21071</v>
       </c>
       <c r="B238" s="21" t="str">
-        <f t="shared" si="30"/>
+        <f>VLOOKUP(A238,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C238" s="26">
@@ -9539,11 +9590,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H238" s="28">
-        <f t="shared" si="31"/>
+        <f>G238-F238</f>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I238" s="29">
-        <f t="shared" si="32"/>
+        <f>H238/(35/(60*24))</f>
         <v>1.9999999999999973</v>
       </c>
       <c r="J238" s="21" t="s">
@@ -9558,7 +9609,7 @@
         <v>21071</v>
       </c>
       <c r="B239" s="21" t="str">
-        <f t="shared" si="30"/>
+        <f>VLOOKUP(A239,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C239" s="26">
@@ -9573,11 +9624,11 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="H239" s="28">
-        <f t="shared" si="31"/>
+        <f>G239-F239</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I239" s="29">
-        <f t="shared" si="32"/>
+        <f>H239/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J239" s="21" t="s">
@@ -9592,7 +9643,7 @@
         <v>21071</v>
       </c>
       <c r="B240" s="21" t="str">
-        <f t="shared" si="30"/>
+        <f>VLOOKUP(A240,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C240" s="26">
@@ -9607,11 +9658,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H240" s="28">
-        <f t="shared" si="31"/>
+        <f>G240-F240</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I240" s="29">
-        <f t="shared" si="32"/>
+        <f>H240/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J240" s="21" t="s">
@@ -9623,7 +9674,7 @@
         <v>21071</v>
       </c>
       <c r="B241" s="21" t="str">
-        <f t="shared" si="30"/>
+        <f>VLOOKUP(A241,$A$3:$B$13,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C241" s="26">
@@ -9638,7 +9689,7 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H241" s="28">
-        <f t="shared" si="31"/>
+        <f>G241-F241</f>
         <v>4.5138888888888951E-2</v>
       </c>
       <c r="I241" s="29">
@@ -9668,11 +9719,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H242" s="28">
-        <f t="shared" si="31"/>
+        <f>G242-F242</f>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I242" s="29">
-        <f t="shared" ref="I242:I251" si="33">H242/(35/(60*24))</f>
+        <f>H242/(35/(60*24))</f>
         <v>1.9999999999999973</v>
       </c>
       <c r="J242" s="21" t="s">
@@ -9696,11 +9747,11 @@
       <c r="D243" s="26"/>
       <c r="E243" s="26"/>
       <c r="H243" s="28">
-        <f t="shared" si="31"/>
+        <f>G243-F243</f>
         <v>0</v>
       </c>
       <c r="I243" s="29">
-        <f t="shared" si="33"/>
+        <f>H243/(35/(60*24))</f>
         <v>0</v>
       </c>
       <c r="L243" s="26">
@@ -9721,11 +9772,11 @@
       <c r="D244" s="26"/>
       <c r="E244" s="26"/>
       <c r="H244" s="28">
-        <f t="shared" si="31"/>
+        <f>G244-F244</f>
         <v>0</v>
       </c>
       <c r="I244" s="29">
-        <f t="shared" si="33"/>
+        <f>H244/(35/(60*24))</f>
         <v>0</v>
       </c>
     </row>
@@ -9743,11 +9794,11 @@
       <c r="D245" s="26"/>
       <c r="E245" s="26"/>
       <c r="H245" s="28">
-        <f t="shared" si="31"/>
+        <f>G245-F245</f>
         <v>0</v>
       </c>
       <c r="I245" s="29">
-        <f t="shared" si="33"/>
+        <f>H245/(35/(60*24))</f>
         <v>0</v>
       </c>
       <c r="J245" s="21" t="s">
@@ -9777,7 +9828,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="I246" s="29">
-        <f t="shared" si="33"/>
+        <f>H246/(35/(60*24))</f>
         <v>2</v>
       </c>
       <c r="J246" s="21" t="s">
@@ -9810,11 +9861,11 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="H247" s="28">
-        <f t="shared" ref="H247:H284" si="34">G247-F247</f>
+        <f>G247-F247</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I247" s="29">
-        <f t="shared" si="33"/>
+        <f>H247/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J247" s="21" t="s">
@@ -9844,11 +9895,11 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="H248" s="28">
-        <f t="shared" si="34"/>
+        <f>G248-F248</f>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I248" s="29">
-        <f t="shared" si="33"/>
+        <f>H248/(35/(60*24))</f>
         <v>1.9999999999999998</v>
       </c>
       <c r="J248" s="21" t="s">
@@ -9881,11 +9932,11 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="H249" s="28">
-        <f t="shared" si="34"/>
+        <f>G249-F249</f>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I249" s="29">
-        <f t="shared" si="33"/>
+        <f>H249/(35/(60*24))</f>
         <v>1.9999999999999998</v>
       </c>
       <c r="J249" s="21" t="s">
@@ -9915,11 +9966,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H250" s="28">
-        <f t="shared" si="34"/>
+        <f>G250-F250</f>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I250" s="29">
-        <f t="shared" si="33"/>
+        <f>H250/(35/(60*24))</f>
         <v>1.9999999999999973</v>
       </c>
       <c r="J250" s="21" t="s">
@@ -9946,11 +9997,11 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="H251" s="28">
-        <f t="shared" si="34"/>
+        <f>G251-F251</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I251" s="29">
-        <f t="shared" si="33"/>
+        <f>H251/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J251" s="21" t="s">
@@ -9980,7 +10031,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H252" s="28">
-        <f t="shared" si="34"/>
+        <f>G252-F252</f>
         <v>6.25E-2</v>
       </c>
       <c r="I252" s="29">
@@ -10016,11 +10067,11 @@
         <v>0.40972222222222221</v>
       </c>
       <c r="H253" s="28">
-        <f t="shared" si="34"/>
+        <f>G253-F253</f>
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="I253" s="29">
-        <f t="shared" ref="I253:I275" si="35">H253/(35/(60*24))</f>
+        <f>H253/(35/(60*24))</f>
         <v>0.99999999999999867</v>
       </c>
       <c r="J253" s="25" t="s">
@@ -10049,11 +10100,11 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="H254" s="28">
-        <f t="shared" si="34"/>
+        <f>G254-F254</f>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I254" s="29">
-        <f t="shared" si="35"/>
+        <f>H254/(35/(60*24))</f>
         <v>1.9999999999999998</v>
       </c>
       <c r="J254" s="25" t="s">
@@ -10082,11 +10133,11 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="H255" s="28">
-        <f t="shared" si="34"/>
+        <f>G255-F255</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I255" s="29">
-        <f t="shared" si="35"/>
+        <f>H255/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J255" s="25" t="s">
@@ -10115,11 +10166,11 @@
         <v>0.57638888888888884</v>
       </c>
       <c r="H256" s="28">
-        <f t="shared" si="34"/>
+        <f>G256-F256</f>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I256" s="29">
-        <f t="shared" si="35"/>
+        <f>H256/(35/(60*24))</f>
         <v>1.9999999999999973</v>
       </c>
       <c r="J256" s="25" t="s">
@@ -10148,11 +10199,11 @@
         <v>0.60763888888888884</v>
       </c>
       <c r="H257" s="28">
-        <f t="shared" si="34"/>
+        <f>G257-F257</f>
         <v>2.4305555555555469E-2</v>
       </c>
       <c r="I257" s="29">
-        <f t="shared" si="35"/>
+        <f>H257/(35/(60*24))</f>
         <v>0.99999999999999645</v>
       </c>
       <c r="J257" s="25" t="s">
@@ -10181,11 +10232,11 @@
         <v>0.44097222222222221</v>
       </c>
       <c r="H258" s="28">
-        <f t="shared" si="34"/>
+        <f>G258-F258</f>
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="I258" s="29">
-        <f t="shared" si="35"/>
+        <f>H258/(35/(60*24))</f>
         <v>0.99999999999999867</v>
       </c>
       <c r="J258" s="25" t="s">
@@ -10218,11 +10269,11 @@
         <v>0.54513888888888884</v>
       </c>
       <c r="H259" s="28">
-        <f t="shared" si="34"/>
+        <f>G259-F259</f>
         <v>9.7222222222222154E-2</v>
       </c>
       <c r="I259" s="29">
-        <f t="shared" si="35"/>
+        <f>H259/(35/(60*24))</f>
         <v>3.9999999999999973</v>
       </c>
       <c r="J259" s="21" t="s">
@@ -10255,11 +10306,11 @@
         <v>0.60069444444444442</v>
       </c>
       <c r="H260" s="28">
-        <f t="shared" si="34"/>
+        <f>G260-F260</f>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I260" s="29">
-        <f t="shared" si="35"/>
+        <f>H260/(35/(60*24))</f>
         <v>1.9999999999999973</v>
       </c>
       <c r="J260" s="21" t="s">
@@ -10292,11 +10343,11 @@
         <v>0.625</v>
       </c>
       <c r="H261" s="28">
-        <f t="shared" si="34"/>
+        <f>G261-F261</f>
         <v>2.430555555555558E-2</v>
       </c>
       <c r="I261" s="29">
-        <f t="shared" si="35"/>
+        <f>H261/(35/(60*24))</f>
         <v>1.0000000000000009</v>
       </c>
       <c r="J261" s="21" t="s">
@@ -10311,7 +10362,7 @@
         <v>21087</v>
       </c>
       <c r="B262" s="21" t="str">
-        <f t="shared" ref="B262:B279" si="36">VLOOKUP(A262,$A$3:$B$13,2,FALSE)</f>
+        <f>VLOOKUP(A262,$A$3:$B$13,2,FALSE)</f>
         <v>木下　健志郎</v>
       </c>
       <c r="C262" s="26">
@@ -10326,11 +10377,11 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="H262" s="28">
-        <f t="shared" si="34"/>
+        <f>G262-F262</f>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="I262" s="36">
-        <f t="shared" si="35"/>
+        <f>H262/(35/(60*24))</f>
         <v>0.42857142857142705</v>
       </c>
       <c r="J262" s="21" t="s">
@@ -10345,7 +10396,7 @@
         <v>21087</v>
       </c>
       <c r="B263" s="21" t="str">
-        <f t="shared" si="36"/>
+        <f>VLOOKUP(A263,$A$3:$B$13,2,FALSE)</f>
         <v>木下　健志郎</v>
       </c>
       <c r="C263" s="26">
@@ -10360,11 +10411,11 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="H263" s="28">
-        <f t="shared" si="34"/>
+        <f>G263-F263</f>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I263" s="29">
-        <f t="shared" si="35"/>
+        <f>H263/(35/(60*24))</f>
         <v>1.9999999999999998</v>
       </c>
       <c r="J263" s="21" t="s">
@@ -10382,7 +10433,7 @@
         <v>21087</v>
       </c>
       <c r="B264" s="21" t="str">
-        <f t="shared" si="36"/>
+        <f>VLOOKUP(A264,$A$3:$B$13,2,FALSE)</f>
         <v>木下　健志郎</v>
       </c>
       <c r="C264" s="26">
@@ -10397,11 +10448,11 @@
         <v>0.59375</v>
       </c>
       <c r="H264" s="28">
-        <f t="shared" si="34"/>
+        <f>G264-F264</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I264" s="29">
-        <f t="shared" si="35"/>
+        <f>H264/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J264" s="21" t="s">
@@ -10422,7 +10473,7 @@
         <v>21087</v>
       </c>
       <c r="B265" s="21" t="str">
-        <f t="shared" si="36"/>
+        <f>VLOOKUP(A265,$A$3:$B$13,2,FALSE)</f>
         <v>木下　健志郎</v>
       </c>
       <c r="C265" s="26">
@@ -10437,11 +10488,11 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="H265" s="28">
-        <f t="shared" si="34"/>
+        <f>G265-F265</f>
         <v>6.9444444444445308E-3</v>
       </c>
       <c r="I265" s="36">
-        <f t="shared" si="35"/>
+        <f>H265/(35/(60*24))</f>
         <v>0.28571428571428925</v>
       </c>
       <c r="J265" s="21" t="s">
@@ -10462,7 +10513,7 @@
         <v>21087</v>
       </c>
       <c r="B266" s="21" t="str">
-        <f t="shared" si="36"/>
+        <f>VLOOKUP(A266,$A$3:$B$13,2,FALSE)</f>
         <v>木下　健志郎</v>
       </c>
       <c r="C266" s="26">
@@ -10477,11 +10528,11 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="H266" s="28">
-        <f t="shared" si="34"/>
+        <f>G266-F266</f>
         <v>5.9027777777777735E-2</v>
       </c>
       <c r="I266" s="29">
-        <f t="shared" si="35"/>
+        <f>H266/(35/(60*24))</f>
         <v>2.4285714285714266</v>
       </c>
       <c r="J266" s="21" t="s">
@@ -10499,7 +10550,7 @@
         <v>21087</v>
       </c>
       <c r="B267" s="21" t="str">
-        <f t="shared" si="36"/>
+        <f>VLOOKUP(A267,$A$3:$B$13,2,FALSE)</f>
         <v>木下　健志郎</v>
       </c>
       <c r="C267" s="26">
@@ -10514,11 +10565,11 @@
         <v>0.57638888888888884</v>
       </c>
       <c r="H267" s="28">
-        <f t="shared" si="34"/>
+        <f>G267-F267</f>
         <v>2.7777777777777679E-2</v>
       </c>
       <c r="I267" s="29">
-        <f t="shared" si="35"/>
+        <f>H267/(35/(60*24))</f>
         <v>1.1428571428571388</v>
       </c>
       <c r="J267" s="21" t="s">
@@ -10536,7 +10587,7 @@
         <v>21087</v>
       </c>
       <c r="B268" s="21" t="str">
-        <f t="shared" si="36"/>
+        <f>VLOOKUP(A268,$A$3:$B$13,2,FALSE)</f>
         <v>木下　健志郎</v>
       </c>
       <c r="C268" s="26">
@@ -10551,11 +10602,11 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="H268" s="28">
-        <f t="shared" si="34"/>
+        <f>G268-F268</f>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="I268" s="29">
-        <f t="shared" si="35"/>
+        <f>H268/(35/(60*24))</f>
         <v>2.1428571428571397</v>
       </c>
       <c r="J268" s="21" t="s">
@@ -10573,7 +10624,7 @@
         <v>21087</v>
       </c>
       <c r="B269" s="21" t="str">
-        <f t="shared" si="36"/>
+        <f>VLOOKUP(A269,$A$3:$B$13,2,FALSE)</f>
         <v>木下　健志郎</v>
       </c>
       <c r="C269" s="26">
@@ -10588,11 +10639,11 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="H269" s="28">
-        <f t="shared" si="34"/>
+        <f>G269-F269</f>
         <v>2.4305555555555469E-2</v>
       </c>
       <c r="I269" s="29">
-        <f t="shared" si="35"/>
+        <f>H269/(35/(60*24))</f>
         <v>0.99999999999999645</v>
       </c>
       <c r="J269" s="21" t="s">
@@ -10610,7 +10661,7 @@
         <v>21087</v>
       </c>
       <c r="B270" s="21" t="str">
-        <f t="shared" si="36"/>
+        <f>VLOOKUP(A270,$A$3:$B$13,2,FALSE)</f>
         <v>木下　健志郎</v>
       </c>
       <c r="C270" s="26">
@@ -10625,11 +10676,11 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="H270" s="28">
-        <f t="shared" si="34"/>
+        <f>G270-F270</f>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I270" s="29">
-        <f t="shared" si="35"/>
+        <f>H270/(35/(60*24))</f>
         <v>1.9999999999999973</v>
       </c>
       <c r="J270" s="21" t="s">
@@ -10650,7 +10701,7 @@
         <v>21087</v>
       </c>
       <c r="B271" s="21" t="str">
-        <f t="shared" si="36"/>
+        <f>VLOOKUP(A271,$A$3:$B$13,2,FALSE)</f>
         <v>木下　健志郎</v>
       </c>
       <c r="C271" s="26">
@@ -10665,11 +10716,11 @@
         <v>0.625</v>
       </c>
       <c r="H271" s="28">
-        <f t="shared" si="34"/>
+        <f>G271-F271</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I271" s="29">
-        <f t="shared" si="35"/>
+        <f>H271/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J271" s="21" t="s">
@@ -10690,7 +10741,7 @@
         <v>21087</v>
       </c>
       <c r="B272" s="21" t="str">
-        <f t="shared" si="36"/>
+        <f>VLOOKUP(A272,$A$3:$B$13,2,FALSE)</f>
         <v>木下　健志郎</v>
       </c>
       <c r="C272" s="26">
@@ -10705,11 +10756,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H272" s="28">
-        <f t="shared" si="34"/>
+        <f>G272-F272</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I272" s="29">
-        <f t="shared" si="35"/>
+        <f>H272/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J272" s="21" t="s">
@@ -10727,7 +10778,7 @@
         <v>21087</v>
       </c>
       <c r="B273" s="21" t="str">
-        <f t="shared" si="36"/>
+        <f>VLOOKUP(A273,$A$3:$B$13,2,FALSE)</f>
         <v>木下　健志郎</v>
       </c>
       <c r="C273" s="26">
@@ -10742,11 +10793,11 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="H273" s="28">
-        <f t="shared" si="34"/>
+        <f>G273-F273</f>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I273" s="29">
-        <f t="shared" si="35"/>
+        <f>H273/(35/(60*24))</f>
         <v>1.9999999999999973</v>
       </c>
       <c r="J273" s="21" t="s">
@@ -10764,7 +10815,7 @@
         <v>21087</v>
       </c>
       <c r="B274" s="21" t="str">
-        <f t="shared" si="36"/>
+        <f>VLOOKUP(A274,$A$3:$B$13,2,FALSE)</f>
         <v>木下　健志郎</v>
       </c>
       <c r="C274" s="26">
@@ -10779,11 +10830,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H274" s="28">
-        <f t="shared" si="34"/>
+        <f>G274-F274</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I274" s="29">
-        <f t="shared" si="35"/>
+        <f>H274/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J274" s="21" t="s">
@@ -10801,7 +10852,7 @@
         <v>21087</v>
       </c>
       <c r="B275" s="21" t="str">
-        <f t="shared" si="36"/>
+        <f>VLOOKUP(A275,$A$3:$B$13,2,FALSE)</f>
         <v>木下　健志郎</v>
       </c>
       <c r="C275" s="26">
@@ -10816,11 +10867,11 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="H275" s="28">
-        <f t="shared" si="34"/>
+        <f>G275-F275</f>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I275" s="29">
-        <f t="shared" si="35"/>
+        <f>H275/(35/(60*24))</f>
         <v>1.9999999999999973</v>
       </c>
       <c r="J275" s="21" t="s">
@@ -10838,7 +10889,7 @@
         <v>21087</v>
       </c>
       <c r="B276" s="21" t="str">
-        <f t="shared" si="36"/>
+        <f>VLOOKUP(A276,$A$3:$B$13,2,FALSE)</f>
         <v>木下　健志郎</v>
       </c>
       <c r="C276" s="26">
@@ -10853,11 +10904,11 @@
         <v>0.49652777777777779</v>
       </c>
       <c r="H276" s="28">
-        <f t="shared" si="34"/>
+        <f>G276-F276</f>
         <v>9.5138888888888884E-2</v>
       </c>
       <c r="I276" s="29">
-        <f t="shared" ref="I276:I281" si="37">H276/(45/(60*24))</f>
+        <f>H276/(45/(60*24))</f>
         <v>3.0444444444444443</v>
       </c>
       <c r="J276" s="21" t="s">
@@ -10872,7 +10923,7 @@
         <v>21087</v>
       </c>
       <c r="B277" s="21" t="str">
-        <f t="shared" si="36"/>
+        <f>VLOOKUP(A277,$A$3:$B$13,2,FALSE)</f>
         <v>木下　健志郎</v>
       </c>
       <c r="C277" s="26">
@@ -10887,11 +10938,11 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H277" s="28">
-        <f t="shared" si="34"/>
+        <f>G277-F277</f>
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="I277" s="29">
-        <f t="shared" si="37"/>
+        <f>H277/(45/(60*24))</f>
         <v>0.88888888888888751</v>
       </c>
       <c r="J277" s="21" t="s">
@@ -10903,7 +10954,7 @@
         <v>21087</v>
       </c>
       <c r="B278" s="21" t="str">
-        <f t="shared" si="36"/>
+        <f>VLOOKUP(A278,$A$3:$B$13,2,FALSE)</f>
         <v>木下　健志郎</v>
       </c>
       <c r="C278" s="26">
@@ -10918,11 +10969,11 @@
         <v>0.44722222222222224</v>
       </c>
       <c r="H278" s="28">
-        <f t="shared" si="34"/>
+        <f>G278-F278</f>
         <v>1.5277777777777779E-2</v>
       </c>
       <c r="I278" s="29">
-        <f t="shared" si="37"/>
+        <f>H278/(45/(60*24))</f>
         <v>0.48888888888888893</v>
       </c>
       <c r="J278" s="21" t="s">
@@ -10934,7 +10985,7 @@
         <v>21090</v>
       </c>
       <c r="B279" s="21" t="str">
-        <f t="shared" si="36"/>
+        <f>VLOOKUP(A279,$A$3:$B$13,2,FALSE)</f>
         <v>中原　遥翔</v>
       </c>
       <c r="C279" s="26">
@@ -10949,11 +11000,11 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="H279" s="28">
-        <f t="shared" si="34"/>
+        <f>G279-F279</f>
         <v>6.25E-2</v>
       </c>
       <c r="I279" s="29">
-        <f t="shared" si="37"/>
+        <f>H279/(45/(60*24))</f>
         <v>2</v>
       </c>
       <c r="J279" s="21" t="s">
@@ -10985,11 +11036,11 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="H280" s="38">
-        <f t="shared" si="34"/>
+        <f>G280-F280</f>
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="I280" s="22">
-        <f t="shared" si="37"/>
+        <f>H280/(45/(60*24))</f>
         <v>1.9999999999999982</v>
       </c>
       <c r="J280" s="22" t="s">
@@ -11004,7 +11055,7 @@
         <v>21090</v>
       </c>
       <c r="B281" s="21" t="str">
-        <f t="shared" ref="B281:B312" si="38">VLOOKUP(A281,$A$3:$B$13,2,FALSE)</f>
+        <f>VLOOKUP(A281,$A$3:$B$13,2,FALSE)</f>
         <v>中原　遥翔</v>
       </c>
       <c r="C281" s="26">
@@ -11019,11 +11070,11 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="H281" s="28">
-        <f t="shared" si="34"/>
+        <f>G281-F281</f>
         <v>6.25E-2</v>
       </c>
       <c r="I281" s="29">
-        <f t="shared" si="37"/>
+        <f>H281/(45/(60*24))</f>
         <v>2</v>
       </c>
       <c r="J281" s="21" t="s">
@@ -11036,12 +11087,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="282" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="21">
         <v>19055</v>
       </c>
       <c r="B282" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f>VLOOKUP(A282,$A$3:$B$13,2,FALSE)</f>
         <v>宮本　希</v>
       </c>
       <c r="C282" s="26">
@@ -11058,7 +11109,7 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="H282" s="28">
-        <f t="shared" si="34"/>
+        <f>G282-F282</f>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I282" s="29">
@@ -11072,12 +11123,12 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="283" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="21">
         <v>19055</v>
       </c>
       <c r="B283" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f>VLOOKUP(A283,$A$3:$B$13,2,FALSE)</f>
         <v>宮本　希</v>
       </c>
       <c r="C283" s="26">
@@ -11094,7 +11145,7 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="H283" s="28">
-        <f t="shared" si="34"/>
+        <f>G283-F283</f>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I283" s="29">
@@ -11113,7 +11164,7 @@
         <v>21087</v>
       </c>
       <c r="B284" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f>VLOOKUP(A284,$A$3:$B$13,2,FALSE)</f>
         <v>木下　健志郎</v>
       </c>
       <c r="C284" s="26">
@@ -11128,7 +11179,7 @@
         <v>0.43333333333333335</v>
       </c>
       <c r="H284" s="28">
-        <f t="shared" si="34"/>
+        <f>G284-F284</f>
         <v>3.5416666666666707E-2</v>
       </c>
       <c r="I284" s="29">
@@ -11147,7 +11198,7 @@
         <v>21036</v>
       </c>
       <c r="B285" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f>VLOOKUP(A285,$A$3:$B$13,2,FALSE)</f>
         <v>吉丸　果林</v>
       </c>
       <c r="C285" s="26"/>
@@ -11161,7 +11212,7 @@
         <v>21087</v>
       </c>
       <c r="B286" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f>VLOOKUP(A286,$A$3:$B$13,2,FALSE)</f>
         <v>木下　健志郎</v>
       </c>
       <c r="C286" s="26">
@@ -11176,7 +11227,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="H286" s="28">
-        <f t="shared" ref="H286:H292" si="39">G286-F286</f>
+        <f>G286-F286</f>
         <v>8.3333333333333315E-2</v>
       </c>
       <c r="I286" s="29">
@@ -11190,12 +11241,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="287" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A287" s="21">
         <v>21074</v>
       </c>
       <c r="B287" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f>VLOOKUP(A287,$A$3:$B$13,2,FALSE)</f>
         <v>佐藤　大起</v>
       </c>
       <c r="C287" s="26">
@@ -11212,7 +11263,7 @@
         <v>0.50763888888888886</v>
       </c>
       <c r="H287" s="28">
-        <f t="shared" si="39"/>
+        <f>G287-F287</f>
         <v>2.9861111111111061E-2</v>
       </c>
       <c r="I287" s="29">
@@ -11226,12 +11277,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="288" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A288" s="21">
         <v>21074</v>
       </c>
       <c r="B288" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f>VLOOKUP(A288,$A$3:$B$13,2,FALSE)</f>
         <v>佐藤　大起</v>
       </c>
       <c r="C288" s="26">
@@ -11248,7 +11299,7 @@
         <v>0.53541666666666665</v>
       </c>
       <c r="H288" s="28">
-        <f t="shared" si="39"/>
+        <f>G288-F288</f>
         <v>5.9722222222222232E-2</v>
       </c>
       <c r="I288" s="29">
@@ -11261,12 +11312,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="21">
         <v>19055</v>
       </c>
       <c r="B289" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="B289:B312" si="27">VLOOKUP(A289,$A$3:$B$13,2,FALSE)</f>
         <v>宮本　希</v>
       </c>
       <c r="C289" s="26">
@@ -11277,7 +11328,7 @@
       </c>
       <c r="E289" s="26"/>
       <c r="H289" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="H289:H292" si="28">G289-F289</f>
         <v>0</v>
       </c>
       <c r="I289" s="29">
@@ -11293,12 +11344,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="21">
         <v>19055</v>
       </c>
       <c r="B290" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>宮本　希</v>
       </c>
       <c r="C290" s="26">
@@ -11315,7 +11366,7 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H290" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="28"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I290" s="29">
@@ -11332,12 +11383,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="21">
         <v>19055</v>
       </c>
       <c r="B291" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>宮本　希</v>
       </c>
       <c r="C291" s="26">
@@ -11348,7 +11399,7 @@
       </c>
       <c r="E291" s="26"/>
       <c r="H291" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I291" s="29">
@@ -11358,12 +11409,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="21">
         <v>19055</v>
       </c>
       <c r="B292" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>宮本　希</v>
       </c>
       <c r="C292" s="26">
@@ -11374,7 +11425,7 @@
       </c>
       <c r="E292" s="26"/>
       <c r="H292" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I292" s="29">
@@ -11384,12 +11435,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="21">
         <v>19055</v>
       </c>
       <c r="B293" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>宮本　希</v>
       </c>
       <c r="C293" s="26">
@@ -11411,7 +11462,7 @@
         <v>21087</v>
       </c>
       <c r="B294" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C294" s="26">
@@ -11423,7 +11474,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="I294" s="29">
-        <f t="shared" ref="I294:I306" si="40">H294/(45/(60*24))</f>
+        <f t="shared" ref="I294:I306" si="29">H294/(45/(60*24))</f>
         <v>2</v>
       </c>
       <c r="J294" s="22" t="s">
@@ -11438,7 +11489,7 @@
         <v>21087</v>
       </c>
       <c r="B295" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C295" s="26">
@@ -11450,7 +11501,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="I295" s="29">
-        <f t="shared" si="40"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="J295" s="22" t="s">
@@ -11465,7 +11516,7 @@
         <v>21087</v>
       </c>
       <c r="B296" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C296" s="26">
@@ -11477,7 +11528,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="I296" s="29">
-        <f t="shared" si="40"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="J296" s="22" t="s">
@@ -11492,7 +11543,7 @@
         <v>21087</v>
       </c>
       <c r="B297" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C297" s="26">
@@ -11504,7 +11555,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="I297" s="29">
-        <f t="shared" si="40"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="J297" s="22" t="s">
@@ -11519,7 +11570,7 @@
         <v>21087</v>
       </c>
       <c r="B298" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C298" s="26">
@@ -11531,7 +11582,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="I298" s="29">
-        <f t="shared" si="40"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="J298" s="22" t="s">
@@ -11546,7 +11597,7 @@
         <v>21087</v>
       </c>
       <c r="B299" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C299" s="26">
@@ -11558,7 +11609,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="I299" s="29">
-        <f t="shared" si="40"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="J299" s="22" t="s">
@@ -11573,7 +11624,7 @@
         <v>21071</v>
       </c>
       <c r="B300" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>松行　桃香</v>
       </c>
       <c r="C300" s="26">
@@ -11588,11 +11639,11 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="H300" s="28">
-        <f t="shared" ref="H300:H306" si="41">G300-F300</f>
+        <f t="shared" ref="H300:H306" si="30">G300-F300</f>
         <v>6.25E-2</v>
       </c>
       <c r="I300" s="29">
-        <f t="shared" si="40"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="J300" s="22" t="s">
@@ -11607,7 +11658,7 @@
         <v>21071</v>
       </c>
       <c r="B301" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>松行　桃香</v>
       </c>
       <c r="C301" s="26">
@@ -11622,11 +11673,11 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="H301" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="30"/>
         <v>3.125E-2</v>
       </c>
       <c r="I301" s="29">
-        <f t="shared" si="40"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="J301" s="22" t="s">
@@ -11641,7 +11692,7 @@
         <v>21087</v>
       </c>
       <c r="B302" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C302" s="26">
@@ -11656,11 +11707,11 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="H302" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="30"/>
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="I302" s="29">
-        <f t="shared" si="40"/>
+        <f t="shared" si="29"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="J302" s="22" t="s">
@@ -11675,7 +11726,7 @@
         <v>21068</v>
       </c>
       <c r="B303" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C303" s="26">
@@ -11690,11 +11741,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H303" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="30"/>
         <v>6.25E-2</v>
       </c>
       <c r="I303" s="29">
-        <f t="shared" si="40"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="J303" s="21" t="s">
@@ -11712,7 +11763,7 @@
         <v>21068</v>
       </c>
       <c r="B304" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C304" s="26">
@@ -11727,11 +11778,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H304" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="30"/>
         <v>6.25E-2</v>
       </c>
       <c r="I304" s="29">
-        <f t="shared" si="40"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="J304" s="22" t="s">
@@ -11746,7 +11797,7 @@
         <v>21036</v>
       </c>
       <c r="B305" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C305" s="26">
@@ -11761,11 +11812,11 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="H305" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="30"/>
         <v>6.25E-2</v>
       </c>
       <c r="I305" s="29">
-        <f t="shared" si="40"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="J305" s="22" t="s">
@@ -11780,7 +11831,7 @@
         <v>21068</v>
       </c>
       <c r="B306" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C306" s="26">
@@ -11795,11 +11846,11 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="H306" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="30"/>
         <v>6.25E-2</v>
       </c>
       <c r="I306" s="29">
-        <f t="shared" si="40"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="J306" s="22" t="s">
@@ -11809,12 +11860,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="21">
         <v>19055</v>
       </c>
       <c r="B307" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>宮本　希</v>
       </c>
       <c r="C307" s="26">
@@ -11836,7 +11887,7 @@
         <v>21036</v>
       </c>
       <c r="B308" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C308" s="26">
@@ -11845,11 +11896,11 @@
       <c r="D308" s="26"/>
       <c r="E308" s="26"/>
       <c r="H308" s="28">
-        <f t="shared" ref="H308:H317" si="42">G308-F308</f>
+        <f t="shared" ref="H308:H317" si="31">G308-F308</f>
         <v>0</v>
       </c>
       <c r="I308" s="29">
-        <f t="shared" ref="I308:I317" si="43">H308/(45/(60*24))</f>
+        <f t="shared" ref="I308:I317" si="32">H308/(45/(60*24))</f>
         <v>0</v>
       </c>
       <c r="J308" s="22" t="s">
@@ -11864,7 +11915,7 @@
         <v>21036</v>
       </c>
       <c r="B309" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C309" s="26">
@@ -11873,11 +11924,11 @@
       <c r="D309" s="26"/>
       <c r="E309" s="26"/>
       <c r="H309" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I309" s="29">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J309" s="22" t="s">
@@ -11892,7 +11943,7 @@
         <v>21036</v>
       </c>
       <c r="B310" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C310" s="26">
@@ -11901,11 +11952,11 @@
       <c r="D310" s="26"/>
       <c r="E310" s="26"/>
       <c r="H310" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I310" s="29">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J310" s="22" t="s">
@@ -11920,7 +11971,7 @@
         <v>21036</v>
       </c>
       <c r="B311" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C311" s="26">
@@ -11929,11 +11980,11 @@
       <c r="D311" s="26"/>
       <c r="E311" s="26"/>
       <c r="H311" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I311" s="29">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J311" s="22" t="s">
@@ -11948,7 +11999,7 @@
         <v>21036</v>
       </c>
       <c r="B312" s="21" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C312" s="26">
@@ -11957,11 +12008,11 @@
       <c r="D312" s="26"/>
       <c r="E312" s="26"/>
       <c r="H312" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I312" s="29">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J312" s="22" t="s">
@@ -11976,7 +12027,7 @@
         <v>21090</v>
       </c>
       <c r="B313" s="21" t="str">
-        <f t="shared" ref="B313:B344" si="44">VLOOKUP(A313,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" ref="B313:B344" si="33">VLOOKUP(A313,$A$3:$B$13,2,FALSE)</f>
         <v>中原　遥翔</v>
       </c>
       <c r="C313" s="26">
@@ -11991,11 +12042,11 @@
         <v>0.58680555555555558</v>
       </c>
       <c r="H313" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>6.25E-2</v>
       </c>
       <c r="I313" s="29">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="J313" s="22" t="s">
@@ -12010,7 +12061,7 @@
         <v>21090</v>
       </c>
       <c r="B314" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>中原　遥翔</v>
       </c>
       <c r="C314" s="26">
@@ -12025,11 +12076,11 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="H314" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>6.25E-2</v>
       </c>
       <c r="I314" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="J314" s="22" t="s">
@@ -12044,7 +12095,7 @@
         <v>21090</v>
       </c>
       <c r="B315" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>中原　遥翔</v>
       </c>
       <c r="C315" s="26">
@@ -12059,11 +12110,11 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="H315" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I315" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J315" s="22" t="s">
@@ -12078,7 +12129,7 @@
         <v>21068</v>
       </c>
       <c r="B316" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C316" s="26">
@@ -12093,11 +12144,11 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="H316" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="I316" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="J316" s="22" t="s">
@@ -12112,7 +12163,7 @@
         <v>21068</v>
       </c>
       <c r="B317" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C317" s="26">
@@ -12127,11 +12178,11 @@
         <v>0.23819444444444446</v>
       </c>
       <c r="H317" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>6.25E-2</v>
       </c>
       <c r="I317" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="J317" s="22" t="s">
@@ -12141,12 +12192,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="21">
         <v>19055</v>
       </c>
       <c r="B318" s="21" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>宮本　希</v>
       </c>
       <c r="C318" s="26">
@@ -12163,12 +12214,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="21">
         <v>19055</v>
       </c>
       <c r="B319" s="21" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>宮本　希</v>
       </c>
       <c r="C319" s="26">
@@ -12190,7 +12241,7 @@
         <v>21049</v>
       </c>
       <c r="B320" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>本岡　龍陽</v>
       </c>
       <c r="C320" s="26">
@@ -12224,7 +12275,7 @@
         <v>21049</v>
       </c>
       <c r="B321" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>本岡　龍陽</v>
       </c>
       <c r="C321" s="26">
@@ -12245,12 +12296,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="21">
         <v>19055</v>
       </c>
       <c r="B322" s="21" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>宮本　希</v>
       </c>
       <c r="C322" s="26">
@@ -12267,12 +12318,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="323" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="21">
         <v>19055</v>
       </c>
       <c r="B323" s="21" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>宮本　希</v>
       </c>
       <c r="C323" s="26">
@@ -12289,12 +12340,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="324" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="21">
         <v>19055</v>
       </c>
       <c r="B324" s="21" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>宮本　希</v>
       </c>
       <c r="C324" s="26">
@@ -12316,7 +12367,7 @@
         <v>21068</v>
       </c>
       <c r="B325" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C325" s="26">
@@ -12331,11 +12382,11 @@
         <v>0.3125</v>
       </c>
       <c r="H325" s="38">
-        <f t="shared" ref="H325:H333" si="45">G325-F325</f>
+        <f t="shared" ref="H325:H333" si="34">G325-F325</f>
         <v>6.25E-2</v>
       </c>
       <c r="I325" s="22">
-        <f t="shared" ref="I325:I333" si="46">H325/(45/(60*24))</f>
+        <f t="shared" ref="I325:I333" si="35">H325/(45/(60*24))</f>
         <v>2</v>
       </c>
       <c r="J325" s="22" t="s">
@@ -12350,7 +12401,7 @@
         <v>21096</v>
       </c>
       <c r="B326" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>輪竹　真弥</v>
       </c>
       <c r="C326" s="26">
@@ -12365,11 +12416,11 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="H326" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="34"/>
         <v>6.25E-2</v>
       </c>
       <c r="I326" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="J326" s="22" t="s">
@@ -12384,7 +12435,7 @@
         <v>21068</v>
       </c>
       <c r="B327" s="21" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C327" s="26">
@@ -12399,11 +12450,11 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="H327" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="34"/>
         <v>6.25E-2</v>
       </c>
       <c r="I327" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="J327" s="22" t="s">
@@ -12418,7 +12469,7 @@
         <v>21096</v>
       </c>
       <c r="B328" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>輪竹　真弥</v>
       </c>
       <c r="C328" s="26">
@@ -12433,11 +12484,11 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="H328" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="34"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I328" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="35"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J328" s="22" t="s">
@@ -12452,7 +12503,7 @@
         <v>21090</v>
       </c>
       <c r="B329" s="21" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>中原　遥翔</v>
       </c>
       <c r="C329" s="26">
@@ -12467,11 +12518,11 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="H329" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="34"/>
         <v>6.25E-2</v>
       </c>
       <c r="I329" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="J329" s="22" t="s">
@@ -12486,7 +12537,7 @@
         <v>21068</v>
       </c>
       <c r="B330" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C330" s="26">
@@ -12501,11 +12552,11 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="H330" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="34"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I330" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="35"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J330" s="22" t="s">
@@ -12520,7 +12571,7 @@
         <v>21071</v>
       </c>
       <c r="B331" s="21" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>松行　桃香</v>
       </c>
       <c r="C331" s="26">
@@ -12535,11 +12586,11 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="H331" s="28">
-        <f t="shared" si="45"/>
+        <f t="shared" si="34"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="I331" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="35"/>
         <v>0.66666666666666785</v>
       </c>
       <c r="J331" s="22" t="s">
@@ -12551,7 +12602,7 @@
         <v>21068</v>
       </c>
       <c r="B332" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C332" s="26">
@@ -12560,11 +12611,11 @@
       <c r="D332" s="26"/>
       <c r="E332" s="26"/>
       <c r="H332" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="I332" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="J332" s="22" t="s">
@@ -12579,7 +12630,7 @@
         <v>21091</v>
       </c>
       <c r="B333" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>金子　凌</v>
       </c>
       <c r="C333" s="26">
@@ -12594,23 +12645,23 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H333" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="34"/>
         <v>6.25E-2</v>
       </c>
       <c r="I333" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="J333" s="22" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="21">
         <v>19055</v>
       </c>
       <c r="B334" s="21" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>宮本　希</v>
       </c>
       <c r="C334" s="26">
@@ -12627,12 +12678,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="21">
         <v>19055</v>
       </c>
       <c r="B335" s="21" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>宮本　希</v>
       </c>
       <c r="C335" s="26">
@@ -12654,7 +12705,7 @@
         <v>21068</v>
       </c>
       <c r="B336" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C336" s="26">
@@ -12677,12 +12728,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="337" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="21">
         <v>19055</v>
       </c>
       <c r="B337" s="21" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>宮本　希</v>
       </c>
       <c r="C337" s="26">
@@ -12704,7 +12755,7 @@
         <v>21068</v>
       </c>
       <c r="B338" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C338" s="26">
@@ -12738,7 +12789,7 @@
         <v>21068</v>
       </c>
       <c r="B339" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C339" s="26">
@@ -12766,7 +12817,7 @@
         <v>21068</v>
       </c>
       <c r="B340" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C340" s="50">
@@ -12797,7 +12848,7 @@
         <v>21068</v>
       </c>
       <c r="B341" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C341" s="26">
@@ -12831,7 +12882,7 @@
         <v>21068</v>
       </c>
       <c r="B342" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C342" s="50">
@@ -12854,7 +12905,7 @@
         <v>21068</v>
       </c>
       <c r="B343" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C343" s="50">
@@ -12870,7 +12921,7 @@
         <v>21087</v>
       </c>
       <c r="B344" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C344" s="50">
@@ -12896,12 +12947,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="345" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="21">
         <v>19055</v>
       </c>
       <c r="B345" s="21" t="str">
-        <f t="shared" ref="B345:B374" si="47">VLOOKUP(A345,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" ref="B345:B374" si="36">VLOOKUP(A345,$A$3:$B$13,2,FALSE)</f>
         <v>宮本　希</v>
       </c>
       <c r="C345" s="26">
@@ -12923,7 +12974,7 @@
         <v>21068</v>
       </c>
       <c r="B346" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C346" s="26">
@@ -12957,7 +13008,7 @@
         <v>21068</v>
       </c>
       <c r="B347" s="21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C347" s="26"/>
@@ -12986,7 +13037,7 @@
         <v>21091</v>
       </c>
       <c r="B348" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>金子　凌</v>
       </c>
       <c r="C348" s="50">
@@ -13009,7 +13060,7 @@
         <v>21091</v>
       </c>
       <c r="B349" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>金子　凌</v>
       </c>
       <c r="C349" s="50">
@@ -13032,7 +13083,7 @@
         <v>21096</v>
       </c>
       <c r="B350" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>輪竹　真弥</v>
       </c>
       <c r="C350" s="50">
@@ -13055,7 +13106,7 @@
         <v>21096</v>
       </c>
       <c r="B351" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>輪竹　真弥</v>
       </c>
       <c r="C351" s="50">
@@ -13073,12 +13124,12 @@
         <v>324</v>
       </c>
     </row>
-    <row r="352" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="21">
         <v>19055</v>
       </c>
       <c r="B352" s="21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>宮本　希</v>
       </c>
       <c r="C352" s="26">
@@ -13095,11 +13146,11 @@
         <v>0.60069444444444442</v>
       </c>
       <c r="H352" s="28">
-        <f t="shared" ref="H352:H358" si="48">G352-F352</f>
+        <f t="shared" ref="H352:H358" si="37">G352-F352</f>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I352" s="29">
-        <f t="shared" ref="I352:I358" si="49">H352/(35/(60*24))</f>
+        <f t="shared" ref="I352:I358" si="38">H352/(35/(60*24))</f>
         <v>1.9999999999999973</v>
       </c>
       <c r="J352" s="21" t="s">
@@ -13112,12 +13163,12 @@
         <v>44322</v>
       </c>
     </row>
-    <row r="353" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="21">
         <v>19055</v>
       </c>
       <c r="B353" s="21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>宮本　希</v>
       </c>
       <c r="C353" s="26">
@@ -13134,11 +13185,11 @@
         <v>0.65625</v>
       </c>
       <c r="H353" s="28">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I353" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J353" s="21" t="s">
@@ -13154,12 +13205,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="354" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="21">
         <v>19055</v>
       </c>
       <c r="B354" s="21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>宮本　希</v>
       </c>
       <c r="C354" s="26">
@@ -13177,11 +13228,11 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="H354" s="28">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="I354" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>0.42857142857142705</v>
       </c>
       <c r="J354" s="21" t="s">
@@ -13197,12 +13248,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="355" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="21">
         <v>19055</v>
       </c>
       <c r="B355" s="21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>宮本　希</v>
       </c>
       <c r="C355" s="26">
@@ -13219,11 +13270,11 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="H355" s="28">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I355" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J355" s="21" t="s">
@@ -13236,12 +13287,12 @@
         <v>44334</v>
       </c>
     </row>
-    <row r="356" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="21">
         <v>19055</v>
       </c>
       <c r="B356" s="21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>宮本　希</v>
       </c>
       <c r="C356" s="26">
@@ -13258,11 +13309,11 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="H356" s="28">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I356" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J356" s="21" t="s">
@@ -13275,12 +13326,12 @@
         <v>44343</v>
       </c>
     </row>
-    <row r="357" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="21">
         <v>19055</v>
       </c>
       <c r="B357" s="21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>宮本　希</v>
       </c>
       <c r="C357" s="26">
@@ -13297,11 +13348,11 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="H357" s="28">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I357" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J357" s="21" t="s">
@@ -13314,12 +13365,12 @@
         <v>44350</v>
       </c>
     </row>
-    <row r="358" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="21">
         <v>19055</v>
       </c>
       <c r="B358" s="21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>宮本　希</v>
       </c>
       <c r="C358" s="26">
@@ -13336,11 +13387,11 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="H358" s="28">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I358" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J358" s="52" t="s">
@@ -13358,7 +13409,7 @@
         <v>21068</v>
       </c>
       <c r="B359" s="22" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C359" s="50">
@@ -13376,12 +13427,12 @@
         <v>337</v>
       </c>
     </row>
-    <row r="360" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="21">
         <v>19055</v>
       </c>
       <c r="B360" s="21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>宮本　希</v>
       </c>
       <c r="C360" s="26">
@@ -13398,11 +13449,11 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="H360" s="28">
-        <f t="shared" ref="H360:H374" si="50">G360-F360</f>
+        <f t="shared" ref="H360:H373" si="39">G360-F360</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I360" s="29">
-        <f t="shared" ref="I360:I370" si="51">H360/(35/(60*24))</f>
+        <f t="shared" ref="I360:I370" si="40">H360/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J360" s="52" t="s">
@@ -13415,12 +13466,12 @@
         <v>44369</v>
       </c>
     </row>
-    <row r="361" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="21">
         <v>19055</v>
       </c>
       <c r="B361" s="21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>宮本　希</v>
       </c>
       <c r="C361" s="26">
@@ -13437,11 +13488,11 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="H361" s="28">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I361" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J361" s="52" t="s">
@@ -13454,12 +13505,12 @@
         <v>44371</v>
       </c>
     </row>
-    <row r="362" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="21">
         <v>19055</v>
       </c>
       <c r="B362" s="21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>宮本　希</v>
       </c>
       <c r="C362" s="26">
@@ -13476,11 +13527,11 @@
         <v>0.6875</v>
       </c>
       <c r="H362" s="28">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I362" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J362" s="52" t="s">
@@ -13493,12 +13544,12 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="363" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="21">
         <v>19055</v>
       </c>
       <c r="B363" s="21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>宮本　希</v>
       </c>
       <c r="C363" s="26">
@@ -13515,11 +13566,11 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="H363" s="28">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I363" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J363" s="52" t="s">
@@ -13532,12 +13583,12 @@
         <v>44383</v>
       </c>
     </row>
-    <row r="364" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="21">
         <v>19055</v>
       </c>
       <c r="B364" s="21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>宮本　希</v>
       </c>
       <c r="C364" s="26">
@@ -13554,11 +13605,11 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="H364" s="28">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I364" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J364" s="52" t="s">
@@ -13571,12 +13622,12 @@
         <v>44385</v>
       </c>
     </row>
-    <row r="365" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="21">
         <v>19055</v>
       </c>
       <c r="B365" s="21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>宮本　希</v>
       </c>
       <c r="C365" s="26">
@@ -13593,11 +13644,11 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="H365" s="28">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I365" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J365" s="52" t="s">
@@ -13610,12 +13661,12 @@
         <v>44390</v>
       </c>
     </row>
-    <row r="366" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="21">
         <v>19055</v>
       </c>
       <c r="B366" s="21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>宮本　希</v>
       </c>
       <c r="C366" s="26">
@@ -13632,11 +13683,11 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="H366" s="28">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I366" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J366" s="52" t="s">
@@ -13649,12 +13700,12 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="367" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="21">
         <v>19055</v>
       </c>
       <c r="B367" s="21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>宮本　希</v>
       </c>
       <c r="C367" s="26">
@@ -13671,11 +13722,11 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="H367" s="28">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I367" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J367" s="52" t="s">
@@ -13688,12 +13739,12 @@
         <v>44397</v>
       </c>
     </row>
-    <row r="368" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="21">
         <v>19055</v>
       </c>
       <c r="B368" s="21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>宮本　希</v>
       </c>
       <c r="C368" s="26">
@@ -13710,11 +13761,11 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="H368" s="28">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I368" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J368" s="52" t="s">
@@ -13727,12 +13778,12 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="369" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="21">
         <v>19055</v>
       </c>
       <c r="B369" s="21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>宮本　希</v>
       </c>
       <c r="C369" s="26">
@@ -13749,11 +13800,11 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="H369" s="28">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I369" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J369" s="52" t="s">
@@ -13766,12 +13817,12 @@
         <v>44322</v>
       </c>
     </row>
-    <row r="370" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="21">
         <v>19055</v>
       </c>
       <c r="B370" s="21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>宮本　希</v>
       </c>
       <c r="C370" s="26">
@@ -13788,11 +13839,11 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H370" s="28">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I370" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J370" s="52" t="s">
@@ -13805,12 +13856,12 @@
         <v>44481</v>
       </c>
     </row>
-    <row r="371" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="21">
         <v>19055</v>
       </c>
       <c r="B371" s="21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>宮本　希</v>
       </c>
       <c r="C371" s="26">
@@ -13827,7 +13878,7 @@
         <v>0.62083333333333335</v>
       </c>
       <c r="H371" s="28">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>6.25E-2</v>
       </c>
       <c r="I371" s="29">
@@ -13847,12 +13898,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="372" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="21">
         <v>19055</v>
       </c>
       <c r="B372" s="21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>宮本　希</v>
       </c>
       <c r="C372" s="26">
@@ -13869,7 +13920,7 @@
         <v>0.62083333333333335</v>
       </c>
       <c r="H372" s="28">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>6.25E-2</v>
       </c>
       <c r="I372" s="29">
@@ -13889,12 +13940,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="373" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="21">
         <v>19055</v>
       </c>
       <c r="B373" s="21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>宮本　希</v>
       </c>
       <c r="C373" s="26">
@@ -13911,7 +13962,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H373" s="28">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>6.25E-2</v>
       </c>
       <c r="I373" s="29">
@@ -13925,12 +13976,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="374" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="21">
         <v>19055</v>
       </c>
       <c r="B374" s="21" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>宮本　希</v>
       </c>
       <c r="C374" s="26">
@@ -13966,7 +14017,7 @@
         <v>21090</v>
       </c>
       <c r="B375" s="22" t="str">
-        <f t="shared" ref="B375:B379" si="52">VLOOKUP(A375,$A$3:$B$13,2,FALSE)</f>
+        <f t="shared" ref="B375:B379" si="41">VLOOKUP(A375,$A$3:$B$13,2,FALSE)</f>
         <v>中原　遥翔</v>
       </c>
       <c r="C375" s="50">
@@ -13980,12 +14031,12 @@
         <v>364</v>
       </c>
     </row>
-    <row r="376" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="22">
         <v>19055</v>
       </c>
       <c r="B376" s="22" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="41"/>
         <v>宮本　希</v>
       </c>
       <c r="C376" s="50">
@@ -14001,12 +14052,12 @@
         <v>367</v>
       </c>
     </row>
-    <row r="377" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="22">
         <v>19055</v>
       </c>
       <c r="B377" s="22" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="41"/>
         <v>宮本　希</v>
       </c>
       <c r="C377" s="50">
@@ -14022,12 +14073,12 @@
         <v>367</v>
       </c>
     </row>
-    <row r="378" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="22">
         <v>19055</v>
       </c>
       <c r="B378" s="22" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="41"/>
         <v>宮本　希</v>
       </c>
       <c r="C378" s="50">
@@ -14047,12 +14098,12 @@
         <v>370</v>
       </c>
     </row>
-    <row r="379" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="22">
         <v>19055</v>
       </c>
       <c r="B379" s="22" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="41"/>
         <v>宮本　希</v>
       </c>
       <c r="C379" s="50">
@@ -14072,16 +14123,225 @@
         <v>370</v>
       </c>
     </row>
+    <row r="380" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="22">
+        <v>21074</v>
+      </c>
+      <c r="B380" s="22" t="str">
+        <f t="shared" ref="B380:B389" si="42">VLOOKUP(A380,$A$3:$B$13,2,FALSE)</f>
+        <v>佐藤　大起</v>
+      </c>
+      <c r="C380" s="50">
+        <v>44915</v>
+      </c>
+      <c r="I380" s="22">
+        <v>2</v>
+      </c>
+      <c r="J380" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="K380" s="22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A381" s="22">
+        <v>21074</v>
+      </c>
+      <c r="B381" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>佐藤　大起</v>
+      </c>
+      <c r="C381" s="50">
+        <v>44915</v>
+      </c>
+      <c r="I381" s="22">
+        <v>2</v>
+      </c>
+      <c r="J381" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="K381" s="22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="22">
+        <v>21074</v>
+      </c>
+      <c r="B382" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>佐藤　大起</v>
+      </c>
+      <c r="C382" s="50">
+        <v>44917</v>
+      </c>
+      <c r="I382" s="22">
+        <v>2</v>
+      </c>
+      <c r="J382" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="K382" s="22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="22">
+        <v>21074</v>
+      </c>
+      <c r="B383" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>佐藤　大起</v>
+      </c>
+      <c r="C383" s="53">
+        <v>44917</v>
+      </c>
+      <c r="I383" s="22">
+        <v>2</v>
+      </c>
+      <c r="J383" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="K383" s="22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="22">
+        <v>21074</v>
+      </c>
+      <c r="B384" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>佐藤　大起</v>
+      </c>
+      <c r="C384" s="50">
+        <v>44918</v>
+      </c>
+      <c r="I384" s="22">
+        <v>2</v>
+      </c>
+      <c r="J384" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="K384" s="22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="22">
+        <v>21074</v>
+      </c>
+      <c r="B385" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>佐藤　大起</v>
+      </c>
+      <c r="C385" s="50">
+        <v>44918</v>
+      </c>
+      <c r="I385" s="22">
+        <v>2</v>
+      </c>
+      <c r="J385" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="K385" s="22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="22">
+        <v>21074</v>
+      </c>
+      <c r="B386" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>佐藤　大起</v>
+      </c>
+      <c r="C386" s="50">
+        <v>44859</v>
+      </c>
+      <c r="I386" s="22">
+        <v>2</v>
+      </c>
+      <c r="J386" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="K386" s="22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="22">
+        <v>21074</v>
+      </c>
+      <c r="B387" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>佐藤　大起</v>
+      </c>
+      <c r="C387" s="50">
+        <v>44859</v>
+      </c>
+      <c r="I387" s="22">
+        <v>2</v>
+      </c>
+      <c r="J387" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="K387" s="22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="22">
+        <v>21074</v>
+      </c>
+      <c r="B388" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>佐藤　大起</v>
+      </c>
+      <c r="C388" s="50">
+        <v>44855</v>
+      </c>
+      <c r="I388" s="22">
+        <v>2</v>
+      </c>
+      <c r="J388" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="K388" s="22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="22">
+        <v>21074</v>
+      </c>
+      <c r="B389" s="22" t="str">
+        <f t="shared" si="42"/>
+        <v>佐藤　大起</v>
+      </c>
+      <c r="C389" s="50">
+        <v>44855</v>
+      </c>
+      <c r="I389" s="22">
+        <v>2</v>
+      </c>
+      <c r="J389" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="K389" s="22" t="s">
+        <v>379</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A16:M375">
+  <autoFilter ref="A16:M379">
     <filterColumn colId="1">
       <filters>
-        <filter val="宮本　希"/>
+        <filter val="佐藤　大起"/>
       </filters>
     </filterColumn>
-    <sortState ref="A67:M374">
-      <sortCondition ref="J17:J375"/>
-      <sortCondition ref="C17:C375"/>
+    <sortState ref="A182:M288">
+      <sortCondition ref="C16:C379"/>
     </sortState>
   </autoFilter>
   <sortState ref="A67:M290">

--- a/補講実績.xlsx
+++ b/補講実績.xlsx
@@ -21,6 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">補講実績明細!$A$17:$M$405</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2198,8 +2199,8 @@
   </sheetPr>
   <dimension ref="A1:AB406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D301" sqref="D301"/>
+    <sheetView tabSelected="1" topLeftCell="A282" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K290" sqref="K290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2408,7 +2409,7 @@
         <v>19055</v>
       </c>
       <c r="B18" s="21" t="str">
-        <f>VLOOKUP(A18,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" ref="B18:B49" si="0">VLOOKUP(A18,$A$3:$B$14,2,FALSE)</f>
         <v>宮本　希</v>
       </c>
       <c r="C18" s="26">
@@ -2434,7 +2435,7 @@
         <v>19055</v>
       </c>
       <c r="B19" s="21" t="str">
-        <f>VLOOKUP(A19,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C19" s="26">
@@ -2460,7 +2461,7 @@
         <v>19055</v>
       </c>
       <c r="B20" s="21" t="str">
-        <f>VLOOKUP(A20,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C20" s="26">
@@ -2486,7 +2487,7 @@
         <v>19055</v>
       </c>
       <c r="B21" s="21" t="str">
-        <f>VLOOKUP(A21,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C21" s="26">
@@ -2512,7 +2513,7 @@
         <v>19055</v>
       </c>
       <c r="B22" s="21" t="str">
-        <f>VLOOKUP(A22,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C22" s="26">
@@ -2534,7 +2535,7 @@
         <v>19055</v>
       </c>
       <c r="B23" s="21" t="str">
-        <f>VLOOKUP(A23,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C23" s="26">
@@ -2556,7 +2557,7 @@
         <v>19055</v>
       </c>
       <c r="B24" s="21" t="str">
-        <f>VLOOKUP(A24,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C24" s="26">
@@ -2578,7 +2579,7 @@
         <v>19055</v>
       </c>
       <c r="B25" s="21" t="str">
-        <f>VLOOKUP(A25,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C25" s="26">
@@ -2600,7 +2601,7 @@
         <v>19055</v>
       </c>
       <c r="B26" s="21" t="str">
-        <f>VLOOKUP(A26,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C26" s="26">
@@ -2622,7 +2623,7 @@
         <v>19055</v>
       </c>
       <c r="B27" s="21" t="str">
-        <f>VLOOKUP(A27,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C27" s="26">
@@ -2644,7 +2645,7 @@
         <v>19055</v>
       </c>
       <c r="B28" s="21" t="str">
-        <f>VLOOKUP(A28,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C28" s="26">
@@ -2666,7 +2667,7 @@
         <v>19055</v>
       </c>
       <c r="B29" s="21" t="str">
-        <f>VLOOKUP(A29,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C29" s="26">
@@ -2688,7 +2689,7 @@
         <v>19055</v>
       </c>
       <c r="B30" s="21" t="str">
-        <f>VLOOKUP(A30,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C30" s="26">
@@ -2710,7 +2711,7 @@
         <v>19055</v>
       </c>
       <c r="B31" s="21" t="str">
-        <f>VLOOKUP(A31,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C31" s="26">
@@ -2732,7 +2733,7 @@
         <v>19055</v>
       </c>
       <c r="B32" s="21" t="str">
-        <f>VLOOKUP(A32,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C32" s="26">
@@ -2754,7 +2755,7 @@
         <v>19055</v>
       </c>
       <c r="B33" s="21" t="str">
-        <f>VLOOKUP(A33,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C33" s="26">
@@ -2776,7 +2777,7 @@
         <v>19055</v>
       </c>
       <c r="B34" s="21" t="str">
-        <f>VLOOKUP(A34,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C34" s="26">
@@ -2798,7 +2799,7 @@
         <v>19055</v>
       </c>
       <c r="B35" s="21" t="str">
-        <f>VLOOKUP(A35,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C35" s="26">
@@ -2820,7 +2821,7 @@
         <v>19055</v>
       </c>
       <c r="B36" s="21" t="str">
-        <f>VLOOKUP(A36,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C36" s="26">
@@ -2842,7 +2843,7 @@
         <v>19055</v>
       </c>
       <c r="B37" s="21" t="str">
-        <f>VLOOKUP(A37,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C37" s="26">
@@ -2864,7 +2865,7 @@
         <v>19055</v>
       </c>
       <c r="B38" s="21" t="str">
-        <f>VLOOKUP(A38,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C38" s="26">
@@ -2886,7 +2887,7 @@
         <v>19055</v>
       </c>
       <c r="B39" s="21" t="str">
-        <f>VLOOKUP(A39,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C39" s="26">
@@ -2903,11 +2904,11 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H39" s="28">
-        <f>G39-F39</f>
+        <f t="shared" ref="H39:H67" si="1">G39-F39</f>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I39" s="29">
-        <f>H39/(35/(60*24))</f>
+        <f t="shared" ref="I39:I47" si="2">H39/(35/(60*24))</f>
         <v>1.9999999999999998</v>
       </c>
       <c r="J39" s="21" t="s">
@@ -2922,7 +2923,7 @@
         <v>19055</v>
       </c>
       <c r="B40" s="21" t="str">
-        <f>VLOOKUP(A40,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C40" s="26">
@@ -2939,11 +2940,11 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="H40" s="28">
-        <f>G40-F40</f>
+        <f t="shared" si="1"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I40" s="29">
-        <f>H40/(35/(60*24))</f>
+        <f t="shared" si="2"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J40" s="21" t="s">
@@ -2958,7 +2959,7 @@
         <v>19055</v>
       </c>
       <c r="B41" s="21" t="str">
-        <f>VLOOKUP(A41,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C41" s="26">
@@ -2975,11 +2976,11 @@
         <v>0.4375</v>
       </c>
       <c r="H41" s="28">
-        <f>G41-F41</f>
+        <f t="shared" si="1"/>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="I41" s="29">
-        <f>H41/(35/(60*24))</f>
+        <f t="shared" si="2"/>
         <v>1.1428571428571432</v>
       </c>
       <c r="J41" s="21" t="s">
@@ -2994,7 +2995,7 @@
         <v>19055</v>
       </c>
       <c r="B42" s="21" t="str">
-        <f>VLOOKUP(A42,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C42" s="26">
@@ -3011,11 +3012,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H42" s="28">
-        <f>G42-F42</f>
+        <f t="shared" si="1"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I42" s="29">
-        <f>H42/(35/(60*24))</f>
+        <f t="shared" si="2"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J42" s="21" t="s">
@@ -3030,7 +3031,7 @@
         <v>19055</v>
       </c>
       <c r="B43" s="21" t="str">
-        <f>VLOOKUP(A43,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C43" s="26">
@@ -3047,11 +3048,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H43" s="28">
-        <f>G43-F43</f>
+        <f t="shared" si="1"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I43" s="29">
-        <f>H43/(35/(60*24))</f>
+        <f t="shared" si="2"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J43" s="21" t="s">
@@ -3069,7 +3070,7 @@
         <v>19055</v>
       </c>
       <c r="B44" s="21" t="str">
-        <f>VLOOKUP(A44,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C44" s="26">
@@ -3086,11 +3087,11 @@
         <v>0.80555555555555558</v>
       </c>
       <c r="H44" s="28">
-        <f>G44-F44</f>
+        <f t="shared" si="1"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I44" s="29">
-        <f>H44/(35/(60*24))</f>
+        <f t="shared" si="2"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J44" s="21" t="s">
@@ -3105,7 +3106,7 @@
         <v>19055</v>
       </c>
       <c r="B45" s="21" t="str">
-        <f>VLOOKUP(A45,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C45" s="26">
@@ -3122,11 +3123,11 @@
         <v>0.61111111111111116</v>
       </c>
       <c r="H45" s="28">
-        <f>G45-F45</f>
+        <f t="shared" si="1"/>
         <v>2.430555555555558E-2</v>
       </c>
       <c r="I45" s="29">
-        <f>H45/(35/(60*24))</f>
+        <f t="shared" si="2"/>
         <v>1.0000000000000009</v>
       </c>
       <c r="J45" s="21" t="s">
@@ -3141,7 +3142,7 @@
         <v>19055</v>
       </c>
       <c r="B46" s="21" t="str">
-        <f>VLOOKUP(A46,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C46" s="26">
@@ -3158,11 +3159,11 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="H46" s="28">
-        <f>G46-F46</f>
+        <f t="shared" si="1"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I46" s="29">
-        <f>H46/(35/(60*24))</f>
+        <f t="shared" si="2"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J46" s="21" t="s">
@@ -3177,7 +3178,7 @@
         <v>19055</v>
       </c>
       <c r="B47" s="21" t="str">
-        <f>VLOOKUP(A47,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C47" s="26">
@@ -3194,11 +3195,11 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="H47" s="28">
-        <f>G47-F47</f>
+        <f t="shared" si="1"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I47" s="29">
-        <f>H47/(35/(60*24))</f>
+        <f t="shared" si="2"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J47" s="21" t="s">
@@ -3213,7 +3214,7 @@
         <v>19055</v>
       </c>
       <c r="B48" s="21" t="str">
-        <f>VLOOKUP(A48,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C48" s="26">
@@ -3224,7 +3225,7 @@
       </c>
       <c r="E48" s="26"/>
       <c r="H48" s="28">
-        <f>G48-F48</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I48" s="29">
@@ -3245,7 +3246,7 @@
         <v>19055</v>
       </c>
       <c r="B49" s="21" t="str">
-        <f>VLOOKUP(A49,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>宮本　希</v>
       </c>
       <c r="C49" s="26">
@@ -3262,11 +3263,11 @@
         <v>0.60069444444444442</v>
       </c>
       <c r="H49" s="28">
-        <f>G49-F49</f>
+        <f t="shared" si="1"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I49" s="29">
-        <f>H49/(35/(60*24))</f>
+        <f t="shared" ref="I49:I67" si="3">H49/(35/(60*24))</f>
         <v>1.9999999999999973</v>
       </c>
       <c r="J49" s="21" t="s">
@@ -3284,7 +3285,7 @@
         <v>19055</v>
       </c>
       <c r="B50" s="21" t="str">
-        <f>VLOOKUP(A50,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" ref="B50:B81" si="4">VLOOKUP(A50,$A$3:$B$14,2,FALSE)</f>
         <v>宮本　希</v>
       </c>
       <c r="C50" s="26">
@@ -3301,11 +3302,11 @@
         <v>0.65625</v>
       </c>
       <c r="H50" s="28">
-        <f>G50-F50</f>
+        <f t="shared" si="1"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I50" s="29">
-        <f>H50/(35/(60*24))</f>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J50" s="21" t="s">
@@ -3326,7 +3327,7 @@
         <v>19055</v>
       </c>
       <c r="B51" s="21" t="str">
-        <f>VLOOKUP(A51,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C51" s="26">
@@ -3344,11 +3345,11 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="H51" s="28">
-        <f>G51-F51</f>
+        <f t="shared" si="1"/>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="I51" s="29">
-        <f>H51/(35/(60*24))</f>
+        <f t="shared" si="3"/>
         <v>0.42857142857142705</v>
       </c>
       <c r="J51" s="21" t="s">
@@ -3369,7 +3370,7 @@
         <v>19055</v>
       </c>
       <c r="B52" s="21" t="str">
-        <f>VLOOKUP(A52,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C52" s="26">
@@ -3386,11 +3387,11 @@
         <v>0.5</v>
       </c>
       <c r="H52" s="28">
-        <f>G52-F52</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333315E-2</v>
       </c>
       <c r="I52" s="29">
-        <f>H52/(35/(60*24))</f>
+        <f t="shared" si="3"/>
         <v>3.4285714285714279</v>
       </c>
       <c r="J52" s="21" t="s">
@@ -3408,7 +3409,7 @@
         <v>19055</v>
       </c>
       <c r="B53" s="21" t="str">
-        <f>VLOOKUP(A53,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C53" s="26">
@@ -3425,11 +3426,11 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="H53" s="28">
-        <f>G53-F53</f>
+        <f t="shared" si="1"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I53" s="29">
-        <f>H53/(35/(60*24))</f>
+        <f t="shared" si="3"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J53" s="21" t="s">
@@ -3447,7 +3448,7 @@
         <v>19055</v>
       </c>
       <c r="B54" s="21" t="str">
-        <f>VLOOKUP(A54,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C54" s="26">
@@ -3464,11 +3465,11 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="H54" s="28">
-        <f>G54-F54</f>
+        <f t="shared" si="1"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I54" s="29">
-        <f>H54/(35/(60*24))</f>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J54" s="21" t="s">
@@ -3486,7 +3487,7 @@
         <v>19055</v>
       </c>
       <c r="B55" s="21" t="str">
-        <f>VLOOKUP(A55,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C55" s="26">
@@ -3503,11 +3504,11 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="H55" s="28">
-        <f>G55-F55</f>
+        <f t="shared" si="1"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I55" s="29">
-        <f>H55/(35/(60*24))</f>
+        <f t="shared" si="3"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J55" s="21" t="s">
@@ -3525,7 +3526,7 @@
         <v>19055</v>
       </c>
       <c r="B56" s="21" t="str">
-        <f>VLOOKUP(A56,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C56" s="26">
@@ -3542,11 +3543,11 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="H56" s="28">
-        <f>G56-F56</f>
+        <f t="shared" si="1"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I56" s="29">
-        <f>H56/(35/(60*24))</f>
+        <f t="shared" si="3"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J56" s="52" t="s">
@@ -3564,7 +3565,7 @@
         <v>19055</v>
       </c>
       <c r="B57" s="21" t="str">
-        <f>VLOOKUP(A57,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C57" s="26">
@@ -3581,11 +3582,11 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="H57" s="28">
-        <f>G57-F57</f>
+        <f t="shared" si="1"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I57" s="29">
-        <f>H57/(35/(60*24))</f>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J57" s="52" t="s">
@@ -3603,7 +3604,7 @@
         <v>19055</v>
       </c>
       <c r="B58" s="21" t="str">
-        <f>VLOOKUP(A58,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C58" s="26">
@@ -3620,11 +3621,11 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="H58" s="28">
-        <f>G58-F58</f>
+        <f t="shared" si="1"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I58" s="29">
-        <f>H58/(35/(60*24))</f>
+        <f t="shared" si="3"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J58" s="52" t="s">
@@ -3642,7 +3643,7 @@
         <v>19055</v>
       </c>
       <c r="B59" s="21" t="str">
-        <f>VLOOKUP(A59,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C59" s="26">
@@ -3659,11 +3660,11 @@
         <v>0.6875</v>
       </c>
       <c r="H59" s="28">
-        <f>G59-F59</f>
+        <f t="shared" si="1"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I59" s="29">
-        <f>H59/(35/(60*24))</f>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J59" s="52" t="s">
@@ -3681,7 +3682,7 @@
         <v>19055</v>
       </c>
       <c r="B60" s="21" t="str">
-        <f>VLOOKUP(A60,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C60" s="26">
@@ -3698,11 +3699,11 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="H60" s="28">
-        <f>G60-F60</f>
+        <f t="shared" si="1"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I60" s="29">
-        <f>H60/(35/(60*24))</f>
+        <f t="shared" si="3"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J60" s="52" t="s">
@@ -3720,7 +3721,7 @@
         <v>19055</v>
       </c>
       <c r="B61" s="21" t="str">
-        <f>VLOOKUP(A61,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C61" s="26">
@@ -3737,11 +3738,11 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="H61" s="28">
-        <f>G61-F61</f>
+        <f t="shared" si="1"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I61" s="29">
-        <f>H61/(35/(60*24))</f>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J61" s="52" t="s">
@@ -3759,7 +3760,7 @@
         <v>19055</v>
       </c>
       <c r="B62" s="21" t="str">
-        <f>VLOOKUP(A62,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C62" s="26">
@@ -3776,11 +3777,11 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="H62" s="28">
-        <f>G62-F62</f>
+        <f t="shared" si="1"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I62" s="29">
-        <f>H62/(35/(60*24))</f>
+        <f t="shared" si="3"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J62" s="52" t="s">
@@ -3798,7 +3799,7 @@
         <v>19055</v>
       </c>
       <c r="B63" s="21" t="str">
-        <f>VLOOKUP(A63,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C63" s="26">
@@ -3815,11 +3816,11 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="H63" s="28">
-        <f>G63-F63</f>
+        <f t="shared" si="1"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I63" s="29">
-        <f>H63/(35/(60*24))</f>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J63" s="52" t="s">
@@ -3837,7 +3838,7 @@
         <v>19055</v>
       </c>
       <c r="B64" s="21" t="str">
-        <f>VLOOKUP(A64,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C64" s="26">
@@ -3854,11 +3855,11 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="H64" s="28">
-        <f>G64-F64</f>
+        <f t="shared" si="1"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I64" s="29">
-        <f>H64/(35/(60*24))</f>
+        <f t="shared" si="3"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J64" s="52" t="s">
@@ -3876,7 +3877,7 @@
         <v>19055</v>
       </c>
       <c r="B65" s="21" t="str">
-        <f>VLOOKUP(A65,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C65" s="26">
@@ -3893,11 +3894,11 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="H65" s="28">
-        <f>G65-F65</f>
+        <f t="shared" si="1"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I65" s="29">
-        <f>H65/(35/(60*24))</f>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J65" s="52" t="s">
@@ -3915,7 +3916,7 @@
         <v>19055</v>
       </c>
       <c r="B66" s="21" t="str">
-        <f>VLOOKUP(A66,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C66" s="26">
@@ -3932,11 +3933,11 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="H66" s="28">
-        <f>G66-F66</f>
+        <f t="shared" si="1"/>
         <v>2.430555555555558E-2</v>
       </c>
       <c r="I66" s="29">
-        <f>H66/(35/(60*24))</f>
+        <f t="shared" si="3"/>
         <v>1.0000000000000009</v>
       </c>
       <c r="J66" s="21" t="s">
@@ -3954,7 +3955,7 @@
         <v>19055</v>
       </c>
       <c r="B67" s="21" t="str">
-        <f>VLOOKUP(A67,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C67" s="26">
@@ -3971,11 +3972,11 @@
         <v>0.625</v>
       </c>
       <c r="H67" s="28">
-        <f>G67-F67</f>
+        <f t="shared" si="1"/>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="I67" s="29">
-        <f>H67/(35/(60*24))</f>
+        <f t="shared" si="3"/>
         <v>2.1428571428571441</v>
       </c>
       <c r="J67" s="21" t="s">
@@ -3990,7 +3991,7 @@
         <v>19055</v>
       </c>
       <c r="B68" s="21" t="str">
-        <f>VLOOKUP(A68,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C68" s="26">
@@ -4012,7 +4013,7 @@
         <v>19055</v>
       </c>
       <c r="B69" s="21" t="str">
-        <f>VLOOKUP(A69,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C69" s="26">
@@ -4034,7 +4035,7 @@
         <v>19055</v>
       </c>
       <c r="B70" s="21" t="str">
-        <f>VLOOKUP(A70,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C70" s="26">
@@ -4073,7 +4074,7 @@
         <v>19055</v>
       </c>
       <c r="B71" s="21" t="str">
-        <f>VLOOKUP(A71,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C71" s="26">
@@ -4112,7 +4113,7 @@
         <v>19055</v>
       </c>
       <c r="B72" s="21" t="str">
-        <f>VLOOKUP(A72,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C72" s="26">
@@ -4134,7 +4135,7 @@
         <v>19055</v>
       </c>
       <c r="B73" s="21" t="str">
-        <f>VLOOKUP(A73,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C73" s="26">
@@ -4170,7 +4171,7 @@
         <v>19055</v>
       </c>
       <c r="B74" s="21" t="str">
-        <f>VLOOKUP(A74,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C74" s="26">
@@ -4192,7 +4193,7 @@
         <v>19055</v>
       </c>
       <c r="B75" s="21" t="str">
-        <f>VLOOKUP(A75,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C75" s="26">
@@ -4209,7 +4210,7 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H75" s="28">
-        <f>G75-F75</f>
+        <f t="shared" ref="H75:H105" si="5">G75-F75</f>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I75" s="29">
@@ -4228,7 +4229,7 @@
         <v>19055</v>
       </c>
       <c r="B76" s="21" t="str">
-        <f>VLOOKUP(A76,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C76" s="26">
@@ -4245,7 +4246,7 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="H76" s="28">
-        <f>G76-F76</f>
+        <f t="shared" si="5"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I76" s="29">
@@ -4267,7 +4268,7 @@
         <v>19055</v>
       </c>
       <c r="B77" s="21" t="str">
-        <f>VLOOKUP(A77,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C77" s="26">
@@ -4284,7 +4285,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H77" s="28">
-        <f>G77-F77</f>
+        <f t="shared" si="5"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I77" s="29">
@@ -4306,7 +4307,7 @@
         <v>19055</v>
       </c>
       <c r="B78" s="22" t="str">
-        <f>VLOOKUP(A78,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C78" s="50">
@@ -4323,11 +4324,11 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="H78" s="38">
-        <f>G78-F78</f>
+        <f t="shared" si="5"/>
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="I78" s="22">
-        <f>H78/(45/(60*24))</f>
+        <f t="shared" ref="I78:I105" si="6">H78/(45/(60*24))</f>
         <v>1.9999999999999982</v>
       </c>
       <c r="J78" s="22" t="s">
@@ -4342,7 +4343,7 @@
         <v>19055</v>
       </c>
       <c r="B79" s="22" t="str">
-        <f>VLOOKUP(A79,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C79" s="50">
@@ -4359,11 +4360,11 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="H79" s="38">
-        <f>G79-F79</f>
+        <f t="shared" si="5"/>
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="I79" s="22">
-        <f>H79/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="J79" s="22" t="s">
@@ -4378,7 +4379,7 @@
         <v>19055</v>
       </c>
       <c r="B80" s="22" t="str">
-        <f>VLOOKUP(A80,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C80" s="50">
@@ -4395,11 +4396,11 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="H80" s="38">
-        <f>G80-F80</f>
+        <f t="shared" si="5"/>
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="I80" s="22">
-        <f>H80/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="J80" s="22" t="s">
@@ -4414,7 +4415,7 @@
         <v>19055</v>
       </c>
       <c r="B81" s="22" t="str">
-        <f>VLOOKUP(A81,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>宮本　希</v>
       </c>
       <c r="C81" s="26">
@@ -4431,11 +4432,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H81" s="38">
-        <f>G81-F81</f>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="I81" s="22">
-        <f>H81/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J81" s="22" t="s">
@@ -4450,7 +4451,7 @@
         <v>19055</v>
       </c>
       <c r="B82" s="22" t="str">
-        <f>VLOOKUP(A82,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" ref="B82:B113" si="7">VLOOKUP(A82,$A$3:$B$14,2,FALSE)</f>
         <v>宮本　希</v>
       </c>
       <c r="C82" s="26">
@@ -4467,11 +4468,11 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="H82" s="38">
-        <f>G82-F82</f>
+        <f t="shared" si="5"/>
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="I82" s="22">
-        <f>H82/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="J82" s="22" t="s">
@@ -4486,7 +4487,7 @@
         <v>19055</v>
       </c>
       <c r="B83" s="22" t="str">
-        <f>VLOOKUP(A83,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C83" s="26">
@@ -4503,11 +4504,11 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="H83" s="38">
-        <f>G83-F83</f>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="I83" s="22">
-        <f>H83/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J83" s="22" t="s">
@@ -4522,7 +4523,7 @@
         <v>19055</v>
       </c>
       <c r="B84" s="21" t="str">
-        <f>VLOOKUP(A84,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C84" s="26">
@@ -4539,11 +4540,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H84" s="28">
-        <f>G84-F84</f>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="I84" s="29">
-        <f>H84/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J84" s="21" t="s">
@@ -4561,7 +4562,7 @@
         <v>19055</v>
       </c>
       <c r="B85" s="21" t="str">
-        <f>VLOOKUP(A85,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C85" s="26">
@@ -4578,11 +4579,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H85" s="28">
-        <f>G85-F85</f>
+        <f t="shared" si="5"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I85" s="29">
-        <f>H85/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J85" s="21" t="s">
@@ -4600,7 +4601,7 @@
         <v>19055</v>
       </c>
       <c r="B86" s="21" t="str">
-        <f>VLOOKUP(A86,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C86" s="26">
@@ -4617,11 +4618,11 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="H86" s="28">
-        <f>G86-F86</f>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="I86" s="29">
-        <f>H86/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J86" s="21" t="s">
@@ -4639,7 +4640,7 @@
         <v>19055</v>
       </c>
       <c r="B87" s="21" t="str">
-        <f>VLOOKUP(A87,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C87" s="26">
@@ -4656,11 +4657,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H87" s="28">
-        <f>G87-F87</f>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="I87" s="29">
-        <f>H87/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J87" s="21" t="s">
@@ -4678,7 +4679,7 @@
         <v>19055</v>
       </c>
       <c r="B88" s="21" t="str">
-        <f>VLOOKUP(A88,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C88" s="26">
@@ -4695,11 +4696,11 @@
         <v>0.62083333333333335</v>
       </c>
       <c r="H88" s="28">
-        <f>G88-F88</f>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="I88" s="29">
-        <f>H88/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J88" s="21" t="s">
@@ -4720,7 +4721,7 @@
         <v>19055</v>
       </c>
       <c r="B89" s="21" t="str">
-        <f>VLOOKUP(A89,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C89" s="26">
@@ -4737,11 +4738,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H89" s="28">
-        <f>G89-F89</f>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="I89" s="29">
-        <f>H89/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J89" s="21" t="s">
@@ -4756,7 +4757,7 @@
         <v>19055</v>
       </c>
       <c r="B90" s="21" t="str">
-        <f>VLOOKUP(A90,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C90" s="26">
@@ -4773,11 +4774,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H90" s="28">
-        <f>G90-F90</f>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="I90" s="29">
-        <f>H90/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J90" s="21" t="s">
@@ -4792,7 +4793,7 @@
         <v>19055</v>
       </c>
       <c r="B91" s="21" t="str">
-        <f>VLOOKUP(A91,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C91" s="26">
@@ -4809,11 +4810,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H91" s="28">
-        <f>G91-F91</f>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="I91" s="29">
-        <f>H91/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J91" s="21" t="s">
@@ -4828,7 +4829,7 @@
         <v>19055</v>
       </c>
       <c r="B92" s="21" t="str">
-        <f>VLOOKUP(A92,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C92" s="26">
@@ -4845,11 +4846,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H92" s="28">
-        <f>G92-F92</f>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="I92" s="29">
-        <f>H92/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J92" s="21" t="s">
@@ -4861,7 +4862,7 @@
         <v>19055</v>
       </c>
       <c r="B93" s="21" t="str">
-        <f>VLOOKUP(A93,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C93" s="26">
@@ -4878,11 +4879,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H93" s="28">
-        <f>G93-F93</f>
+        <f t="shared" si="5"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I93" s="29">
-        <f>H93/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J93" s="21" t="s">
@@ -4897,7 +4898,7 @@
         <v>19055</v>
       </c>
       <c r="B94" s="21" t="str">
-        <f>VLOOKUP(A94,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C94" s="26">
@@ -4914,11 +4915,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H94" s="28">
-        <f>G94-F94</f>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="I94" s="29">
-        <f>H94/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J94" s="21" t="s">
@@ -4933,7 +4934,7 @@
         <v>19055</v>
       </c>
       <c r="B95" s="21" t="str">
-        <f>VLOOKUP(A95,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C95" s="26">
@@ -4950,11 +4951,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H95" s="28">
-        <f>G95-F95</f>
+        <f t="shared" si="5"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I95" s="29">
-        <f>H95/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J95" s="21" t="s">
@@ -4969,7 +4970,7 @@
         <v>19055</v>
       </c>
       <c r="B96" s="21" t="str">
-        <f>VLOOKUP(A96,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C96" s="26">
@@ -4986,11 +4987,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H96" s="28">
-        <f>G96-F96</f>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="I96" s="29">
-        <f>H96/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J96" s="21" t="s">
@@ -5002,7 +5003,7 @@
         <v>19055</v>
       </c>
       <c r="B97" s="21" t="str">
-        <f>VLOOKUP(A97,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C97" s="26">
@@ -5019,11 +5020,11 @@
         <v>0.58680555555555558</v>
       </c>
       <c r="H97" s="28">
-        <f>G97-F97</f>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="I97" s="29">
-        <f>H97/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J97" s="21" t="s">
@@ -5038,7 +5039,7 @@
         <v>19055</v>
       </c>
       <c r="B98" s="21" t="str">
-        <f>VLOOKUP(A98,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C98" s="26">
@@ -5055,11 +5056,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H98" s="28">
-        <f>G98-F98</f>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="I98" s="29">
-        <f>H98/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J98" s="21" t="s">
@@ -5075,7 +5076,7 @@
         <v>19055</v>
       </c>
       <c r="B99" s="21" t="str">
-        <f>VLOOKUP(A99,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C99" s="26">
@@ -5092,11 +5093,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H99" s="28">
-        <f>G99-F99</f>
+        <f t="shared" si="5"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I99" s="29">
-        <f>H99/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J99" s="21" t="s">
@@ -5112,7 +5113,7 @@
         <v>19055</v>
       </c>
       <c r="B100" s="21" t="str">
-        <f>VLOOKUP(A100,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C100" s="26">
@@ -5129,11 +5130,11 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="H100" s="28">
-        <f>G100-F100</f>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="I100" s="29">
-        <f>H100/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J100" s="21" t="s">
@@ -5149,7 +5150,7 @@
         <v>19055</v>
       </c>
       <c r="B101" s="21" t="str">
-        <f>VLOOKUP(A101,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C101" s="26">
@@ -5166,11 +5167,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H101" s="28">
-        <f>G101-F101</f>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="I101" s="29">
-        <f>H101/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J101" s="21" t="s">
@@ -5182,7 +5183,7 @@
         <v>19055</v>
       </c>
       <c r="B102" s="21" t="str">
-        <f>VLOOKUP(A102,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C102" s="26">
@@ -5199,11 +5200,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H102" s="28">
-        <f>G102-F102</f>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="I102" s="29">
-        <f>H102/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J102" s="21" t="s">
@@ -5218,7 +5219,7 @@
         <v>19055</v>
       </c>
       <c r="B103" s="21" t="str">
-        <f>VLOOKUP(A103,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C103" s="26">
@@ -5235,11 +5236,11 @@
         <v>0.62083333333333335</v>
       </c>
       <c r="H103" s="28">
-        <f>G103-F103</f>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="I103" s="29">
-        <f>H103/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J103" s="21" t="s">
@@ -5260,7 +5261,7 @@
         <v>19055</v>
       </c>
       <c r="B104" s="21" t="str">
-        <f>VLOOKUP(A104,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C104" s="26">
@@ -5277,11 +5278,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H104" s="28">
-        <f>G104-F104</f>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="I104" s="29">
-        <f>H104/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J104" s="21" t="s">
@@ -5299,7 +5300,7 @@
         <v>19055</v>
       </c>
       <c r="B105" s="21" t="str">
-        <f>VLOOKUP(A105,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C105" s="26">
@@ -5316,11 +5317,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H105" s="28">
-        <f>G105-F105</f>
+        <f t="shared" si="5"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I105" s="29">
-        <f>H105/(45/(60*24))</f>
+        <f t="shared" si="6"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J105" s="21" t="s">
@@ -5338,7 +5339,7 @@
         <v>19055</v>
       </c>
       <c r="B106" s="21" t="str">
-        <f>VLOOKUP(A106,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C106" s="26">
@@ -5366,7 +5367,7 @@
         <v>19055</v>
       </c>
       <c r="B107" s="21" t="str">
-        <f>VLOOKUP(A107,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C107" s="26">
@@ -5394,7 +5395,7 @@
         <v>19055</v>
       </c>
       <c r="B108" s="21" t="str">
-        <f>VLOOKUP(A108,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C108" s="26">
@@ -5422,7 +5423,7 @@
         <v>19055</v>
       </c>
       <c r="B109" s="21" t="str">
-        <f>VLOOKUP(A109,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C109" s="26">
@@ -5450,7 +5451,7 @@
         <v>19055</v>
       </c>
       <c r="B110" s="21" t="str">
-        <f>VLOOKUP(A110,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C110" s="26">
@@ -5478,7 +5479,7 @@
         <v>19055</v>
       </c>
       <c r="B111" s="21" t="str">
-        <f>VLOOKUP(A111,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C111" s="26">
@@ -5506,7 +5507,7 @@
         <v>19055</v>
       </c>
       <c r="B112" s="21" t="str">
-        <f>VLOOKUP(A112,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C112" s="26">
@@ -5534,7 +5535,7 @@
         <v>19055</v>
       </c>
       <c r="B113" s="21" t="str">
-        <f>VLOOKUP(A113,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>宮本　希</v>
       </c>
       <c r="C113" s="26">
@@ -5562,7 +5563,7 @@
         <v>19055</v>
       </c>
       <c r="B114" s="21" t="str">
-        <f>VLOOKUP(A114,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" ref="B114:B145" si="8">VLOOKUP(A114,$A$3:$B$14,2,FALSE)</f>
         <v>宮本　希</v>
       </c>
       <c r="C114" s="26">
@@ -5579,7 +5580,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H114" s="28">
-        <f>G114-F114</f>
+        <f t="shared" ref="H114:H138" si="9">G114-F114</f>
         <v>6.25E-2</v>
       </c>
       <c r="I114" s="29">
@@ -5600,7 +5601,7 @@
         <v>19055</v>
       </c>
       <c r="B115" s="21" t="str">
-        <f>VLOOKUP(A115,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C115" s="26">
@@ -5617,7 +5618,7 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H115" s="28">
-        <f>G115-F115</f>
+        <f t="shared" si="9"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I115" s="29">
@@ -5638,7 +5639,7 @@
         <v>19055</v>
       </c>
       <c r="B116" s="21" t="str">
-        <f>VLOOKUP(A116,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C116" s="26">
@@ -5655,7 +5656,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="H116" s="28">
-        <f>G116-F116</f>
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
       <c r="I116" s="29">
@@ -5676,7 +5677,7 @@
         <v>19055</v>
       </c>
       <c r="B117" s="21" t="str">
-        <f>VLOOKUP(A117,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C117" s="26">
@@ -5693,7 +5694,7 @@
         <v>0.68402777777777779</v>
       </c>
       <c r="H117" s="28">
-        <f>G117-F117</f>
+        <f t="shared" si="9"/>
         <v>5.555555555555558E-2</v>
       </c>
       <c r="I117" s="29">
@@ -5714,7 +5715,7 @@
         <v>19055</v>
       </c>
       <c r="B118" s="21" t="str">
-        <f>VLOOKUP(A118,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C118" s="26">
@@ -5731,11 +5732,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H118" s="28">
-        <f>G118-F118</f>
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
       <c r="I118" s="29">
-        <f>H118/(45/(60*24))</f>
+        <f t="shared" ref="I118:I135" si="10">H118/(45/(60*24))</f>
         <v>2</v>
       </c>
       <c r="J118" s="21" t="s">
@@ -5753,7 +5754,7 @@
         <v>19055</v>
       </c>
       <c r="B119" s="21" t="str">
-        <f>VLOOKUP(A119,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C119" s="26">
@@ -5770,11 +5771,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H119" s="28">
-        <f>G119-F119</f>
+        <f t="shared" si="9"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I119" s="29">
-        <f>H119/(45/(60*24))</f>
+        <f t="shared" si="10"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J119" s="21" t="s">
@@ -5795,7 +5796,7 @@
         <v>19055</v>
       </c>
       <c r="B120" s="22" t="str">
-        <f>VLOOKUP(A120,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C120" s="50">
@@ -5812,11 +5813,11 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="H120" s="38">
-        <f>G120-F120</f>
+        <f t="shared" si="9"/>
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="I120" s="22">
-        <f>H120/(45/(60*24))</f>
+        <f t="shared" si="10"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="J120" s="22" t="s">
@@ -5831,7 +5832,7 @@
         <v>19055</v>
       </c>
       <c r="B121" s="22" t="str">
-        <f>VLOOKUP(A121,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C121" s="50">
@@ -5848,11 +5849,11 @@
         <v>0.58680555555555558</v>
       </c>
       <c r="H121" s="38">
-        <f>G121-F121</f>
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
       <c r="I121" s="22">
-        <f>H121/(45/(60*24))</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J121" s="22" t="s">
@@ -5867,7 +5868,7 @@
         <v>19055</v>
       </c>
       <c r="B122" s="22" t="str">
-        <f>VLOOKUP(A122,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C122" s="53">
@@ -5884,11 +5885,11 @@
         <v>0.65625</v>
       </c>
       <c r="H122" s="38">
-        <f>G122-F122</f>
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
       <c r="I122" s="22">
-        <f>H122/(45/(60*24))</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J122" s="22" t="s">
@@ -5903,7 +5904,7 @@
         <v>19055</v>
       </c>
       <c r="B123" s="21" t="str">
-        <f>VLOOKUP(A123,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C123" s="26">
@@ -5920,11 +5921,11 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="H123" s="28">
-        <f>G123-F123</f>
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
       <c r="I123" s="29">
-        <f>H123/(45/(60*24))</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J123" s="21" t="s">
@@ -5939,7 +5940,7 @@
         <v>19055</v>
       </c>
       <c r="B124" s="21" t="str">
-        <f>VLOOKUP(A124,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C124" s="26">
@@ -5956,11 +5957,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H124" s="28">
-        <f>G124-F124</f>
+        <f t="shared" si="9"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I124" s="29">
-        <f>H124/(45/(60*24))</f>
+        <f t="shared" si="10"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J124" s="21" t="s">
@@ -5975,7 +5976,7 @@
         <v>19055</v>
       </c>
       <c r="B125" s="21" t="str">
-        <f>VLOOKUP(A125,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C125" s="26">
@@ -5992,11 +5993,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H125" s="28">
-        <f>G125-F125</f>
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
       <c r="I125" s="29">
-        <f>H125/(45/(60*24))</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J125" s="21" t="s">
@@ -6011,7 +6012,7 @@
         <v>19055</v>
       </c>
       <c r="B126" s="21" t="str">
-        <f>VLOOKUP(A126,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C126" s="26">
@@ -6028,11 +6029,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H126" s="28">
-        <f>G126-F126</f>
+        <f t="shared" si="9"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I126" s="29">
-        <f>H126/(45/(60*24))</f>
+        <f t="shared" si="10"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J126" s="21" t="s">
@@ -6047,7 +6048,7 @@
         <v>19055</v>
       </c>
       <c r="B127" s="21" t="str">
-        <f>VLOOKUP(A127,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C127" s="26">
@@ -6064,11 +6065,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H127" s="28">
-        <f>G127-F127</f>
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
       <c r="I127" s="29">
-        <f>H127/(45/(60*24))</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J127" s="21" t="s">
@@ -6083,7 +6084,7 @@
         <v>19055</v>
       </c>
       <c r="B128" s="21" t="str">
-        <f>VLOOKUP(A128,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C128" s="37">
@@ -6100,11 +6101,11 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="H128" s="28">
-        <f>G128-F128</f>
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
       <c r="I128" s="29">
-        <f>H128/(45/(60*24))</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J128" s="22" t="s">
@@ -6116,7 +6117,7 @@
         <v>19055</v>
       </c>
       <c r="B129" s="21" t="str">
-        <f>VLOOKUP(A129,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C129" s="37">
@@ -6133,11 +6134,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H129" s="28">
-        <f>G129-F129</f>
+        <f t="shared" si="9"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I129" s="29">
-        <f>H129/(45/(60*24))</f>
+        <f t="shared" si="10"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J129" s="21" t="s">
@@ -6149,7 +6150,7 @@
         <v>19055</v>
       </c>
       <c r="B130" s="21" t="str">
-        <f>VLOOKUP(A130,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C130" s="37">
@@ -6166,11 +6167,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H130" s="28">
-        <f>G130-F130</f>
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
       <c r="I130" s="29">
-        <f>H130/(45/(60*24))</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J130" s="22" t="s">
@@ -6182,7 +6183,7 @@
         <v>19055</v>
       </c>
       <c r="B131" s="22" t="str">
-        <f>VLOOKUP(A131,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C131" s="26">
@@ -6199,11 +6200,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H131" s="38">
-        <f>G131-F131</f>
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
       <c r="I131" s="22">
-        <f>H131/(45/(60*24))</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J131" s="22" t="s">
@@ -6215,7 +6216,7 @@
         <v>19055</v>
       </c>
       <c r="B132" s="22" t="str">
-        <f>VLOOKUP(A132,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C132" s="26">
@@ -6232,11 +6233,11 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="H132" s="38">
-        <f>G132-F132</f>
+        <f t="shared" si="9"/>
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="I132" s="22">
-        <f>H132/(45/(60*24))</f>
+        <f t="shared" si="10"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="J132" s="22" t="s">
@@ -6251,7 +6252,7 @@
         <v>19055</v>
       </c>
       <c r="B133" s="21" t="str">
-        <f>VLOOKUP(A133,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C133" s="26">
@@ -6268,11 +6269,11 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="H133" s="28">
-        <f>G133-F133</f>
+        <f t="shared" si="9"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I133" s="29">
-        <f>H133/(45/(60*24))</f>
+        <f t="shared" si="10"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J133" s="22" t="s">
@@ -6287,7 +6288,7 @@
         <v>19055</v>
       </c>
       <c r="B134" s="22" t="str">
-        <f>VLOOKUP(A134,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C134" s="26">
@@ -6304,11 +6305,11 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="H134" s="38">
-        <f>G134-F134</f>
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
       <c r="I134" s="22">
-        <f>H134/(45/(60*24))</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J134" s="22" t="s">
@@ -6323,7 +6324,7 @@
         <v>19055</v>
       </c>
       <c r="B135" s="22" t="str">
-        <f>VLOOKUP(A135,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C135" s="26">
@@ -6340,11 +6341,11 @@
         <v>0.5</v>
       </c>
       <c r="H135" s="38">
-        <f>G135-F135</f>
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
       <c r="I135" s="22">
-        <f>H135/(45/(60*24))</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J135" s="22" t="s">
@@ -6359,7 +6360,7 @@
         <v>19055</v>
       </c>
       <c r="B136" s="21" t="str">
-        <f>VLOOKUP(A136,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C136" s="26">
@@ -6370,7 +6371,7 @@
       </c>
       <c r="E136" s="26"/>
       <c r="H136" s="28">
-        <f>G136-F136</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I136" s="29">
@@ -6385,7 +6386,7 @@
         <v>19055</v>
       </c>
       <c r="B137" s="22" t="str">
-        <f>VLOOKUP(A137,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C137" s="26">
@@ -6402,7 +6403,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="H137" s="28">
-        <f>G137-F137</f>
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
       <c r="I137" s="22">
@@ -6421,7 +6422,7 @@
         <v>19055</v>
       </c>
       <c r="B138" s="22" t="str">
-        <f>VLOOKUP(A138,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C138" s="50">
@@ -6438,7 +6439,7 @@
         <v>0.75</v>
       </c>
       <c r="H138" s="22">
-        <f>G138-F138</f>
+        <f t="shared" si="9"/>
         <v>0.125</v>
       </c>
       <c r="I138" s="22">
@@ -6457,7 +6458,7 @@
         <v>19055</v>
       </c>
       <c r="B139" s="22" t="str">
-        <f>VLOOKUP(A139,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C139" s="50">
@@ -6482,7 +6483,7 @@
         <v>19055</v>
       </c>
       <c r="B140" s="22" t="str">
-        <f>VLOOKUP(A140,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C140" s="50">
@@ -6507,7 +6508,7 @@
         <v>19055</v>
       </c>
       <c r="B141" s="22" t="str">
-        <f>VLOOKUP(A141,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C141" s="50">
@@ -6532,7 +6533,7 @@
         <v>19055</v>
       </c>
       <c r="B142" s="22" t="str">
-        <f>VLOOKUP(A142,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C142" s="50">
@@ -6557,7 +6558,7 @@
         <v>19055</v>
       </c>
       <c r="B143" s="22" t="str">
-        <f>VLOOKUP(A143,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C143" s="50">
@@ -6582,7 +6583,7 @@
         <v>19055</v>
       </c>
       <c r="B144" s="22" t="str">
-        <f>VLOOKUP(A144,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C144" s="50">
@@ -6607,7 +6608,7 @@
         <v>19055</v>
       </c>
       <c r="B145" s="22" t="str">
-        <f>VLOOKUP(A145,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>宮本　希</v>
       </c>
       <c r="C145" s="50">
@@ -6631,7 +6632,7 @@
         <v>19055</v>
       </c>
       <c r="B146" s="22" t="str">
-        <f>VLOOKUP(A146,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" ref="B146:B159" si="11">VLOOKUP(A146,$A$3:$B$14,2,FALSE)</f>
         <v>宮本　希</v>
       </c>
       <c r="C146" s="50">
@@ -6655,7 +6656,7 @@
         <v>19055</v>
       </c>
       <c r="B147" s="22" t="str">
-        <f>VLOOKUP(A147,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>宮本　希</v>
       </c>
       <c r="C147" s="50">
@@ -6679,7 +6680,7 @@
         <v>19055</v>
       </c>
       <c r="B148" s="22" t="str">
-        <f>VLOOKUP(A148,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>宮本　希</v>
       </c>
       <c r="C148" s="50">
@@ -6703,7 +6704,7 @@
         <v>19055</v>
       </c>
       <c r="B149" s="22" t="str">
-        <f>VLOOKUP(A149,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>宮本　希</v>
       </c>
       <c r="C149" s="50">
@@ -6727,7 +6728,7 @@
         <v>19055</v>
       </c>
       <c r="B150" s="22" t="str">
-        <f>VLOOKUP(A150,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>宮本　希</v>
       </c>
       <c r="C150" s="50">
@@ -6751,7 +6752,7 @@
         <v>19055</v>
       </c>
       <c r="B151" s="22" t="str">
-        <f>VLOOKUP(A151,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>宮本　希</v>
       </c>
       <c r="C151" s="50">
@@ -6775,7 +6776,7 @@
         <v>19055</v>
       </c>
       <c r="B152" s="22" t="str">
-        <f>VLOOKUP(A152,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>宮本　希</v>
       </c>
       <c r="C152" s="50">
@@ -6799,7 +6800,7 @@
         <v>19055</v>
       </c>
       <c r="B153" s="22" t="str">
-        <f>VLOOKUP(A153,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>宮本　希</v>
       </c>
       <c r="C153" s="50">
@@ -6823,7 +6824,7 @@
         <v>19055</v>
       </c>
       <c r="B154" s="22" t="str">
-        <f>VLOOKUP(A154,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>宮本　希</v>
       </c>
       <c r="C154" s="50">
@@ -6847,7 +6848,7 @@
         <v>19055</v>
       </c>
       <c r="B155" s="22" t="str">
-        <f>VLOOKUP(A155,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>宮本　希</v>
       </c>
       <c r="C155" s="50">
@@ -6868,7 +6869,7 @@
         <v>19055</v>
       </c>
       <c r="B156" s="22" t="str">
-        <f>VLOOKUP(A156,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>宮本　希</v>
       </c>
       <c r="C156" s="50">
@@ -6889,7 +6890,7 @@
         <v>19055</v>
       </c>
       <c r="B157" s="22" t="str">
-        <f>VLOOKUP(A157,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>宮本　希</v>
       </c>
       <c r="C157" s="50">
@@ -6914,7 +6915,7 @@
         <v>19055</v>
       </c>
       <c r="B158" s="22" t="str">
-        <f>VLOOKUP(A158,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>宮本　希</v>
       </c>
       <c r="C158" s="50">
@@ -6939,7 +6940,7 @@
         <v>20059</v>
       </c>
       <c r="B159" s="22" t="str">
-        <f>VLOOKUP(A159,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>青木　魅空</v>
       </c>
       <c r="C159" s="50">
@@ -6971,11 +6972,11 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="H160" s="28">
-        <f>G160-F160</f>
+        <f t="shared" ref="H160:H198" si="12">G160-F160</f>
         <v>2.430555555555558E-2</v>
       </c>
       <c r="I160" s="29">
-        <f>H160/(35/(60*24))</f>
+        <f t="shared" ref="I160:I172" si="13">H160/(35/(60*24))</f>
         <v>1.0000000000000009</v>
       </c>
       <c r="J160" s="25" t="s">
@@ -7002,11 +7003,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H161" s="28">
-        <f>G161-F161</f>
+        <f t="shared" si="12"/>
         <v>2.430555555555558E-2</v>
       </c>
       <c r="I161" s="29">
-        <f>H161/(35/(60*24))</f>
+        <f t="shared" si="13"/>
         <v>1.0000000000000009</v>
       </c>
       <c r="J161" s="25" t="s">
@@ -7033,11 +7034,11 @@
         <v>0.61111111111111116</v>
       </c>
       <c r="H162" s="28">
-        <f>G162-F162</f>
+        <f t="shared" si="12"/>
         <v>2.430555555555558E-2</v>
       </c>
       <c r="I162" s="29">
-        <f>H162/(35/(60*24))</f>
+        <f t="shared" si="13"/>
         <v>1.0000000000000009</v>
       </c>
       <c r="J162" s="25" t="s">
@@ -7063,11 +7064,11 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="H163" s="28">
-        <f>G163-F163</f>
+        <f t="shared" si="12"/>
         <v>2.4305555555555469E-2</v>
       </c>
       <c r="I163" s="29">
-        <f>H163/(35/(60*24))</f>
+        <f t="shared" si="13"/>
         <v>0.99999999999999645</v>
       </c>
       <c r="J163" s="25" t="s">
@@ -7093,11 +7094,11 @@
         <v>0.8125</v>
       </c>
       <c r="H164" s="28">
-        <f>G164-F164</f>
+        <f t="shared" si="12"/>
         <v>7.291666666666663E-2</v>
       </c>
       <c r="I164" s="29">
-        <f>H164/(35/(60*24))</f>
+        <f t="shared" si="13"/>
         <v>2.9999999999999982</v>
       </c>
       <c r="J164" s="25" t="s">
@@ -7112,7 +7113,7 @@
         <v>21036</v>
       </c>
       <c r="B165" s="21" t="str">
-        <f>VLOOKUP(A165,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" ref="B165:B196" si="14">VLOOKUP(A165,$A$3:$B$14,2,FALSE)</f>
         <v>吉丸　果林</v>
       </c>
       <c r="C165" s="26">
@@ -7127,11 +7128,11 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="H165" s="28">
-        <f>G165-F165</f>
+        <f t="shared" si="12"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I165" s="29">
-        <f>H165/(35/(60*24))</f>
+        <f t="shared" si="13"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J165" s="21" t="s">
@@ -7149,7 +7150,7 @@
         <v>21036</v>
       </c>
       <c r="B166" s="21" t="str">
-        <f>VLOOKUP(A166,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C166" s="26">
@@ -7164,11 +7165,11 @@
         <v>0.6875</v>
       </c>
       <c r="H166" s="28">
-        <f>G166-F166</f>
+        <f t="shared" si="12"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I166" s="29">
-        <f>H166/(35/(60*24))</f>
+        <f t="shared" si="13"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J166" s="21" t="s">
@@ -7186,7 +7187,7 @@
         <v>21036</v>
       </c>
       <c r="B167" s="21" t="str">
-        <f>VLOOKUP(A167,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C167" s="26">
@@ -7201,11 +7202,11 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="H167" s="28">
-        <f>G167-F167</f>
+        <f t="shared" si="12"/>
         <v>1.3888888888888951E-2</v>
       </c>
       <c r="I167" s="29">
-        <f>H167/(35/(60*24))</f>
+        <f t="shared" si="13"/>
         <v>0.57142857142857395</v>
       </c>
       <c r="J167" s="21" t="s">
@@ -7223,7 +7224,7 @@
         <v>21036</v>
       </c>
       <c r="B168" s="21" t="str">
-        <f>VLOOKUP(A168,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C168" s="26">
@@ -7238,11 +7239,11 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="H168" s="28">
-        <f>G168-F168</f>
+        <f t="shared" si="12"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I168" s="29">
-        <f>H168/(35/(60*24))</f>
+        <f t="shared" si="13"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J168" s="21" t="s">
@@ -7254,7 +7255,7 @@
         <v>21036</v>
       </c>
       <c r="B169" s="21" t="str">
-        <f>VLOOKUP(A169,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C169" s="26">
@@ -7269,11 +7270,11 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="H169" s="28">
-        <f>G169-F169</f>
+        <f t="shared" si="12"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I169" s="29">
-        <f>H169/(35/(60*24))</f>
+        <f t="shared" si="13"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J169" s="21" t="s">
@@ -7291,7 +7292,7 @@
         <v>21036</v>
       </c>
       <c r="B170" s="21" t="str">
-        <f>VLOOKUP(A170,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C170" s="26">
@@ -7306,11 +7307,11 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="H170" s="28">
-        <f>G170-F170</f>
+        <f t="shared" si="12"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I170" s="29">
-        <f>H170/(35/(60*24))</f>
+        <f t="shared" si="13"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J170" s="21" t="s">
@@ -7328,7 +7329,7 @@
         <v>21036</v>
       </c>
       <c r="B171" s="21" t="str">
-        <f>VLOOKUP(A171,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C171" s="26">
@@ -7343,11 +7344,11 @@
         <v>0.5</v>
       </c>
       <c r="H171" s="28">
-        <f>G171-F171</f>
+        <f t="shared" si="12"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I171" s="29">
-        <f>H171/(35/(60*24))</f>
+        <f t="shared" si="13"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J171" s="21" t="s">
@@ -7365,7 +7366,7 @@
         <v>21036</v>
       </c>
       <c r="B172" s="21" t="str">
-        <f>VLOOKUP(A172,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C172" s="26">
@@ -7380,11 +7381,11 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="H172" s="28">
-        <f>G172-F172</f>
+        <f t="shared" si="12"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I172" s="29">
-        <f>H172/(35/(60*24))</f>
+        <f t="shared" si="13"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J172" s="21" t="s">
@@ -7402,7 +7403,7 @@
         <v>21036</v>
       </c>
       <c r="B173" s="21" t="str">
-        <f>VLOOKUP(A173,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C173" s="26">
@@ -7417,7 +7418,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H173" s="28">
-        <f>G173-F173</f>
+        <f t="shared" si="12"/>
         <v>6.25E-2</v>
       </c>
       <c r="I173" s="29">
@@ -7432,7 +7433,7 @@
         <v>21036</v>
       </c>
       <c r="B174" s="21" t="str">
-        <f>VLOOKUP(A174,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C174" s="26">
@@ -7447,7 +7448,7 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H174" s="28">
-        <f>G174-F174</f>
+        <f t="shared" si="12"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I174" s="29">
@@ -7463,7 +7464,7 @@
         <v>21036</v>
       </c>
       <c r="B175" s="21" t="str">
-        <f>VLOOKUP(A175,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C175" s="26">
@@ -7478,7 +7479,7 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H175" s="28">
-        <f>G175-F175</f>
+        <f t="shared" si="12"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I175" s="29">
@@ -7500,7 +7501,7 @@
         <v>21036</v>
       </c>
       <c r="B176" s="21" t="str">
-        <f>VLOOKUP(A176,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C176" s="26">
@@ -7515,7 +7516,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H176" s="28">
-        <f>G176-F176</f>
+        <f t="shared" si="12"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I176" s="29">
@@ -7537,7 +7538,7 @@
         <v>21036</v>
       </c>
       <c r="B177" s="21" t="str">
-        <f>VLOOKUP(A177,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C177" s="26">
@@ -7552,7 +7553,7 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H177" s="28">
-        <f>G177-F177</f>
+        <f t="shared" si="12"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I177" s="29">
@@ -7574,7 +7575,7 @@
         <v>21036</v>
       </c>
       <c r="B178" s="21" t="str">
-        <f>VLOOKUP(A178,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C178" s="26">
@@ -7589,7 +7590,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H178" s="28">
-        <f>G178-F178</f>
+        <f t="shared" si="12"/>
         <v>6.25E-2</v>
       </c>
       <c r="I178" s="29">
@@ -7604,7 +7605,7 @@
         <v>21036</v>
       </c>
       <c r="B179" s="21" t="str">
-        <f>VLOOKUP(A179,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C179" s="26">
@@ -7619,7 +7620,7 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H179" s="28">
-        <f>G179-F179</f>
+        <f t="shared" si="12"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I179" s="29">
@@ -7641,7 +7642,7 @@
         <v>21036</v>
       </c>
       <c r="B180" s="21" t="str">
-        <f>VLOOKUP(A180,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C180" s="26">
@@ -7656,7 +7657,7 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H180" s="28">
-        <f>G180-F180</f>
+        <f t="shared" si="12"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I180" s="29">
@@ -7677,7 +7678,7 @@
         <v>21036</v>
       </c>
       <c r="B181" s="21" t="str">
-        <f>VLOOKUP(A181,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C181" s="26">
@@ -7692,11 +7693,11 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="H181" s="28">
-        <f>G181-F181</f>
+        <f t="shared" si="12"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I181" s="29">
-        <f>H181/(35/(60*24))</f>
+        <f t="shared" ref="I181:I188" si="15">H181/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J181" s="21" t="s">
@@ -7714,7 +7715,7 @@
         <v>21036</v>
       </c>
       <c r="B182" s="21" t="str">
-        <f>VLOOKUP(A182,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C182" s="26">
@@ -7729,11 +7730,11 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="H182" s="28">
-        <f>G182-F182</f>
+        <f t="shared" si="12"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I182" s="29">
-        <f>H182/(35/(60*24))</f>
+        <f t="shared" si="15"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J182" s="21" t="s">
@@ -7748,7 +7749,7 @@
         <v>21036</v>
       </c>
       <c r="B183" s="21" t="str">
-        <f>VLOOKUP(A183,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C183" s="26">
@@ -7763,11 +7764,11 @@
         <v>0.70138888888888884</v>
       </c>
       <c r="H183" s="28">
-        <f>G183-F183</f>
+        <f t="shared" si="12"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I183" s="29">
-        <f>H183/(35/(60*24))</f>
+        <f t="shared" si="15"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J183" s="21" t="s">
@@ -7782,7 +7783,7 @@
         <v>21036</v>
       </c>
       <c r="B184" s="21" t="str">
-        <f>VLOOKUP(A184,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C184" s="26">
@@ -7797,11 +7798,11 @@
         <v>0.78125</v>
       </c>
       <c r="H184" s="28">
-        <f>G184-F184</f>
+        <f t="shared" si="12"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I184" s="29">
-        <f>H184/(35/(60*24))</f>
+        <f t="shared" si="15"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J184" s="21" t="s">
@@ -7816,7 +7817,7 @@
         <v>21036</v>
       </c>
       <c r="B185" s="21" t="str">
-        <f>VLOOKUP(A185,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C185" s="26">
@@ -7831,11 +7832,11 @@
         <v>0.72569444444444442</v>
       </c>
       <c r="H185" s="28">
-        <f>G185-F185</f>
+        <f t="shared" si="12"/>
         <v>9.722222222222221E-2</v>
       </c>
       <c r="I185" s="29">
-        <f>H185/(35/(60*24))</f>
+        <f t="shared" si="15"/>
         <v>3.9999999999999996</v>
       </c>
       <c r="J185" s="21" t="s">
@@ -7850,7 +7851,7 @@
         <v>21036</v>
       </c>
       <c r="B186" s="21" t="str">
-        <f>VLOOKUP(A186,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C186" s="26">
@@ -7865,11 +7866,11 @@
         <v>0.71875</v>
       </c>
       <c r="H186" s="28">
-        <f>G186-F186</f>
+        <f t="shared" si="12"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I186" s="29">
-        <f>H186/(35/(60*24))</f>
+        <f t="shared" si="15"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J186" s="21" t="s">
@@ -7884,7 +7885,7 @@
         <v>21036</v>
       </c>
       <c r="B187" s="21" t="str">
-        <f>VLOOKUP(A187,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C187" s="26">
@@ -7899,11 +7900,11 @@
         <v>0.60763888888888884</v>
       </c>
       <c r="H187" s="28">
-        <f>G187-F187</f>
+        <f t="shared" si="12"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I187" s="29">
-        <f>H187/(35/(60*24))</f>
+        <f t="shared" si="15"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J187" s="21" t="s">
@@ -7918,7 +7919,7 @@
         <v>21036</v>
       </c>
       <c r="B188" s="21" t="str">
-        <f>VLOOKUP(A188,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C188" s="26">
@@ -7933,11 +7934,11 @@
         <v>0.66319444444444442</v>
       </c>
       <c r="H188" s="28">
-        <f>G188-F188</f>
+        <f t="shared" si="12"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I188" s="29">
-        <f>H188/(35/(60*24))</f>
+        <f t="shared" si="15"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J188" s="21" t="s">
@@ -7952,7 +7953,7 @@
         <v>21036</v>
       </c>
       <c r="B189" s="21" t="str">
-        <f>VLOOKUP(A189,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C189" s="26">
@@ -7967,11 +7968,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H189" s="28">
-        <f>G189-F189</f>
+        <f t="shared" si="12"/>
         <v>6.25E-2</v>
       </c>
       <c r="I189" s="29">
-        <f>H189/(45/(60*24))</f>
+        <f t="shared" ref="I189:I198" si="16">H189/(45/(60*24))</f>
         <v>2</v>
       </c>
       <c r="J189" s="21" t="s">
@@ -7983,7 +7984,7 @@
         <v>21036</v>
       </c>
       <c r="B190" s="21" t="str">
-        <f>VLOOKUP(A190,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C190" s="26">
@@ -7998,11 +7999,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H190" s="28">
-        <f>G190-F190</f>
+        <f t="shared" si="12"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I190" s="29">
-        <f>H190/(45/(60*24))</f>
+        <f t="shared" si="16"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J190" s="21" t="s">
@@ -8014,7 +8015,7 @@
         <v>21036</v>
       </c>
       <c r="B191" s="21" t="str">
-        <f>VLOOKUP(A191,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C191" s="26">
@@ -8029,11 +8030,11 @@
         <v>0.4465277777777778</v>
       </c>
       <c r="H191" s="28">
-        <f>G191-F191</f>
+        <f t="shared" si="12"/>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="I191" s="29">
-        <f>H191/(45/(60*24))</f>
+        <f t="shared" si="16"/>
         <v>0.88888888888888928</v>
       </c>
       <c r="J191" s="21" t="s">
@@ -8045,7 +8046,7 @@
         <v>21036</v>
       </c>
       <c r="B192" s="21" t="str">
-        <f>VLOOKUP(A192,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C192" s="26">
@@ -8060,11 +8061,11 @@
         <v>0.51527777777777772</v>
       </c>
       <c r="H192" s="28">
-        <f>G192-F192</f>
+        <f t="shared" si="12"/>
         <v>5.0694444444444375E-2</v>
       </c>
       <c r="I192" s="29">
-        <f>H192/(45/(60*24))</f>
+        <f t="shared" si="16"/>
         <v>1.62222222222222</v>
       </c>
       <c r="J192" s="21" t="s">
@@ -8076,7 +8077,7 @@
         <v>21036</v>
       </c>
       <c r="B193" s="21" t="str">
-        <f>VLOOKUP(A193,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C193" s="26">
@@ -8091,11 +8092,11 @@
         <v>0.51527777777777772</v>
       </c>
       <c r="H193" s="28">
-        <f>G193-F193</f>
+        <f t="shared" si="12"/>
         <v>3.1249999999999944E-2</v>
       </c>
       <c r="I193" s="29">
-        <f>H193/(45/(60*24))</f>
+        <f t="shared" si="16"/>
         <v>0.99999999999999822</v>
       </c>
     </row>
@@ -8104,7 +8105,7 @@
         <v>21036</v>
       </c>
       <c r="B194" s="21" t="str">
-        <f>VLOOKUP(A194,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C194" s="26">
@@ -8119,11 +8120,11 @@
         <v>0.5625</v>
       </c>
       <c r="H194" s="28">
-        <f>G194-F194</f>
+        <f t="shared" si="12"/>
         <v>6.25E-2</v>
       </c>
       <c r="I194" s="29">
-        <f>H194/(45/(60*24))</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="J194" s="21" t="s">
@@ -8138,7 +8139,7 @@
         <v>21036</v>
       </c>
       <c r="B195" s="21" t="str">
-        <f>VLOOKUP(A195,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C195" s="26">
@@ -8153,11 +8154,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H195" s="28">
-        <f>G195-F195</f>
+        <f t="shared" si="12"/>
         <v>6.25E-2</v>
       </c>
       <c r="I195" s="29">
-        <f>H195/(45/(60*24))</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="J195" s="21" t="s">
@@ -8172,7 +8173,7 @@
         <v>21036</v>
       </c>
       <c r="B196" s="21" t="str">
-        <f>VLOOKUP(A196,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C196" s="26">
@@ -8187,11 +8188,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H196" s="28">
-        <f>G196-F196</f>
+        <f t="shared" si="12"/>
         <v>6.25E-2</v>
       </c>
       <c r="I196" s="29">
-        <f>H196/(45/(60*24))</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="J196" s="21" t="s">
@@ -8203,7 +8204,7 @@
         <v>21036</v>
       </c>
       <c r="B197" s="21" t="str">
-        <f>VLOOKUP(A197,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" ref="B197:B219" si="17">VLOOKUP(A197,$A$3:$B$14,2,FALSE)</f>
         <v>吉丸　果林</v>
       </c>
       <c r="C197" s="26">
@@ -8218,11 +8219,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H197" s="28">
-        <f>G197-F197</f>
+        <f t="shared" si="12"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I197" s="29">
-        <f>H197/(45/(60*24))</f>
+        <f t="shared" si="16"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J197" s="21" t="s">
@@ -8234,7 +8235,7 @@
         <v>21036</v>
       </c>
       <c r="B198" s="21" t="str">
-        <f>VLOOKUP(A198,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C198" s="26">
@@ -8249,11 +8250,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H198" s="28">
-        <f>G198-F198</f>
+        <f t="shared" si="12"/>
         <v>4.4444444444444509E-2</v>
       </c>
       <c r="I198" s="29">
-        <f>H198/(45/(60*24))</f>
+        <f t="shared" si="16"/>
         <v>1.4222222222222243</v>
       </c>
       <c r="J198" s="21" t="s">
@@ -8268,7 +8269,7 @@
         <v>21036</v>
       </c>
       <c r="B199" s="21" t="str">
-        <f>VLOOKUP(A199,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C199" s="26">
@@ -8294,7 +8295,7 @@
         <v>21036</v>
       </c>
       <c r="B200" s="21" t="str">
-        <f>VLOOKUP(A200,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C200" s="26">
@@ -8320,7 +8321,7 @@
         <v>21036</v>
       </c>
       <c r="B201" s="21" t="str">
-        <f>VLOOKUP(A201,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C201" s="26">
@@ -8351,7 +8352,7 @@
         <v>21036</v>
       </c>
       <c r="B202" s="21" t="str">
-        <f>VLOOKUP(A202,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C202" s="26">
@@ -8384,7 +8385,7 @@
         <v>21036</v>
       </c>
       <c r="B203" s="21" t="str">
-        <f>VLOOKUP(A203,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C203" s="26">
@@ -8398,7 +8399,7 @@
         <v>21036</v>
       </c>
       <c r="B204" s="21" t="str">
-        <f>VLOOKUP(A204,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C204" s="26">
@@ -8413,7 +8414,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="H204" s="28">
-        <f>G204-F204</f>
+        <f t="shared" ref="H204:H215" si="18">G204-F204</f>
         <v>6.25E-2</v>
       </c>
       <c r="I204" s="21">
@@ -8431,7 +8432,7 @@
         <v>21036</v>
       </c>
       <c r="B205" s="21" t="str">
-        <f>VLOOKUP(A205,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C205" s="26">
@@ -8446,7 +8447,7 @@
         <v>0.67361111111111116</v>
       </c>
       <c r="H205" s="28">
-        <f>G205-F205</f>
+        <f t="shared" si="18"/>
         <v>6.25E-2</v>
       </c>
       <c r="I205" s="21">
@@ -8464,7 +8465,7 @@
         <v>21036</v>
       </c>
       <c r="B206" s="21" t="str">
-        <f>VLOOKUP(A206,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C206" s="26">
@@ -8479,7 +8480,7 @@
         <v>0.74305555555555558</v>
       </c>
       <c r="H206" s="28">
-        <f>G206-F206</f>
+        <f t="shared" si="18"/>
         <v>6.25E-2</v>
       </c>
       <c r="I206" s="21">
@@ -8497,7 +8498,7 @@
         <v>21036</v>
       </c>
       <c r="B207" s="21" t="str">
-        <f>VLOOKUP(A207,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C207" s="26">
@@ -8512,7 +8513,7 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H207" s="28">
-        <f>G207-F207</f>
+        <f t="shared" si="18"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I207" s="29">
@@ -8531,7 +8532,7 @@
         <v>21036</v>
       </c>
       <c r="B208" s="21" t="str">
-        <f>VLOOKUP(A208,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C208" s="26">
@@ -8546,7 +8547,7 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H208" s="28">
-        <f>G208-F208</f>
+        <f t="shared" si="18"/>
         <v>6.25E-2</v>
       </c>
       <c r="I208" s="21">
@@ -8564,7 +8565,7 @@
         <v>21036</v>
       </c>
       <c r="B209" s="21" t="str">
-        <f>VLOOKUP(A209,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C209" s="26">
@@ -8579,11 +8580,11 @@
         <v>0.44305555555555554</v>
       </c>
       <c r="H209" s="28">
-        <f>G209-F209</f>
+        <f t="shared" si="18"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="I209" s="29">
-        <f>H209/(45/(60*24))</f>
+        <f t="shared" ref="I209:I215" si="19">H209/(45/(60*24))</f>
         <v>1.3333333333333321</v>
       </c>
       <c r="J209" s="21" t="s">
@@ -8598,7 +8599,7 @@
         <v>21036</v>
       </c>
       <c r="B210" s="21" t="str">
-        <f>VLOOKUP(A210,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C210" s="26">
@@ -8613,11 +8614,11 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="H210" s="28">
-        <f>G210-F210</f>
+        <f t="shared" si="18"/>
         <v>6.25E-2</v>
       </c>
       <c r="I210" s="29">
-        <f>H210/(45/(60*24))</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="J210" s="22" t="s">
@@ -8632,7 +8633,7 @@
         <v>21036</v>
       </c>
       <c r="B211" s="21" t="str">
-        <f>VLOOKUP(A211,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C211" s="26">
@@ -8641,11 +8642,11 @@
       <c r="D211" s="26"/>
       <c r="E211" s="26"/>
       <c r="H211" s="28">
-        <f>G211-F211</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I211" s="29">
-        <f>H211/(45/(60*24))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J211" s="22" t="s">
@@ -8660,7 +8661,7 @@
         <v>21036</v>
       </c>
       <c r="B212" s="21" t="str">
-        <f>VLOOKUP(A212,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C212" s="26">
@@ -8669,11 +8670,11 @@
       <c r="D212" s="26"/>
       <c r="E212" s="26"/>
       <c r="H212" s="28">
-        <f>G212-F212</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I212" s="29">
-        <f>H212/(45/(60*24))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J212" s="22" t="s">
@@ -8688,7 +8689,7 @@
         <v>21036</v>
       </c>
       <c r="B213" s="21" t="str">
-        <f>VLOOKUP(A213,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C213" s="26">
@@ -8697,11 +8698,11 @@
       <c r="D213" s="26"/>
       <c r="E213" s="26"/>
       <c r="H213" s="28">
-        <f>G213-F213</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I213" s="29">
-        <f>H213/(45/(60*24))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J213" s="22" t="s">
@@ -8716,7 +8717,7 @@
         <v>21036</v>
       </c>
       <c r="B214" s="21" t="str">
-        <f>VLOOKUP(A214,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C214" s="26">
@@ -8725,11 +8726,11 @@
       <c r="D214" s="26"/>
       <c r="E214" s="26"/>
       <c r="H214" s="28">
-        <f>G214-F214</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I214" s="29">
-        <f>H214/(45/(60*24))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J214" s="22" t="s">
@@ -8744,7 +8745,7 @@
         <v>21036</v>
       </c>
       <c r="B215" s="21" t="str">
-        <f>VLOOKUP(A215,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C215" s="26">
@@ -8753,11 +8754,11 @@
       <c r="D215" s="26"/>
       <c r="E215" s="26"/>
       <c r="H215" s="28">
-        <f>G215-F215</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I215" s="29">
-        <f>H215/(45/(60*24))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J215" s="22" t="s">
@@ -8772,7 +8773,7 @@
         <v>21036</v>
       </c>
       <c r="B216" s="22" t="str">
-        <f>VLOOKUP(A216,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C216" s="50">
@@ -8793,7 +8794,7 @@
         <v>21036</v>
       </c>
       <c r="B217" s="22" t="str">
-        <f>VLOOKUP(A217,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>吉丸　果林</v>
       </c>
       <c r="C217" s="50">
@@ -8814,7 +8815,7 @@
         <v>21049</v>
       </c>
       <c r="B218" s="22" t="str">
-        <f>VLOOKUP(A218,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>本岡　龍陽</v>
       </c>
       <c r="C218" s="26">
@@ -8848,7 +8849,7 @@
         <v>21049</v>
       </c>
       <c r="B219" s="22" t="str">
-        <f>VLOOKUP(A219,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>本岡　龍陽</v>
       </c>
       <c r="C219" s="26">
@@ -8888,11 +8889,11 @@
         <v>0.68402777777777779</v>
       </c>
       <c r="H220" s="28">
-        <f>G220-F220</f>
+        <f t="shared" ref="H220:H225" si="20">G220-F220</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I220" s="29">
-        <f>H220/(35/(60*24))</f>
+        <f t="shared" ref="I220:I225" si="21">H220/(35/(60*24))</f>
         <v>2.0000000000000018</v>
       </c>
       <c r="J220" s="25" t="s">
@@ -8924,11 +8925,11 @@
         <v>0.73263888888888884</v>
       </c>
       <c r="H221" s="28">
-        <f>G221-F221</f>
+        <f t="shared" si="20"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I221" s="29">
-        <f>H221/(35/(60*24))</f>
+        <f t="shared" si="21"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J221" s="25" t="s">
@@ -8961,11 +8962,11 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="H222" s="28">
-        <f>G222-F222</f>
+        <f t="shared" si="20"/>
         <v>2.430555555555558E-2</v>
       </c>
       <c r="I222" s="29">
-        <f>H222/(35/(60*24))</f>
+        <f t="shared" si="21"/>
         <v>1.0000000000000009</v>
       </c>
       <c r="J222" s="21" t="s">
@@ -8998,11 +8999,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H223" s="28">
-        <f>G223-F223</f>
+        <f t="shared" si="20"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I223" s="29">
-        <f>H223/(35/(60*24))</f>
+        <f t="shared" si="21"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J223" s="21" t="s">
@@ -9035,11 +9036,11 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="H224" s="28">
-        <f>G224-F224</f>
+        <f t="shared" si="20"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I224" s="29">
-        <f>H224/(35/(60*24))</f>
+        <f t="shared" si="21"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J224" s="21" t="s">
@@ -9071,11 +9072,11 @@
         <v>0.8125</v>
       </c>
       <c r="H225" s="28">
-        <f>G225-F225</f>
+        <f t="shared" si="20"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I225" s="29">
-        <f>H225/(35/(60*24))</f>
+        <f t="shared" si="21"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J225" s="25" t="s">
@@ -9090,7 +9091,7 @@
         <v>21068</v>
       </c>
       <c r="B226" s="22" t="str">
-        <f>VLOOKUP(A226,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" ref="B226:B239" si="22">VLOOKUP(A226,$A$3:$B$14,2,FALSE)</f>
         <v>今村　駿太郎</v>
       </c>
       <c r="C226" s="53">
@@ -9111,7 +9112,7 @@
         <v>21068</v>
       </c>
       <c r="B227" s="22" t="str">
-        <f>VLOOKUP(A227,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C227" s="53">
@@ -9132,7 +9133,7 @@
         <v>21068</v>
       </c>
       <c r="B228" s="21" t="str">
-        <f>VLOOKUP(A228,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C228" s="26">
@@ -9166,7 +9167,7 @@
         <v>21068</v>
       </c>
       <c r="B229" s="21" t="str">
-        <f>VLOOKUP(A229,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C229" s="26">
@@ -9200,7 +9201,7 @@
         <v>21068</v>
       </c>
       <c r="B230" s="21" t="str">
-        <f>VLOOKUP(A230,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C230" s="26">
@@ -9234,7 +9235,7 @@
         <v>21068</v>
       </c>
       <c r="B231" s="21" t="str">
-        <f>VLOOKUP(A231,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C231" s="26">
@@ -9261,7 +9262,7 @@
         <v>21068</v>
       </c>
       <c r="B232" s="21" t="str">
-        <f>VLOOKUP(A232,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C232" s="26">
@@ -9283,7 +9284,7 @@
         <v>21068</v>
       </c>
       <c r="B233" s="22" t="str">
-        <f>VLOOKUP(A233,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C233" s="53">
@@ -9304,7 +9305,7 @@
         <v>21068</v>
       </c>
       <c r="B234" s="21" t="str">
-        <f>VLOOKUP(A234,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C234" s="26">
@@ -9319,11 +9320,11 @@
         <v>0.46875</v>
       </c>
       <c r="H234" s="28">
-        <f>G234-F234</f>
+        <f t="shared" ref="H234:H241" si="23">G234-F234</f>
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="I234" s="29">
-        <f>H234/(45/(60*24))</f>
+        <f t="shared" ref="I234:I241" si="24">H234/(45/(60*24))</f>
         <v>0.44444444444444464</v>
       </c>
       <c r="J234" s="21" t="s">
@@ -9335,7 +9336,7 @@
         <v>21068</v>
       </c>
       <c r="B235" s="21" t="str">
-        <f>VLOOKUP(A235,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C235" s="26">
@@ -9350,11 +9351,11 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="H235" s="28">
-        <f>G235-F235</f>
+        <f t="shared" si="23"/>
         <v>1.736111111111116E-2</v>
       </c>
       <c r="I235" s="29">
-        <f>H235/(45/(60*24))</f>
+        <f t="shared" si="24"/>
         <v>0.55555555555555713</v>
       </c>
       <c r="J235" s="21" t="s">
@@ -9366,7 +9367,7 @@
         <v>21068</v>
       </c>
       <c r="B236" s="21" t="str">
-        <f>VLOOKUP(A236,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C236" s="26">
@@ -9381,11 +9382,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H236" s="28">
-        <f>G236-F236</f>
+        <f t="shared" si="23"/>
         <v>6.25E-2</v>
       </c>
       <c r="I236" s="29">
-        <f>H236/(45/(60*24))</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="J236" s="21" t="s">
@@ -9397,7 +9398,7 @@
         <v>21068</v>
       </c>
       <c r="B237" s="21" t="str">
-        <f>VLOOKUP(A237,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C237" s="26">
@@ -9412,11 +9413,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H237" s="28">
-        <f>G237-F237</f>
+        <f t="shared" si="23"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I237" s="29">
-        <f>H237/(45/(60*24))</f>
+        <f t="shared" si="24"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J237" s="21" t="s">
@@ -9428,7 +9429,7 @@
         <v>21068</v>
       </c>
       <c r="B238" s="21" t="str">
-        <f>VLOOKUP(A238,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C238" s="26">
@@ -9443,11 +9444,11 @@
         <v>0.52569444444444446</v>
       </c>
       <c r="H238" s="28">
-        <f>G238-F238</f>
+        <f t="shared" si="23"/>
         <v>2.5000000000000022E-2</v>
       </c>
       <c r="I238" s="29">
-        <f>H238/(45/(60*24))</f>
+        <f t="shared" si="24"/>
         <v>0.80000000000000071</v>
       </c>
       <c r="J238" s="21" t="s">
@@ -9459,7 +9460,7 @@
         <v>21068</v>
       </c>
       <c r="B239" s="21" t="str">
-        <f>VLOOKUP(A239,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C239" s="26">
@@ -9474,11 +9475,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H239" s="28">
-        <f>G239-F239</f>
+        <f t="shared" si="23"/>
         <v>6.25E-2</v>
       </c>
       <c r="I239" s="29">
-        <f>H239/(45/(60*24))</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="J239" s="21" t="s">
@@ -9510,11 +9511,11 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="H240" s="38">
-        <f>G240-F240</f>
+        <f t="shared" si="23"/>
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="I240" s="22">
-        <f>H240/(45/(60*24))</f>
+        <f t="shared" si="24"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="J240" s="22" t="s">
@@ -9529,7 +9530,7 @@
         <v>21068</v>
       </c>
       <c r="B241" s="21" t="str">
-        <f>VLOOKUP(A241,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" ref="B241:B263" si="25">VLOOKUP(A241,$A$3:$B$14,2,FALSE)</f>
         <v>今村　駿太郎</v>
       </c>
       <c r="C241" s="26">
@@ -9544,11 +9545,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H241" s="28">
-        <f>G241-F241</f>
+        <f t="shared" si="23"/>
         <v>6.25E-2</v>
       </c>
       <c r="I241" s="29">
-        <f>H241/(45/(60*24))</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="J241" s="21" t="s">
@@ -9566,7 +9567,7 @@
         <v>21068</v>
       </c>
       <c r="B242" s="22" t="str">
-        <f>VLOOKUP(A242,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C242" s="53">
@@ -9587,7 +9588,7 @@
         <v>21068</v>
       </c>
       <c r="B243" s="22" t="str">
-        <f>VLOOKUP(A243,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C243" s="53">
@@ -9608,7 +9609,7 @@
         <v>21068</v>
       </c>
       <c r="B244" s="21" t="str">
-        <f>VLOOKUP(A244,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C244" s="26">
@@ -9642,7 +9643,7 @@
         <v>21068</v>
       </c>
       <c r="B245" s="21" t="str">
-        <f>VLOOKUP(A245,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C245" s="26">
@@ -9676,7 +9677,7 @@
         <v>21068</v>
       </c>
       <c r="B246" s="22" t="str">
-        <f>VLOOKUP(A246,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C246" s="53">
@@ -9697,7 +9698,7 @@
         <v>21068</v>
       </c>
       <c r="B247" s="22" t="str">
-        <f>VLOOKUP(A247,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C247" s="53">
@@ -9718,7 +9719,7 @@
         <v>21068</v>
       </c>
       <c r="B248" s="22" t="str">
-        <f>VLOOKUP(A248,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C248" s="26">
@@ -9733,11 +9734,11 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="H248" s="38">
-        <f>G248-F248</f>
+        <f t="shared" ref="H248:H258" si="26">G248-F248</f>
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="I248" s="22">
-        <f>H248/(45/(60*24))</f>
+        <f t="shared" ref="I248:I258" si="27">H248/(45/(60*24))</f>
         <v>1.9999999999999982</v>
       </c>
       <c r="J248" s="22" t="s">
@@ -9752,7 +9753,7 @@
         <v>21068</v>
       </c>
       <c r="B249" s="22" t="str">
-        <f>VLOOKUP(A249,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C249" s="26">
@@ -9767,11 +9768,11 @@
         <v>0.23819444444444446</v>
       </c>
       <c r="H249" s="38">
-        <f>G249-F249</f>
+        <f t="shared" si="26"/>
         <v>6.25E-2</v>
       </c>
       <c r="I249" s="22">
-        <f>H249/(45/(60*24))</f>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="J249" s="22" t="s">
@@ -9786,7 +9787,7 @@
         <v>21068</v>
       </c>
       <c r="B250" s="22" t="str">
-        <f>VLOOKUP(A250,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C250" s="26">
@@ -9801,11 +9802,11 @@
         <v>0.3125</v>
       </c>
       <c r="H250" s="38">
-        <f>G250-F250</f>
+        <f t="shared" si="26"/>
         <v>6.25E-2</v>
       </c>
       <c r="I250" s="22">
-        <f>H250/(45/(60*24))</f>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="J250" s="22" t="s">
@@ -9820,7 +9821,7 @@
         <v>21068</v>
       </c>
       <c r="B251" s="21" t="str">
-        <f>VLOOKUP(A251,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C251" s="26">
@@ -9835,11 +9836,11 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="H251" s="28">
-        <f>G251-F251</f>
+        <f t="shared" si="26"/>
         <v>6.25E-2</v>
       </c>
       <c r="I251" s="29">
-        <f>H251/(45/(60*24))</f>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="J251" s="22" t="s">
@@ -9854,7 +9855,7 @@
         <v>21068</v>
       </c>
       <c r="B252" s="22" t="str">
-        <f>VLOOKUP(A252,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C252" s="26">
@@ -9869,11 +9870,11 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="H252" s="22">
-        <f>G252-F252</f>
+        <f t="shared" si="26"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I252" s="22">
-        <f>H252/(45/(60*24))</f>
+        <f t="shared" si="27"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J252" s="22" t="s">
@@ -9888,7 +9889,7 @@
         <v>21068</v>
       </c>
       <c r="B253" s="22" t="str">
-        <f>VLOOKUP(A253,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C253" s="26">
@@ -9897,11 +9898,11 @@
       <c r="D253" s="26"/>
       <c r="E253" s="26"/>
       <c r="H253" s="22">
-        <f>G253-F253</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I253" s="22">
-        <f>H253/(45/(60*24))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J253" s="22" t="s">
@@ -9916,7 +9917,7 @@
         <v>21068</v>
       </c>
       <c r="B254" s="22" t="str">
-        <f>VLOOKUP(A254,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C254" s="26">
@@ -9925,11 +9926,11 @@
       <c r="D254" s="26"/>
       <c r="E254" s="26"/>
       <c r="H254" s="22">
-        <f>G254-F254</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I254" s="22">
-        <f>H254/(45/(60*24))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J254" s="22" t="s">
@@ -9944,7 +9945,7 @@
         <v>21068</v>
       </c>
       <c r="B255" s="22" t="str">
-        <f>VLOOKUP(A255,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C255" s="26">
@@ -9959,11 +9960,11 @@
         <v>0.13819444444444443</v>
       </c>
       <c r="H255" s="22">
-        <f>G255-F255</f>
+        <f t="shared" si="26"/>
         <v>2.708333333333332E-2</v>
       </c>
       <c r="I255" s="22">
-        <f>H255/(45/(60*24))</f>
+        <f t="shared" si="27"/>
         <v>0.86666666666666625</v>
       </c>
       <c r="J255" s="22" t="s">
@@ -9978,7 +9979,7 @@
         <v>21068</v>
       </c>
       <c r="B256" s="22" t="str">
-        <f>VLOOKUP(A256,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C256" s="26">
@@ -9987,11 +9988,11 @@
       <c r="D256" s="26"/>
       <c r="E256" s="26"/>
       <c r="H256" s="22">
-        <f>G256-F256</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I256" s="22">
-        <f>H256/(45/(60*24))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J256" s="22" t="s">
@@ -10006,7 +10007,7 @@
         <v>21068</v>
       </c>
       <c r="B257" s="22" t="str">
-        <f>VLOOKUP(A257,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C257" s="50">
@@ -10021,11 +10022,11 @@
         <v>0.45277777777777778</v>
       </c>
       <c r="H257" s="22">
-        <f>G257-F257</f>
+        <f t="shared" si="26"/>
         <v>4.3750000000000011E-2</v>
       </c>
       <c r="I257" s="22">
-        <f>H257/(45/(60*24))</f>
+        <f t="shared" si="27"/>
         <v>1.4000000000000004</v>
       </c>
       <c r="J257" s="22" t="s">
@@ -10037,7 +10038,7 @@
         <v>21068</v>
       </c>
       <c r="B258" s="22" t="str">
-        <f>VLOOKUP(A258,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C258" s="26">
@@ -10052,11 +10053,11 @@
         <v>0.47083333333333338</v>
       </c>
       <c r="H258" s="38">
-        <f>G258-F258</f>
+        <f t="shared" si="26"/>
         <v>6.25E-2</v>
       </c>
       <c r="I258" s="22">
-        <f>H258/(45/(60*24))</f>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="J258" s="22" t="s">
@@ -10071,7 +10072,7 @@
         <v>21068</v>
       </c>
       <c r="B259" s="22" t="str">
-        <f>VLOOKUP(A259,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C259" s="50">
@@ -10094,7 +10095,7 @@
         <v>21068</v>
       </c>
       <c r="B260" s="22" t="str">
-        <f>VLOOKUP(A260,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C260" s="50">
@@ -10110,7 +10111,7 @@
         <v>21068</v>
       </c>
       <c r="B261" s="22" t="str">
-        <f>VLOOKUP(A261,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C261" s="26">
@@ -10144,7 +10145,7 @@
         <v>21068</v>
       </c>
       <c r="B262" s="22" t="str">
-        <f>VLOOKUP(A262,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C262" s="50">
@@ -10167,7 +10168,7 @@
         <v>21068</v>
       </c>
       <c r="B263" s="21" t="str">
-        <f>VLOOKUP(A263,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>今村　駿太郎</v>
       </c>
       <c r="C263" s="26">
@@ -10176,11 +10177,11 @@
       <c r="D263" s="26"/>
       <c r="E263" s="26"/>
       <c r="H263" s="28">
-        <f>G263-F263</f>
+        <f t="shared" ref="H263:H294" si="28">G263-F263</f>
         <v>0</v>
       </c>
       <c r="I263" s="29">
-        <f>H263/(35/(60*24))</f>
+        <f t="shared" ref="I263:I290" si="29">H263/(35/(60*24))</f>
         <v>0</v>
       </c>
       <c r="J263" s="21" t="s">
@@ -10212,11 +10213,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H264" s="28">
-        <f>G264-F264</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I264" s="29">
-        <f>H264/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J264" s="21" t="s">
@@ -10246,11 +10247,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H265" s="28">
-        <f>G265-F265</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I265" s="29">
-        <f>H265/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J265" s="21" t="s">
@@ -10281,11 +10282,11 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="H266" s="28">
-        <f>G266-F266</f>
+        <f t="shared" si="28"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I266" s="29">
-        <f>H266/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J266" s="21" t="s">
@@ -10316,11 +10317,11 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="H267" s="28">
-        <f>G267-F267</f>
+        <f t="shared" si="28"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I267" s="29">
-        <f>H267/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J267" s="21" t="s">
@@ -10352,11 +10353,11 @@
         <v>0.8125</v>
       </c>
       <c r="H268" s="28">
-        <f>G268-F268</f>
+        <f t="shared" si="28"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I268" s="29">
-        <f>H268/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J268" s="25" t="s">
@@ -10385,11 +10386,11 @@
         <v>0.75694444444444442</v>
       </c>
       <c r="H269" s="28">
-        <f>G269-F269</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I269" s="29">
-        <f>H269/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J269" s="21" t="s">
@@ -10418,11 +10419,11 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H270" s="28">
-        <f>G270-F270</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I270" s="29">
-        <f>H270/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J270" s="21" t="s">
@@ -10451,11 +10452,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H271" s="28">
-        <f>G271-F271</f>
+        <f t="shared" si="28"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I271" s="29">
-        <f>H271/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J271" s="21" t="s">
@@ -10485,11 +10486,11 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="H272" s="28">
-        <f>G272-F272</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I272" s="29">
-        <f>H272/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J272" s="21" t="s">
@@ -10522,11 +10523,11 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="H273" s="28">
-        <f>G273-F273</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I273" s="29">
-        <f>H273/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J273" s="21" t="s">
@@ -10556,11 +10557,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H274" s="28">
-        <f>G274-F274</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I274" s="29">
-        <f>H274/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J274" s="21" t="s">
@@ -10590,11 +10591,11 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="H275" s="28">
-        <f>G275-F275</f>
+        <f t="shared" si="28"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I275" s="29">
-        <f>H275/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J275" s="21" t="s">
@@ -10624,11 +10625,11 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="H276" s="28">
-        <f>G276-F276</f>
+        <f t="shared" si="28"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I276" s="29">
-        <f>H276/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J276" s="21" t="s">
@@ -10657,11 +10658,11 @@
         <v>0.44097222222222221</v>
       </c>
       <c r="H277" s="28">
-        <f>G277-F277</f>
+        <f t="shared" si="28"/>
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="I277" s="29">
-        <f>H277/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>0.99999999999999867</v>
       </c>
       <c r="J277" s="21" t="s">
@@ -10676,7 +10677,7 @@
         <v>21071</v>
       </c>
       <c r="B278" s="21" t="str">
-        <f>VLOOKUP(A278,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" ref="B278:B309" si="30">VLOOKUP(A278,$A$3:$B$14,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C278" s="26">
@@ -10685,11 +10686,11 @@
       <c r="D278" s="26"/>
       <c r="E278" s="26"/>
       <c r="H278" s="28">
-        <f>G278-F278</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I278" s="29">
-        <f>H278/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J278" s="21" t="s">
@@ -10707,7 +10708,7 @@
         <v>21071</v>
       </c>
       <c r="B279" s="21" t="str">
-        <f>VLOOKUP(A279,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C279" s="26">
@@ -10722,11 +10723,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H279" s="28">
-        <f>G279-F279</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I279" s="29">
-        <f>H279/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J279" s="21" t="s">
@@ -10744,7 +10745,7 @@
         <v>21071</v>
       </c>
       <c r="B280" s="21" t="str">
-        <f>VLOOKUP(A280,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C280" s="26">
@@ -10759,11 +10760,11 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="H280" s="28">
-        <f>G280-F280</f>
+        <f t="shared" si="28"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I280" s="29">
-        <f>H280/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J280" s="21" t="s">
@@ -10781,7 +10782,7 @@
         <v>21071</v>
       </c>
       <c r="B281" s="21" t="str">
-        <f>VLOOKUP(A281,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C281" s="26">
@@ -10790,11 +10791,11 @@
       <c r="D281" s="26"/>
       <c r="E281" s="26"/>
       <c r="H281" s="28">
-        <f>G281-F281</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I281" s="29">
-        <f>H281/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L281" s="26">
@@ -10806,7 +10807,7 @@
         <v>21071</v>
       </c>
       <c r="B282" s="21" t="str">
-        <f>VLOOKUP(A282,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C282" s="26">
@@ -10821,11 +10822,11 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="H282" s="28">
-        <f>G282-F282</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I282" s="29">
-        <f>H282/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J282" s="21" t="s">
@@ -10843,7 +10844,7 @@
         <v>21071</v>
       </c>
       <c r="B283" s="21" t="str">
-        <f>VLOOKUP(A283,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C283" s="26">
@@ -10858,11 +10859,11 @@
         <v>0.77430555555555558</v>
       </c>
       <c r="H283" s="28">
-        <f>G283-F283</f>
+        <f t="shared" si="28"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I283" s="29">
-        <f>H283/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J283" s="21" t="s">
@@ -10880,7 +10881,7 @@
         <v>21071</v>
       </c>
       <c r="B284" s="21" t="str">
-        <f>VLOOKUP(A284,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C284" s="26">
@@ -10895,11 +10896,11 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="H284" s="28">
-        <f>G284-F284</f>
+        <f t="shared" si="28"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I284" s="29">
-        <f>H284/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J284" s="21" t="s">
@@ -10917,7 +10918,7 @@
         <v>21071</v>
       </c>
       <c r="B285" s="21" t="str">
-        <f>VLOOKUP(A285,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C285" s="26">
@@ -10932,11 +10933,11 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="H285" s="28">
-        <f>G285-F285</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I285" s="29">
-        <f>H285/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J285" s="21" t="s">
@@ -10954,7 +10955,7 @@
         <v>21071</v>
       </c>
       <c r="B286" s="21" t="str">
-        <f>VLOOKUP(A286,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C286" s="26">
@@ -10969,11 +10970,11 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="H286" s="28">
-        <f>G286-F286</f>
+        <f t="shared" si="28"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I286" s="29">
-        <f>H286/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J286" s="21" t="s">
@@ -10991,7 +10992,7 @@
         <v>21071</v>
       </c>
       <c r="B287" s="21" t="str">
-        <f>VLOOKUP(A287,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C287" s="26">
@@ -11006,11 +11007,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H287" s="28">
-        <f>G287-F287</f>
+        <f t="shared" si="28"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I287" s="29">
-        <f>H287/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J287" s="21" t="s">
@@ -11028,7 +11029,7 @@
         <v>21071</v>
       </c>
       <c r="B288" s="21" t="str">
-        <f>VLOOKUP(A288,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C288" s="26">
@@ -11043,11 +11044,11 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="H288" s="28">
-        <f>G288-F288</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I288" s="29">
-        <f>H288/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J288" s="21" t="s">
@@ -11065,7 +11066,7 @@
         <v>21071</v>
       </c>
       <c r="B289" s="21" t="str">
-        <f>VLOOKUP(A289,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C289" s="26">
@@ -11080,11 +11081,11 @@
         <v>0.5</v>
       </c>
       <c r="H289" s="28">
-        <f>G289-F289</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I289" s="29">
-        <f>H289/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J289" s="21" t="s">
@@ -11102,7 +11103,7 @@
         <v>21071</v>
       </c>
       <c r="B290" s="21" t="str">
-        <f>VLOOKUP(A290,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C290" s="26">
@@ -11117,11 +11118,11 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="H290" s="28">
-        <f>G290-F290</f>
+        <f t="shared" si="28"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I290" s="29">
-        <f>H290/(35/(60*24))</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J290" s="21" t="s">
@@ -11139,7 +11140,7 @@
         <v>21071</v>
       </c>
       <c r="B291" s="21" t="str">
-        <f>VLOOKUP(A291,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C291" s="26">
@@ -11154,7 +11155,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="H291" s="28">
-        <f>G291-F291</f>
+        <f t="shared" si="28"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="J291" s="21" t="s">
@@ -11172,7 +11173,7 @@
         <v>21071</v>
       </c>
       <c r="B292" s="21" t="str">
-        <f>VLOOKUP(A292,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C292" s="26">
@@ -11187,11 +11188,11 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H292" s="28">
-        <f>G292-F292</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I292" s="29">
-        <f>H292/(35/(60*24))</f>
+        <f t="shared" ref="I292:I304" si="31">H292/(35/(60*24))</f>
         <v>1.9999999999999998</v>
       </c>
       <c r="J292" s="21" t="s">
@@ -11209,7 +11210,7 @@
         <v>21071</v>
       </c>
       <c r="B293" s="21" t="str">
-        <f>VLOOKUP(A293,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C293" s="26">
@@ -11224,11 +11225,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H293" s="28">
-        <f>G293-F293</f>
+        <f t="shared" si="28"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I293" s="29">
-        <f>H293/(35/(60*24))</f>
+        <f t="shared" si="31"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J293" s="21" t="s">
@@ -11240,7 +11241,7 @@
         <v>21071</v>
       </c>
       <c r="B294" s="21" t="str">
-        <f>VLOOKUP(A294,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C294" s="26">
@@ -11255,11 +11256,11 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="H294" s="28">
-        <f>G294-F294</f>
+        <f t="shared" si="28"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I294" s="29">
-        <f>H294/(35/(60*24))</f>
+        <f t="shared" si="31"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J294" s="21" t="s">
@@ -11277,7 +11278,7 @@
         <v>21071</v>
       </c>
       <c r="B295" s="21" t="str">
-        <f>VLOOKUP(A295,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C295" s="26">
@@ -11292,11 +11293,11 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H295" s="28">
-        <f>G295-F295</f>
+        <f t="shared" ref="H295:H312" si="32">G295-F295</f>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I295" s="29">
-        <f>H295/(35/(60*24))</f>
+        <f t="shared" si="31"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J295" s="21" t="s">
@@ -11308,7 +11309,7 @@
         <v>21071</v>
       </c>
       <c r="B296" s="21" t="str">
-        <f>VLOOKUP(A296,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C296" s="26">
@@ -11323,11 +11324,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H296" s="28">
-        <f>G296-F296</f>
+        <f t="shared" si="32"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I296" s="29">
-        <f>H296/(35/(60*24))</f>
+        <f t="shared" si="31"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J296" s="21" t="s">
@@ -11339,7 +11340,7 @@
         <v>21071</v>
       </c>
       <c r="B297" s="21" t="str">
-        <f>VLOOKUP(A297,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C297" s="26">
@@ -11354,11 +11355,11 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H297" s="28">
-        <f>G297-F297</f>
+        <f t="shared" si="32"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I297" s="29">
-        <f>H297/(35/(60*24))</f>
+        <f t="shared" si="31"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J297" s="21" t="s">
@@ -11376,7 +11377,7 @@
         <v>21071</v>
       </c>
       <c r="B298" s="21" t="str">
-        <f>VLOOKUP(A298,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C298" s="26">
@@ -11391,11 +11392,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H298" s="28">
-        <f>G298-F298</f>
+        <f t="shared" si="32"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I298" s="29">
-        <f>H298/(35/(60*24))</f>
+        <f t="shared" si="31"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J298" s="21" t="s">
@@ -11413,7 +11414,7 @@
         <v>21071</v>
       </c>
       <c r="B299" s="21" t="str">
-        <f>VLOOKUP(A299,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C299" s="26">
@@ -11428,11 +11429,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H299" s="28">
-        <f>G299-F299</f>
+        <f t="shared" si="32"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I299" s="29">
-        <f>H299/(35/(60*24))</f>
+        <f t="shared" si="31"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J299" s="21" t="s">
@@ -11447,7 +11448,7 @@
         <v>21071</v>
       </c>
       <c r="B300" s="21" t="str">
-        <f>VLOOKUP(A300,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C300" s="26">
@@ -11462,11 +11463,11 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="H300" s="28">
-        <f>G300-F300</f>
+        <f t="shared" si="32"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I300" s="29">
-        <f>H300/(35/(60*24))</f>
+        <f t="shared" si="31"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J300" s="21" t="s">
@@ -11481,7 +11482,7 @@
         <v>21071</v>
       </c>
       <c r="B301" s="21" t="str">
-        <f>VLOOKUP(A301,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C301" s="26">
@@ -11496,11 +11497,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H301" s="28">
-        <f>G301-F301</f>
+        <f t="shared" si="32"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I301" s="29">
-        <f>H301/(35/(60*24))</f>
+        <f t="shared" si="31"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J301" s="21" t="s">
@@ -11512,7 +11513,7 @@
         <v>21071</v>
       </c>
       <c r="B302" s="21" t="str">
-        <f>VLOOKUP(A302,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C302" s="26">
@@ -11527,11 +11528,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H302" s="28">
-        <f>G302-F302</f>
+        <f t="shared" si="32"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I302" s="29">
-        <f>H302/(35/(60*24))</f>
+        <f t="shared" si="31"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J302" s="21" t="s">
@@ -11546,7 +11547,7 @@
         <v>21071</v>
       </c>
       <c r="B303" s="21" t="str">
-        <f>VLOOKUP(A303,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C303" s="26">
@@ -11555,11 +11556,11 @@
       <c r="D303" s="26"/>
       <c r="E303" s="26"/>
       <c r="H303" s="28">
-        <f>G303-F303</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I303" s="29">
-        <f>H303/(35/(60*24))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J303" s="21" t="s">
@@ -11574,7 +11575,7 @@
         <v>21071</v>
       </c>
       <c r="B304" s="21" t="str">
-        <f>VLOOKUP(A304,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C304" s="26">
@@ -11583,11 +11584,11 @@
       <c r="D304" s="26"/>
       <c r="E304" s="26"/>
       <c r="H304" s="28">
-        <f>G304-F304</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I304" s="29">
-        <f>H304/(35/(60*24))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -11596,7 +11597,7 @@
         <v>21071</v>
       </c>
       <c r="B305" s="21" t="str">
-        <f>VLOOKUP(A305,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C305" s="26">
@@ -11611,11 +11612,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H305" s="28">
-        <f>G305-F305</f>
+        <f t="shared" si="32"/>
         <v>5.9027777777777846E-2</v>
       </c>
       <c r="I305" s="29">
-        <f>H305/(45/(60*24))</f>
+        <f t="shared" ref="I305:I311" si="33">H305/(45/(60*24))</f>
         <v>1.8888888888888911</v>
       </c>
       <c r="J305" s="21" t="s">
@@ -11630,7 +11631,7 @@
         <v>21071</v>
       </c>
       <c r="B306" s="21" t="str">
-        <f>VLOOKUP(A306,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C306" s="26">
@@ -11645,11 +11646,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H306" s="28">
-        <f>G306-F306</f>
+        <f t="shared" si="32"/>
         <v>4.5138888888888951E-2</v>
       </c>
       <c r="I306" s="29">
-        <f>H306/(45/(60*24))</f>
+        <f t="shared" si="33"/>
         <v>1.4444444444444464</v>
       </c>
       <c r="J306" s="21" t="s">
@@ -11661,7 +11662,7 @@
         <v>21071</v>
       </c>
       <c r="B307" s="21" t="str">
-        <f>VLOOKUP(A307,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C307" s="26">
@@ -11676,11 +11677,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H307" s="28">
-        <f>G307-F307</f>
+        <f t="shared" si="32"/>
         <v>3.4722222222222265E-2</v>
       </c>
       <c r="I307" s="29">
-        <f>H307/(45/(60*24))</f>
+        <f t="shared" si="33"/>
         <v>1.1111111111111125</v>
       </c>
       <c r="J307" s="21" t="s">
@@ -11695,7 +11696,7 @@
         <v>21071</v>
       </c>
       <c r="B308" s="21" t="str">
-        <f>VLOOKUP(A308,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C308" s="26">
@@ -11710,11 +11711,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H308" s="28">
-        <f>G308-F308</f>
+        <f t="shared" si="32"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I308" s="29">
-        <f>H308/(45/(60*24))</f>
+        <f t="shared" si="33"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J308" s="21" t="s">
@@ -11726,7 +11727,7 @@
         <v>21071</v>
       </c>
       <c r="B309" s="21" t="str">
-        <f>VLOOKUP(A309,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>松行　桃香</v>
       </c>
       <c r="C309" s="26">
@@ -11741,11 +11742,11 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="H309" s="28">
-        <f>G309-F309</f>
+        <f t="shared" si="32"/>
         <v>6.25E-2</v>
       </c>
       <c r="I309" s="29">
-        <f>H309/(45/(60*24))</f>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="J309" s="22" t="s">
@@ -11760,7 +11761,7 @@
         <v>21071</v>
       </c>
       <c r="B310" s="21" t="str">
-        <f>VLOOKUP(A310,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" ref="B310:B341" si="34">VLOOKUP(A310,$A$3:$B$14,2,FALSE)</f>
         <v>松行　桃香</v>
       </c>
       <c r="C310" s="26">
@@ -11775,11 +11776,11 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="H310" s="28">
-        <f>G310-F310</f>
+        <f t="shared" si="32"/>
         <v>3.125E-2</v>
       </c>
       <c r="I310" s="29">
-        <f>H310/(45/(60*24))</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="J310" s="22" t="s">
@@ -11794,7 +11795,7 @@
         <v>21071</v>
       </c>
       <c r="B311" s="21" t="str">
-        <f>VLOOKUP(A311,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>松行　桃香</v>
       </c>
       <c r="C311" s="26">
@@ -11809,11 +11810,11 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="H311" s="28">
-        <f>G311-F311</f>
+        <f t="shared" si="32"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="I311" s="29">
-        <f>H311/(45/(60*24))</f>
+        <f t="shared" si="33"/>
         <v>0.66666666666666785</v>
       </c>
       <c r="J311" s="22" t="s">
@@ -11825,14 +11826,14 @@
         <v>21071</v>
       </c>
       <c r="B312" s="21" t="str">
-        <f>VLOOKUP(A312,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>松行　桃香</v>
       </c>
       <c r="C312" s="26"/>
       <c r="D312" s="26"/>
       <c r="E312" s="26"/>
       <c r="H312" s="28">
-        <f>G312-F312</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I312" s="29">
@@ -11848,7 +11849,7 @@
         <v>21071</v>
       </c>
       <c r="B313" s="22" t="str">
-        <f>VLOOKUP(A313,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>松行　桃香</v>
       </c>
       <c r="C313" s="53">
@@ -11866,7 +11867,7 @@
         <v>21071</v>
       </c>
       <c r="B314" s="22" t="str">
-        <f>VLOOKUP(A314,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>松行　桃香</v>
       </c>
       <c r="C314" s="53">
@@ -11887,7 +11888,7 @@
         <v>21074</v>
       </c>
       <c r="B315" s="21" t="str">
-        <f>VLOOKUP(A315,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C315" s="26">
@@ -11904,7 +11905,7 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H315" s="28">
-        <f>G315-F315</f>
+        <f t="shared" ref="H315:H333" si="35">G315-F315</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I315" s="29">
@@ -11923,7 +11924,7 @@
         <v>21074</v>
       </c>
       <c r="B316" s="21" t="str">
-        <f>VLOOKUP(A316,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C316" s="26">
@@ -11940,7 +11941,7 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H316" s="28">
-        <f>G316-F316</f>
+        <f t="shared" si="35"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I316" s="29">
@@ -11962,7 +11963,7 @@
         <v>21074</v>
       </c>
       <c r="B317" s="21" t="str">
-        <f>VLOOKUP(A317,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C317" s="26">
@@ -11979,7 +11980,7 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H317" s="28">
-        <f>G317-F317</f>
+        <f t="shared" si="35"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I317" s="29">
@@ -12001,7 +12002,7 @@
         <v>21074</v>
       </c>
       <c r="B318" s="21" t="str">
-        <f>VLOOKUP(A318,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C318" s="26">
@@ -12018,11 +12019,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H318" s="28">
-        <f>G318-F318</f>
+        <f t="shared" si="35"/>
         <v>5.9027777777777846E-2</v>
       </c>
       <c r="I318" s="29">
-        <f>H318/(45/(60*24))</f>
+        <f t="shared" ref="I318:I326" si="36">H318/(45/(60*24))</f>
         <v>1.8888888888888911</v>
       </c>
       <c r="J318" s="21" t="s">
@@ -12037,7 +12038,7 @@
         <v>21074</v>
       </c>
       <c r="B319" s="21" t="str">
-        <f>VLOOKUP(A319,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C319" s="26">
@@ -12054,11 +12055,11 @@
         <v>0.625</v>
       </c>
       <c r="H319" s="28">
-        <f>G319-F319</f>
+        <f t="shared" si="35"/>
         <v>6.25E-2</v>
       </c>
       <c r="I319" s="29">
-        <f>H319/(45/(60*24))</f>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="J319" s="21" t="s">
@@ -12070,7 +12071,7 @@
         <v>21074</v>
       </c>
       <c r="B320" s="21" t="str">
-        <f>VLOOKUP(A320,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C320" s="26">
@@ -12087,11 +12088,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H320" s="28">
-        <f>G320-F320</f>
+        <f t="shared" si="35"/>
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="I320" s="29">
-        <f>H320/(45/(60*24))</f>
+        <f t="shared" si="36"/>
         <v>0.33333333333333393</v>
       </c>
       <c r="J320" s="21" t="s">
@@ -12103,7 +12104,7 @@
         <v>21074</v>
       </c>
       <c r="B321" s="21" t="str">
-        <f>VLOOKUP(A321,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C321" s="26">
@@ -12120,11 +12121,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H321" s="28">
-        <f>G321-F321</f>
+        <f t="shared" si="35"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I321" s="29">
-        <f>H321/(45/(60*24))</f>
+        <f t="shared" si="36"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J321" s="21" t="s">
@@ -12136,7 +12137,7 @@
         <v>21074</v>
       </c>
       <c r="B322" s="21" t="str">
-        <f>VLOOKUP(A322,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C322" s="26">
@@ -12153,11 +12154,11 @@
         <v>0.46875</v>
       </c>
       <c r="H322" s="28">
-        <f>G322-F322</f>
+        <f t="shared" si="35"/>
         <v>6.3194444444444442E-2</v>
       </c>
       <c r="I322" s="29">
-        <f>H322/(45/(60*24))</f>
+        <f t="shared" si="36"/>
         <v>2.0222222222222221</v>
       </c>
       <c r="J322" s="21" t="s">
@@ -12172,7 +12173,7 @@
         <v>21074</v>
       </c>
       <c r="B323" s="21" t="str">
-        <f>VLOOKUP(A323,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C323" s="26">
@@ -12189,11 +12190,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H323" s="28">
-        <f>G323-F323</f>
+        <f t="shared" si="35"/>
         <v>6.25E-2</v>
       </c>
       <c r="I323" s="29">
-        <f>H323/(45/(60*24))</f>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="J323" s="21" t="s">
@@ -12205,7 +12206,7 @@
         <v>21074</v>
       </c>
       <c r="B324" s="21" t="str">
-        <f>VLOOKUP(A324,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C324" s="26">
@@ -12222,11 +12223,11 @@
         <v>0.40972222222222221</v>
       </c>
       <c r="H324" s="28">
-        <f>G324-F324</f>
+        <f t="shared" si="35"/>
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="I324" s="29">
-        <f>H324/(45/(60*24))</f>
+        <f t="shared" si="36"/>
         <v>0.44444444444444464</v>
       </c>
     </row>
@@ -12235,7 +12236,7 @@
         <v>21074</v>
       </c>
       <c r="B325" s="21" t="str">
-        <f>VLOOKUP(A325,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C325" s="26">
@@ -12252,11 +12253,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H325" s="28">
-        <f>G325-F325</f>
+        <f t="shared" si="35"/>
         <v>6.25E-2</v>
       </c>
       <c r="I325" s="29">
-        <f>H325/(45/(60*24))</f>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="J325" s="21" t="s">
@@ -12271,7 +12272,7 @@
         <v>21074</v>
       </c>
       <c r="B326" s="21" t="str">
-        <f>VLOOKUP(A326,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C326" s="26">
@@ -12288,11 +12289,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H326" s="28">
-        <f>G326-F326</f>
+        <f t="shared" si="35"/>
         <v>6.25E-2</v>
       </c>
       <c r="I326" s="29">
-        <f>H326/(45/(60*24))</f>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="J326" s="21" t="s">
@@ -12304,7 +12305,7 @@
         <v>21074</v>
       </c>
       <c r="B327" s="21" t="str">
-        <f>VLOOKUP(A327,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C327" s="26">
@@ -12321,7 +12322,7 @@
         <v>0.52013888888888893</v>
       </c>
       <c r="H327" s="28">
-        <f>G327-F327</f>
+        <f t="shared" si="35"/>
         <v>5.2777777777777812E-2</v>
       </c>
       <c r="I327" s="29">
@@ -12336,7 +12337,7 @@
         <v>21074</v>
       </c>
       <c r="B328" s="21" t="str">
-        <f>VLOOKUP(A328,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C328" s="26">
@@ -12347,7 +12348,7 @@
         <v>351</v>
       </c>
       <c r="H328" s="28">
-        <f>G328-F328</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I328" s="29">
@@ -12365,7 +12366,7 @@
         <v>21074</v>
       </c>
       <c r="B329" s="21" t="str">
-        <f>VLOOKUP(A329,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C329" s="26">
@@ -12376,7 +12377,7 @@
         <v>351</v>
       </c>
       <c r="H329" s="28">
-        <f>G329-F329</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I329" s="29">
@@ -12394,7 +12395,7 @@
         <v>21074</v>
       </c>
       <c r="B330" s="21" t="str">
-        <f>VLOOKUP(A330,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C330" s="26">
@@ -12405,7 +12406,7 @@
         <v>351</v>
       </c>
       <c r="H330" s="28">
-        <f>G330-F330</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I330" s="29">
@@ -12423,7 +12424,7 @@
         <v>21074</v>
       </c>
       <c r="B331" s="21" t="str">
-        <f>VLOOKUP(A331,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C331" s="26">
@@ -12434,7 +12435,7 @@
         <v>351</v>
       </c>
       <c r="H331" s="28">
-        <f>G331-F331</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I331" s="29">
@@ -12452,7 +12453,7 @@
         <v>21074</v>
       </c>
       <c r="B332" s="21" t="str">
-        <f>VLOOKUP(A332,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C332" s="26">
@@ -12469,7 +12470,7 @@
         <v>0.50763888888888886</v>
       </c>
       <c r="H332" s="28">
-        <f>G332-F332</f>
+        <f t="shared" si="35"/>
         <v>2.9861111111111061E-2</v>
       </c>
       <c r="I332" s="29">
@@ -12488,7 +12489,7 @@
         <v>21074</v>
       </c>
       <c r="B333" s="21" t="str">
-        <f>VLOOKUP(A333,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C333" s="26">
@@ -12505,7 +12506,7 @@
         <v>0.53541666666666665</v>
       </c>
       <c r="H333" s="28">
-        <f>G333-F333</f>
+        <f t="shared" si="35"/>
         <v>5.9722222222222232E-2</v>
       </c>
       <c r="I333" s="29">
@@ -12523,7 +12524,7 @@
         <v>21074</v>
       </c>
       <c r="B334" s="22" t="str">
-        <f>VLOOKUP(A334,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C334" s="50">
@@ -12544,7 +12545,7 @@
         <v>21074</v>
       </c>
       <c r="B335" s="22" t="str">
-        <f>VLOOKUP(A335,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C335" s="50">
@@ -12565,7 +12566,7 @@
         <v>21074</v>
       </c>
       <c r="B336" s="22" t="str">
-        <f>VLOOKUP(A336,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C336" s="50">
@@ -12586,7 +12587,7 @@
         <v>21074</v>
       </c>
       <c r="B337" s="22" t="str">
-        <f>VLOOKUP(A337,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C337" s="50">
@@ -12607,7 +12608,7 @@
         <v>21074</v>
       </c>
       <c r="B338" s="22" t="str">
-        <f>VLOOKUP(A338,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C338" s="50">
@@ -12628,7 +12629,7 @@
         <v>21074</v>
       </c>
       <c r="B339" s="22" t="str">
-        <f>VLOOKUP(A339,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C339" s="50">
@@ -12649,7 +12650,7 @@
         <v>21074</v>
       </c>
       <c r="B340" s="22" t="str">
-        <f>VLOOKUP(A340,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C340" s="50">
@@ -12670,7 +12671,7 @@
         <v>21074</v>
       </c>
       <c r="B341" s="22" t="str">
-        <f>VLOOKUP(A341,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="34"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C341" s="53">
@@ -12691,7 +12692,7 @@
         <v>21074</v>
       </c>
       <c r="B342" s="22" t="str">
-        <f>VLOOKUP(A342,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" ref="B342:B347" si="37">VLOOKUP(A342,$A$3:$B$14,2,FALSE)</f>
         <v>佐藤　大起</v>
       </c>
       <c r="C342" s="50">
@@ -12712,7 +12713,7 @@
         <v>21074</v>
       </c>
       <c r="B343" s="22" t="str">
-        <f>VLOOKUP(A343,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C343" s="50">
@@ -12733,7 +12734,7 @@
         <v>21074</v>
       </c>
       <c r="B344" s="22" t="str">
-        <f>VLOOKUP(A344,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C344" s="53">
@@ -12754,7 +12755,7 @@
         <v>21074</v>
       </c>
       <c r="B345" s="22" t="str">
-        <f>VLOOKUP(A345,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C345" s="53">
@@ -12775,7 +12776,7 @@
         <v>21074</v>
       </c>
       <c r="B346" s="22" t="str">
-        <f>VLOOKUP(A346,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C346" s="53">
@@ -12796,7 +12797,7 @@
         <v>21074</v>
       </c>
       <c r="B347" s="22" t="str">
-        <f>VLOOKUP(A347,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>佐藤　大起</v>
       </c>
       <c r="C347" s="53">
@@ -12831,11 +12832,11 @@
         <v>0.40972222222222221</v>
       </c>
       <c r="H348" s="28">
-        <f>G348-F348</f>
+        <f t="shared" ref="H348:H375" si="38">G348-F348</f>
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="I348" s="29">
-        <f>H348/(35/(60*24))</f>
+        <f t="shared" ref="I348:I370" si="39">H348/(35/(60*24))</f>
         <v>0.99999999999999867</v>
       </c>
       <c r="J348" s="25" t="s">
@@ -12864,11 +12865,11 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="H349" s="28">
-        <f>G349-F349</f>
+        <f t="shared" si="38"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I349" s="29">
-        <f>H349/(35/(60*24))</f>
+        <f t="shared" si="39"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J349" s="25" t="s">
@@ -12897,11 +12898,11 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="H350" s="28">
-        <f>G350-F350</f>
+        <f t="shared" si="38"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I350" s="29">
-        <f>H350/(35/(60*24))</f>
+        <f t="shared" si="39"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J350" s="25" t="s">
@@ -12930,11 +12931,11 @@
         <v>0.57638888888888884</v>
       </c>
       <c r="H351" s="28">
-        <f>G351-F351</f>
+        <f t="shared" si="38"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I351" s="29">
-        <f>H351/(35/(60*24))</f>
+        <f t="shared" si="39"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J351" s="25" t="s">
@@ -12963,11 +12964,11 @@
         <v>0.60763888888888884</v>
       </c>
       <c r="H352" s="28">
-        <f>G352-F352</f>
+        <f t="shared" si="38"/>
         <v>2.4305555555555469E-2</v>
       </c>
       <c r="I352" s="29">
-        <f>H352/(35/(60*24))</f>
+        <f t="shared" si="39"/>
         <v>0.99999999999999645</v>
       </c>
       <c r="J352" s="25" t="s">
@@ -12996,11 +12997,11 @@
         <v>0.44097222222222221</v>
       </c>
       <c r="H353" s="28">
-        <f>G353-F353</f>
+        <f t="shared" si="38"/>
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="I353" s="29">
-        <f>H353/(35/(60*24))</f>
+        <f t="shared" si="39"/>
         <v>0.99999999999999867</v>
       </c>
       <c r="J353" s="25" t="s">
@@ -13033,11 +13034,11 @@
         <v>0.54513888888888884</v>
       </c>
       <c r="H354" s="28">
-        <f>G354-F354</f>
+        <f t="shared" si="38"/>
         <v>9.7222222222222154E-2</v>
       </c>
       <c r="I354" s="29">
-        <f>H354/(35/(60*24))</f>
+        <f t="shared" si="39"/>
         <v>3.9999999999999973</v>
       </c>
       <c r="J354" s="21" t="s">
@@ -13070,11 +13071,11 @@
         <v>0.60069444444444442</v>
       </c>
       <c r="H355" s="28">
-        <f>G355-F355</f>
+        <f t="shared" si="38"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I355" s="29">
-        <f>H355/(35/(60*24))</f>
+        <f t="shared" si="39"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J355" s="21" t="s">
@@ -13107,11 +13108,11 @@
         <v>0.625</v>
       </c>
       <c r="H356" s="28">
-        <f>G356-F356</f>
+        <f t="shared" si="38"/>
         <v>2.430555555555558E-2</v>
       </c>
       <c r="I356" s="29">
-        <f>H356/(35/(60*24))</f>
+        <f t="shared" si="39"/>
         <v>1.0000000000000009</v>
       </c>
       <c r="J356" s="21" t="s">
@@ -13126,7 +13127,7 @@
         <v>21087</v>
       </c>
       <c r="B357" s="21" t="str">
-        <f>VLOOKUP(A357,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" ref="B357:B385" si="40">VLOOKUP(A357,$A$3:$B$14,2,FALSE)</f>
         <v>木下　健志郎</v>
       </c>
       <c r="C357" s="26">
@@ -13141,11 +13142,11 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="H357" s="28">
-        <f>G357-F357</f>
+        <f t="shared" si="38"/>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="I357" s="36">
-        <f>H357/(35/(60*24))</f>
+        <f t="shared" si="39"/>
         <v>0.42857142857142705</v>
       </c>
       <c r="J357" s="21" t="s">
@@ -13160,7 +13161,7 @@
         <v>21087</v>
       </c>
       <c r="B358" s="21" t="str">
-        <f>VLOOKUP(A358,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C358" s="26">
@@ -13175,11 +13176,11 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="H358" s="28">
-        <f>G358-F358</f>
+        <f t="shared" si="38"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I358" s="29">
-        <f>H358/(35/(60*24))</f>
+        <f t="shared" si="39"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J358" s="21" t="s">
@@ -13197,7 +13198,7 @@
         <v>21087</v>
       </c>
       <c r="B359" s="21" t="str">
-        <f>VLOOKUP(A359,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C359" s="26">
@@ -13212,11 +13213,11 @@
         <v>0.59375</v>
       </c>
       <c r="H359" s="28">
-        <f>G359-F359</f>
+        <f t="shared" si="38"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I359" s="29">
-        <f>H359/(35/(60*24))</f>
+        <f t="shared" si="39"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J359" s="21" t="s">
@@ -13237,7 +13238,7 @@
         <v>21087</v>
       </c>
       <c r="B360" s="21" t="str">
-        <f>VLOOKUP(A360,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C360" s="26">
@@ -13252,11 +13253,11 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="H360" s="28">
-        <f>G360-F360</f>
+        <f t="shared" si="38"/>
         <v>6.9444444444445308E-3</v>
       </c>
       <c r="I360" s="36">
-        <f>H360/(35/(60*24))</f>
+        <f t="shared" si="39"/>
         <v>0.28571428571428925</v>
       </c>
       <c r="J360" s="21" t="s">
@@ -13277,7 +13278,7 @@
         <v>21087</v>
       </c>
       <c r="B361" s="21" t="str">
-        <f>VLOOKUP(A361,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C361" s="26">
@@ -13292,11 +13293,11 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="H361" s="28">
-        <f>G361-F361</f>
+        <f t="shared" si="38"/>
         <v>5.9027777777777735E-2</v>
       </c>
       <c r="I361" s="29">
-        <f>H361/(35/(60*24))</f>
+        <f t="shared" si="39"/>
         <v>2.4285714285714266</v>
       </c>
       <c r="J361" s="21" t="s">
@@ -13314,7 +13315,7 @@
         <v>21087</v>
       </c>
       <c r="B362" s="21" t="str">
-        <f>VLOOKUP(A362,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C362" s="26">
@@ -13329,11 +13330,11 @@
         <v>0.57638888888888884</v>
       </c>
       <c r="H362" s="28">
-        <f>G362-F362</f>
+        <f t="shared" si="38"/>
         <v>2.7777777777777679E-2</v>
       </c>
       <c r="I362" s="29">
-        <f>H362/(35/(60*24))</f>
+        <f t="shared" si="39"/>
         <v>1.1428571428571388</v>
       </c>
       <c r="J362" s="21" t="s">
@@ -13351,7 +13352,7 @@
         <v>21087</v>
       </c>
       <c r="B363" s="21" t="str">
-        <f>VLOOKUP(A363,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C363" s="26">
@@ -13366,11 +13367,11 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="H363" s="28">
-        <f>G363-F363</f>
+        <f t="shared" si="38"/>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="I363" s="29">
-        <f>H363/(35/(60*24))</f>
+        <f t="shared" si="39"/>
         <v>2.1428571428571397</v>
       </c>
       <c r="J363" s="21" t="s">
@@ -13388,7 +13389,7 @@
         <v>21087</v>
       </c>
       <c r="B364" s="21" t="str">
-        <f>VLOOKUP(A364,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C364" s="26">
@@ -13403,11 +13404,11 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="H364" s="28">
-        <f>G364-F364</f>
+        <f t="shared" si="38"/>
         <v>2.4305555555555469E-2</v>
       </c>
       <c r="I364" s="29">
-        <f>H364/(35/(60*24))</f>
+        <f t="shared" si="39"/>
         <v>0.99999999999999645</v>
       </c>
       <c r="J364" s="21" t="s">
@@ -13425,7 +13426,7 @@
         <v>21087</v>
       </c>
       <c r="B365" s="21" t="str">
-        <f>VLOOKUP(A365,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C365" s="26">
@@ -13440,11 +13441,11 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="H365" s="28">
-        <f>G365-F365</f>
+        <f t="shared" si="38"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I365" s="29">
-        <f>H365/(35/(60*24))</f>
+        <f t="shared" si="39"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J365" s="21" t="s">
@@ -13465,7 +13466,7 @@
         <v>21087</v>
       </c>
       <c r="B366" s="21" t="str">
-        <f>VLOOKUP(A366,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C366" s="26">
@@ -13480,11 +13481,11 @@
         <v>0.625</v>
       </c>
       <c r="H366" s="28">
-        <f>G366-F366</f>
+        <f t="shared" si="38"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I366" s="29">
-        <f>H366/(35/(60*24))</f>
+        <f t="shared" si="39"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J366" s="21" t="s">
@@ -13505,7 +13506,7 @@
         <v>21087</v>
       </c>
       <c r="B367" s="21" t="str">
-        <f>VLOOKUP(A367,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C367" s="26">
@@ -13520,11 +13521,11 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="H367" s="28">
-        <f>G367-F367</f>
+        <f t="shared" si="38"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I367" s="29">
-        <f>H367/(35/(60*24))</f>
+        <f t="shared" si="39"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J367" s="21" t="s">
@@ -13542,7 +13543,7 @@
         <v>21087</v>
       </c>
       <c r="B368" s="21" t="str">
-        <f>VLOOKUP(A368,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C368" s="26">
@@ -13557,11 +13558,11 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="H368" s="28">
-        <f>G368-F368</f>
+        <f t="shared" si="38"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I368" s="29">
-        <f>H368/(35/(60*24))</f>
+        <f t="shared" si="39"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J368" s="21" t="s">
@@ -13579,7 +13580,7 @@
         <v>21087</v>
       </c>
       <c r="B369" s="21" t="str">
-        <f>VLOOKUP(A369,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C369" s="26">
@@ -13594,11 +13595,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="H369" s="28">
-        <f>G369-F369</f>
+        <f t="shared" si="38"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I369" s="29">
-        <f>H369/(35/(60*24))</f>
+        <f t="shared" si="39"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J369" s="21" t="s">
@@ -13616,7 +13617,7 @@
         <v>21087</v>
       </c>
       <c r="B370" s="21" t="str">
-        <f>VLOOKUP(A370,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C370" s="26">
@@ -13631,11 +13632,11 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="H370" s="28">
-        <f>G370-F370</f>
+        <f t="shared" si="38"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I370" s="29">
-        <f>H370/(35/(60*24))</f>
+        <f t="shared" si="39"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J370" s="21" t="s">
@@ -13653,7 +13654,7 @@
         <v>21087</v>
       </c>
       <c r="B371" s="21" t="str">
-        <f>VLOOKUP(A371,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C371" s="26">
@@ -13668,11 +13669,11 @@
         <v>0.49652777777777779</v>
       </c>
       <c r="H371" s="28">
-        <f>G371-F371</f>
+        <f t="shared" si="38"/>
         <v>9.5138888888888884E-2</v>
       </c>
       <c r="I371" s="29">
-        <f>H371/(45/(60*24))</f>
+        <f t="shared" ref="I371:I383" si="41">H371/(45/(60*24))</f>
         <v>3.0444444444444443</v>
       </c>
       <c r="J371" s="21" t="s">
@@ -13687,7 +13688,7 @@
         <v>21087</v>
       </c>
       <c r="B372" s="21" t="str">
-        <f>VLOOKUP(A372,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C372" s="26">
@@ -13702,11 +13703,11 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H372" s="28">
-        <f>G372-F372</f>
+        <f t="shared" si="38"/>
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="I372" s="29">
-        <f>H372/(45/(60*24))</f>
+        <f t="shared" si="41"/>
         <v>0.88888888888888751</v>
       </c>
       <c r="J372" s="21" t="s">
@@ -13718,7 +13719,7 @@
         <v>21087</v>
       </c>
       <c r="B373" s="21" t="str">
-        <f>VLOOKUP(A373,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C373" s="26">
@@ -13733,11 +13734,11 @@
         <v>0.44722222222222224</v>
       </c>
       <c r="H373" s="28">
-        <f>G373-F373</f>
+        <f t="shared" si="38"/>
         <v>1.5277777777777779E-2</v>
       </c>
       <c r="I373" s="29">
-        <f>H373/(45/(60*24))</f>
+        <f t="shared" si="41"/>
         <v>0.48888888888888893</v>
       </c>
       <c r="J373" s="21" t="s">
@@ -13749,7 +13750,7 @@
         <v>21087</v>
       </c>
       <c r="B374" s="21" t="str">
-        <f>VLOOKUP(A374,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C374" s="26">
@@ -13764,11 +13765,11 @@
         <v>0.43333333333333335</v>
       </c>
       <c r="H374" s="28">
-        <f>G374-F374</f>
+        <f t="shared" si="38"/>
         <v>3.5416666666666707E-2</v>
       </c>
       <c r="I374" s="29">
-        <f>H374/(45/(60*24))</f>
+        <f t="shared" si="41"/>
         <v>1.1333333333333346</v>
       </c>
       <c r="J374" s="21" t="s">
@@ -13783,7 +13784,7 @@
         <v>21087</v>
       </c>
       <c r="B375" s="21" t="str">
-        <f>VLOOKUP(A375,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C375" s="26">
@@ -13798,11 +13799,11 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="H375" s="28">
-        <f>G375-F375</f>
+        <f t="shared" si="38"/>
         <v>8.3333333333333315E-2</v>
       </c>
       <c r="I375" s="29">
-        <f>H375/(45/(60*24))</f>
+        <f t="shared" si="41"/>
         <v>2.6666666666666661</v>
       </c>
       <c r="J375" s="21" t="s">
@@ -13817,7 +13818,7 @@
         <v>21087</v>
       </c>
       <c r="B376" s="21" t="str">
-        <f>VLOOKUP(A376,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C376" s="26">
@@ -13829,7 +13830,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="I376" s="29">
-        <f>H376/(45/(60*24))</f>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="J376" s="22" t="s">
@@ -13844,7 +13845,7 @@
         <v>21087</v>
       </c>
       <c r="B377" s="21" t="str">
-        <f>VLOOKUP(A377,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C377" s="26">
@@ -13856,7 +13857,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="I377" s="29">
-        <f>H377/(45/(60*24))</f>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="J377" s="22" t="s">
@@ -13871,7 +13872,7 @@
         <v>21087</v>
       </c>
       <c r="B378" s="21" t="str">
-        <f>VLOOKUP(A378,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C378" s="26">
@@ -13883,7 +13884,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="I378" s="29">
-        <f>H378/(45/(60*24))</f>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="J378" s="22" t="s">
@@ -13898,7 +13899,7 @@
         <v>21087</v>
       </c>
       <c r="B379" s="21" t="str">
-        <f>VLOOKUP(A379,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C379" s="26">
@@ -13910,7 +13911,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="I379" s="29">
-        <f>H379/(45/(60*24))</f>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="J379" s="22" t="s">
@@ -13925,7 +13926,7 @@
         <v>21087</v>
       </c>
       <c r="B380" s="21" t="str">
-        <f>VLOOKUP(A380,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C380" s="26">
@@ -13937,7 +13938,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="I380" s="29">
-        <f>H380/(45/(60*24))</f>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="J380" s="22" t="s">
@@ -13952,7 +13953,7 @@
         <v>21087</v>
       </c>
       <c r="B381" s="21" t="str">
-        <f>VLOOKUP(A381,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C381" s="26">
@@ -13964,7 +13965,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="I381" s="29">
-        <f>H381/(45/(60*24))</f>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="J381" s="22" t="s">
@@ -13979,7 +13980,7 @@
         <v>21087</v>
       </c>
       <c r="B382" s="21" t="str">
-        <f>VLOOKUP(A382,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C382" s="26">
@@ -13998,7 +13999,7 @@
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="I382" s="29">
-        <f>H382/(45/(60*24))</f>
+        <f t="shared" si="41"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="J382" s="22" t="s">
@@ -14013,7 +14014,7 @@
         <v>21087</v>
       </c>
       <c r="B383" s="22" t="str">
-        <f>VLOOKUP(A383,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>木下　健志郎</v>
       </c>
       <c r="C383" s="50">
@@ -14032,7 +14033,7 @@
         <v>3.2638888888888828E-2</v>
       </c>
       <c r="I383" s="22">
-        <f>H383/(45/(60*24))</f>
+        <f t="shared" si="41"/>
         <v>1.0444444444444425</v>
       </c>
       <c r="J383" s="22" t="s">
@@ -14044,7 +14045,7 @@
         <v>21090</v>
       </c>
       <c r="B384" s="21" t="str">
-        <f>VLOOKUP(A384,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>中原　遥翔</v>
       </c>
       <c r="C384" s="26">
@@ -14057,7 +14058,7 @@
         <v>0</v>
       </c>
       <c r="I384" s="29">
-        <f>H384/(35/(60*24))</f>
+        <f t="shared" ref="I384:I390" si="42">H384/(35/(60*24))</f>
         <v>0</v>
       </c>
       <c r="J384" s="21" t="s">
@@ -14075,7 +14076,7 @@
         <v>21090</v>
       </c>
       <c r="B385" s="21" t="str">
-        <f>VLOOKUP(A385,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="40"/>
         <v>中原　遥翔</v>
       </c>
       <c r="C385" s="26">
@@ -14087,7 +14088,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="I385" s="29">
-        <f>H385/(35/(60*24))</f>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="J385" s="21" t="s">
@@ -14120,11 +14121,11 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="H386" s="28">
-        <f>G386-F386</f>
+        <f t="shared" ref="H386:H397" si="43">G386-F386</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I386" s="29">
-        <f>H386/(35/(60*24))</f>
+        <f t="shared" si="42"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J386" s="21" t="s">
@@ -14154,11 +14155,11 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="H387" s="28">
-        <f>G387-F387</f>
+        <f t="shared" si="43"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I387" s="29">
-        <f>H387/(35/(60*24))</f>
+        <f t="shared" si="42"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J387" s="21" t="s">
@@ -14191,11 +14192,11 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="H388" s="28">
-        <f>G388-F388</f>
+        <f t="shared" si="43"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="I388" s="29">
-        <f>H388/(35/(60*24))</f>
+        <f t="shared" si="42"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="J388" s="21" t="s">
@@ -14210,7 +14211,7 @@
         <v>21090</v>
       </c>
       <c r="B389" s="21" t="str">
-        <f>VLOOKUP(A389,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" ref="B389:B405" si="44">VLOOKUP(A389,$A$3:$B$14,2,FALSE)</f>
         <v>中原　遥翔</v>
       </c>
       <c r="C389" s="26">
@@ -14225,11 +14226,11 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="H389" s="28">
-        <f>G389-F389</f>
+        <f t="shared" si="43"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I389" s="29">
-        <f>H389/(35/(60*24))</f>
+        <f t="shared" si="42"/>
         <v>1.9999999999999973</v>
       </c>
       <c r="J389" s="21" t="s">
@@ -14241,7 +14242,7 @@
         <v>21090</v>
       </c>
       <c r="B390" s="21" t="str">
-        <f>VLOOKUP(A390,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>中原　遥翔</v>
       </c>
       <c r="C390" s="26">
@@ -14256,11 +14257,11 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="H390" s="28">
-        <f>G390-F390</f>
+        <f t="shared" si="43"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I390" s="29">
-        <f>H390/(35/(60*24))</f>
+        <f t="shared" si="42"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J390" s="21" t="s">
@@ -14275,7 +14276,7 @@
         <v>21090</v>
       </c>
       <c r="B391" s="21" t="str">
-        <f>VLOOKUP(A391,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>中原　遥翔</v>
       </c>
       <c r="C391" s="26">
@@ -14290,11 +14291,11 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="H391" s="28">
-        <f>G391-F391</f>
+        <f t="shared" si="43"/>
         <v>6.25E-2</v>
       </c>
       <c r="I391" s="29">
-        <f>H391/(45/(60*24))</f>
+        <f t="shared" ref="I391:I397" si="45">H391/(45/(60*24))</f>
         <v>2</v>
       </c>
       <c r="J391" s="21" t="s">
@@ -14312,7 +14313,7 @@
         <v>21090</v>
       </c>
       <c r="B392" s="21" t="str">
-        <f>VLOOKUP(A392,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>中原　遥翔</v>
       </c>
       <c r="C392" s="26">
@@ -14327,11 +14328,11 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="H392" s="28">
-        <f>G392-F392</f>
+        <f t="shared" si="43"/>
         <v>6.25E-2</v>
       </c>
       <c r="I392" s="29">
-        <f>H392/(45/(60*24))</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="J392" s="21" t="s">
@@ -14349,7 +14350,7 @@
         <v>21090</v>
       </c>
       <c r="B393" s="21" t="str">
-        <f>VLOOKUP(A393,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>中原　遥翔</v>
       </c>
       <c r="C393" s="26">
@@ -14364,11 +14365,11 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="H393" s="28">
-        <f>G393-F393</f>
+        <f t="shared" si="43"/>
         <v>6.25E-2</v>
       </c>
       <c r="I393" s="29">
-        <f>H393/(45/(60*24))</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="J393" s="21" t="s">
@@ -14386,7 +14387,7 @@
         <v>21090</v>
       </c>
       <c r="B394" s="21" t="str">
-        <f>VLOOKUP(A394,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>中原　遥翔</v>
       </c>
       <c r="C394" s="26">
@@ -14401,11 +14402,11 @@
         <v>0.58680555555555558</v>
       </c>
       <c r="H394" s="28">
-        <f>G394-F394</f>
+        <f t="shared" si="43"/>
         <v>6.25E-2</v>
       </c>
       <c r="I394" s="29">
-        <f>H394/(45/(60*24))</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="J394" s="22" t="s">
@@ -14420,7 +14421,7 @@
         <v>21090</v>
       </c>
       <c r="B395" s="22" t="str">
-        <f>VLOOKUP(A395,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>中原　遥翔</v>
       </c>
       <c r="C395" s="26">
@@ -14435,11 +14436,11 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="H395" s="38">
-        <f>G395-F395</f>
+        <f t="shared" si="43"/>
         <v>6.25E-2</v>
       </c>
       <c r="I395" s="22">
-        <f>H395/(45/(60*24))</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="J395" s="22" t="s">
@@ -14454,7 +14455,7 @@
         <v>21090</v>
       </c>
       <c r="B396" s="22" t="str">
-        <f>VLOOKUP(A396,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>中原　遥翔</v>
       </c>
       <c r="C396" s="26">
@@ -14469,11 +14470,11 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="H396" s="38">
-        <f>G396-F396</f>
+        <f t="shared" si="43"/>
         <v>6.2500000000000056E-2</v>
       </c>
       <c r="I396" s="22">
-        <f>H396/(45/(60*24))</f>
+        <f t="shared" si="45"/>
         <v>2.0000000000000018</v>
       </c>
       <c r="J396" s="22" t="s">
@@ -14488,7 +14489,7 @@
         <v>21090</v>
       </c>
       <c r="B397" s="21" t="str">
-        <f>VLOOKUP(A397,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>中原　遥翔</v>
       </c>
       <c r="C397" s="26">
@@ -14503,11 +14504,11 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="H397" s="28">
-        <f>G397-F397</f>
+        <f t="shared" si="43"/>
         <v>6.25E-2</v>
       </c>
       <c r="I397" s="29">
-        <f>H397/(45/(60*24))</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="J397" s="22" t="s">
@@ -14522,7 +14523,7 @@
         <v>21090</v>
       </c>
       <c r="B398" s="22" t="str">
-        <f>VLOOKUP(A398,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>中原　遥翔</v>
       </c>
       <c r="C398" s="50">
@@ -14541,7 +14542,7 @@
         <v>21091</v>
       </c>
       <c r="B399" s="22" t="str">
-        <f>VLOOKUP(A399,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>金子　凌</v>
       </c>
       <c r="C399" s="26">
@@ -14572,7 +14573,7 @@
         <v>21091</v>
       </c>
       <c r="B400" s="22" t="str">
-        <f>VLOOKUP(A400,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>金子　凌</v>
       </c>
       <c r="C400" s="50">
@@ -14595,7 +14596,7 @@
         <v>21091</v>
       </c>
       <c r="B401" s="22" t="str">
-        <f>VLOOKUP(A401,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>金子　凌</v>
       </c>
       <c r="C401" s="50">
@@ -14618,7 +14619,7 @@
         <v>21096</v>
       </c>
       <c r="B402" s="22" t="str">
-        <f>VLOOKUP(A402,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>輪竹　真弥</v>
       </c>
       <c r="C402" s="26">
@@ -14652,7 +14653,7 @@
         <v>21096</v>
       </c>
       <c r="B403" s="22" t="str">
-        <f>VLOOKUP(A403,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>輪竹　真弥</v>
       </c>
       <c r="C403" s="26">
@@ -14686,7 +14687,7 @@
         <v>21096</v>
       </c>
       <c r="B404" s="22" t="str">
-        <f>VLOOKUP(A404,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>輪竹　真弥</v>
       </c>
       <c r="C404" s="50">
@@ -14709,7 +14710,7 @@
         <v>21096</v>
       </c>
       <c r="B405" s="22" t="str">
-        <f>VLOOKUP(A405,$A$3:$B$14,2,FALSE)</f>
+        <f t="shared" si="44"/>
         <v>輪竹　真弥</v>
       </c>
       <c r="C405" s="50">
